--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-PROD.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-PROD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/test_plans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A65A86-691F-404A-8EC5-6988E7EAE393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6185F65-0382-AE42-BDF2-828BC48A4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1640" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression Test Plan" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>PASS:</t>
-  </si>
-  <si>
-    <t>Feedback feature sends an email and the email is received</t>
   </si>
   <si>
     <t>FAIL:</t>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>iOS</t>
+  </si>
+  <si>
+    <t>Mobile App Support request creates SNOW ticket and email confirmation received</t>
   </si>
 </sst>
 </file>
@@ -742,15 +742,6 @@
   <dxfs count="31">
     <dxf>
       <alignment horizontal="left" vertical="center" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" indent="0"/>
@@ -808,6 +799,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" indent="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -918,26 +918,26 @@
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Pull Requests 2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:V977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="17"/>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="55"/>
       <c r="D9" s="31"/>
       <c r="E9" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="31"/>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="55"/>
       <c r="D10" s="31"/>
       <c r="E10" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="31"/>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="55"/>
       <c r="D11" s="31"/>
       <c r="E11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="31"/>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="46"/>
       <c r="D12" s="31"/>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="57"/>
       <c r="D13" s="31"/>
       <c r="E13" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="31"/>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="55"/>
       <c r="D14" s="31"/>
       <c r="E14" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="55"/>
       <c r="D15" s="31"/>
       <c r="E15" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="55"/>
       <c r="D16" s="31"/>
       <c r="E16" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="57"/>
       <c r="D17" s="31"/>
       <c r="E17" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="55"/>
       <c r="D18" s="31"/>
       <c r="E18" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="55"/>
       <c r="D19" s="1"/>
       <c r="E19" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="55"/>
       <c r="D20" s="1"/>
       <c r="E20" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="55"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="55"/>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="55"/>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="55"/>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="55"/>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="55"/>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="58"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="59"/>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="58"/>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="55"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="55"/>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="55"/>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="55"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="55"/>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="55"/>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="55"/>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="55"/>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="55"/>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="55"/>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="57"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="55"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="55"/>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="57"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="55"/>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="55"/>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="55"/>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="57"/>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="55"/>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="55"/>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="55"/>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="55"/>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="57"/>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="1"/>
@@ -24779,21 +24779,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -24976,24 +24961,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9955847E-8391-40AA-9894-0F9AB4282A14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25010,4 +24993,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-PROD.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B6185F65-0382-AE42-BDF2-828BC48A4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ADD7381-7BAB-4BC7-B0DF-D5B883D846A3}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B6185F65-0382-AE42-BDF2-828BC48A4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5BDA20-CEAA-45AC-941F-F036D3B5735E}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1640" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t xml:space="preserve">Regression Test Plan - ${APP_VERSION} - ${BUILD_ENV}  </t>
   </si>
@@ -53,7 +53,24 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Time and Date Testing Was Completed:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between 6 AM and 5 PM, Mon-Fri)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
+    </r>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -170,7 +187,13 @@
     <t>Home view logged in as Student displays Student cards</t>
   </si>
   <si>
+    <t>Services Duty Cycle</t>
+  </si>
+  <si>
     <t>Home view logged in as Staff displays Staff cards</t>
+  </si>
+  <si>
+    <t>Platform Duty Cycle - ESR iPaaS - UCSD Collab (atlassian.net)</t>
   </si>
   <si>
     <t>Native Scanner (not logged in) link navigates to Profile SSO Login</t>
@@ -268,12 +291,15 @@
   <si>
     <t>PASS / FAIL</t>
   </si>
+  <si>
+    <t>Notified test requester that you have completed testing (mark this box green after you have informed the test requester that you have finished testing)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -374,6 +400,17 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="13">
@@ -598,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -685,9 +722,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -701,9 +735,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,11 +791,23 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1184,28 +1227,28 @@
   <dimension ref="A1:V977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="96.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="46" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="51.95">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11"/>
@@ -1229,13 +1272,13 @@
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -1259,21 +1302,21 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
@@ -1297,13 +1340,13 @@
       <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="28"/>
       <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
@@ -1328,12 +1371,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="47"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="28"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1"/>
@@ -1358,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="47"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1382,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1"/>
       <c r="E7" s="21" t="s">
         <v>17</v>
@@ -1410,7 +1453,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="47"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="1"/>
       <c r="E8" s="27" t="s">
         <v>19</v>
@@ -1438,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="47"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="1"/>
       <c r="E9" s="27" t="s">
         <v>21</v>
@@ -1466,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="47"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="1"/>
       <c r="E10" s="27" t="s">
         <v>23</v>
@@ -1494,7 +1537,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="1"/>
       <c r="E11" s="27" t="s">
         <v>25</v>
@@ -1522,7 +1565,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="1"/>
       <c r="E12" s="27"/>
       <c r="F12" s="10"/>
@@ -1544,10 +1587,10 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="28.5">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="D13" s="1"/>
       <c r="E13" s="21" t="s">
         <v>28</v>
@@ -1575,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1"/>
       <c r="E14" s="29" t="s">
         <v>30</v>
@@ -1603,9 +1646,9 @@
         <v>31</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="47"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="10"/>
@@ -1631,9 +1674,9 @@
         <v>33</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="47"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="42" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="10"/>
@@ -1659,9 +1702,9 @@
         <v>35</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="47"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="41" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="1"/>
@@ -1686,9 +1729,9 @@
         <v>37</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="42" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="1"/>
@@ -1714,9 +1757,9 @@
         <v>39</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="47"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="41" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1"/>
@@ -1742,9 +1785,9 @@
         <v>41</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="47"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="42" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1"/>
@@ -1770,10 +1813,12 @@
         <v>43</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1793,13 +1838,15 @@
     </row>
     <row r="22" spans="1:22" ht="14.25">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="56"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1819,10 +1866,10 @@
     </row>
     <row r="23" spans="1:22" ht="14.25">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1845,10 +1892,10 @@
     </row>
     <row r="24" spans="1:22" ht="14.25">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="47"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1870,10 +1917,10 @@
     </row>
     <row r="25" spans="1:22" ht="14.25">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="47"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1895,88 +1942,88 @@
     </row>
     <row r="26" spans="1:22" ht="14.25">
       <c r="A26" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="14.25">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="14.25">
-      <c r="A28" s="38" t="s">
-        <v>50</v>
+      <c r="A28" s="36" t="s">
+        <v>52</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="14.25">
-      <c r="A29" s="39" t="s">
-        <v>51</v>
+      <c r="A29" s="37" t="s">
+        <v>53</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1997,11 +2044,11 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="14.25">
-      <c r="A30" s="38" t="s">
-        <v>52</v>
+      <c r="A30" s="36" t="s">
+        <v>54</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2023,10 +2070,10 @@
     </row>
     <row r="31" spans="1:22" ht="14.25">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="47"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2049,10 +2096,10 @@
     </row>
     <row r="32" spans="1:22" ht="14.25">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="47"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2075,10 +2122,10 @@
     </row>
     <row r="33" spans="1:22" ht="14.25">
       <c r="A33" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="47"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2101,10 +2148,10 @@
     </row>
     <row r="34" spans="1:22" ht="14.25">
       <c r="A34" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="47"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2127,10 +2174,10 @@
     </row>
     <row r="35" spans="1:22" ht="14.25">
       <c r="A35" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="47"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2153,10 +2200,10 @@
     </row>
     <row r="36" spans="1:22" ht="14.25">
       <c r="A36" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="47"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2179,10 +2226,10 @@
     </row>
     <row r="37" spans="1:22" ht="14.25">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="47"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2204,10 +2251,10 @@
     </row>
     <row r="38" spans="1:22" ht="14.25">
       <c r="A38" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="47"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2230,10 +2277,10 @@
     </row>
     <row r="39" spans="1:22" ht="14.25">
       <c r="A39" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="47"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2256,10 +2303,10 @@
     </row>
     <row r="40" spans="1:22" ht="14.25">
       <c r="A40" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="47"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2282,10 +2329,10 @@
     </row>
     <row r="41" spans="1:22" ht="14.25">
       <c r="A41" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="49"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2308,10 +2355,10 @@
     </row>
     <row r="42" spans="1:22" ht="14.25">
       <c r="A42" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="47"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2334,10 +2381,10 @@
     </row>
     <row r="43" spans="1:22" ht="14.25">
       <c r="A43" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="47"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2360,10 +2407,10 @@
     </row>
     <row r="44" spans="1:22" ht="14.25">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="49"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2386,10 +2433,10 @@
     </row>
     <row r="45" spans="1:22" ht="14.25">
       <c r="A45" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="47"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2412,10 +2459,10 @@
     </row>
     <row r="46" spans="1:22" ht="14.25">
       <c r="A46" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="47"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2438,10 +2485,10 @@
     </row>
     <row r="47" spans="1:22" ht="14.25">
       <c r="A47" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="47"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2464,10 +2511,10 @@
     </row>
     <row r="48" spans="1:22" ht="14.25">
       <c r="A48" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="49"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2490,10 +2537,10 @@
     </row>
     <row r="49" spans="1:22" ht="14.25">
       <c r="A49" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="47"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2516,10 +2563,10 @@
     </row>
     <row r="50" spans="1:22" ht="14.25">
       <c r="A50" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="47"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2542,10 +2589,10 @@
     </row>
     <row r="51" spans="1:22" ht="14.25">
       <c r="A51" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="47"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2568,10 +2615,10 @@
     </row>
     <row r="52" spans="1:22" ht="14.25">
       <c r="A52" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="47"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2594,10 +2641,10 @@
     </row>
     <row r="53" spans="1:22" ht="14.25">
       <c r="A53" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="49"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2619,11 +2666,11 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="14.25">
-      <c r="A54" s="30" t="s">
-        <v>76</v>
+      <c r="A54" s="57" t="s">
+        <v>78</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2644,10 +2691,12 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:22" ht="14.25">
-      <c r="A55" s="6"/>
+    <row r="55" spans="1:22" ht="28.5">
+      <c r="A55" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="47"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2671,7 +2720,7 @@
     <row r="56" spans="1:22" ht="18.75">
       <c r="A56" s="15"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="47"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2695,7 +2744,7 @@
     <row r="57" spans="1:22" ht="14.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="47"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2719,7 +2768,7 @@
     <row r="58" spans="1:22" ht="14.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="47"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2743,7 +2792,7 @@
     <row r="59" spans="1:22" ht="14.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="47"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2767,7 +2816,7 @@
     <row r="60" spans="1:22" ht="14.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="47"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2791,7 +2840,7 @@
     <row r="61" spans="1:22" ht="14.25">
       <c r="A61" s="6"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="47"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2815,7 +2864,7 @@
     <row r="62" spans="1:22">
       <c r="A62" s="6"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="47"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2839,7 +2888,7 @@
     <row r="63" spans="1:22">
       <c r="A63" s="6"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="47"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2863,7 +2912,7 @@
     <row r="64" spans="1:22">
       <c r="A64" s="6"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="47"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2887,7 +2936,7 @@
     <row r="65" spans="1:22">
       <c r="A65" s="6"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="47"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2911,7 +2960,7 @@
     <row r="66" spans="1:22">
       <c r="A66" s="6"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="47"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2935,7 +2984,7 @@
     <row r="67" spans="1:22">
       <c r="A67" s="6"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="47"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2959,7 +3008,7 @@
     <row r="68" spans="1:22">
       <c r="A68" s="6"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="47"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2983,7 +3032,7 @@
     <row r="69" spans="1:22">
       <c r="A69" s="6"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="47"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3007,7 +3056,7 @@
     <row r="70" spans="1:22">
       <c r="A70" s="6"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="47"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3031,7 +3080,7 @@
     <row r="71" spans="1:22">
       <c r="A71" s="6"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="47"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3055,7 +3104,7 @@
     <row r="72" spans="1:22">
       <c r="A72" s="6"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="47"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3079,7 +3128,7 @@
     <row r="73" spans="1:22">
       <c r="A73" s="6"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="47"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3103,7 +3152,7 @@
     <row r="74" spans="1:22">
       <c r="A74" s="6"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="47"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3127,7 +3176,7 @@
     <row r="75" spans="1:22">
       <c r="A75" s="6"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="47"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3151,7 +3200,7 @@
     <row r="76" spans="1:22">
       <c r="A76" s="6"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="47"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3175,7 +3224,7 @@
     <row r="77" spans="1:22">
       <c r="A77" s="6"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="47"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3199,7 +3248,7 @@
     <row r="78" spans="1:22">
       <c r="A78" s="6"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="47"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3223,7 +3272,7 @@
     <row r="79" spans="1:22">
       <c r="A79" s="6"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="47"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3247,7 +3296,7 @@
     <row r="80" spans="1:22">
       <c r="A80" s="6"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="47"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3271,7 +3320,7 @@
     <row r="81" spans="1:22">
       <c r="A81" s="6"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="47"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3295,7 +3344,7 @@
     <row r="82" spans="1:22">
       <c r="A82" s="6"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="47"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -3319,7 +3368,7 @@
     <row r="83" spans="1:22">
       <c r="A83" s="6"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="47"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -3343,7 +3392,7 @@
     <row r="84" spans="1:22">
       <c r="A84" s="6"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="47"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3367,7 +3416,7 @@
     <row r="85" spans="1:22">
       <c r="A85" s="6"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="47"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3391,7 +3440,7 @@
     <row r="86" spans="1:22">
       <c r="A86" s="6"/>
       <c r="B86" s="13"/>
-      <c r="C86" s="47"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3415,7 +3464,7 @@
     <row r="87" spans="1:22">
       <c r="A87" s="6"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="47"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3439,7 +3488,7 @@
     <row r="88" spans="1:22">
       <c r="A88" s="6"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="47"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3463,7 +3512,7 @@
     <row r="89" spans="1:22">
       <c r="A89" s="6"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="47"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3487,7 +3536,7 @@
     <row r="90" spans="1:22">
       <c r="A90" s="6"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="47"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3511,7 +3560,7 @@
     <row r="91" spans="1:22">
       <c r="A91" s="6"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="47"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -3535,7 +3584,7 @@
     <row r="92" spans="1:22">
       <c r="A92" s="6"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="47"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3559,7 +3608,7 @@
     <row r="93" spans="1:22">
       <c r="A93" s="6"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="47"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3583,7 +3632,7 @@
     <row r="94" spans="1:22">
       <c r="A94" s="6"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="47"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3607,7 +3656,7 @@
     <row r="95" spans="1:22">
       <c r="A95" s="6"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="47"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3631,7 +3680,7 @@
     <row r="96" spans="1:22">
       <c r="A96" s="6"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="47"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3655,7 +3704,7 @@
     <row r="97" spans="1:22">
       <c r="A97" s="6"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="47"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3679,7 +3728,7 @@
     <row r="98" spans="1:22">
       <c r="A98" s="6"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="47"/>
+      <c r="C98" s="45"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3703,7 +3752,7 @@
     <row r="99" spans="1:22">
       <c r="A99" s="6"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="47"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3727,7 +3776,7 @@
     <row r="100" spans="1:22">
       <c r="A100" s="6"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="47"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3751,7 +3800,7 @@
     <row r="101" spans="1:22">
       <c r="A101" s="6"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="47"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3775,7 +3824,7 @@
     <row r="102" spans="1:22">
       <c r="A102" s="6"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="47"/>
+      <c r="C102" s="45"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3799,7 +3848,7 @@
     <row r="103" spans="1:22">
       <c r="A103" s="6"/>
       <c r="B103" s="13"/>
-      <c r="C103" s="47"/>
+      <c r="C103" s="45"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3823,7 +3872,7 @@
     <row r="104" spans="1:22">
       <c r="A104" s="6"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="47"/>
+      <c r="C104" s="45"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3847,7 +3896,7 @@
     <row r="105" spans="1:22">
       <c r="A105" s="6"/>
       <c r="B105" s="13"/>
-      <c r="C105" s="47"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3871,7 +3920,7 @@
     <row r="106" spans="1:22">
       <c r="A106" s="6"/>
       <c r="B106" s="13"/>
-      <c r="C106" s="47"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3895,7 +3944,7 @@
     <row r="107" spans="1:22">
       <c r="A107" s="6"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="47"/>
+      <c r="C107" s="45"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3919,7 +3968,7 @@
     <row r="108" spans="1:22">
       <c r="A108" s="6"/>
       <c r="B108" s="13"/>
-      <c r="C108" s="47"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3943,7 +3992,7 @@
     <row r="109" spans="1:22">
       <c r="A109" s="6"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="47"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3967,7 +4016,7 @@
     <row r="110" spans="1:22">
       <c r="A110" s="6"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="47"/>
+      <c r="C110" s="45"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3991,7 +4040,7 @@
     <row r="111" spans="1:22">
       <c r="A111" s="6"/>
       <c r="B111" s="13"/>
-      <c r="C111" s="47"/>
+      <c r="C111" s="45"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -4015,7 +4064,7 @@
     <row r="112" spans="1:22">
       <c r="A112" s="6"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="47"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -4039,7 +4088,7 @@
     <row r="113" spans="1:22">
       <c r="A113" s="6"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="47"/>
+      <c r="C113" s="45"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -4063,7 +4112,7 @@
     <row r="114" spans="1:22">
       <c r="A114" s="6"/>
       <c r="B114" s="13"/>
-      <c r="C114" s="47"/>
+      <c r="C114" s="45"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4087,7 +4136,7 @@
     <row r="115" spans="1:22">
       <c r="A115" s="6"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="47"/>
+      <c r="C115" s="45"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -4111,7 +4160,7 @@
     <row r="116" spans="1:22">
       <c r="A116" s="6"/>
       <c r="B116" s="13"/>
-      <c r="C116" s="47"/>
+      <c r="C116" s="45"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -4135,7 +4184,7 @@
     <row r="117" spans="1:22">
       <c r="A117" s="6"/>
       <c r="B117" s="13"/>
-      <c r="C117" s="47"/>
+      <c r="C117" s="45"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -4159,7 +4208,7 @@
     <row r="118" spans="1:22">
       <c r="A118" s="6"/>
       <c r="B118" s="13"/>
-      <c r="C118" s="47"/>
+      <c r="C118" s="45"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -4183,7 +4232,7 @@
     <row r="119" spans="1:22">
       <c r="A119" s="6"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="47"/>
+      <c r="C119" s="45"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -4207,7 +4256,7 @@
     <row r="120" spans="1:22">
       <c r="A120" s="6"/>
       <c r="B120" s="13"/>
-      <c r="C120" s="47"/>
+      <c r="C120" s="45"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -4231,7 +4280,7 @@
     <row r="121" spans="1:22">
       <c r="A121" s="6"/>
       <c r="B121" s="13"/>
-      <c r="C121" s="47"/>
+      <c r="C121" s="45"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -4255,7 +4304,7 @@
     <row r="122" spans="1:22">
       <c r="A122" s="6"/>
       <c r="B122" s="13"/>
-      <c r="C122" s="47"/>
+      <c r="C122" s="45"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -4279,7 +4328,7 @@
     <row r="123" spans="1:22">
       <c r="A123" s="6"/>
       <c r="B123" s="13"/>
-      <c r="C123" s="47"/>
+      <c r="C123" s="45"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -4303,7 +4352,7 @@
     <row r="124" spans="1:22">
       <c r="A124" s="6"/>
       <c r="B124" s="13"/>
-      <c r="C124" s="47"/>
+      <c r="C124" s="45"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -4327,7 +4376,7 @@
     <row r="125" spans="1:22">
       <c r="A125" s="6"/>
       <c r="B125" s="13"/>
-      <c r="C125" s="47"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -4351,7 +4400,7 @@
     <row r="126" spans="1:22">
       <c r="A126" s="6"/>
       <c r="B126" s="13"/>
-      <c r="C126" s="47"/>
+      <c r="C126" s="45"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -4375,7 +4424,7 @@
     <row r="127" spans="1:22">
       <c r="A127" s="6"/>
       <c r="B127" s="13"/>
-      <c r="C127" s="47"/>
+      <c r="C127" s="45"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -4399,7 +4448,7 @@
     <row r="128" spans="1:22">
       <c r="A128" s="6"/>
       <c r="B128" s="13"/>
-      <c r="C128" s="47"/>
+      <c r="C128" s="45"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -4423,7 +4472,7 @@
     <row r="129" spans="1:22">
       <c r="A129" s="6"/>
       <c r="B129" s="13"/>
-      <c r="C129" s="47"/>
+      <c r="C129" s="45"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -4447,7 +4496,7 @@
     <row r="130" spans="1:22">
       <c r="A130" s="6"/>
       <c r="B130" s="13"/>
-      <c r="C130" s="47"/>
+      <c r="C130" s="45"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -4471,7 +4520,7 @@
     <row r="131" spans="1:22">
       <c r="A131" s="6"/>
       <c r="B131" s="13"/>
-      <c r="C131" s="47"/>
+      <c r="C131" s="45"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -4495,7 +4544,7 @@
     <row r="132" spans="1:22">
       <c r="A132" s="6"/>
       <c r="B132" s="13"/>
-      <c r="C132" s="47"/>
+      <c r="C132" s="45"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4519,7 +4568,7 @@
     <row r="133" spans="1:22">
       <c r="A133" s="6"/>
       <c r="B133" s="13"/>
-      <c r="C133" s="47"/>
+      <c r="C133" s="45"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4543,7 +4592,7 @@
     <row r="134" spans="1:22">
       <c r="A134" s="6"/>
       <c r="B134" s="13"/>
-      <c r="C134" s="47"/>
+      <c r="C134" s="45"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -4567,7 +4616,7 @@
     <row r="135" spans="1:22">
       <c r="A135" s="6"/>
       <c r="B135" s="13"/>
-      <c r="C135" s="47"/>
+      <c r="C135" s="45"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -4591,7 +4640,7 @@
     <row r="136" spans="1:22">
       <c r="A136" s="6"/>
       <c r="B136" s="13"/>
-      <c r="C136" s="47"/>
+      <c r="C136" s="45"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -4615,7 +4664,7 @@
     <row r="137" spans="1:22">
       <c r="A137" s="6"/>
       <c r="B137" s="13"/>
-      <c r="C137" s="47"/>
+      <c r="C137" s="45"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4639,7 +4688,7 @@
     <row r="138" spans="1:22">
       <c r="A138" s="6"/>
       <c r="B138" s="13"/>
-      <c r="C138" s="47"/>
+      <c r="C138" s="45"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -4663,7 +4712,7 @@
     <row r="139" spans="1:22">
       <c r="A139" s="6"/>
       <c r="B139" s="13"/>
-      <c r="C139" s="47"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4687,7 +4736,7 @@
     <row r="140" spans="1:22">
       <c r="A140" s="6"/>
       <c r="B140" s="13"/>
-      <c r="C140" s="47"/>
+      <c r="C140" s="45"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -4711,7 +4760,7 @@
     <row r="141" spans="1:22">
       <c r="A141" s="6"/>
       <c r="B141" s="13"/>
-      <c r="C141" s="47"/>
+      <c r="C141" s="45"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -4735,7 +4784,7 @@
     <row r="142" spans="1:22">
       <c r="A142" s="6"/>
       <c r="B142" s="13"/>
-      <c r="C142" s="47"/>
+      <c r="C142" s="45"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -4759,7 +4808,7 @@
     <row r="143" spans="1:22">
       <c r="A143" s="6"/>
       <c r="B143" s="13"/>
-      <c r="C143" s="47"/>
+      <c r="C143" s="45"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -4783,7 +4832,7 @@
     <row r="144" spans="1:22">
       <c r="A144" s="6"/>
       <c r="B144" s="13"/>
-      <c r="C144" s="47"/>
+      <c r="C144" s="45"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -4807,7 +4856,7 @@
     <row r="145" spans="1:22">
       <c r="A145" s="6"/>
       <c r="B145" s="13"/>
-      <c r="C145" s="47"/>
+      <c r="C145" s="45"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -4831,7 +4880,7 @@
     <row r="146" spans="1:22">
       <c r="A146" s="6"/>
       <c r="B146" s="13"/>
-      <c r="C146" s="47"/>
+      <c r="C146" s="45"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4855,7 +4904,7 @@
     <row r="147" spans="1:22">
       <c r="A147" s="6"/>
       <c r="B147" s="13"/>
-      <c r="C147" s="47"/>
+      <c r="C147" s="45"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -4879,7 +4928,7 @@
     <row r="148" spans="1:22">
       <c r="A148" s="6"/>
       <c r="B148" s="13"/>
-      <c r="C148" s="47"/>
+      <c r="C148" s="45"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4903,7 +4952,7 @@
     <row r="149" spans="1:22">
       <c r="A149" s="6"/>
       <c r="B149" s="13"/>
-      <c r="C149" s="47"/>
+      <c r="C149" s="45"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -4927,7 +4976,7 @@
     <row r="150" spans="1:22">
       <c r="A150" s="6"/>
       <c r="B150" s="13"/>
-      <c r="C150" s="47"/>
+      <c r="C150" s="45"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -4951,7 +5000,7 @@
     <row r="151" spans="1:22">
       <c r="A151" s="6"/>
       <c r="B151" s="13"/>
-      <c r="C151" s="47"/>
+      <c r="C151" s="45"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -4975,7 +5024,7 @@
     <row r="152" spans="1:22">
       <c r="A152" s="6"/>
       <c r="B152" s="13"/>
-      <c r="C152" s="47"/>
+      <c r="C152" s="45"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -4999,7 +5048,7 @@
     <row r="153" spans="1:22">
       <c r="A153" s="6"/>
       <c r="B153" s="13"/>
-      <c r="C153" s="47"/>
+      <c r="C153" s="45"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -5023,7 +5072,7 @@
     <row r="154" spans="1:22">
       <c r="A154" s="6"/>
       <c r="B154" s="13"/>
-      <c r="C154" s="47"/>
+      <c r="C154" s="45"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -5047,7 +5096,7 @@
     <row r="155" spans="1:22">
       <c r="A155" s="6"/>
       <c r="B155" s="13"/>
-      <c r="C155" s="47"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -5071,7 +5120,7 @@
     <row r="156" spans="1:22">
       <c r="A156" s="6"/>
       <c r="B156" s="13"/>
-      <c r="C156" s="47"/>
+      <c r="C156" s="45"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -5095,7 +5144,7 @@
     <row r="157" spans="1:22">
       <c r="A157" s="6"/>
       <c r="B157" s="13"/>
-      <c r="C157" s="47"/>
+      <c r="C157" s="45"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -5119,7 +5168,7 @@
     <row r="158" spans="1:22">
       <c r="A158" s="6"/>
       <c r="B158" s="13"/>
-      <c r="C158" s="47"/>
+      <c r="C158" s="45"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -5143,7 +5192,7 @@
     <row r="159" spans="1:22">
       <c r="A159" s="6"/>
       <c r="B159" s="13"/>
-      <c r="C159" s="47"/>
+      <c r="C159" s="45"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -5167,7 +5216,7 @@
     <row r="160" spans="1:22">
       <c r="A160" s="6"/>
       <c r="B160" s="13"/>
-      <c r="C160" s="47"/>
+      <c r="C160" s="45"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -5191,7 +5240,7 @@
     <row r="161" spans="1:22">
       <c r="A161" s="6"/>
       <c r="B161" s="13"/>
-      <c r="C161" s="47"/>
+      <c r="C161" s="45"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -5215,7 +5264,7 @@
     <row r="162" spans="1:22">
       <c r="A162" s="6"/>
       <c r="B162" s="13"/>
-      <c r="C162" s="47"/>
+      <c r="C162" s="45"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -5239,7 +5288,7 @@
     <row r="163" spans="1:22">
       <c r="A163" s="6"/>
       <c r="B163" s="13"/>
-      <c r="C163" s="47"/>
+      <c r="C163" s="45"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -5263,7 +5312,7 @@
     <row r="164" spans="1:22">
       <c r="A164" s="6"/>
       <c r="B164" s="13"/>
-      <c r="C164" s="47"/>
+      <c r="C164" s="45"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -5287,7 +5336,7 @@
     <row r="165" spans="1:22">
       <c r="A165" s="6"/>
       <c r="B165" s="13"/>
-      <c r="C165" s="47"/>
+      <c r="C165" s="45"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -5311,7 +5360,7 @@
     <row r="166" spans="1:22">
       <c r="A166" s="6"/>
       <c r="B166" s="13"/>
-      <c r="C166" s="47"/>
+      <c r="C166" s="45"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -5335,7 +5384,7 @@
     <row r="167" spans="1:22">
       <c r="A167" s="6"/>
       <c r="B167" s="13"/>
-      <c r="C167" s="47"/>
+      <c r="C167" s="45"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -5359,7 +5408,7 @@
     <row r="168" spans="1:22">
       <c r="A168" s="6"/>
       <c r="B168" s="13"/>
-      <c r="C168" s="47"/>
+      <c r="C168" s="45"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -5383,7 +5432,7 @@
     <row r="169" spans="1:22">
       <c r="A169" s="6"/>
       <c r="B169" s="13"/>
-      <c r="C169" s="47"/>
+      <c r="C169" s="45"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -5407,7 +5456,7 @@
     <row r="170" spans="1:22">
       <c r="A170" s="6"/>
       <c r="B170" s="13"/>
-      <c r="C170" s="47"/>
+      <c r="C170" s="45"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -5431,7 +5480,7 @@
     <row r="171" spans="1:22">
       <c r="A171" s="6"/>
       <c r="B171" s="13"/>
-      <c r="C171" s="47"/>
+      <c r="C171" s="45"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -5455,7 +5504,7 @@
     <row r="172" spans="1:22">
       <c r="A172" s="6"/>
       <c r="B172" s="13"/>
-      <c r="C172" s="47"/>
+      <c r="C172" s="45"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -5479,7 +5528,7 @@
     <row r="173" spans="1:22">
       <c r="A173" s="6"/>
       <c r="B173" s="13"/>
-      <c r="C173" s="47"/>
+      <c r="C173" s="45"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5503,7 +5552,7 @@
     <row r="174" spans="1:22">
       <c r="A174" s="6"/>
       <c r="B174" s="13"/>
-      <c r="C174" s="47"/>
+      <c r="C174" s="45"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -5527,7 +5576,7 @@
     <row r="175" spans="1:22">
       <c r="A175" s="6"/>
       <c r="B175" s="13"/>
-      <c r="C175" s="47"/>
+      <c r="C175" s="45"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -5551,7 +5600,7 @@
     <row r="176" spans="1:22">
       <c r="A176" s="6"/>
       <c r="B176" s="13"/>
-      <c r="C176" s="47"/>
+      <c r="C176" s="45"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -5575,7 +5624,7 @@
     <row r="177" spans="1:22">
       <c r="A177" s="6"/>
       <c r="B177" s="13"/>
-      <c r="C177" s="47"/>
+      <c r="C177" s="45"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -5599,7 +5648,7 @@
     <row r="178" spans="1:22">
       <c r="A178" s="6"/>
       <c r="B178" s="13"/>
-      <c r="C178" s="47"/>
+      <c r="C178" s="45"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -5623,7 +5672,7 @@
     <row r="179" spans="1:22">
       <c r="A179" s="6"/>
       <c r="B179" s="13"/>
-      <c r="C179" s="47"/>
+      <c r="C179" s="45"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -5647,7 +5696,7 @@
     <row r="180" spans="1:22">
       <c r="A180" s="6"/>
       <c r="B180" s="13"/>
-      <c r="C180" s="47"/>
+      <c r="C180" s="45"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -5671,7 +5720,7 @@
     <row r="181" spans="1:22">
       <c r="A181" s="6"/>
       <c r="B181" s="13"/>
-      <c r="C181" s="47"/>
+      <c r="C181" s="45"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -5695,7 +5744,7 @@
     <row r="182" spans="1:22">
       <c r="A182" s="6"/>
       <c r="B182" s="13"/>
-      <c r="C182" s="47"/>
+      <c r="C182" s="45"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -5719,7 +5768,7 @@
     <row r="183" spans="1:22">
       <c r="A183" s="6"/>
       <c r="B183" s="13"/>
-      <c r="C183" s="47"/>
+      <c r="C183" s="45"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -5743,7 +5792,7 @@
     <row r="184" spans="1:22">
       <c r="A184" s="6"/>
       <c r="B184" s="13"/>
-      <c r="C184" s="47"/>
+      <c r="C184" s="45"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -5767,7 +5816,7 @@
     <row r="185" spans="1:22">
       <c r="A185" s="6"/>
       <c r="B185" s="13"/>
-      <c r="C185" s="47"/>
+      <c r="C185" s="45"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -5791,7 +5840,7 @@
     <row r="186" spans="1:22">
       <c r="A186" s="6"/>
       <c r="B186" s="13"/>
-      <c r="C186" s="47"/>
+      <c r="C186" s="45"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -5815,7 +5864,7 @@
     <row r="187" spans="1:22">
       <c r="A187" s="6"/>
       <c r="B187" s="13"/>
-      <c r="C187" s="47"/>
+      <c r="C187" s="45"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -5839,7 +5888,7 @@
     <row r="188" spans="1:22">
       <c r="A188" s="6"/>
       <c r="B188" s="13"/>
-      <c r="C188" s="47"/>
+      <c r="C188" s="45"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -5863,7 +5912,7 @@
     <row r="189" spans="1:22">
       <c r="A189" s="6"/>
       <c r="B189" s="13"/>
-      <c r="C189" s="47"/>
+      <c r="C189" s="45"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -5887,7 +5936,7 @@
     <row r="190" spans="1:22">
       <c r="A190" s="6"/>
       <c r="B190" s="13"/>
-      <c r="C190" s="47"/>
+      <c r="C190" s="45"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -5911,7 +5960,7 @@
     <row r="191" spans="1:22">
       <c r="A191" s="6"/>
       <c r="B191" s="13"/>
-      <c r="C191" s="47"/>
+      <c r="C191" s="45"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -5935,7 +5984,7 @@
     <row r="192" spans="1:22">
       <c r="A192" s="6"/>
       <c r="B192" s="13"/>
-      <c r="C192" s="47"/>
+      <c r="C192" s="45"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -5959,7 +6008,7 @@
     <row r="193" spans="1:22">
       <c r="A193" s="6"/>
       <c r="B193" s="13"/>
-      <c r="C193" s="47"/>
+      <c r="C193" s="45"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -5983,7 +6032,7 @@
     <row r="194" spans="1:22">
       <c r="A194" s="6"/>
       <c r="B194" s="13"/>
-      <c r="C194" s="47"/>
+      <c r="C194" s="45"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -6007,7 +6056,7 @@
     <row r="195" spans="1:22">
       <c r="A195" s="6"/>
       <c r="B195" s="13"/>
-      <c r="C195" s="47"/>
+      <c r="C195" s="45"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -6031,7 +6080,7 @@
     <row r="196" spans="1:22">
       <c r="A196" s="6"/>
       <c r="B196" s="13"/>
-      <c r="C196" s="47"/>
+      <c r="C196" s="45"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -6055,7 +6104,7 @@
     <row r="197" spans="1:22">
       <c r="A197" s="6"/>
       <c r="B197" s="13"/>
-      <c r="C197" s="47"/>
+      <c r="C197" s="45"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -6079,7 +6128,7 @@
     <row r="198" spans="1:22">
       <c r="A198" s="6"/>
       <c r="B198" s="13"/>
-      <c r="C198" s="47"/>
+      <c r="C198" s="45"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -6103,7 +6152,7 @@
     <row r="199" spans="1:22">
       <c r="A199" s="6"/>
       <c r="B199" s="13"/>
-      <c r="C199" s="47"/>
+      <c r="C199" s="45"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -6127,7 +6176,7 @@
     <row r="200" spans="1:22">
       <c r="A200" s="6"/>
       <c r="B200" s="13"/>
-      <c r="C200" s="47"/>
+      <c r="C200" s="45"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -6151,7 +6200,7 @@
     <row r="201" spans="1:22">
       <c r="A201" s="6"/>
       <c r="B201" s="13"/>
-      <c r="C201" s="47"/>
+      <c r="C201" s="45"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -6175,7 +6224,7 @@
     <row r="202" spans="1:22">
       <c r="A202" s="6"/>
       <c r="B202" s="13"/>
-      <c r="C202" s="47"/>
+      <c r="C202" s="45"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -6199,7 +6248,7 @@
     <row r="203" spans="1:22">
       <c r="A203" s="6"/>
       <c r="B203" s="13"/>
-      <c r="C203" s="47"/>
+      <c r="C203" s="45"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -6223,7 +6272,7 @@
     <row r="204" spans="1:22">
       <c r="A204" s="6"/>
       <c r="B204" s="13"/>
-      <c r="C204" s="47"/>
+      <c r="C204" s="45"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -6247,7 +6296,7 @@
     <row r="205" spans="1:22">
       <c r="A205" s="6"/>
       <c r="B205" s="13"/>
-      <c r="C205" s="47"/>
+      <c r="C205" s="45"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -6271,7 +6320,7 @@
     <row r="206" spans="1:22">
       <c r="A206" s="6"/>
       <c r="B206" s="13"/>
-      <c r="C206" s="47"/>
+      <c r="C206" s="45"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -6295,7 +6344,7 @@
     <row r="207" spans="1:22">
       <c r="A207" s="6"/>
       <c r="B207" s="13"/>
-      <c r="C207" s="47"/>
+      <c r="C207" s="45"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -6319,7 +6368,7 @@
     <row r="208" spans="1:22">
       <c r="A208" s="6"/>
       <c r="B208" s="13"/>
-      <c r="C208" s="47"/>
+      <c r="C208" s="45"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -6343,7 +6392,7 @@
     <row r="209" spans="1:22">
       <c r="A209" s="6"/>
       <c r="B209" s="13"/>
-      <c r="C209" s="47"/>
+      <c r="C209" s="45"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -6367,7 +6416,7 @@
     <row r="210" spans="1:22">
       <c r="A210" s="6"/>
       <c r="B210" s="13"/>
-      <c r="C210" s="47"/>
+      <c r="C210" s="45"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -6391,7 +6440,7 @@
     <row r="211" spans="1:22">
       <c r="A211" s="6"/>
       <c r="B211" s="13"/>
-      <c r="C211" s="47"/>
+      <c r="C211" s="45"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -6415,7 +6464,7 @@
     <row r="212" spans="1:22">
       <c r="A212" s="6"/>
       <c r="B212" s="13"/>
-      <c r="C212" s="47"/>
+      <c r="C212" s="45"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -6439,7 +6488,7 @@
     <row r="213" spans="1:22">
       <c r="A213" s="6"/>
       <c r="B213" s="13"/>
-      <c r="C213" s="47"/>
+      <c r="C213" s="45"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -6463,7 +6512,7 @@
     <row r="214" spans="1:22">
       <c r="A214" s="6"/>
       <c r="B214" s="13"/>
-      <c r="C214" s="47"/>
+      <c r="C214" s="45"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -6487,7 +6536,7 @@
     <row r="215" spans="1:22">
       <c r="A215" s="6"/>
       <c r="B215" s="13"/>
-      <c r="C215" s="47"/>
+      <c r="C215" s="45"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -6511,7 +6560,7 @@
     <row r="216" spans="1:22">
       <c r="A216" s="6"/>
       <c r="B216" s="13"/>
-      <c r="C216" s="47"/>
+      <c r="C216" s="45"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -6535,7 +6584,7 @@
     <row r="217" spans="1:22">
       <c r="A217" s="6"/>
       <c r="B217" s="13"/>
-      <c r="C217" s="47"/>
+      <c r="C217" s="45"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -6559,7 +6608,7 @@
     <row r="218" spans="1:22">
       <c r="A218" s="6"/>
       <c r="B218" s="13"/>
-      <c r="C218" s="47"/>
+      <c r="C218" s="45"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -6583,7 +6632,7 @@
     <row r="219" spans="1:22">
       <c r="A219" s="6"/>
       <c r="B219" s="13"/>
-      <c r="C219" s="47"/>
+      <c r="C219" s="45"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -6607,7 +6656,7 @@
     <row r="220" spans="1:22">
       <c r="A220" s="6"/>
       <c r="B220" s="13"/>
-      <c r="C220" s="47"/>
+      <c r="C220" s="45"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -6631,7 +6680,7 @@
     <row r="221" spans="1:22">
       <c r="A221" s="6"/>
       <c r="B221" s="13"/>
-      <c r="C221" s="47"/>
+      <c r="C221" s="45"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -6655,7 +6704,7 @@
     <row r="222" spans="1:22">
       <c r="A222" s="6"/>
       <c r="B222" s="13"/>
-      <c r="C222" s="47"/>
+      <c r="C222" s="45"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -6679,7 +6728,7 @@
     <row r="223" spans="1:22">
       <c r="A223" s="6"/>
       <c r="B223" s="13"/>
-      <c r="C223" s="47"/>
+      <c r="C223" s="45"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -6703,7 +6752,7 @@
     <row r="224" spans="1:22">
       <c r="A224" s="6"/>
       <c r="B224" s="13"/>
-      <c r="C224" s="47"/>
+      <c r="C224" s="45"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -6727,7 +6776,7 @@
     <row r="225" spans="1:22">
       <c r="A225" s="6"/>
       <c r="B225" s="13"/>
-      <c r="C225" s="47"/>
+      <c r="C225" s="45"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -6751,7 +6800,7 @@
     <row r="226" spans="1:22">
       <c r="A226" s="6"/>
       <c r="B226" s="13"/>
-      <c r="C226" s="47"/>
+      <c r="C226" s="45"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -6775,7 +6824,7 @@
     <row r="227" spans="1:22">
       <c r="A227" s="6"/>
       <c r="B227" s="13"/>
-      <c r="C227" s="47"/>
+      <c r="C227" s="45"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6799,7 +6848,7 @@
     <row r="228" spans="1:22">
       <c r="A228" s="6"/>
       <c r="B228" s="13"/>
-      <c r="C228" s="47"/>
+      <c r="C228" s="45"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -6823,7 +6872,7 @@
     <row r="229" spans="1:22">
       <c r="A229" s="6"/>
       <c r="B229" s="13"/>
-      <c r="C229" s="47"/>
+      <c r="C229" s="45"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -6847,7 +6896,7 @@
     <row r="230" spans="1:22">
       <c r="A230" s="6"/>
       <c r="B230" s="13"/>
-      <c r="C230" s="47"/>
+      <c r="C230" s="45"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -6871,7 +6920,7 @@
     <row r="231" spans="1:22">
       <c r="A231" s="6"/>
       <c r="B231" s="13"/>
-      <c r="C231" s="47"/>
+      <c r="C231" s="45"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -6895,7 +6944,7 @@
     <row r="232" spans="1:22">
       <c r="A232" s="6"/>
       <c r="B232" s="13"/>
-      <c r="C232" s="47"/>
+      <c r="C232" s="45"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -6919,7 +6968,7 @@
     <row r="233" spans="1:22">
       <c r="A233" s="6"/>
       <c r="B233" s="13"/>
-      <c r="C233" s="47"/>
+      <c r="C233" s="45"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -6943,7 +6992,7 @@
     <row r="234" spans="1:22">
       <c r="A234" s="6"/>
       <c r="B234" s="13"/>
-      <c r="C234" s="47"/>
+      <c r="C234" s="45"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -6967,7 +7016,7 @@
     <row r="235" spans="1:22">
       <c r="A235" s="6"/>
       <c r="B235" s="13"/>
-      <c r="C235" s="47"/>
+      <c r="C235" s="45"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -6991,7 +7040,7 @@
     <row r="236" spans="1:22">
       <c r="A236" s="6"/>
       <c r="B236" s="13"/>
-      <c r="C236" s="47"/>
+      <c r="C236" s="45"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -7015,7 +7064,7 @@
     <row r="237" spans="1:22">
       <c r="A237" s="6"/>
       <c r="B237" s="13"/>
-      <c r="C237" s="47"/>
+      <c r="C237" s="45"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -7039,7 +7088,7 @@
     <row r="238" spans="1:22">
       <c r="A238" s="6"/>
       <c r="B238" s="13"/>
-      <c r="C238" s="47"/>
+      <c r="C238" s="45"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -7063,7 +7112,7 @@
     <row r="239" spans="1:22">
       <c r="A239" s="6"/>
       <c r="B239" s="13"/>
-      <c r="C239" s="47"/>
+      <c r="C239" s="45"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -7087,7 +7136,7 @@
     <row r="240" spans="1:22">
       <c r="A240" s="6"/>
       <c r="B240" s="13"/>
-      <c r="C240" s="47"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -7111,7 +7160,7 @@
     <row r="241" spans="1:22">
       <c r="A241" s="6"/>
       <c r="B241" s="13"/>
-      <c r="C241" s="47"/>
+      <c r="C241" s="45"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -7135,7 +7184,7 @@
     <row r="242" spans="1:22">
       <c r="A242" s="6"/>
       <c r="B242" s="13"/>
-      <c r="C242" s="47"/>
+      <c r="C242" s="45"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -7159,7 +7208,7 @@
     <row r="243" spans="1:22">
       <c r="A243" s="6"/>
       <c r="B243" s="13"/>
-      <c r="C243" s="47"/>
+      <c r="C243" s="45"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -7183,7 +7232,7 @@
     <row r="244" spans="1:22">
       <c r="A244" s="6"/>
       <c r="B244" s="13"/>
-      <c r="C244" s="47"/>
+      <c r="C244" s="45"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -7207,7 +7256,7 @@
     <row r="245" spans="1:22">
       <c r="A245" s="6"/>
       <c r="B245" s="13"/>
-      <c r="C245" s="47"/>
+      <c r="C245" s="45"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -7231,7 +7280,7 @@
     <row r="246" spans="1:22">
       <c r="A246" s="6"/>
       <c r="B246" s="13"/>
-      <c r="C246" s="47"/>
+      <c r="C246" s="45"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -7255,7 +7304,7 @@
     <row r="247" spans="1:22">
       <c r="A247" s="6"/>
       <c r="B247" s="13"/>
-      <c r="C247" s="47"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -7279,7 +7328,7 @@
     <row r="248" spans="1:22">
       <c r="A248" s="6"/>
       <c r="B248" s="13"/>
-      <c r="C248" s="47"/>
+      <c r="C248" s="45"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -7303,7 +7352,7 @@
     <row r="249" spans="1:22">
       <c r="A249" s="6"/>
       <c r="B249" s="13"/>
-      <c r="C249" s="47"/>
+      <c r="C249" s="45"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -7327,7 +7376,7 @@
     <row r="250" spans="1:22">
       <c r="A250" s="6"/>
       <c r="B250" s="13"/>
-      <c r="C250" s="47"/>
+      <c r="C250" s="45"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -7351,7 +7400,7 @@
     <row r="251" spans="1:22">
       <c r="A251" s="6"/>
       <c r="B251" s="13"/>
-      <c r="C251" s="47"/>
+      <c r="C251" s="45"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -7375,7 +7424,7 @@
     <row r="252" spans="1:22">
       <c r="A252" s="6"/>
       <c r="B252" s="13"/>
-      <c r="C252" s="47"/>
+      <c r="C252" s="45"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -7399,7 +7448,7 @@
     <row r="253" spans="1:22">
       <c r="A253" s="6"/>
       <c r="B253" s="13"/>
-      <c r="C253" s="47"/>
+      <c r="C253" s="45"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -7423,7 +7472,7 @@
     <row r="254" spans="1:22">
       <c r="A254" s="6"/>
       <c r="B254" s="13"/>
-      <c r="C254" s="47"/>
+      <c r="C254" s="45"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -7447,7 +7496,7 @@
     <row r="255" spans="1:22">
       <c r="A255" s="6"/>
       <c r="B255" s="13"/>
-      <c r="C255" s="47"/>
+      <c r="C255" s="45"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -7471,7 +7520,7 @@
     <row r="256" spans="1:22">
       <c r="A256" s="6"/>
       <c r="B256" s="13"/>
-      <c r="C256" s="47"/>
+      <c r="C256" s="45"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -7495,7 +7544,7 @@
     <row r="257" spans="1:22">
       <c r="A257" s="6"/>
       <c r="B257" s="13"/>
-      <c r="C257" s="47"/>
+      <c r="C257" s="45"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -7519,7 +7568,7 @@
     <row r="258" spans="1:22">
       <c r="A258" s="6"/>
       <c r="B258" s="13"/>
-      <c r="C258" s="47"/>
+      <c r="C258" s="45"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -7543,7 +7592,7 @@
     <row r="259" spans="1:22">
       <c r="A259" s="6"/>
       <c r="B259" s="13"/>
-      <c r="C259" s="47"/>
+      <c r="C259" s="45"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -7567,7 +7616,7 @@
     <row r="260" spans="1:22">
       <c r="A260" s="6"/>
       <c r="B260" s="13"/>
-      <c r="C260" s="47"/>
+      <c r="C260" s="45"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -7591,7 +7640,7 @@
     <row r="261" spans="1:22">
       <c r="A261" s="6"/>
       <c r="B261" s="13"/>
-      <c r="C261" s="47"/>
+      <c r="C261" s="45"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -7615,7 +7664,7 @@
     <row r="262" spans="1:22">
       <c r="A262" s="6"/>
       <c r="B262" s="13"/>
-      <c r="C262" s="47"/>
+      <c r="C262" s="45"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -7639,7 +7688,7 @@
     <row r="263" spans="1:22">
       <c r="A263" s="6"/>
       <c r="B263" s="13"/>
-      <c r="C263" s="47"/>
+      <c r="C263" s="45"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -7663,7 +7712,7 @@
     <row r="264" spans="1:22">
       <c r="A264" s="6"/>
       <c r="B264" s="13"/>
-      <c r="C264" s="47"/>
+      <c r="C264" s="45"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -7687,7 +7736,7 @@
     <row r="265" spans="1:22">
       <c r="A265" s="6"/>
       <c r="B265" s="13"/>
-      <c r="C265" s="47"/>
+      <c r="C265" s="45"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -7711,7 +7760,7 @@
     <row r="266" spans="1:22">
       <c r="A266" s="6"/>
       <c r="B266" s="13"/>
-      <c r="C266" s="47"/>
+      <c r="C266" s="45"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -7735,7 +7784,7 @@
     <row r="267" spans="1:22">
       <c r="A267" s="6"/>
       <c r="B267" s="13"/>
-      <c r="C267" s="47"/>
+      <c r="C267" s="45"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -7759,7 +7808,7 @@
     <row r="268" spans="1:22">
       <c r="A268" s="6"/>
       <c r="B268" s="13"/>
-      <c r="C268" s="47"/>
+      <c r="C268" s="45"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -7783,7 +7832,7 @@
     <row r="269" spans="1:22">
       <c r="A269" s="6"/>
       <c r="B269" s="13"/>
-      <c r="C269" s="47"/>
+      <c r="C269" s="45"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -7807,7 +7856,7 @@
     <row r="270" spans="1:22">
       <c r="A270" s="6"/>
       <c r="B270" s="13"/>
-      <c r="C270" s="47"/>
+      <c r="C270" s="45"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -7831,7 +7880,7 @@
     <row r="271" spans="1:22">
       <c r="A271" s="6"/>
       <c r="B271" s="13"/>
-      <c r="C271" s="47"/>
+      <c r="C271" s="45"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -7855,7 +7904,7 @@
     <row r="272" spans="1:22">
       <c r="A272" s="6"/>
       <c r="B272" s="13"/>
-      <c r="C272" s="47"/>
+      <c r="C272" s="45"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -7879,7 +7928,7 @@
     <row r="273" spans="1:22">
       <c r="A273" s="6"/>
       <c r="B273" s="13"/>
-      <c r="C273" s="47"/>
+      <c r="C273" s="45"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -7903,7 +7952,7 @@
     <row r="274" spans="1:22">
       <c r="A274" s="6"/>
       <c r="B274" s="13"/>
-      <c r="C274" s="47"/>
+      <c r="C274" s="45"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -7927,7 +7976,7 @@
     <row r="275" spans="1:22">
       <c r="A275" s="6"/>
       <c r="B275" s="13"/>
-      <c r="C275" s="47"/>
+      <c r="C275" s="45"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -7951,7 +8000,7 @@
     <row r="276" spans="1:22">
       <c r="A276" s="6"/>
       <c r="B276" s="13"/>
-      <c r="C276" s="47"/>
+      <c r="C276" s="45"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -7975,7 +8024,7 @@
     <row r="277" spans="1:22">
       <c r="A277" s="6"/>
       <c r="B277" s="13"/>
-      <c r="C277" s="47"/>
+      <c r="C277" s="45"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -7999,7 +8048,7 @@
     <row r="278" spans="1:22">
       <c r="A278" s="6"/>
       <c r="B278" s="13"/>
-      <c r="C278" s="47"/>
+      <c r="C278" s="45"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -8023,7 +8072,7 @@
     <row r="279" spans="1:22">
       <c r="A279" s="6"/>
       <c r="B279" s="13"/>
-      <c r="C279" s="47"/>
+      <c r="C279" s="45"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -8047,7 +8096,7 @@
     <row r="280" spans="1:22">
       <c r="A280" s="6"/>
       <c r="B280" s="13"/>
-      <c r="C280" s="47"/>
+      <c r="C280" s="45"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -8071,7 +8120,7 @@
     <row r="281" spans="1:22">
       <c r="A281" s="6"/>
       <c r="B281" s="13"/>
-      <c r="C281" s="47"/>
+      <c r="C281" s="45"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -8095,7 +8144,7 @@
     <row r="282" spans="1:22">
       <c r="A282" s="6"/>
       <c r="B282" s="13"/>
-      <c r="C282" s="47"/>
+      <c r="C282" s="45"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -8119,7 +8168,7 @@
     <row r="283" spans="1:22">
       <c r="A283" s="6"/>
       <c r="B283" s="13"/>
-      <c r="C283" s="47"/>
+      <c r="C283" s="45"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -8143,7 +8192,7 @@
     <row r="284" spans="1:22">
       <c r="A284" s="6"/>
       <c r="B284" s="13"/>
-      <c r="C284" s="47"/>
+      <c r="C284" s="45"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -8167,7 +8216,7 @@
     <row r="285" spans="1:22">
       <c r="A285" s="6"/>
       <c r="B285" s="13"/>
-      <c r="C285" s="47"/>
+      <c r="C285" s="45"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -8191,7 +8240,7 @@
     <row r="286" spans="1:22">
       <c r="A286" s="6"/>
       <c r="B286" s="13"/>
-      <c r="C286" s="47"/>
+      <c r="C286" s="45"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -8215,7 +8264,7 @@
     <row r="287" spans="1:22">
       <c r="A287" s="6"/>
       <c r="B287" s="13"/>
-      <c r="C287" s="47"/>
+      <c r="C287" s="45"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -8239,7 +8288,7 @@
     <row r="288" spans="1:22">
       <c r="A288" s="6"/>
       <c r="B288" s="13"/>
-      <c r="C288" s="47"/>
+      <c r="C288" s="45"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -8263,7 +8312,7 @@
     <row r="289" spans="1:22">
       <c r="A289" s="6"/>
       <c r="B289" s="13"/>
-      <c r="C289" s="47"/>
+      <c r="C289" s="45"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -8287,7 +8336,7 @@
     <row r="290" spans="1:22">
       <c r="A290" s="6"/>
       <c r="B290" s="13"/>
-      <c r="C290" s="47"/>
+      <c r="C290" s="45"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -8311,7 +8360,7 @@
     <row r="291" spans="1:22">
       <c r="A291" s="6"/>
       <c r="B291" s="13"/>
-      <c r="C291" s="47"/>
+      <c r="C291" s="45"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -8335,7 +8384,7 @@
     <row r="292" spans="1:22">
       <c r="A292" s="6"/>
       <c r="B292" s="13"/>
-      <c r="C292" s="47"/>
+      <c r="C292" s="45"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -8359,7 +8408,7 @@
     <row r="293" spans="1:22">
       <c r="A293" s="6"/>
       <c r="B293" s="13"/>
-      <c r="C293" s="47"/>
+      <c r="C293" s="45"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -8383,7 +8432,7 @@
     <row r="294" spans="1:22">
       <c r="A294" s="6"/>
       <c r="B294" s="13"/>
-      <c r="C294" s="47"/>
+      <c r="C294" s="45"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -8407,7 +8456,7 @@
     <row r="295" spans="1:22">
       <c r="A295" s="6"/>
       <c r="B295" s="13"/>
-      <c r="C295" s="47"/>
+      <c r="C295" s="45"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -8431,7 +8480,7 @@
     <row r="296" spans="1:22">
       <c r="A296" s="6"/>
       <c r="B296" s="13"/>
-      <c r="C296" s="47"/>
+      <c r="C296" s="45"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -8455,7 +8504,7 @@
     <row r="297" spans="1:22">
       <c r="A297" s="6"/>
       <c r="B297" s="13"/>
-      <c r="C297" s="47"/>
+      <c r="C297" s="45"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -8479,7 +8528,7 @@
     <row r="298" spans="1:22">
       <c r="A298" s="6"/>
       <c r="B298" s="13"/>
-      <c r="C298" s="47"/>
+      <c r="C298" s="45"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -8503,7 +8552,7 @@
     <row r="299" spans="1:22">
       <c r="A299" s="6"/>
       <c r="B299" s="13"/>
-      <c r="C299" s="47"/>
+      <c r="C299" s="45"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -8527,7 +8576,7 @@
     <row r="300" spans="1:22">
       <c r="A300" s="6"/>
       <c r="B300" s="13"/>
-      <c r="C300" s="47"/>
+      <c r="C300" s="45"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -8551,7 +8600,7 @@
     <row r="301" spans="1:22">
       <c r="A301" s="6"/>
       <c r="B301" s="13"/>
-      <c r="C301" s="47"/>
+      <c r="C301" s="45"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -8575,7 +8624,7 @@
     <row r="302" spans="1:22">
       <c r="A302" s="6"/>
       <c r="B302" s="13"/>
-      <c r="C302" s="47"/>
+      <c r="C302" s="45"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -8599,7 +8648,7 @@
     <row r="303" spans="1:22">
       <c r="A303" s="6"/>
       <c r="B303" s="13"/>
-      <c r="C303" s="47"/>
+      <c r="C303" s="45"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -8623,7 +8672,7 @@
     <row r="304" spans="1:22">
       <c r="A304" s="6"/>
       <c r="B304" s="13"/>
-      <c r="C304" s="47"/>
+      <c r="C304" s="45"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -8647,7 +8696,7 @@
     <row r="305" spans="1:22">
       <c r="A305" s="6"/>
       <c r="B305" s="13"/>
-      <c r="C305" s="47"/>
+      <c r="C305" s="45"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -8671,7 +8720,7 @@
     <row r="306" spans="1:22">
       <c r="A306" s="6"/>
       <c r="B306" s="13"/>
-      <c r="C306" s="47"/>
+      <c r="C306" s="45"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -8695,7 +8744,7 @@
     <row r="307" spans="1:22">
       <c r="A307" s="6"/>
       <c r="B307" s="13"/>
-      <c r="C307" s="47"/>
+      <c r="C307" s="45"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -8719,7 +8768,7 @@
     <row r="308" spans="1:22">
       <c r="A308" s="6"/>
       <c r="B308" s="13"/>
-      <c r="C308" s="47"/>
+      <c r="C308" s="45"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -8743,7 +8792,7 @@
     <row r="309" spans="1:22">
       <c r="A309" s="6"/>
       <c r="B309" s="13"/>
-      <c r="C309" s="47"/>
+      <c r="C309" s="45"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -8767,7 +8816,7 @@
     <row r="310" spans="1:22">
       <c r="A310" s="6"/>
       <c r="B310" s="13"/>
-      <c r="C310" s="47"/>
+      <c r="C310" s="45"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -8791,7 +8840,7 @@
     <row r="311" spans="1:22">
       <c r="A311" s="6"/>
       <c r="B311" s="13"/>
-      <c r="C311" s="47"/>
+      <c r="C311" s="45"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -8815,7 +8864,7 @@
     <row r="312" spans="1:22">
       <c r="A312" s="6"/>
       <c r="B312" s="13"/>
-      <c r="C312" s="47"/>
+      <c r="C312" s="45"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -8839,7 +8888,7 @@
     <row r="313" spans="1:22">
       <c r="A313" s="6"/>
       <c r="B313" s="13"/>
-      <c r="C313" s="47"/>
+      <c r="C313" s="45"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -8863,7 +8912,7 @@
     <row r="314" spans="1:22">
       <c r="A314" s="6"/>
       <c r="B314" s="13"/>
-      <c r="C314" s="47"/>
+      <c r="C314" s="45"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -8887,7 +8936,7 @@
     <row r="315" spans="1:22">
       <c r="A315" s="6"/>
       <c r="B315" s="13"/>
-      <c r="C315" s="47"/>
+      <c r="C315" s="45"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -8911,7 +8960,7 @@
     <row r="316" spans="1:22">
       <c r="A316" s="6"/>
       <c r="B316" s="13"/>
-      <c r="C316" s="47"/>
+      <c r="C316" s="45"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -8935,7 +8984,7 @@
     <row r="317" spans="1:22">
       <c r="A317" s="6"/>
       <c r="B317" s="13"/>
-      <c r="C317" s="47"/>
+      <c r="C317" s="45"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -8959,7 +9008,7 @@
     <row r="318" spans="1:22">
       <c r="A318" s="6"/>
       <c r="B318" s="13"/>
-      <c r="C318" s="47"/>
+      <c r="C318" s="45"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -8983,7 +9032,7 @@
     <row r="319" spans="1:22">
       <c r="A319" s="6"/>
       <c r="B319" s="13"/>
-      <c r="C319" s="47"/>
+      <c r="C319" s="45"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -9007,7 +9056,7 @@
     <row r="320" spans="1:22">
       <c r="A320" s="6"/>
       <c r="B320" s="13"/>
-      <c r="C320" s="47"/>
+      <c r="C320" s="45"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -9031,7 +9080,7 @@
     <row r="321" spans="1:22">
       <c r="A321" s="6"/>
       <c r="B321" s="13"/>
-      <c r="C321" s="47"/>
+      <c r="C321" s="45"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -9055,7 +9104,7 @@
     <row r="322" spans="1:22">
       <c r="A322" s="6"/>
       <c r="B322" s="13"/>
-      <c r="C322" s="47"/>
+      <c r="C322" s="45"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -9079,7 +9128,7 @@
     <row r="323" spans="1:22">
       <c r="A323" s="6"/>
       <c r="B323" s="13"/>
-      <c r="C323" s="47"/>
+      <c r="C323" s="45"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -9103,7 +9152,7 @@
     <row r="324" spans="1:22">
       <c r="A324" s="6"/>
       <c r="B324" s="13"/>
-      <c r="C324" s="47"/>
+      <c r="C324" s="45"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -9127,7 +9176,7 @@
     <row r="325" spans="1:22">
       <c r="A325" s="6"/>
       <c r="B325" s="13"/>
-      <c r="C325" s="47"/>
+      <c r="C325" s="45"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -9151,7 +9200,7 @@
     <row r="326" spans="1:22">
       <c r="A326" s="6"/>
       <c r="B326" s="13"/>
-      <c r="C326" s="47"/>
+      <c r="C326" s="45"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -9175,7 +9224,7 @@
     <row r="327" spans="1:22">
       <c r="A327" s="6"/>
       <c r="B327" s="13"/>
-      <c r="C327" s="47"/>
+      <c r="C327" s="45"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -9199,7 +9248,7 @@
     <row r="328" spans="1:22">
       <c r="A328" s="6"/>
       <c r="B328" s="13"/>
-      <c r="C328" s="47"/>
+      <c r="C328" s="45"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -9223,7 +9272,7 @@
     <row r="329" spans="1:22">
       <c r="A329" s="6"/>
       <c r="B329" s="13"/>
-      <c r="C329" s="47"/>
+      <c r="C329" s="45"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -9247,7 +9296,7 @@
     <row r="330" spans="1:22">
       <c r="A330" s="6"/>
       <c r="B330" s="13"/>
-      <c r="C330" s="47"/>
+      <c r="C330" s="45"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -9271,7 +9320,7 @@
     <row r="331" spans="1:22">
       <c r="A331" s="6"/>
       <c r="B331" s="13"/>
-      <c r="C331" s="47"/>
+      <c r="C331" s="45"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -9295,7 +9344,7 @@
     <row r="332" spans="1:22">
       <c r="A332" s="6"/>
       <c r="B332" s="13"/>
-      <c r="C332" s="47"/>
+      <c r="C332" s="45"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -9319,7 +9368,7 @@
     <row r="333" spans="1:22">
       <c r="A333" s="6"/>
       <c r="B333" s="13"/>
-      <c r="C333" s="47"/>
+      <c r="C333" s="45"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -9343,7 +9392,7 @@
     <row r="334" spans="1:22">
       <c r="A334" s="6"/>
       <c r="B334" s="13"/>
-      <c r="C334" s="47"/>
+      <c r="C334" s="45"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -9367,7 +9416,7 @@
     <row r="335" spans="1:22">
       <c r="A335" s="6"/>
       <c r="B335" s="13"/>
-      <c r="C335" s="47"/>
+      <c r="C335" s="45"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -9391,7 +9440,7 @@
     <row r="336" spans="1:22">
       <c r="A336" s="6"/>
       <c r="B336" s="13"/>
-      <c r="C336" s="47"/>
+      <c r="C336" s="45"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -9415,7 +9464,7 @@
     <row r="337" spans="1:22">
       <c r="A337" s="6"/>
       <c r="B337" s="13"/>
-      <c r="C337" s="47"/>
+      <c r="C337" s="45"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -9439,7 +9488,7 @@
     <row r="338" spans="1:22">
       <c r="A338" s="6"/>
       <c r="B338" s="13"/>
-      <c r="C338" s="47"/>
+      <c r="C338" s="45"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -9463,7 +9512,7 @@
     <row r="339" spans="1:22">
       <c r="A339" s="6"/>
       <c r="B339" s="13"/>
-      <c r="C339" s="47"/>
+      <c r="C339" s="45"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -9487,7 +9536,7 @@
     <row r="340" spans="1:22">
       <c r="A340" s="6"/>
       <c r="B340" s="13"/>
-      <c r="C340" s="47"/>
+      <c r="C340" s="45"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -9511,7 +9560,7 @@
     <row r="341" spans="1:22">
       <c r="A341" s="6"/>
       <c r="B341" s="13"/>
-      <c r="C341" s="47"/>
+      <c r="C341" s="45"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -9535,7 +9584,7 @@
     <row r="342" spans="1:22">
       <c r="A342" s="6"/>
       <c r="B342" s="13"/>
-      <c r="C342" s="47"/>
+      <c r="C342" s="45"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -9559,7 +9608,7 @@
     <row r="343" spans="1:22">
       <c r="A343" s="6"/>
       <c r="B343" s="13"/>
-      <c r="C343" s="47"/>
+      <c r="C343" s="45"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -9583,7 +9632,7 @@
     <row r="344" spans="1:22">
       <c r="A344" s="6"/>
       <c r="B344" s="13"/>
-      <c r="C344" s="47"/>
+      <c r="C344" s="45"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -9607,7 +9656,7 @@
     <row r="345" spans="1:22">
       <c r="A345" s="6"/>
       <c r="B345" s="13"/>
-      <c r="C345" s="47"/>
+      <c r="C345" s="45"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -9631,7 +9680,7 @@
     <row r="346" spans="1:22">
       <c r="A346" s="6"/>
       <c r="B346" s="13"/>
-      <c r="C346" s="47"/>
+      <c r="C346" s="45"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -9655,7 +9704,7 @@
     <row r="347" spans="1:22">
       <c r="A347" s="6"/>
       <c r="B347" s="13"/>
-      <c r="C347" s="47"/>
+      <c r="C347" s="45"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -9679,7 +9728,7 @@
     <row r="348" spans="1:22">
       <c r="A348" s="6"/>
       <c r="B348" s="13"/>
-      <c r="C348" s="47"/>
+      <c r="C348" s="45"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -9703,7 +9752,7 @@
     <row r="349" spans="1:22">
       <c r="A349" s="6"/>
       <c r="B349" s="13"/>
-      <c r="C349" s="47"/>
+      <c r="C349" s="45"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -9727,7 +9776,7 @@
     <row r="350" spans="1:22">
       <c r="A350" s="6"/>
       <c r="B350" s="13"/>
-      <c r="C350" s="47"/>
+      <c r="C350" s="45"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
@@ -9751,7 +9800,7 @@
     <row r="351" spans="1:22">
       <c r="A351" s="6"/>
       <c r="B351" s="13"/>
-      <c r="C351" s="47"/>
+      <c r="C351" s="45"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
@@ -9775,7 +9824,7 @@
     <row r="352" spans="1:22">
       <c r="A352" s="6"/>
       <c r="B352" s="13"/>
-      <c r="C352" s="47"/>
+      <c r="C352" s="45"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
@@ -9799,7 +9848,7 @@
     <row r="353" spans="1:22">
       <c r="A353" s="6"/>
       <c r="B353" s="13"/>
-      <c r="C353" s="47"/>
+      <c r="C353" s="45"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
@@ -9823,7 +9872,7 @@
     <row r="354" spans="1:22">
       <c r="A354" s="6"/>
       <c r="B354" s="13"/>
-      <c r="C354" s="47"/>
+      <c r="C354" s="45"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -9847,7 +9896,7 @@
     <row r="355" spans="1:22">
       <c r="A355" s="6"/>
       <c r="B355" s="13"/>
-      <c r="C355" s="47"/>
+      <c r="C355" s="45"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
@@ -9871,7 +9920,7 @@
     <row r="356" spans="1:22">
       <c r="A356" s="6"/>
       <c r="B356" s="13"/>
-      <c r="C356" s="47"/>
+      <c r="C356" s="45"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
@@ -9895,7 +9944,7 @@
     <row r="357" spans="1:22">
       <c r="A357" s="6"/>
       <c r="B357" s="13"/>
-      <c r="C357" s="47"/>
+      <c r="C357" s="45"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
@@ -9919,7 +9968,7 @@
     <row r="358" spans="1:22">
       <c r="A358" s="6"/>
       <c r="B358" s="13"/>
-      <c r="C358" s="47"/>
+      <c r="C358" s="45"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -9943,7 +9992,7 @@
     <row r="359" spans="1:22">
       <c r="A359" s="6"/>
       <c r="B359" s="13"/>
-      <c r="C359" s="47"/>
+      <c r="C359" s="45"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -9967,7 +10016,7 @@
     <row r="360" spans="1:22">
       <c r="A360" s="6"/>
       <c r="B360" s="13"/>
-      <c r="C360" s="47"/>
+      <c r="C360" s="45"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -9991,7 +10040,7 @@
     <row r="361" spans="1:22">
       <c r="A361" s="6"/>
       <c r="B361" s="13"/>
-      <c r="C361" s="47"/>
+      <c r="C361" s="45"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -10015,7 +10064,7 @@
     <row r="362" spans="1:22">
       <c r="A362" s="6"/>
       <c r="B362" s="13"/>
-      <c r="C362" s="47"/>
+      <c r="C362" s="45"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -10039,7 +10088,7 @@
     <row r="363" spans="1:22">
       <c r="A363" s="6"/>
       <c r="B363" s="13"/>
-      <c r="C363" s="47"/>
+      <c r="C363" s="45"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -10063,7 +10112,7 @@
     <row r="364" spans="1:22">
       <c r="A364" s="6"/>
       <c r="B364" s="13"/>
-      <c r="C364" s="47"/>
+      <c r="C364" s="45"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -10087,7 +10136,7 @@
     <row r="365" spans="1:22">
       <c r="A365" s="6"/>
       <c r="B365" s="13"/>
-      <c r="C365" s="47"/>
+      <c r="C365" s="45"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -10111,7 +10160,7 @@
     <row r="366" spans="1:22">
       <c r="A366" s="6"/>
       <c r="B366" s="13"/>
-      <c r="C366" s="47"/>
+      <c r="C366" s="45"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -10135,7 +10184,7 @@
     <row r="367" spans="1:22">
       <c r="A367" s="6"/>
       <c r="B367" s="13"/>
-      <c r="C367" s="47"/>
+      <c r="C367" s="45"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -10159,7 +10208,7 @@
     <row r="368" spans="1:22">
       <c r="A368" s="6"/>
       <c r="B368" s="13"/>
-      <c r="C368" s="47"/>
+      <c r="C368" s="45"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -10183,7 +10232,7 @@
     <row r="369" spans="1:22">
       <c r="A369" s="6"/>
       <c r="B369" s="13"/>
-      <c r="C369" s="47"/>
+      <c r="C369" s="45"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -10207,7 +10256,7 @@
     <row r="370" spans="1:22">
       <c r="A370" s="6"/>
       <c r="B370" s="13"/>
-      <c r="C370" s="47"/>
+      <c r="C370" s="45"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -10231,7 +10280,7 @@
     <row r="371" spans="1:22">
       <c r="A371" s="6"/>
       <c r="B371" s="13"/>
-      <c r="C371" s="47"/>
+      <c r="C371" s="45"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -10255,7 +10304,7 @@
     <row r="372" spans="1:22">
       <c r="A372" s="6"/>
       <c r="B372" s="13"/>
-      <c r="C372" s="47"/>
+      <c r="C372" s="45"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -10279,7 +10328,7 @@
     <row r="373" spans="1:22">
       <c r="A373" s="6"/>
       <c r="B373" s="13"/>
-      <c r="C373" s="47"/>
+      <c r="C373" s="45"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -10303,7 +10352,7 @@
     <row r="374" spans="1:22">
       <c r="A374" s="6"/>
       <c r="B374" s="13"/>
-      <c r="C374" s="47"/>
+      <c r="C374" s="45"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -10327,7 +10376,7 @@
     <row r="375" spans="1:22">
       <c r="A375" s="6"/>
       <c r="B375" s="13"/>
-      <c r="C375" s="47"/>
+      <c r="C375" s="45"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -10351,7 +10400,7 @@
     <row r="376" spans="1:22">
       <c r="A376" s="6"/>
       <c r="B376" s="13"/>
-      <c r="C376" s="47"/>
+      <c r="C376" s="45"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -10375,7 +10424,7 @@
     <row r="377" spans="1:22">
       <c r="A377" s="6"/>
       <c r="B377" s="13"/>
-      <c r="C377" s="47"/>
+      <c r="C377" s="45"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -10399,7 +10448,7 @@
     <row r="378" spans="1:22">
       <c r="A378" s="6"/>
       <c r="B378" s="13"/>
-      <c r="C378" s="47"/>
+      <c r="C378" s="45"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -10423,7 +10472,7 @@
     <row r="379" spans="1:22">
       <c r="A379" s="6"/>
       <c r="B379" s="13"/>
-      <c r="C379" s="47"/>
+      <c r="C379" s="45"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -10447,7 +10496,7 @@
     <row r="380" spans="1:22">
       <c r="A380" s="6"/>
       <c r="B380" s="13"/>
-      <c r="C380" s="47"/>
+      <c r="C380" s="45"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -10471,7 +10520,7 @@
     <row r="381" spans="1:22">
       <c r="A381" s="6"/>
       <c r="B381" s="13"/>
-      <c r="C381" s="47"/>
+      <c r="C381" s="45"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -10495,7 +10544,7 @@
     <row r="382" spans="1:22">
       <c r="A382" s="6"/>
       <c r="B382" s="13"/>
-      <c r="C382" s="47"/>
+      <c r="C382" s="45"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -10519,7 +10568,7 @@
     <row r="383" spans="1:22">
       <c r="A383" s="6"/>
       <c r="B383" s="13"/>
-      <c r="C383" s="47"/>
+      <c r="C383" s="45"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -10543,7 +10592,7 @@
     <row r="384" spans="1:22">
       <c r="A384" s="6"/>
       <c r="B384" s="13"/>
-      <c r="C384" s="47"/>
+      <c r="C384" s="45"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -10567,7 +10616,7 @@
     <row r="385" spans="1:22">
       <c r="A385" s="6"/>
       <c r="B385" s="13"/>
-      <c r="C385" s="47"/>
+      <c r="C385" s="45"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -10591,7 +10640,7 @@
     <row r="386" spans="1:22">
       <c r="A386" s="6"/>
       <c r="B386" s="13"/>
-      <c r="C386" s="47"/>
+      <c r="C386" s="45"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -10615,7 +10664,7 @@
     <row r="387" spans="1:22">
       <c r="A387" s="6"/>
       <c r="B387" s="13"/>
-      <c r="C387" s="47"/>
+      <c r="C387" s="45"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -10639,7 +10688,7 @@
     <row r="388" spans="1:22">
       <c r="A388" s="6"/>
       <c r="B388" s="13"/>
-      <c r="C388" s="47"/>
+      <c r="C388" s="45"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -10663,7 +10712,7 @@
     <row r="389" spans="1:22">
       <c r="A389" s="6"/>
       <c r="B389" s="13"/>
-      <c r="C389" s="47"/>
+      <c r="C389" s="45"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -10687,7 +10736,7 @@
     <row r="390" spans="1:22">
       <c r="A390" s="6"/>
       <c r="B390" s="13"/>
-      <c r="C390" s="47"/>
+      <c r="C390" s="45"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -10711,7 +10760,7 @@
     <row r="391" spans="1:22">
       <c r="A391" s="6"/>
       <c r="B391" s="13"/>
-      <c r="C391" s="47"/>
+      <c r="C391" s="45"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -10735,7 +10784,7 @@
     <row r="392" spans="1:22">
       <c r="A392" s="6"/>
       <c r="B392" s="13"/>
-      <c r="C392" s="47"/>
+      <c r="C392" s="45"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -10759,7 +10808,7 @@
     <row r="393" spans="1:22">
       <c r="A393" s="6"/>
       <c r="B393" s="13"/>
-      <c r="C393" s="47"/>
+      <c r="C393" s="45"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -10783,7 +10832,7 @@
     <row r="394" spans="1:22">
       <c r="A394" s="6"/>
       <c r="B394" s="13"/>
-      <c r="C394" s="47"/>
+      <c r="C394" s="45"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -10807,7 +10856,7 @@
     <row r="395" spans="1:22">
       <c r="A395" s="6"/>
       <c r="B395" s="13"/>
-      <c r="C395" s="47"/>
+      <c r="C395" s="45"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -10831,7 +10880,7 @@
     <row r="396" spans="1:22">
       <c r="A396" s="6"/>
       <c r="B396" s="13"/>
-      <c r="C396" s="47"/>
+      <c r="C396" s="45"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -10855,7 +10904,7 @@
     <row r="397" spans="1:22">
       <c r="A397" s="6"/>
       <c r="B397" s="13"/>
-      <c r="C397" s="47"/>
+      <c r="C397" s="45"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -10879,7 +10928,7 @@
     <row r="398" spans="1:22">
       <c r="A398" s="6"/>
       <c r="B398" s="13"/>
-      <c r="C398" s="47"/>
+      <c r="C398" s="45"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -10903,7 +10952,7 @@
     <row r="399" spans="1:22">
       <c r="A399" s="6"/>
       <c r="B399" s="13"/>
-      <c r="C399" s="47"/>
+      <c r="C399" s="45"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -10927,7 +10976,7 @@
     <row r="400" spans="1:22">
       <c r="A400" s="6"/>
       <c r="B400" s="13"/>
-      <c r="C400" s="47"/>
+      <c r="C400" s="45"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -10951,7 +11000,7 @@
     <row r="401" spans="1:22">
       <c r="A401" s="6"/>
       <c r="B401" s="13"/>
-      <c r="C401" s="47"/>
+      <c r="C401" s="45"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -10975,7 +11024,7 @@
     <row r="402" spans="1:22">
       <c r="A402" s="6"/>
       <c r="B402" s="13"/>
-      <c r="C402" s="47"/>
+      <c r="C402" s="45"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -10999,7 +11048,7 @@
     <row r="403" spans="1:22">
       <c r="A403" s="6"/>
       <c r="B403" s="13"/>
-      <c r="C403" s="47"/>
+      <c r="C403" s="45"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -11023,7 +11072,7 @@
     <row r="404" spans="1:22">
       <c r="A404" s="6"/>
       <c r="B404" s="13"/>
-      <c r="C404" s="47"/>
+      <c r="C404" s="45"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -11047,7 +11096,7 @@
     <row r="405" spans="1:22">
       <c r="A405" s="6"/>
       <c r="B405" s="13"/>
-      <c r="C405" s="47"/>
+      <c r="C405" s="45"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -11071,7 +11120,7 @@
     <row r="406" spans="1:22">
       <c r="A406" s="6"/>
       <c r="B406" s="13"/>
-      <c r="C406" s="47"/>
+      <c r="C406" s="45"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -11095,7 +11144,7 @@
     <row r="407" spans="1:22">
       <c r="A407" s="6"/>
       <c r="B407" s="13"/>
-      <c r="C407" s="47"/>
+      <c r="C407" s="45"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -11119,7 +11168,7 @@
     <row r="408" spans="1:22">
       <c r="A408" s="6"/>
       <c r="B408" s="13"/>
-      <c r="C408" s="47"/>
+      <c r="C408" s="45"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -11143,7 +11192,7 @@
     <row r="409" spans="1:22">
       <c r="A409" s="6"/>
       <c r="B409" s="13"/>
-      <c r="C409" s="47"/>
+      <c r="C409" s="45"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -11167,7 +11216,7 @@
     <row r="410" spans="1:22">
       <c r="A410" s="6"/>
       <c r="B410" s="13"/>
-      <c r="C410" s="47"/>
+      <c r="C410" s="45"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
@@ -11191,7 +11240,7 @@
     <row r="411" spans="1:22">
       <c r="A411" s="6"/>
       <c r="B411" s="13"/>
-      <c r="C411" s="47"/>
+      <c r="C411" s="45"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -11215,7 +11264,7 @@
     <row r="412" spans="1:22">
       <c r="A412" s="6"/>
       <c r="B412" s="13"/>
-      <c r="C412" s="47"/>
+      <c r="C412" s="45"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -11239,7 +11288,7 @@
     <row r="413" spans="1:22">
       <c r="A413" s="6"/>
       <c r="B413" s="13"/>
-      <c r="C413" s="47"/>
+      <c r="C413" s="45"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -11263,7 +11312,7 @@
     <row r="414" spans="1:22">
       <c r="A414" s="6"/>
       <c r="B414" s="13"/>
-      <c r="C414" s="47"/>
+      <c r="C414" s="45"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -11287,7 +11336,7 @@
     <row r="415" spans="1:22">
       <c r="A415" s="6"/>
       <c r="B415" s="13"/>
-      <c r="C415" s="47"/>
+      <c r="C415" s="45"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -11311,7 +11360,7 @@
     <row r="416" spans="1:22">
       <c r="A416" s="6"/>
       <c r="B416" s="13"/>
-      <c r="C416" s="47"/>
+      <c r="C416" s="45"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
@@ -11335,7 +11384,7 @@
     <row r="417" spans="1:22">
       <c r="A417" s="6"/>
       <c r="B417" s="13"/>
-      <c r="C417" s="47"/>
+      <c r="C417" s="45"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -11359,7 +11408,7 @@
     <row r="418" spans="1:22">
       <c r="A418" s="6"/>
       <c r="B418" s="13"/>
-      <c r="C418" s="47"/>
+      <c r="C418" s="45"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
@@ -11383,7 +11432,7 @@
     <row r="419" spans="1:22">
       <c r="A419" s="6"/>
       <c r="B419" s="13"/>
-      <c r="C419" s="47"/>
+      <c r="C419" s="45"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -11407,7 +11456,7 @@
     <row r="420" spans="1:22">
       <c r="A420" s="6"/>
       <c r="B420" s="13"/>
-      <c r="C420" s="47"/>
+      <c r="C420" s="45"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
@@ -11431,7 +11480,7 @@
     <row r="421" spans="1:22">
       <c r="A421" s="6"/>
       <c r="B421" s="13"/>
-      <c r="C421" s="47"/>
+      <c r="C421" s="45"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -11455,7 +11504,7 @@
     <row r="422" spans="1:22">
       <c r="A422" s="6"/>
       <c r="B422" s="13"/>
-      <c r="C422" s="47"/>
+      <c r="C422" s="45"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
@@ -11479,7 +11528,7 @@
     <row r="423" spans="1:22">
       <c r="A423" s="6"/>
       <c r="B423" s="13"/>
-      <c r="C423" s="47"/>
+      <c r="C423" s="45"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -11503,7 +11552,7 @@
     <row r="424" spans="1:22">
       <c r="A424" s="6"/>
       <c r="B424" s="13"/>
-      <c r="C424" s="47"/>
+      <c r="C424" s="45"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -11527,7 +11576,7 @@
     <row r="425" spans="1:22">
       <c r="A425" s="6"/>
       <c r="B425" s="13"/>
-      <c r="C425" s="47"/>
+      <c r="C425" s="45"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -11551,7 +11600,7 @@
     <row r="426" spans="1:22">
       <c r="A426" s="6"/>
       <c r="B426" s="13"/>
-      <c r="C426" s="47"/>
+      <c r="C426" s="45"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -11575,7 +11624,7 @@
     <row r="427" spans="1:22">
       <c r="A427" s="6"/>
       <c r="B427" s="13"/>
-      <c r="C427" s="47"/>
+      <c r="C427" s="45"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -11599,7 +11648,7 @@
     <row r="428" spans="1:22">
       <c r="A428" s="6"/>
       <c r="B428" s="13"/>
-      <c r="C428" s="47"/>
+      <c r="C428" s="45"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -11623,7 +11672,7 @@
     <row r="429" spans="1:22">
       <c r="A429" s="6"/>
       <c r="B429" s="13"/>
-      <c r="C429" s="47"/>
+      <c r="C429" s="45"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -11647,7 +11696,7 @@
     <row r="430" spans="1:22">
       <c r="A430" s="6"/>
       <c r="B430" s="13"/>
-      <c r="C430" s="47"/>
+      <c r="C430" s="45"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -11671,7 +11720,7 @@
     <row r="431" spans="1:22">
       <c r="A431" s="6"/>
       <c r="B431" s="13"/>
-      <c r="C431" s="47"/>
+      <c r="C431" s="45"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -11695,7 +11744,7 @@
     <row r="432" spans="1:22">
       <c r="A432" s="6"/>
       <c r="B432" s="13"/>
-      <c r="C432" s="47"/>
+      <c r="C432" s="45"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
@@ -11719,7 +11768,7 @@
     <row r="433" spans="1:22">
       <c r="A433" s="6"/>
       <c r="B433" s="13"/>
-      <c r="C433" s="47"/>
+      <c r="C433" s="45"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -11743,7 +11792,7 @@
     <row r="434" spans="1:22">
       <c r="A434" s="6"/>
       <c r="B434" s="13"/>
-      <c r="C434" s="47"/>
+      <c r="C434" s="45"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
@@ -11767,7 +11816,7 @@
     <row r="435" spans="1:22">
       <c r="A435" s="6"/>
       <c r="B435" s="13"/>
-      <c r="C435" s="47"/>
+      <c r="C435" s="45"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
@@ -11791,7 +11840,7 @@
     <row r="436" spans="1:22">
       <c r="A436" s="6"/>
       <c r="B436" s="13"/>
-      <c r="C436" s="47"/>
+      <c r="C436" s="45"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
@@ -11815,7 +11864,7 @@
     <row r="437" spans="1:22">
       <c r="A437" s="6"/>
       <c r="B437" s="13"/>
-      <c r="C437" s="47"/>
+      <c r="C437" s="45"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
@@ -11839,7 +11888,7 @@
     <row r="438" spans="1:22">
       <c r="A438" s="6"/>
       <c r="B438" s="13"/>
-      <c r="C438" s="47"/>
+      <c r="C438" s="45"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -11863,7 +11912,7 @@
     <row r="439" spans="1:22">
       <c r="A439" s="6"/>
       <c r="B439" s="13"/>
-      <c r="C439" s="47"/>
+      <c r="C439" s="45"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -11887,7 +11936,7 @@
     <row r="440" spans="1:22">
       <c r="A440" s="6"/>
       <c r="B440" s="13"/>
-      <c r="C440" s="47"/>
+      <c r="C440" s="45"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
@@ -11911,7 +11960,7 @@
     <row r="441" spans="1:22">
       <c r="A441" s="6"/>
       <c r="B441" s="13"/>
-      <c r="C441" s="47"/>
+      <c r="C441" s="45"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -11935,7 +11984,7 @@
     <row r="442" spans="1:22">
       <c r="A442" s="6"/>
       <c r="B442" s="13"/>
-      <c r="C442" s="47"/>
+      <c r="C442" s="45"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
@@ -11959,7 +12008,7 @@
     <row r="443" spans="1:22">
       <c r="A443" s="6"/>
       <c r="B443" s="13"/>
-      <c r="C443" s="47"/>
+      <c r="C443" s="45"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
@@ -11983,7 +12032,7 @@
     <row r="444" spans="1:22">
       <c r="A444" s="6"/>
       <c r="B444" s="13"/>
-      <c r="C444" s="47"/>
+      <c r="C444" s="45"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
@@ -12007,7 +12056,7 @@
     <row r="445" spans="1:22">
       <c r="A445" s="6"/>
       <c r="B445" s="13"/>
-      <c r="C445" s="47"/>
+      <c r="C445" s="45"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
@@ -12031,7 +12080,7 @@
     <row r="446" spans="1:22">
       <c r="A446" s="6"/>
       <c r="B446" s="13"/>
-      <c r="C446" s="47"/>
+      <c r="C446" s="45"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
@@ -12055,7 +12104,7 @@
     <row r="447" spans="1:22">
       <c r="A447" s="6"/>
       <c r="B447" s="13"/>
-      <c r="C447" s="47"/>
+      <c r="C447" s="45"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
@@ -12079,7 +12128,7 @@
     <row r="448" spans="1:22">
       <c r="A448" s="6"/>
       <c r="B448" s="13"/>
-      <c r="C448" s="47"/>
+      <c r="C448" s="45"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
@@ -12103,7 +12152,7 @@
     <row r="449" spans="1:22">
       <c r="A449" s="6"/>
       <c r="B449" s="13"/>
-      <c r="C449" s="47"/>
+      <c r="C449" s="45"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
@@ -12127,7 +12176,7 @@
     <row r="450" spans="1:22">
       <c r="A450" s="6"/>
       <c r="B450" s="13"/>
-      <c r="C450" s="47"/>
+      <c r="C450" s="45"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
@@ -12151,7 +12200,7 @@
     <row r="451" spans="1:22">
       <c r="A451" s="6"/>
       <c r="B451" s="13"/>
-      <c r="C451" s="47"/>
+      <c r="C451" s="45"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
@@ -12175,7 +12224,7 @@
     <row r="452" spans="1:22">
       <c r="A452" s="6"/>
       <c r="B452" s="13"/>
-      <c r="C452" s="47"/>
+      <c r="C452" s="45"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
@@ -12199,7 +12248,7 @@
     <row r="453" spans="1:22">
       <c r="A453" s="6"/>
       <c r="B453" s="13"/>
-      <c r="C453" s="47"/>
+      <c r="C453" s="45"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
@@ -12223,7 +12272,7 @@
     <row r="454" spans="1:22">
       <c r="A454" s="6"/>
       <c r="B454" s="13"/>
-      <c r="C454" s="47"/>
+      <c r="C454" s="45"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
@@ -12247,7 +12296,7 @@
     <row r="455" spans="1:22">
       <c r="A455" s="6"/>
       <c r="B455" s="13"/>
-      <c r="C455" s="47"/>
+      <c r="C455" s="45"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
@@ -12271,7 +12320,7 @@
     <row r="456" spans="1:22">
       <c r="A456" s="6"/>
       <c r="B456" s="13"/>
-      <c r="C456" s="47"/>
+      <c r="C456" s="45"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
@@ -12295,7 +12344,7 @@
     <row r="457" spans="1:22">
       <c r="A457" s="6"/>
       <c r="B457" s="13"/>
-      <c r="C457" s="47"/>
+      <c r="C457" s="45"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
@@ -12319,7 +12368,7 @@
     <row r="458" spans="1:22">
       <c r="A458" s="6"/>
       <c r="B458" s="13"/>
-      <c r="C458" s="47"/>
+      <c r="C458" s="45"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
@@ -12343,7 +12392,7 @@
     <row r="459" spans="1:22">
       <c r="A459" s="6"/>
       <c r="B459" s="13"/>
-      <c r="C459" s="47"/>
+      <c r="C459" s="45"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
@@ -12367,7 +12416,7 @@
     <row r="460" spans="1:22">
       <c r="A460" s="6"/>
       <c r="B460" s="13"/>
-      <c r="C460" s="47"/>
+      <c r="C460" s="45"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
@@ -12391,7 +12440,7 @@
     <row r="461" spans="1:22">
       <c r="A461" s="6"/>
       <c r="B461" s="13"/>
-      <c r="C461" s="47"/>
+      <c r="C461" s="45"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
@@ -12415,7 +12464,7 @@
     <row r="462" spans="1:22">
       <c r="A462" s="6"/>
       <c r="B462" s="13"/>
-      <c r="C462" s="47"/>
+      <c r="C462" s="45"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
@@ -12439,7 +12488,7 @@
     <row r="463" spans="1:22">
       <c r="A463" s="6"/>
       <c r="B463" s="13"/>
-      <c r="C463" s="47"/>
+      <c r="C463" s="45"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
@@ -12463,7 +12512,7 @@
     <row r="464" spans="1:22">
       <c r="A464" s="6"/>
       <c r="B464" s="13"/>
-      <c r="C464" s="47"/>
+      <c r="C464" s="45"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
@@ -12487,7 +12536,7 @@
     <row r="465" spans="1:22">
       <c r="A465" s="6"/>
       <c r="B465" s="13"/>
-      <c r="C465" s="47"/>
+      <c r="C465" s="45"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
@@ -12511,7 +12560,7 @@
     <row r="466" spans="1:22">
       <c r="A466" s="6"/>
       <c r="B466" s="13"/>
-      <c r="C466" s="47"/>
+      <c r="C466" s="45"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
@@ -12535,7 +12584,7 @@
     <row r="467" spans="1:22">
       <c r="A467" s="6"/>
       <c r="B467" s="13"/>
-      <c r="C467" s="47"/>
+      <c r="C467" s="45"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
@@ -12559,7 +12608,7 @@
     <row r="468" spans="1:22">
       <c r="A468" s="6"/>
       <c r="B468" s="13"/>
-      <c r="C468" s="47"/>
+      <c r="C468" s="45"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
@@ -12583,7 +12632,7 @@
     <row r="469" spans="1:22">
       <c r="A469" s="6"/>
       <c r="B469" s="13"/>
-      <c r="C469" s="47"/>
+      <c r="C469" s="45"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
@@ -12607,7 +12656,7 @@
     <row r="470" spans="1:22">
       <c r="A470" s="6"/>
       <c r="B470" s="13"/>
-      <c r="C470" s="47"/>
+      <c r="C470" s="45"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
@@ -12631,7 +12680,7 @@
     <row r="471" spans="1:22">
       <c r="A471" s="6"/>
       <c r="B471" s="13"/>
-      <c r="C471" s="47"/>
+      <c r="C471" s="45"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
@@ -12655,7 +12704,7 @@
     <row r="472" spans="1:22">
       <c r="A472" s="6"/>
       <c r="B472" s="13"/>
-      <c r="C472" s="47"/>
+      <c r="C472" s="45"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
@@ -12679,7 +12728,7 @@
     <row r="473" spans="1:22">
       <c r="A473" s="6"/>
       <c r="B473" s="13"/>
-      <c r="C473" s="47"/>
+      <c r="C473" s="45"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
@@ -12703,7 +12752,7 @@
     <row r="474" spans="1:22">
       <c r="A474" s="6"/>
       <c r="B474" s="13"/>
-      <c r="C474" s="47"/>
+      <c r="C474" s="45"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
@@ -12727,7 +12776,7 @@
     <row r="475" spans="1:22">
       <c r="A475" s="6"/>
       <c r="B475" s="13"/>
-      <c r="C475" s="47"/>
+      <c r="C475" s="45"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
@@ -12751,7 +12800,7 @@
     <row r="476" spans="1:22">
       <c r="A476" s="6"/>
       <c r="B476" s="13"/>
-      <c r="C476" s="47"/>
+      <c r="C476" s="45"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
@@ -12775,7 +12824,7 @@
     <row r="477" spans="1:22">
       <c r="A477" s="6"/>
       <c r="B477" s="13"/>
-      <c r="C477" s="47"/>
+      <c r="C477" s="45"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
@@ -12799,7 +12848,7 @@
     <row r="478" spans="1:22">
       <c r="A478" s="6"/>
       <c r="B478" s="13"/>
-      <c r="C478" s="47"/>
+      <c r="C478" s="45"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
@@ -12823,7 +12872,7 @@
     <row r="479" spans="1:22">
       <c r="A479" s="6"/>
       <c r="B479" s="13"/>
-      <c r="C479" s="47"/>
+      <c r="C479" s="45"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
@@ -12847,7 +12896,7 @@
     <row r="480" spans="1:22">
       <c r="A480" s="6"/>
       <c r="B480" s="13"/>
-      <c r="C480" s="47"/>
+      <c r="C480" s="45"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
@@ -12871,7 +12920,7 @@
     <row r="481" spans="1:22">
       <c r="A481" s="6"/>
       <c r="B481" s="13"/>
-      <c r="C481" s="47"/>
+      <c r="C481" s="45"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
@@ -12895,7 +12944,7 @@
     <row r="482" spans="1:22">
       <c r="A482" s="6"/>
       <c r="B482" s="13"/>
-      <c r="C482" s="47"/>
+      <c r="C482" s="45"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
@@ -12919,7 +12968,7 @@
     <row r="483" spans="1:22">
       <c r="A483" s="6"/>
       <c r="B483" s="13"/>
-      <c r="C483" s="47"/>
+      <c r="C483" s="45"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
@@ -12943,7 +12992,7 @@
     <row r="484" spans="1:22">
       <c r="A484" s="6"/>
       <c r="B484" s="13"/>
-      <c r="C484" s="47"/>
+      <c r="C484" s="45"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
@@ -12967,7 +13016,7 @@
     <row r="485" spans="1:22">
       <c r="A485" s="6"/>
       <c r="B485" s="13"/>
-      <c r="C485" s="47"/>
+      <c r="C485" s="45"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
@@ -12991,7 +13040,7 @@
     <row r="486" spans="1:22">
       <c r="A486" s="6"/>
       <c r="B486" s="13"/>
-      <c r="C486" s="47"/>
+      <c r="C486" s="45"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
@@ -13015,7 +13064,7 @@
     <row r="487" spans="1:22">
       <c r="A487" s="6"/>
       <c r="B487" s="13"/>
-      <c r="C487" s="47"/>
+      <c r="C487" s="45"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
@@ -13039,7 +13088,7 @@
     <row r="488" spans="1:22">
       <c r="A488" s="6"/>
       <c r="B488" s="13"/>
-      <c r="C488" s="47"/>
+      <c r="C488" s="45"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
@@ -13063,7 +13112,7 @@
     <row r="489" spans="1:22">
       <c r="A489" s="6"/>
       <c r="B489" s="13"/>
-      <c r="C489" s="47"/>
+      <c r="C489" s="45"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
@@ -13087,7 +13136,7 @@
     <row r="490" spans="1:22">
       <c r="A490" s="6"/>
       <c r="B490" s="13"/>
-      <c r="C490" s="47"/>
+      <c r="C490" s="45"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
@@ -13111,7 +13160,7 @@
     <row r="491" spans="1:22">
       <c r="A491" s="6"/>
       <c r="B491" s="13"/>
-      <c r="C491" s="47"/>
+      <c r="C491" s="45"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
@@ -13135,7 +13184,7 @@
     <row r="492" spans="1:22">
       <c r="A492" s="6"/>
       <c r="B492" s="13"/>
-      <c r="C492" s="47"/>
+      <c r="C492" s="45"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
@@ -13159,7 +13208,7 @@
     <row r="493" spans="1:22">
       <c r="A493" s="6"/>
       <c r="B493" s="13"/>
-      <c r="C493" s="47"/>
+      <c r="C493" s="45"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
@@ -13183,7 +13232,7 @@
     <row r="494" spans="1:22">
       <c r="A494" s="6"/>
       <c r="B494" s="13"/>
-      <c r="C494" s="47"/>
+      <c r="C494" s="45"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
@@ -13207,7 +13256,7 @@
     <row r="495" spans="1:22">
       <c r="A495" s="6"/>
       <c r="B495" s="13"/>
-      <c r="C495" s="47"/>
+      <c r="C495" s="45"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
@@ -13231,7 +13280,7 @@
     <row r="496" spans="1:22">
       <c r="A496" s="6"/>
       <c r="B496" s="13"/>
-      <c r="C496" s="47"/>
+      <c r="C496" s="45"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
@@ -13255,7 +13304,7 @@
     <row r="497" spans="1:22">
       <c r="A497" s="6"/>
       <c r="B497" s="13"/>
-      <c r="C497" s="47"/>
+      <c r="C497" s="45"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
@@ -13279,7 +13328,7 @@
     <row r="498" spans="1:22">
       <c r="A498" s="6"/>
       <c r="B498" s="13"/>
-      <c r="C498" s="47"/>
+      <c r="C498" s="45"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
@@ -13303,7 +13352,7 @@
     <row r="499" spans="1:22">
       <c r="A499" s="6"/>
       <c r="B499" s="13"/>
-      <c r="C499" s="47"/>
+      <c r="C499" s="45"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
@@ -13327,7 +13376,7 @@
     <row r="500" spans="1:22">
       <c r="A500" s="6"/>
       <c r="B500" s="13"/>
-      <c r="C500" s="47"/>
+      <c r="C500" s="45"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
@@ -13351,7 +13400,7 @@
     <row r="501" spans="1:22">
       <c r="A501" s="6"/>
       <c r="B501" s="13"/>
-      <c r="C501" s="47"/>
+      <c r="C501" s="45"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
@@ -13375,7 +13424,7 @@
     <row r="502" spans="1:22">
       <c r="A502" s="6"/>
       <c r="B502" s="13"/>
-      <c r="C502" s="47"/>
+      <c r="C502" s="45"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
@@ -13399,7 +13448,7 @@
     <row r="503" spans="1:22">
       <c r="A503" s="6"/>
       <c r="B503" s="13"/>
-      <c r="C503" s="47"/>
+      <c r="C503" s="45"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
@@ -13423,7 +13472,7 @@
     <row r="504" spans="1:22">
       <c r="A504" s="6"/>
       <c r="B504" s="13"/>
-      <c r="C504" s="47"/>
+      <c r="C504" s="45"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
@@ -13447,7 +13496,7 @@
     <row r="505" spans="1:22">
       <c r="A505" s="6"/>
       <c r="B505" s="13"/>
-      <c r="C505" s="47"/>
+      <c r="C505" s="45"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
@@ -13471,7 +13520,7 @@
     <row r="506" spans="1:22">
       <c r="A506" s="6"/>
       <c r="B506" s="13"/>
-      <c r="C506" s="47"/>
+      <c r="C506" s="45"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
@@ -13495,7 +13544,7 @@
     <row r="507" spans="1:22">
       <c r="A507" s="6"/>
       <c r="B507" s="13"/>
-      <c r="C507" s="47"/>
+      <c r="C507" s="45"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
@@ -13519,7 +13568,7 @@
     <row r="508" spans="1:22">
       <c r="A508" s="6"/>
       <c r="B508" s="13"/>
-      <c r="C508" s="47"/>
+      <c r="C508" s="45"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
@@ -13543,7 +13592,7 @@
     <row r="509" spans="1:22">
       <c r="A509" s="6"/>
       <c r="B509" s="13"/>
-      <c r="C509" s="47"/>
+      <c r="C509" s="45"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
@@ -13567,7 +13616,7 @@
     <row r="510" spans="1:22">
       <c r="A510" s="6"/>
       <c r="B510" s="13"/>
-      <c r="C510" s="47"/>
+      <c r="C510" s="45"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
@@ -13591,7 +13640,7 @@
     <row r="511" spans="1:22">
       <c r="A511" s="6"/>
       <c r="B511" s="13"/>
-      <c r="C511" s="47"/>
+      <c r="C511" s="45"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
@@ -13615,7 +13664,7 @@
     <row r="512" spans="1:22">
       <c r="A512" s="6"/>
       <c r="B512" s="13"/>
-      <c r="C512" s="47"/>
+      <c r="C512" s="45"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
@@ -13639,7 +13688,7 @@
     <row r="513" spans="1:22">
       <c r="A513" s="6"/>
       <c r="B513" s="13"/>
-      <c r="C513" s="47"/>
+      <c r="C513" s="45"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
@@ -13663,7 +13712,7 @@
     <row r="514" spans="1:22">
       <c r="A514" s="6"/>
       <c r="B514" s="13"/>
-      <c r="C514" s="47"/>
+      <c r="C514" s="45"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
@@ -13687,7 +13736,7 @@
     <row r="515" spans="1:22">
       <c r="A515" s="6"/>
       <c r="B515" s="13"/>
-      <c r="C515" s="47"/>
+      <c r="C515" s="45"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
@@ -13711,7 +13760,7 @@
     <row r="516" spans="1:22">
       <c r="A516" s="6"/>
       <c r="B516" s="13"/>
-      <c r="C516" s="47"/>
+      <c r="C516" s="45"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
@@ -13735,7 +13784,7 @@
     <row r="517" spans="1:22">
       <c r="A517" s="6"/>
       <c r="B517" s="13"/>
-      <c r="C517" s="47"/>
+      <c r="C517" s="45"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
@@ -13759,7 +13808,7 @@
     <row r="518" spans="1:22">
       <c r="A518" s="6"/>
       <c r="B518" s="13"/>
-      <c r="C518" s="47"/>
+      <c r="C518" s="45"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
@@ -13783,7 +13832,7 @@
     <row r="519" spans="1:22">
       <c r="A519" s="6"/>
       <c r="B519" s="13"/>
-      <c r="C519" s="47"/>
+      <c r="C519" s="45"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
@@ -13807,7 +13856,7 @@
     <row r="520" spans="1:22">
       <c r="A520" s="6"/>
       <c r="B520" s="13"/>
-      <c r="C520" s="47"/>
+      <c r="C520" s="45"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
@@ -13831,7 +13880,7 @@
     <row r="521" spans="1:22">
       <c r="A521" s="6"/>
       <c r="B521" s="13"/>
-      <c r="C521" s="47"/>
+      <c r="C521" s="45"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
@@ -13855,7 +13904,7 @@
     <row r="522" spans="1:22">
       <c r="A522" s="6"/>
       <c r="B522" s="13"/>
-      <c r="C522" s="47"/>
+      <c r="C522" s="45"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
@@ -13879,7 +13928,7 @@
     <row r="523" spans="1:22">
       <c r="A523" s="6"/>
       <c r="B523" s="13"/>
-      <c r="C523" s="47"/>
+      <c r="C523" s="45"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
@@ -13903,7 +13952,7 @@
     <row r="524" spans="1:22">
       <c r="A524" s="6"/>
       <c r="B524" s="13"/>
-      <c r="C524" s="47"/>
+      <c r="C524" s="45"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
@@ -13927,7 +13976,7 @@
     <row r="525" spans="1:22">
       <c r="A525" s="6"/>
       <c r="B525" s="13"/>
-      <c r="C525" s="47"/>
+      <c r="C525" s="45"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
@@ -13951,7 +14000,7 @@
     <row r="526" spans="1:22">
       <c r="A526" s="6"/>
       <c r="B526" s="13"/>
-      <c r="C526" s="47"/>
+      <c r="C526" s="45"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
@@ -13975,7 +14024,7 @@
     <row r="527" spans="1:22">
       <c r="A527" s="6"/>
       <c r="B527" s="13"/>
-      <c r="C527" s="47"/>
+      <c r="C527" s="45"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
@@ -13999,7 +14048,7 @@
     <row r="528" spans="1:22">
       <c r="A528" s="6"/>
       <c r="B528" s="13"/>
-      <c r="C528" s="47"/>
+      <c r="C528" s="45"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
@@ -14023,7 +14072,7 @@
     <row r="529" spans="1:22">
       <c r="A529" s="6"/>
       <c r="B529" s="13"/>
-      <c r="C529" s="47"/>
+      <c r="C529" s="45"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
@@ -14047,7 +14096,7 @@
     <row r="530" spans="1:22">
       <c r="A530" s="6"/>
       <c r="B530" s="13"/>
-      <c r="C530" s="47"/>
+      <c r="C530" s="45"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
@@ -14071,7 +14120,7 @@
     <row r="531" spans="1:22">
       <c r="A531" s="6"/>
       <c r="B531" s="13"/>
-      <c r="C531" s="47"/>
+      <c r="C531" s="45"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
@@ -14095,7 +14144,7 @@
     <row r="532" spans="1:22">
       <c r="A532" s="6"/>
       <c r="B532" s="13"/>
-      <c r="C532" s="47"/>
+      <c r="C532" s="45"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
@@ -14119,7 +14168,7 @@
     <row r="533" spans="1:22">
       <c r="A533" s="6"/>
       <c r="B533" s="13"/>
-      <c r="C533" s="47"/>
+      <c r="C533" s="45"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
@@ -14143,7 +14192,7 @@
     <row r="534" spans="1:22">
       <c r="A534" s="6"/>
       <c r="B534" s="13"/>
-      <c r="C534" s="47"/>
+      <c r="C534" s="45"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
@@ -14167,7 +14216,7 @@
     <row r="535" spans="1:22">
       <c r="A535" s="6"/>
       <c r="B535" s="13"/>
-      <c r="C535" s="47"/>
+      <c r="C535" s="45"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
@@ -14191,7 +14240,7 @@
     <row r="536" spans="1:22">
       <c r="A536" s="6"/>
       <c r="B536" s="13"/>
-      <c r="C536" s="47"/>
+      <c r="C536" s="45"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
@@ -14215,7 +14264,7 @@
     <row r="537" spans="1:22">
       <c r="A537" s="6"/>
       <c r="B537" s="13"/>
-      <c r="C537" s="47"/>
+      <c r="C537" s="45"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
@@ -14239,7 +14288,7 @@
     <row r="538" spans="1:22">
       <c r="A538" s="6"/>
       <c r="B538" s="13"/>
-      <c r="C538" s="47"/>
+      <c r="C538" s="45"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
@@ -14263,7 +14312,7 @@
     <row r="539" spans="1:22">
       <c r="A539" s="6"/>
       <c r="B539" s="13"/>
-      <c r="C539" s="47"/>
+      <c r="C539" s="45"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
@@ -14287,7 +14336,7 @@
     <row r="540" spans="1:22">
       <c r="A540" s="6"/>
       <c r="B540" s="13"/>
-      <c r="C540" s="47"/>
+      <c r="C540" s="45"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
@@ -14311,7 +14360,7 @@
     <row r="541" spans="1:22">
       <c r="A541" s="6"/>
       <c r="B541" s="13"/>
-      <c r="C541" s="47"/>
+      <c r="C541" s="45"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
@@ -14335,7 +14384,7 @@
     <row r="542" spans="1:22">
       <c r="A542" s="6"/>
       <c r="B542" s="13"/>
-      <c r="C542" s="47"/>
+      <c r="C542" s="45"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
@@ -14359,7 +14408,7 @@
     <row r="543" spans="1:22">
       <c r="A543" s="6"/>
       <c r="B543" s="13"/>
-      <c r="C543" s="47"/>
+      <c r="C543" s="45"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
@@ -14383,7 +14432,7 @@
     <row r="544" spans="1:22">
       <c r="A544" s="6"/>
       <c r="B544" s="13"/>
-      <c r="C544" s="47"/>
+      <c r="C544" s="45"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
@@ -14407,7 +14456,7 @@
     <row r="545" spans="1:22">
       <c r="A545" s="6"/>
       <c r="B545" s="13"/>
-      <c r="C545" s="47"/>
+      <c r="C545" s="45"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
@@ -14431,7 +14480,7 @@
     <row r="546" spans="1:22">
       <c r="A546" s="6"/>
       <c r="B546" s="13"/>
-      <c r="C546" s="47"/>
+      <c r="C546" s="45"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
@@ -14455,7 +14504,7 @@
     <row r="547" spans="1:22">
       <c r="A547" s="6"/>
       <c r="B547" s="13"/>
-      <c r="C547" s="47"/>
+      <c r="C547" s="45"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
@@ -14479,7 +14528,7 @@
     <row r="548" spans="1:22">
       <c r="A548" s="6"/>
       <c r="B548" s="13"/>
-      <c r="C548" s="47"/>
+      <c r="C548" s="45"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
@@ -14503,7 +14552,7 @@
     <row r="549" spans="1:22">
       <c r="A549" s="6"/>
       <c r="B549" s="13"/>
-      <c r="C549" s="47"/>
+      <c r="C549" s="45"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
@@ -14527,7 +14576,7 @@
     <row r="550" spans="1:22">
       <c r="A550" s="6"/>
       <c r="B550" s="13"/>
-      <c r="C550" s="47"/>
+      <c r="C550" s="45"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
@@ -14551,7 +14600,7 @@
     <row r="551" spans="1:22">
       <c r="A551" s="6"/>
       <c r="B551" s="13"/>
-      <c r="C551" s="47"/>
+      <c r="C551" s="45"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
@@ -14575,7 +14624,7 @@
     <row r="552" spans="1:22">
       <c r="A552" s="6"/>
       <c r="B552" s="13"/>
-      <c r="C552" s="47"/>
+      <c r="C552" s="45"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
@@ -14599,7 +14648,7 @@
     <row r="553" spans="1:22">
       <c r="A553" s="6"/>
       <c r="B553" s="13"/>
-      <c r="C553" s="47"/>
+      <c r="C553" s="45"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
@@ -14623,7 +14672,7 @@
     <row r="554" spans="1:22">
       <c r="A554" s="6"/>
       <c r="B554" s="13"/>
-      <c r="C554" s="47"/>
+      <c r="C554" s="45"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
@@ -14647,7 +14696,7 @@
     <row r="555" spans="1:22">
       <c r="A555" s="6"/>
       <c r="B555" s="13"/>
-      <c r="C555" s="47"/>
+      <c r="C555" s="45"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
@@ -14671,7 +14720,7 @@
     <row r="556" spans="1:22">
       <c r="A556" s="6"/>
       <c r="B556" s="13"/>
-      <c r="C556" s="47"/>
+      <c r="C556" s="45"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
@@ -14695,7 +14744,7 @@
     <row r="557" spans="1:22">
       <c r="A557" s="6"/>
       <c r="B557" s="13"/>
-      <c r="C557" s="47"/>
+      <c r="C557" s="45"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
@@ -14719,7 +14768,7 @@
     <row r="558" spans="1:22">
       <c r="A558" s="6"/>
       <c r="B558" s="13"/>
-      <c r="C558" s="47"/>
+      <c r="C558" s="45"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
@@ -14743,7 +14792,7 @@
     <row r="559" spans="1:22">
       <c r="A559" s="6"/>
       <c r="B559" s="13"/>
-      <c r="C559" s="47"/>
+      <c r="C559" s="45"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
@@ -14767,7 +14816,7 @@
     <row r="560" spans="1:22">
       <c r="A560" s="6"/>
       <c r="B560" s="13"/>
-      <c r="C560" s="47"/>
+      <c r="C560" s="45"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
@@ -14791,7 +14840,7 @@
     <row r="561" spans="1:22">
       <c r="A561" s="6"/>
       <c r="B561" s="13"/>
-      <c r="C561" s="47"/>
+      <c r="C561" s="45"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
@@ -14815,7 +14864,7 @@
     <row r="562" spans="1:22">
       <c r="A562" s="6"/>
       <c r="B562" s="13"/>
-      <c r="C562" s="47"/>
+      <c r="C562" s="45"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
@@ -14839,7 +14888,7 @@
     <row r="563" spans="1:22">
       <c r="A563" s="6"/>
       <c r="B563" s="13"/>
-      <c r="C563" s="47"/>
+      <c r="C563" s="45"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
@@ -14863,7 +14912,7 @@
     <row r="564" spans="1:22">
       <c r="A564" s="6"/>
       <c r="B564" s="13"/>
-      <c r="C564" s="47"/>
+      <c r="C564" s="45"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
@@ -14887,7 +14936,7 @@
     <row r="565" spans="1:22">
       <c r="A565" s="6"/>
       <c r="B565" s="13"/>
-      <c r="C565" s="47"/>
+      <c r="C565" s="45"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
@@ -14911,7 +14960,7 @@
     <row r="566" spans="1:22">
       <c r="A566" s="6"/>
       <c r="B566" s="13"/>
-      <c r="C566" s="47"/>
+      <c r="C566" s="45"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
@@ -14935,7 +14984,7 @@
     <row r="567" spans="1:22">
       <c r="A567" s="6"/>
       <c r="B567" s="13"/>
-      <c r="C567" s="47"/>
+      <c r="C567" s="45"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
@@ -14959,7 +15008,7 @@
     <row r="568" spans="1:22">
       <c r="A568" s="6"/>
       <c r="B568" s="13"/>
-      <c r="C568" s="47"/>
+      <c r="C568" s="45"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
@@ -14983,7 +15032,7 @@
     <row r="569" spans="1:22">
       <c r="A569" s="6"/>
       <c r="B569" s="13"/>
-      <c r="C569" s="47"/>
+      <c r="C569" s="45"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
@@ -15007,7 +15056,7 @@
     <row r="570" spans="1:22">
       <c r="A570" s="6"/>
       <c r="B570" s="13"/>
-      <c r="C570" s="47"/>
+      <c r="C570" s="45"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
@@ -15031,7 +15080,7 @@
     <row r="571" spans="1:22">
       <c r="A571" s="6"/>
       <c r="B571" s="13"/>
-      <c r="C571" s="47"/>
+      <c r="C571" s="45"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
@@ -15055,7 +15104,7 @@
     <row r="572" spans="1:22">
       <c r="A572" s="6"/>
       <c r="B572" s="13"/>
-      <c r="C572" s="47"/>
+      <c r="C572" s="45"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
@@ -15079,7 +15128,7 @@
     <row r="573" spans="1:22">
       <c r="A573" s="6"/>
       <c r="B573" s="13"/>
-      <c r="C573" s="47"/>
+      <c r="C573" s="45"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
@@ -15103,7 +15152,7 @@
     <row r="574" spans="1:22">
       <c r="A574" s="6"/>
       <c r="B574" s="13"/>
-      <c r="C574" s="47"/>
+      <c r="C574" s="45"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
@@ -15127,7 +15176,7 @@
     <row r="575" spans="1:22">
       <c r="A575" s="6"/>
       <c r="B575" s="13"/>
-      <c r="C575" s="47"/>
+      <c r="C575" s="45"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
@@ -15151,7 +15200,7 @@
     <row r="576" spans="1:22">
       <c r="A576" s="6"/>
       <c r="B576" s="13"/>
-      <c r="C576" s="47"/>
+      <c r="C576" s="45"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
@@ -15175,7 +15224,7 @@
     <row r="577" spans="1:22">
       <c r="A577" s="6"/>
       <c r="B577" s="13"/>
-      <c r="C577" s="47"/>
+      <c r="C577" s="45"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
@@ -15199,7 +15248,7 @@
     <row r="578" spans="1:22">
       <c r="A578" s="6"/>
       <c r="B578" s="13"/>
-      <c r="C578" s="47"/>
+      <c r="C578" s="45"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
@@ -15223,7 +15272,7 @@
     <row r="579" spans="1:22">
       <c r="A579" s="6"/>
       <c r="B579" s="13"/>
-      <c r="C579" s="47"/>
+      <c r="C579" s="45"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
@@ -15247,7 +15296,7 @@
     <row r="580" spans="1:22">
       <c r="A580" s="6"/>
       <c r="B580" s="13"/>
-      <c r="C580" s="47"/>
+      <c r="C580" s="45"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
@@ -15271,7 +15320,7 @@
     <row r="581" spans="1:22">
       <c r="A581" s="6"/>
       <c r="B581" s="13"/>
-      <c r="C581" s="47"/>
+      <c r="C581" s="45"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
@@ -15295,7 +15344,7 @@
     <row r="582" spans="1:22">
       <c r="A582" s="6"/>
       <c r="B582" s="13"/>
-      <c r="C582" s="47"/>
+      <c r="C582" s="45"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
@@ -15319,7 +15368,7 @@
     <row r="583" spans="1:22">
       <c r="A583" s="6"/>
       <c r="B583" s="13"/>
-      <c r="C583" s="47"/>
+      <c r="C583" s="45"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
@@ -15343,7 +15392,7 @@
     <row r="584" spans="1:22">
       <c r="A584" s="6"/>
       <c r="B584" s="13"/>
-      <c r="C584" s="47"/>
+      <c r="C584" s="45"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
@@ -15367,7 +15416,7 @@
     <row r="585" spans="1:22">
       <c r="A585" s="6"/>
       <c r="B585" s="13"/>
-      <c r="C585" s="47"/>
+      <c r="C585" s="45"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
@@ -15391,7 +15440,7 @@
     <row r="586" spans="1:22">
       <c r="A586" s="6"/>
       <c r="B586" s="13"/>
-      <c r="C586" s="47"/>
+      <c r="C586" s="45"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
@@ -15415,7 +15464,7 @@
     <row r="587" spans="1:22">
       <c r="A587" s="6"/>
       <c r="B587" s="13"/>
-      <c r="C587" s="47"/>
+      <c r="C587" s="45"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
@@ -15439,7 +15488,7 @@
     <row r="588" spans="1:22">
       <c r="A588" s="6"/>
       <c r="B588" s="13"/>
-      <c r="C588" s="47"/>
+      <c r="C588" s="45"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
@@ -15463,7 +15512,7 @@
     <row r="589" spans="1:22">
       <c r="A589" s="6"/>
       <c r="B589" s="13"/>
-      <c r="C589" s="47"/>
+      <c r="C589" s="45"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
@@ -15487,7 +15536,7 @@
     <row r="590" spans="1:22">
       <c r="A590" s="6"/>
       <c r="B590" s="13"/>
-      <c r="C590" s="47"/>
+      <c r="C590" s="45"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
@@ -15511,7 +15560,7 @@
     <row r="591" spans="1:22">
       <c r="A591" s="6"/>
       <c r="B591" s="13"/>
-      <c r="C591" s="47"/>
+      <c r="C591" s="45"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
@@ -15535,7 +15584,7 @@
     <row r="592" spans="1:22">
       <c r="A592" s="6"/>
       <c r="B592" s="13"/>
-      <c r="C592" s="47"/>
+      <c r="C592" s="45"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
@@ -15559,7 +15608,7 @@
     <row r="593" spans="1:22">
       <c r="A593" s="6"/>
       <c r="B593" s="13"/>
-      <c r="C593" s="47"/>
+      <c r="C593" s="45"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
@@ -15583,7 +15632,7 @@
     <row r="594" spans="1:22">
       <c r="A594" s="6"/>
       <c r="B594" s="13"/>
-      <c r="C594" s="47"/>
+      <c r="C594" s="45"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
@@ -15607,7 +15656,7 @@
     <row r="595" spans="1:22">
       <c r="A595" s="6"/>
       <c r="B595" s="13"/>
-      <c r="C595" s="47"/>
+      <c r="C595" s="45"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
@@ -15631,7 +15680,7 @@
     <row r="596" spans="1:22">
       <c r="A596" s="6"/>
       <c r="B596" s="13"/>
-      <c r="C596" s="47"/>
+      <c r="C596" s="45"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
@@ -15655,7 +15704,7 @@
     <row r="597" spans="1:22">
       <c r="A597" s="6"/>
       <c r="B597" s="13"/>
-      <c r="C597" s="47"/>
+      <c r="C597" s="45"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
@@ -15679,7 +15728,7 @@
     <row r="598" spans="1:22">
       <c r="A598" s="6"/>
       <c r="B598" s="13"/>
-      <c r="C598" s="47"/>
+      <c r="C598" s="45"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
@@ -15703,7 +15752,7 @@
     <row r="599" spans="1:22">
       <c r="A599" s="6"/>
       <c r="B599" s="13"/>
-      <c r="C599" s="47"/>
+      <c r="C599" s="45"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
@@ -15727,7 +15776,7 @@
     <row r="600" spans="1:22">
       <c r="A600" s="6"/>
       <c r="B600" s="13"/>
-      <c r="C600" s="47"/>
+      <c r="C600" s="45"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
@@ -15751,7 +15800,7 @@
     <row r="601" spans="1:22">
       <c r="A601" s="6"/>
       <c r="B601" s="13"/>
-      <c r="C601" s="47"/>
+      <c r="C601" s="45"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
@@ -15775,7 +15824,7 @@
     <row r="602" spans="1:22">
       <c r="A602" s="6"/>
       <c r="B602" s="13"/>
-      <c r="C602" s="47"/>
+      <c r="C602" s="45"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
@@ -15799,7 +15848,7 @@
     <row r="603" spans="1:22">
       <c r="A603" s="6"/>
       <c r="B603" s="13"/>
-      <c r="C603" s="47"/>
+      <c r="C603" s="45"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
@@ -15823,7 +15872,7 @@
     <row r="604" spans="1:22">
       <c r="A604" s="6"/>
       <c r="B604" s="13"/>
-      <c r="C604" s="47"/>
+      <c r="C604" s="45"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
@@ -15847,7 +15896,7 @@
     <row r="605" spans="1:22">
       <c r="A605" s="6"/>
       <c r="B605" s="13"/>
-      <c r="C605" s="47"/>
+      <c r="C605" s="45"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
@@ -15871,7 +15920,7 @@
     <row r="606" spans="1:22">
       <c r="A606" s="6"/>
       <c r="B606" s="13"/>
-      <c r="C606" s="47"/>
+      <c r="C606" s="45"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
@@ -15895,7 +15944,7 @@
     <row r="607" spans="1:22">
       <c r="A607" s="6"/>
       <c r="B607" s="13"/>
-      <c r="C607" s="47"/>
+      <c r="C607" s="45"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
@@ -15919,7 +15968,7 @@
     <row r="608" spans="1:22">
       <c r="A608" s="6"/>
       <c r="B608" s="13"/>
-      <c r="C608" s="47"/>
+      <c r="C608" s="45"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
@@ -15943,7 +15992,7 @@
     <row r="609" spans="1:22">
       <c r="A609" s="6"/>
       <c r="B609" s="13"/>
-      <c r="C609" s="47"/>
+      <c r="C609" s="45"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
@@ -15967,7 +16016,7 @@
     <row r="610" spans="1:22">
       <c r="A610" s="6"/>
       <c r="B610" s="13"/>
-      <c r="C610" s="47"/>
+      <c r="C610" s="45"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
@@ -15991,7 +16040,7 @@
     <row r="611" spans="1:22">
       <c r="A611" s="6"/>
       <c r="B611" s="13"/>
-      <c r="C611" s="47"/>
+      <c r="C611" s="45"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
@@ -16015,7 +16064,7 @@
     <row r="612" spans="1:22">
       <c r="A612" s="6"/>
       <c r="B612" s="13"/>
-      <c r="C612" s="47"/>
+      <c r="C612" s="45"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
@@ -16039,7 +16088,7 @@
     <row r="613" spans="1:22">
       <c r="A613" s="6"/>
       <c r="B613" s="13"/>
-      <c r="C613" s="47"/>
+      <c r="C613" s="45"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
@@ -16063,7 +16112,7 @@
     <row r="614" spans="1:22">
       <c r="A614" s="6"/>
       <c r="B614" s="13"/>
-      <c r="C614" s="47"/>
+      <c r="C614" s="45"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
@@ -16087,7 +16136,7 @@
     <row r="615" spans="1:22">
       <c r="A615" s="6"/>
       <c r="B615" s="13"/>
-      <c r="C615" s="47"/>
+      <c r="C615" s="45"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
@@ -16111,7 +16160,7 @@
     <row r="616" spans="1:22">
       <c r="A616" s="6"/>
       <c r="B616" s="13"/>
-      <c r="C616" s="47"/>
+      <c r="C616" s="45"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
@@ -16135,7 +16184,7 @@
     <row r="617" spans="1:22">
       <c r="A617" s="6"/>
       <c r="B617" s="13"/>
-      <c r="C617" s="47"/>
+      <c r="C617" s="45"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
@@ -16159,7 +16208,7 @@
     <row r="618" spans="1:22">
       <c r="A618" s="6"/>
       <c r="B618" s="13"/>
-      <c r="C618" s="47"/>
+      <c r="C618" s="45"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
@@ -16183,7 +16232,7 @@
     <row r="619" spans="1:22">
       <c r="A619" s="6"/>
       <c r="B619" s="13"/>
-      <c r="C619" s="47"/>
+      <c r="C619" s="45"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
@@ -16207,7 +16256,7 @@
     <row r="620" spans="1:22">
       <c r="A620" s="6"/>
       <c r="B620" s="13"/>
-      <c r="C620" s="47"/>
+      <c r="C620" s="45"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
@@ -16231,7 +16280,7 @@
     <row r="621" spans="1:22">
       <c r="A621" s="6"/>
       <c r="B621" s="13"/>
-      <c r="C621" s="47"/>
+      <c r="C621" s="45"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
@@ -16255,7 +16304,7 @@
     <row r="622" spans="1:22">
       <c r="A622" s="6"/>
       <c r="B622" s="13"/>
-      <c r="C622" s="47"/>
+      <c r="C622" s="45"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
@@ -16279,7 +16328,7 @@
     <row r="623" spans="1:22">
       <c r="A623" s="6"/>
       <c r="B623" s="13"/>
-      <c r="C623" s="47"/>
+      <c r="C623" s="45"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
@@ -16303,7 +16352,7 @@
     <row r="624" spans="1:22">
       <c r="A624" s="6"/>
       <c r="B624" s="13"/>
-      <c r="C624" s="47"/>
+      <c r="C624" s="45"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
@@ -16327,7 +16376,7 @@
     <row r="625" spans="1:22">
       <c r="A625" s="6"/>
       <c r="B625" s="13"/>
-      <c r="C625" s="47"/>
+      <c r="C625" s="45"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
@@ -16351,7 +16400,7 @@
     <row r="626" spans="1:22">
       <c r="A626" s="6"/>
       <c r="B626" s="13"/>
-      <c r="C626" s="47"/>
+      <c r="C626" s="45"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
@@ -16375,7 +16424,7 @@
     <row r="627" spans="1:22">
       <c r="A627" s="6"/>
       <c r="B627" s="13"/>
-      <c r="C627" s="47"/>
+      <c r="C627" s="45"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
@@ -16399,7 +16448,7 @@
     <row r="628" spans="1:22">
       <c r="A628" s="6"/>
       <c r="B628" s="13"/>
-      <c r="C628" s="47"/>
+      <c r="C628" s="45"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
@@ -16423,7 +16472,7 @@
     <row r="629" spans="1:22">
       <c r="A629" s="6"/>
       <c r="B629" s="13"/>
-      <c r="C629" s="47"/>
+      <c r="C629" s="45"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
@@ -16447,7 +16496,7 @@
     <row r="630" spans="1:22">
       <c r="A630" s="6"/>
       <c r="B630" s="13"/>
-      <c r="C630" s="47"/>
+      <c r="C630" s="45"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
@@ -16471,7 +16520,7 @@
     <row r="631" spans="1:22">
       <c r="A631" s="6"/>
       <c r="B631" s="13"/>
-      <c r="C631" s="47"/>
+      <c r="C631" s="45"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
@@ -16495,7 +16544,7 @@
     <row r="632" spans="1:22">
       <c r="A632" s="6"/>
       <c r="B632" s="13"/>
-      <c r="C632" s="47"/>
+      <c r="C632" s="45"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
@@ -16519,7 +16568,7 @@
     <row r="633" spans="1:22">
       <c r="A633" s="6"/>
       <c r="B633" s="13"/>
-      <c r="C633" s="47"/>
+      <c r="C633" s="45"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
@@ -16543,7 +16592,7 @@
     <row r="634" spans="1:22">
       <c r="A634" s="6"/>
       <c r="B634" s="13"/>
-      <c r="C634" s="47"/>
+      <c r="C634" s="45"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
@@ -16567,7 +16616,7 @@
     <row r="635" spans="1:22">
       <c r="A635" s="6"/>
       <c r="B635" s="13"/>
-      <c r="C635" s="47"/>
+      <c r="C635" s="45"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
@@ -16591,7 +16640,7 @@
     <row r="636" spans="1:22">
       <c r="A636" s="6"/>
       <c r="B636" s="13"/>
-      <c r="C636" s="47"/>
+      <c r="C636" s="45"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
@@ -16615,7 +16664,7 @@
     <row r="637" spans="1:22">
       <c r="A637" s="6"/>
       <c r="B637" s="13"/>
-      <c r="C637" s="47"/>
+      <c r="C637" s="45"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
@@ -16639,7 +16688,7 @@
     <row r="638" spans="1:22">
       <c r="A638" s="6"/>
       <c r="B638" s="13"/>
-      <c r="C638" s="47"/>
+      <c r="C638" s="45"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
@@ -16663,7 +16712,7 @@
     <row r="639" spans="1:22">
       <c r="A639" s="6"/>
       <c r="B639" s="13"/>
-      <c r="C639" s="47"/>
+      <c r="C639" s="45"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
@@ -16687,7 +16736,7 @@
     <row r="640" spans="1:22">
       <c r="A640" s="6"/>
       <c r="B640" s="13"/>
-      <c r="C640" s="47"/>
+      <c r="C640" s="45"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
@@ -16711,7 +16760,7 @@
     <row r="641" spans="1:22">
       <c r="A641" s="6"/>
       <c r="B641" s="13"/>
-      <c r="C641" s="47"/>
+      <c r="C641" s="45"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
@@ -16735,7 +16784,7 @@
     <row r="642" spans="1:22">
       <c r="A642" s="6"/>
       <c r="B642" s="13"/>
-      <c r="C642" s="47"/>
+      <c r="C642" s="45"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
@@ -16759,7 +16808,7 @@
     <row r="643" spans="1:22">
       <c r="A643" s="6"/>
       <c r="B643" s="13"/>
-      <c r="C643" s="47"/>
+      <c r="C643" s="45"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
@@ -16783,7 +16832,7 @@
     <row r="644" spans="1:22">
       <c r="A644" s="6"/>
       <c r="B644" s="13"/>
-      <c r="C644" s="47"/>
+      <c r="C644" s="45"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
@@ -16807,7 +16856,7 @@
     <row r="645" spans="1:22">
       <c r="A645" s="6"/>
       <c r="B645" s="13"/>
-      <c r="C645" s="47"/>
+      <c r="C645" s="45"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
@@ -16831,7 +16880,7 @@
     <row r="646" spans="1:22">
       <c r="A646" s="6"/>
       <c r="B646" s="13"/>
-      <c r="C646" s="47"/>
+      <c r="C646" s="45"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
@@ -16855,7 +16904,7 @@
     <row r="647" spans="1:22">
       <c r="A647" s="6"/>
       <c r="B647" s="13"/>
-      <c r="C647" s="47"/>
+      <c r="C647" s="45"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
@@ -16879,7 +16928,7 @@
     <row r="648" spans="1:22">
       <c r="A648" s="6"/>
       <c r="B648" s="13"/>
-      <c r="C648" s="47"/>
+      <c r="C648" s="45"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
@@ -16903,7 +16952,7 @@
     <row r="649" spans="1:22">
       <c r="A649" s="6"/>
       <c r="B649" s="13"/>
-      <c r="C649" s="47"/>
+      <c r="C649" s="45"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
@@ -16927,7 +16976,7 @@
     <row r="650" spans="1:22">
       <c r="A650" s="6"/>
       <c r="B650" s="13"/>
-      <c r="C650" s="47"/>
+      <c r="C650" s="45"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
@@ -16951,7 +17000,7 @@
     <row r="651" spans="1:22">
       <c r="A651" s="6"/>
       <c r="B651" s="13"/>
-      <c r="C651" s="47"/>
+      <c r="C651" s="45"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
@@ -16975,7 +17024,7 @@
     <row r="652" spans="1:22">
       <c r="A652" s="6"/>
       <c r="B652" s="13"/>
-      <c r="C652" s="47"/>
+      <c r="C652" s="45"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
@@ -16999,7 +17048,7 @@
     <row r="653" spans="1:22">
       <c r="A653" s="6"/>
       <c r="B653" s="13"/>
-      <c r="C653" s="47"/>
+      <c r="C653" s="45"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
@@ -17023,7 +17072,7 @@
     <row r="654" spans="1:22">
       <c r="A654" s="6"/>
       <c r="B654" s="13"/>
-      <c r="C654" s="47"/>
+      <c r="C654" s="45"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
@@ -17047,7 +17096,7 @@
     <row r="655" spans="1:22">
       <c r="A655" s="6"/>
       <c r="B655" s="13"/>
-      <c r="C655" s="47"/>
+      <c r="C655" s="45"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
@@ -17071,7 +17120,7 @@
     <row r="656" spans="1:22">
       <c r="A656" s="6"/>
       <c r="B656" s="13"/>
-      <c r="C656" s="47"/>
+      <c r="C656" s="45"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
@@ -17095,7 +17144,7 @@
     <row r="657" spans="1:22">
       <c r="A657" s="6"/>
       <c r="B657" s="13"/>
-      <c r="C657" s="47"/>
+      <c r="C657" s="45"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
@@ -17119,7 +17168,7 @@
     <row r="658" spans="1:22">
       <c r="A658" s="6"/>
       <c r="B658" s="13"/>
-      <c r="C658" s="47"/>
+      <c r="C658" s="45"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
@@ -17143,7 +17192,7 @@
     <row r="659" spans="1:22">
       <c r="A659" s="6"/>
       <c r="B659" s="13"/>
-      <c r="C659" s="47"/>
+      <c r="C659" s="45"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
@@ -17167,7 +17216,7 @@
     <row r="660" spans="1:22">
       <c r="A660" s="6"/>
       <c r="B660" s="13"/>
-      <c r="C660" s="47"/>
+      <c r="C660" s="45"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
@@ -17191,7 +17240,7 @@
     <row r="661" spans="1:22">
       <c r="A661" s="6"/>
       <c r="B661" s="13"/>
-      <c r="C661" s="47"/>
+      <c r="C661" s="45"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
@@ -17215,7 +17264,7 @@
     <row r="662" spans="1:22">
       <c r="A662" s="6"/>
       <c r="B662" s="13"/>
-      <c r="C662" s="47"/>
+      <c r="C662" s="45"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
@@ -17239,7 +17288,7 @@
     <row r="663" spans="1:22">
       <c r="A663" s="6"/>
       <c r="B663" s="13"/>
-      <c r="C663" s="47"/>
+      <c r="C663" s="45"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
@@ -17263,7 +17312,7 @@
     <row r="664" spans="1:22">
       <c r="A664" s="6"/>
       <c r="B664" s="13"/>
-      <c r="C664" s="47"/>
+      <c r="C664" s="45"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
@@ -17287,7 +17336,7 @@
     <row r="665" spans="1:22">
       <c r="A665" s="6"/>
       <c r="B665" s="13"/>
-      <c r="C665" s="47"/>
+      <c r="C665" s="45"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
@@ -17311,7 +17360,7 @@
     <row r="666" spans="1:22">
       <c r="A666" s="6"/>
       <c r="B666" s="13"/>
-      <c r="C666" s="47"/>
+      <c r="C666" s="45"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
@@ -17335,7 +17384,7 @@
     <row r="667" spans="1:22">
       <c r="A667" s="6"/>
       <c r="B667" s="13"/>
-      <c r="C667" s="47"/>
+      <c r="C667" s="45"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
@@ -17359,7 +17408,7 @@
     <row r="668" spans="1:22">
       <c r="A668" s="6"/>
       <c r="B668" s="13"/>
-      <c r="C668" s="47"/>
+      <c r="C668" s="45"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
@@ -17383,7 +17432,7 @@
     <row r="669" spans="1:22">
       <c r="A669" s="6"/>
       <c r="B669" s="13"/>
-      <c r="C669" s="47"/>
+      <c r="C669" s="45"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
@@ -17407,7 +17456,7 @@
     <row r="670" spans="1:22">
       <c r="A670" s="6"/>
       <c r="B670" s="13"/>
-      <c r="C670" s="47"/>
+      <c r="C670" s="45"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
@@ -17431,7 +17480,7 @@
     <row r="671" spans="1:22">
       <c r="A671" s="6"/>
       <c r="B671" s="13"/>
-      <c r="C671" s="47"/>
+      <c r="C671" s="45"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
@@ -17455,7 +17504,7 @@
     <row r="672" spans="1:22">
       <c r="A672" s="6"/>
       <c r="B672" s="13"/>
-      <c r="C672" s="47"/>
+      <c r="C672" s="45"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
@@ -17479,7 +17528,7 @@
     <row r="673" spans="1:22">
       <c r="A673" s="6"/>
       <c r="B673" s="13"/>
-      <c r="C673" s="47"/>
+      <c r="C673" s="45"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
@@ -17503,7 +17552,7 @@
     <row r="674" spans="1:22">
       <c r="A674" s="6"/>
       <c r="B674" s="13"/>
-      <c r="C674" s="47"/>
+      <c r="C674" s="45"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
@@ -17527,7 +17576,7 @@
     <row r="675" spans="1:22">
       <c r="A675" s="6"/>
       <c r="B675" s="13"/>
-      <c r="C675" s="47"/>
+      <c r="C675" s="45"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
@@ -17551,7 +17600,7 @@
     <row r="676" spans="1:22">
       <c r="A676" s="6"/>
       <c r="B676" s="13"/>
-      <c r="C676" s="47"/>
+      <c r="C676" s="45"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
@@ -17575,7 +17624,7 @@
     <row r="677" spans="1:22">
       <c r="A677" s="6"/>
       <c r="B677" s="13"/>
-      <c r="C677" s="47"/>
+      <c r="C677" s="45"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
@@ -17599,7 +17648,7 @@
     <row r="678" spans="1:22">
       <c r="A678" s="6"/>
       <c r="B678" s="13"/>
-      <c r="C678" s="47"/>
+      <c r="C678" s="45"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
@@ -17623,7 +17672,7 @@
     <row r="679" spans="1:22">
       <c r="A679" s="6"/>
       <c r="B679" s="13"/>
-      <c r="C679" s="47"/>
+      <c r="C679" s="45"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
@@ -17647,7 +17696,7 @@
     <row r="680" spans="1:22">
       <c r="A680" s="6"/>
       <c r="B680" s="13"/>
-      <c r="C680" s="47"/>
+      <c r="C680" s="45"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
@@ -17671,7 +17720,7 @@
     <row r="681" spans="1:22">
       <c r="A681" s="6"/>
       <c r="B681" s="13"/>
-      <c r="C681" s="47"/>
+      <c r="C681" s="45"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
@@ -17695,7 +17744,7 @@
     <row r="682" spans="1:22">
       <c r="A682" s="6"/>
       <c r="B682" s="13"/>
-      <c r="C682" s="47"/>
+      <c r="C682" s="45"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
@@ -17719,7 +17768,7 @@
     <row r="683" spans="1:22">
       <c r="A683" s="6"/>
       <c r="B683" s="13"/>
-      <c r="C683" s="47"/>
+      <c r="C683" s="45"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
@@ -17743,7 +17792,7 @@
     <row r="684" spans="1:22">
       <c r="A684" s="6"/>
       <c r="B684" s="13"/>
-      <c r="C684" s="47"/>
+      <c r="C684" s="45"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
@@ -17767,7 +17816,7 @@
     <row r="685" spans="1:22">
       <c r="A685" s="6"/>
       <c r="B685" s="13"/>
-      <c r="C685" s="47"/>
+      <c r="C685" s="45"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
@@ -17791,7 +17840,7 @@
     <row r="686" spans="1:22">
       <c r="A686" s="6"/>
       <c r="B686" s="13"/>
-      <c r="C686" s="47"/>
+      <c r="C686" s="45"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
@@ -17815,7 +17864,7 @@
     <row r="687" spans="1:22">
       <c r="A687" s="6"/>
       <c r="B687" s="13"/>
-      <c r="C687" s="47"/>
+      <c r="C687" s="45"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
@@ -17839,7 +17888,7 @@
     <row r="688" spans="1:22">
       <c r="A688" s="6"/>
       <c r="B688" s="13"/>
-      <c r="C688" s="47"/>
+      <c r="C688" s="45"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
@@ -17863,7 +17912,7 @@
     <row r="689" spans="1:22">
       <c r="A689" s="6"/>
       <c r="B689" s="13"/>
-      <c r="C689" s="47"/>
+      <c r="C689" s="45"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
@@ -17887,7 +17936,7 @@
     <row r="690" spans="1:22">
       <c r="A690" s="6"/>
       <c r="B690" s="13"/>
-      <c r="C690" s="47"/>
+      <c r="C690" s="45"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
@@ -17911,7 +17960,7 @@
     <row r="691" spans="1:22">
       <c r="A691" s="6"/>
       <c r="B691" s="13"/>
-      <c r="C691" s="47"/>
+      <c r="C691" s="45"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
@@ -17935,7 +17984,7 @@
     <row r="692" spans="1:22">
       <c r="A692" s="6"/>
       <c r="B692" s="13"/>
-      <c r="C692" s="47"/>
+      <c r="C692" s="45"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
@@ -17959,7 +18008,7 @@
     <row r="693" spans="1:22">
       <c r="A693" s="6"/>
       <c r="B693" s="13"/>
-      <c r="C693" s="47"/>
+      <c r="C693" s="45"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
@@ -17983,7 +18032,7 @@
     <row r="694" spans="1:22">
       <c r="A694" s="6"/>
       <c r="B694" s="13"/>
-      <c r="C694" s="47"/>
+      <c r="C694" s="45"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
@@ -18007,7 +18056,7 @@
     <row r="695" spans="1:22">
       <c r="A695" s="6"/>
       <c r="B695" s="13"/>
-      <c r="C695" s="47"/>
+      <c r="C695" s="45"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
@@ -18031,7 +18080,7 @@
     <row r="696" spans="1:22">
       <c r="A696" s="6"/>
       <c r="B696" s="13"/>
-      <c r="C696" s="47"/>
+      <c r="C696" s="45"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
@@ -18055,7 +18104,7 @@
     <row r="697" spans="1:22">
       <c r="A697" s="6"/>
       <c r="B697" s="13"/>
-      <c r="C697" s="47"/>
+      <c r="C697" s="45"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
@@ -18079,7 +18128,7 @@
     <row r="698" spans="1:22">
       <c r="A698" s="6"/>
       <c r="B698" s="13"/>
-      <c r="C698" s="47"/>
+      <c r="C698" s="45"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
@@ -18103,7 +18152,7 @@
     <row r="699" spans="1:22">
       <c r="A699" s="6"/>
       <c r="B699" s="13"/>
-      <c r="C699" s="47"/>
+      <c r="C699" s="45"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
@@ -18127,7 +18176,7 @@
     <row r="700" spans="1:22">
       <c r="A700" s="6"/>
       <c r="B700" s="13"/>
-      <c r="C700" s="47"/>
+      <c r="C700" s="45"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
@@ -18151,7 +18200,7 @@
     <row r="701" spans="1:22">
       <c r="A701" s="6"/>
       <c r="B701" s="13"/>
-      <c r="C701" s="47"/>
+      <c r="C701" s="45"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
@@ -18175,7 +18224,7 @@
     <row r="702" spans="1:22">
       <c r="A702" s="6"/>
       <c r="B702" s="13"/>
-      <c r="C702" s="47"/>
+      <c r="C702" s="45"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
@@ -18199,7 +18248,7 @@
     <row r="703" spans="1:22">
       <c r="A703" s="6"/>
       <c r="B703" s="13"/>
-      <c r="C703" s="47"/>
+      <c r="C703" s="45"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
@@ -18223,7 +18272,7 @@
     <row r="704" spans="1:22">
       <c r="A704" s="6"/>
       <c r="B704" s="13"/>
-      <c r="C704" s="47"/>
+      <c r="C704" s="45"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
@@ -18247,7 +18296,7 @@
     <row r="705" spans="1:22">
       <c r="A705" s="6"/>
       <c r="B705" s="13"/>
-      <c r="C705" s="47"/>
+      <c r="C705" s="45"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
@@ -18271,7 +18320,7 @@
     <row r="706" spans="1:22">
       <c r="A706" s="6"/>
       <c r="B706" s="13"/>
-      <c r="C706" s="47"/>
+      <c r="C706" s="45"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
@@ -18295,7 +18344,7 @@
     <row r="707" spans="1:22">
       <c r="A707" s="6"/>
       <c r="B707" s="13"/>
-      <c r="C707" s="47"/>
+      <c r="C707" s="45"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
@@ -18319,7 +18368,7 @@
     <row r="708" spans="1:22">
       <c r="A708" s="6"/>
       <c r="B708" s="13"/>
-      <c r="C708" s="47"/>
+      <c r="C708" s="45"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
@@ -18343,7 +18392,7 @@
     <row r="709" spans="1:22">
       <c r="A709" s="6"/>
       <c r="B709" s="13"/>
-      <c r="C709" s="47"/>
+      <c r="C709" s="45"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
@@ -18367,7 +18416,7 @@
     <row r="710" spans="1:22">
       <c r="A710" s="6"/>
       <c r="B710" s="13"/>
-      <c r="C710" s="47"/>
+      <c r="C710" s="45"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
@@ -18391,7 +18440,7 @@
     <row r="711" spans="1:22">
       <c r="A711" s="6"/>
       <c r="B711" s="13"/>
-      <c r="C711" s="47"/>
+      <c r="C711" s="45"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
@@ -18415,7 +18464,7 @@
     <row r="712" spans="1:22">
       <c r="A712" s="6"/>
       <c r="B712" s="13"/>
-      <c r="C712" s="47"/>
+      <c r="C712" s="45"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
@@ -18439,7 +18488,7 @@
     <row r="713" spans="1:22">
       <c r="A713" s="6"/>
       <c r="B713" s="13"/>
-      <c r="C713" s="47"/>
+      <c r="C713" s="45"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
@@ -18463,7 +18512,7 @@
     <row r="714" spans="1:22">
       <c r="A714" s="6"/>
       <c r="B714" s="13"/>
-      <c r="C714" s="47"/>
+      <c r="C714" s="45"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
@@ -18487,7 +18536,7 @@
     <row r="715" spans="1:22">
       <c r="A715" s="6"/>
       <c r="B715" s="13"/>
-      <c r="C715" s="47"/>
+      <c r="C715" s="45"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
@@ -18511,7 +18560,7 @@
     <row r="716" spans="1:22">
       <c r="A716" s="6"/>
       <c r="B716" s="13"/>
-      <c r="C716" s="47"/>
+      <c r="C716" s="45"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
@@ -18535,7 +18584,7 @@
     <row r="717" spans="1:22">
       <c r="A717" s="6"/>
       <c r="B717" s="13"/>
-      <c r="C717" s="47"/>
+      <c r="C717" s="45"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
@@ -18559,7 +18608,7 @@
     <row r="718" spans="1:22">
       <c r="A718" s="6"/>
       <c r="B718" s="13"/>
-      <c r="C718" s="47"/>
+      <c r="C718" s="45"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
@@ -18583,7 +18632,7 @@
     <row r="719" spans="1:22">
       <c r="A719" s="6"/>
       <c r="B719" s="13"/>
-      <c r="C719" s="47"/>
+      <c r="C719" s="45"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
@@ -18607,7 +18656,7 @@
     <row r="720" spans="1:22">
       <c r="A720" s="6"/>
       <c r="B720" s="13"/>
-      <c r="C720" s="47"/>
+      <c r="C720" s="45"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
@@ -18631,7 +18680,7 @@
     <row r="721" spans="1:22">
       <c r="A721" s="6"/>
       <c r="B721" s="13"/>
-      <c r="C721" s="47"/>
+      <c r="C721" s="45"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
@@ -18655,7 +18704,7 @@
     <row r="722" spans="1:22">
       <c r="A722" s="6"/>
       <c r="B722" s="13"/>
-      <c r="C722" s="47"/>
+      <c r="C722" s="45"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
@@ -18679,7 +18728,7 @@
     <row r="723" spans="1:22">
       <c r="A723" s="6"/>
       <c r="B723" s="13"/>
-      <c r="C723" s="47"/>
+      <c r="C723" s="45"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
@@ -18703,7 +18752,7 @@
     <row r="724" spans="1:22">
       <c r="A724" s="6"/>
       <c r="B724" s="13"/>
-      <c r="C724" s="47"/>
+      <c r="C724" s="45"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
@@ -18727,7 +18776,7 @@
     <row r="725" spans="1:22">
       <c r="A725" s="6"/>
       <c r="B725" s="13"/>
-      <c r="C725" s="47"/>
+      <c r="C725" s="45"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
@@ -18751,7 +18800,7 @@
     <row r="726" spans="1:22">
       <c r="A726" s="6"/>
       <c r="B726" s="13"/>
-      <c r="C726" s="47"/>
+      <c r="C726" s="45"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
@@ -18775,7 +18824,7 @@
     <row r="727" spans="1:22">
       <c r="A727" s="6"/>
       <c r="B727" s="13"/>
-      <c r="C727" s="47"/>
+      <c r="C727" s="45"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
@@ -18799,7 +18848,7 @@
     <row r="728" spans="1:22">
       <c r="A728" s="6"/>
       <c r="B728" s="13"/>
-      <c r="C728" s="47"/>
+      <c r="C728" s="45"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
@@ -18823,7 +18872,7 @@
     <row r="729" spans="1:22">
       <c r="A729" s="6"/>
       <c r="B729" s="13"/>
-      <c r="C729" s="47"/>
+      <c r="C729" s="45"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
@@ -18847,7 +18896,7 @@
     <row r="730" spans="1:22">
       <c r="A730" s="6"/>
       <c r="B730" s="13"/>
-      <c r="C730" s="47"/>
+      <c r="C730" s="45"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
@@ -18871,7 +18920,7 @@
     <row r="731" spans="1:22">
       <c r="A731" s="6"/>
       <c r="B731" s="13"/>
-      <c r="C731" s="47"/>
+      <c r="C731" s="45"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
@@ -18895,7 +18944,7 @@
     <row r="732" spans="1:22">
       <c r="A732" s="6"/>
       <c r="B732" s="13"/>
-      <c r="C732" s="47"/>
+      <c r="C732" s="45"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
@@ -18919,7 +18968,7 @@
     <row r="733" spans="1:22">
       <c r="A733" s="6"/>
       <c r="B733" s="13"/>
-      <c r="C733" s="47"/>
+      <c r="C733" s="45"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
@@ -18943,7 +18992,7 @@
     <row r="734" spans="1:22">
       <c r="A734" s="6"/>
       <c r="B734" s="13"/>
-      <c r="C734" s="47"/>
+      <c r="C734" s="45"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
@@ -18967,7 +19016,7 @@
     <row r="735" spans="1:22">
       <c r="A735" s="6"/>
       <c r="B735" s="13"/>
-      <c r="C735" s="47"/>
+      <c r="C735" s="45"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
@@ -18991,7 +19040,7 @@
     <row r="736" spans="1:22">
       <c r="A736" s="6"/>
       <c r="B736" s="13"/>
-      <c r="C736" s="47"/>
+      <c r="C736" s="45"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
@@ -19015,7 +19064,7 @@
     <row r="737" spans="1:22">
       <c r="A737" s="6"/>
       <c r="B737" s="13"/>
-      <c r="C737" s="47"/>
+      <c r="C737" s="45"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
@@ -19039,7 +19088,7 @@
     <row r="738" spans="1:22">
       <c r="A738" s="6"/>
       <c r="B738" s="13"/>
-      <c r="C738" s="47"/>
+      <c r="C738" s="45"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
@@ -19063,7 +19112,7 @@
     <row r="739" spans="1:22">
       <c r="A739" s="6"/>
       <c r="B739" s="13"/>
-      <c r="C739" s="47"/>
+      <c r="C739" s="45"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
@@ -19087,7 +19136,7 @@
     <row r="740" spans="1:22">
       <c r="A740" s="6"/>
       <c r="B740" s="13"/>
-      <c r="C740" s="47"/>
+      <c r="C740" s="45"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
@@ -19111,7 +19160,7 @@
     <row r="741" spans="1:22">
       <c r="A741" s="6"/>
       <c r="B741" s="13"/>
-      <c r="C741" s="47"/>
+      <c r="C741" s="45"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
@@ -19135,7 +19184,7 @@
     <row r="742" spans="1:22">
       <c r="A742" s="6"/>
       <c r="B742" s="13"/>
-      <c r="C742" s="47"/>
+      <c r="C742" s="45"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
@@ -19159,7 +19208,7 @@
     <row r="743" spans="1:22">
       <c r="A743" s="6"/>
       <c r="B743" s="13"/>
-      <c r="C743" s="47"/>
+      <c r="C743" s="45"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
@@ -19183,7 +19232,7 @@
     <row r="744" spans="1:22">
       <c r="A744" s="6"/>
       <c r="B744" s="13"/>
-      <c r="C744" s="47"/>
+      <c r="C744" s="45"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
@@ -19207,7 +19256,7 @@
     <row r="745" spans="1:22">
       <c r="A745" s="6"/>
       <c r="B745" s="13"/>
-      <c r="C745" s="47"/>
+      <c r="C745" s="45"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
@@ -19231,7 +19280,7 @@
     <row r="746" spans="1:22">
       <c r="A746" s="6"/>
       <c r="B746" s="13"/>
-      <c r="C746" s="47"/>
+      <c r="C746" s="45"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
@@ -19255,7 +19304,7 @@
     <row r="747" spans="1:22">
       <c r="A747" s="6"/>
       <c r="B747" s="13"/>
-      <c r="C747" s="47"/>
+      <c r="C747" s="45"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
@@ -19279,7 +19328,7 @@
     <row r="748" spans="1:22">
       <c r="A748" s="6"/>
       <c r="B748" s="13"/>
-      <c r="C748" s="47"/>
+      <c r="C748" s="45"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
@@ -19303,7 +19352,7 @@
     <row r="749" spans="1:22">
       <c r="A749" s="6"/>
       <c r="B749" s="13"/>
-      <c r="C749" s="47"/>
+      <c r="C749" s="45"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
@@ -19327,7 +19376,7 @@
     <row r="750" spans="1:22">
       <c r="A750" s="6"/>
       <c r="B750" s="13"/>
-      <c r="C750" s="47"/>
+      <c r="C750" s="45"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
@@ -19351,7 +19400,7 @@
     <row r="751" spans="1:22">
       <c r="A751" s="6"/>
       <c r="B751" s="13"/>
-      <c r="C751" s="47"/>
+      <c r="C751" s="45"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
@@ -19375,7 +19424,7 @@
     <row r="752" spans="1:22">
       <c r="A752" s="6"/>
       <c r="B752" s="13"/>
-      <c r="C752" s="47"/>
+      <c r="C752" s="45"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
@@ -19399,7 +19448,7 @@
     <row r="753" spans="1:22">
       <c r="A753" s="6"/>
       <c r="B753" s="13"/>
-      <c r="C753" s="47"/>
+      <c r="C753" s="45"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
@@ -19423,7 +19472,7 @@
     <row r="754" spans="1:22">
       <c r="A754" s="6"/>
       <c r="B754" s="13"/>
-      <c r="C754" s="47"/>
+      <c r="C754" s="45"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
@@ -19447,7 +19496,7 @@
     <row r="755" spans="1:22">
       <c r="A755" s="6"/>
       <c r="B755" s="13"/>
-      <c r="C755" s="47"/>
+      <c r="C755" s="45"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
@@ -19471,7 +19520,7 @@
     <row r="756" spans="1:22">
       <c r="A756" s="6"/>
       <c r="B756" s="13"/>
-      <c r="C756" s="47"/>
+      <c r="C756" s="45"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
@@ -19495,7 +19544,7 @@
     <row r="757" spans="1:22">
       <c r="A757" s="6"/>
       <c r="B757" s="13"/>
-      <c r="C757" s="47"/>
+      <c r="C757" s="45"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
@@ -19519,7 +19568,7 @@
     <row r="758" spans="1:22">
       <c r="A758" s="6"/>
       <c r="B758" s="13"/>
-      <c r="C758" s="47"/>
+      <c r="C758" s="45"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
@@ -19543,7 +19592,7 @@
     <row r="759" spans="1:22">
       <c r="A759" s="6"/>
       <c r="B759" s="13"/>
-      <c r="C759" s="47"/>
+      <c r="C759" s="45"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
@@ -19567,7 +19616,7 @@
     <row r="760" spans="1:22">
       <c r="A760" s="6"/>
       <c r="B760" s="13"/>
-      <c r="C760" s="47"/>
+      <c r="C760" s="45"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
@@ -19591,7 +19640,7 @@
     <row r="761" spans="1:22">
       <c r="A761" s="6"/>
       <c r="B761" s="13"/>
-      <c r="C761" s="47"/>
+      <c r="C761" s="45"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
@@ -19615,7 +19664,7 @@
     <row r="762" spans="1:22">
       <c r="A762" s="6"/>
       <c r="B762" s="13"/>
-      <c r="C762" s="47"/>
+      <c r="C762" s="45"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
@@ -19639,7 +19688,7 @@
     <row r="763" spans="1:22">
       <c r="A763" s="6"/>
       <c r="B763" s="13"/>
-      <c r="C763" s="47"/>
+      <c r="C763" s="45"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
@@ -19663,7 +19712,7 @@
     <row r="764" spans="1:22">
       <c r="A764" s="6"/>
       <c r="B764" s="13"/>
-      <c r="C764" s="47"/>
+      <c r="C764" s="45"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
@@ -19687,7 +19736,7 @@
     <row r="765" spans="1:22">
       <c r="A765" s="6"/>
       <c r="B765" s="13"/>
-      <c r="C765" s="47"/>
+      <c r="C765" s="45"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
@@ -19711,7 +19760,7 @@
     <row r="766" spans="1:22">
       <c r="A766" s="6"/>
       <c r="B766" s="13"/>
-      <c r="C766" s="47"/>
+      <c r="C766" s="45"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
@@ -19735,7 +19784,7 @@
     <row r="767" spans="1:22">
       <c r="A767" s="6"/>
       <c r="B767" s="13"/>
-      <c r="C767" s="47"/>
+      <c r="C767" s="45"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
@@ -19759,7 +19808,7 @@
     <row r="768" spans="1:22">
       <c r="A768" s="6"/>
       <c r="B768" s="13"/>
-      <c r="C768" s="47"/>
+      <c r="C768" s="45"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
@@ -19783,7 +19832,7 @@
     <row r="769" spans="1:22">
       <c r="A769" s="6"/>
       <c r="B769" s="13"/>
-      <c r="C769" s="47"/>
+      <c r="C769" s="45"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
@@ -19807,7 +19856,7 @@
     <row r="770" spans="1:22">
       <c r="A770" s="6"/>
       <c r="B770" s="13"/>
-      <c r="C770" s="47"/>
+      <c r="C770" s="45"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
@@ -19831,7 +19880,7 @@
     <row r="771" spans="1:22">
       <c r="A771" s="6"/>
       <c r="B771" s="13"/>
-      <c r="C771" s="47"/>
+      <c r="C771" s="45"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
@@ -19855,7 +19904,7 @@
     <row r="772" spans="1:22">
       <c r="A772" s="6"/>
       <c r="B772" s="13"/>
-      <c r="C772" s="47"/>
+      <c r="C772" s="45"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
@@ -19879,7 +19928,7 @@
     <row r="773" spans="1:22">
       <c r="A773" s="6"/>
       <c r="B773" s="13"/>
-      <c r="C773" s="47"/>
+      <c r="C773" s="45"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
@@ -19903,7 +19952,7 @@
     <row r="774" spans="1:22">
       <c r="A774" s="6"/>
       <c r="B774" s="13"/>
-      <c r="C774" s="47"/>
+      <c r="C774" s="45"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
@@ -19927,7 +19976,7 @@
     <row r="775" spans="1:22">
       <c r="A775" s="6"/>
       <c r="B775" s="13"/>
-      <c r="C775" s="47"/>
+      <c r="C775" s="45"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
@@ -19951,7 +20000,7 @@
     <row r="776" spans="1:22">
       <c r="A776" s="6"/>
       <c r="B776" s="13"/>
-      <c r="C776" s="47"/>
+      <c r="C776" s="45"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
@@ -19975,7 +20024,7 @@
     <row r="777" spans="1:22">
       <c r="A777" s="6"/>
       <c r="B777" s="13"/>
-      <c r="C777" s="47"/>
+      <c r="C777" s="45"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
@@ -19999,7 +20048,7 @@
     <row r="778" spans="1:22">
       <c r="A778" s="6"/>
       <c r="B778" s="13"/>
-      <c r="C778" s="47"/>
+      <c r="C778" s="45"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
@@ -20023,7 +20072,7 @@
     <row r="779" spans="1:22">
       <c r="A779" s="6"/>
       <c r="B779" s="13"/>
-      <c r="C779" s="47"/>
+      <c r="C779" s="45"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
@@ -20047,7 +20096,7 @@
     <row r="780" spans="1:22">
       <c r="A780" s="6"/>
       <c r="B780" s="13"/>
-      <c r="C780" s="47"/>
+      <c r="C780" s="45"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
@@ -20071,7 +20120,7 @@
     <row r="781" spans="1:22">
       <c r="A781" s="6"/>
       <c r="B781" s="13"/>
-      <c r="C781" s="47"/>
+      <c r="C781" s="45"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
@@ -20095,7 +20144,7 @@
     <row r="782" spans="1:22">
       <c r="A782" s="6"/>
       <c r="B782" s="13"/>
-      <c r="C782" s="47"/>
+      <c r="C782" s="45"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
@@ -20119,7 +20168,7 @@
     <row r="783" spans="1:22">
       <c r="A783" s="6"/>
       <c r="B783" s="13"/>
-      <c r="C783" s="47"/>
+      <c r="C783" s="45"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
@@ -20143,7 +20192,7 @@
     <row r="784" spans="1:22">
       <c r="A784" s="6"/>
       <c r="B784" s="13"/>
-      <c r="C784" s="47"/>
+      <c r="C784" s="45"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
@@ -20167,7 +20216,7 @@
     <row r="785" spans="1:22">
       <c r="A785" s="6"/>
       <c r="B785" s="13"/>
-      <c r="C785" s="47"/>
+      <c r="C785" s="45"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
@@ -20191,7 +20240,7 @@
     <row r="786" spans="1:22">
       <c r="A786" s="6"/>
       <c r="B786" s="13"/>
-      <c r="C786" s="47"/>
+      <c r="C786" s="45"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
@@ -20215,7 +20264,7 @@
     <row r="787" spans="1:22">
       <c r="A787" s="6"/>
       <c r="B787" s="13"/>
-      <c r="C787" s="47"/>
+      <c r="C787" s="45"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
@@ -20239,7 +20288,7 @@
     <row r="788" spans="1:22">
       <c r="A788" s="6"/>
       <c r="B788" s="13"/>
-      <c r="C788" s="47"/>
+      <c r="C788" s="45"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
@@ -20263,7 +20312,7 @@
     <row r="789" spans="1:22">
       <c r="A789" s="6"/>
       <c r="B789" s="13"/>
-      <c r="C789" s="47"/>
+      <c r="C789" s="45"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
@@ -20287,7 +20336,7 @@
     <row r="790" spans="1:22">
       <c r="A790" s="6"/>
       <c r="B790" s="13"/>
-      <c r="C790" s="47"/>
+      <c r="C790" s="45"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
@@ -20311,7 +20360,7 @@
     <row r="791" spans="1:22">
       <c r="A791" s="6"/>
       <c r="B791" s="13"/>
-      <c r="C791" s="47"/>
+      <c r="C791" s="45"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
@@ -20335,7 +20384,7 @@
     <row r="792" spans="1:22">
       <c r="A792" s="6"/>
       <c r="B792" s="13"/>
-      <c r="C792" s="47"/>
+      <c r="C792" s="45"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
@@ -20359,7 +20408,7 @@
     <row r="793" spans="1:22">
       <c r="A793" s="6"/>
       <c r="B793" s="13"/>
-      <c r="C793" s="47"/>
+      <c r="C793" s="45"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
@@ -20383,7 +20432,7 @@
     <row r="794" spans="1:22">
       <c r="A794" s="6"/>
       <c r="B794" s="13"/>
-      <c r="C794" s="47"/>
+      <c r="C794" s="45"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
@@ -20407,7 +20456,7 @@
     <row r="795" spans="1:22">
       <c r="A795" s="6"/>
       <c r="B795" s="13"/>
-      <c r="C795" s="47"/>
+      <c r="C795" s="45"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
@@ -20431,7 +20480,7 @@
     <row r="796" spans="1:22">
       <c r="A796" s="6"/>
       <c r="B796" s="13"/>
-      <c r="C796" s="47"/>
+      <c r="C796" s="45"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
@@ -20455,7 +20504,7 @@
     <row r="797" spans="1:22">
       <c r="A797" s="6"/>
       <c r="B797" s="13"/>
-      <c r="C797" s="47"/>
+      <c r="C797" s="45"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
@@ -20479,7 +20528,7 @@
     <row r="798" spans="1:22">
       <c r="A798" s="6"/>
       <c r="B798" s="13"/>
-      <c r="C798" s="47"/>
+      <c r="C798" s="45"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
@@ -20503,7 +20552,7 @@
     <row r="799" spans="1:22">
       <c r="A799" s="6"/>
       <c r="B799" s="13"/>
-      <c r="C799" s="47"/>
+      <c r="C799" s="45"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
@@ -20527,7 +20576,7 @@
     <row r="800" spans="1:22">
       <c r="A800" s="6"/>
       <c r="B800" s="13"/>
-      <c r="C800" s="47"/>
+      <c r="C800" s="45"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
@@ -20551,7 +20600,7 @@
     <row r="801" spans="1:22">
       <c r="A801" s="6"/>
       <c r="B801" s="13"/>
-      <c r="C801" s="47"/>
+      <c r="C801" s="45"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
@@ -20575,7 +20624,7 @@
     <row r="802" spans="1:22">
       <c r="A802" s="6"/>
       <c r="B802" s="13"/>
-      <c r="C802" s="47"/>
+      <c r="C802" s="45"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
@@ -20599,7 +20648,7 @@
     <row r="803" spans="1:22">
       <c r="A803" s="6"/>
       <c r="B803" s="13"/>
-      <c r="C803" s="47"/>
+      <c r="C803" s="45"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
@@ -20623,7 +20672,7 @@
     <row r="804" spans="1:22">
       <c r="A804" s="6"/>
       <c r="B804" s="13"/>
-      <c r="C804" s="47"/>
+      <c r="C804" s="45"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
@@ -20647,7 +20696,7 @@
     <row r="805" spans="1:22">
       <c r="A805" s="6"/>
       <c r="B805" s="13"/>
-      <c r="C805" s="47"/>
+      <c r="C805" s="45"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
@@ -20671,7 +20720,7 @@
     <row r="806" spans="1:22">
       <c r="A806" s="6"/>
       <c r="B806" s="13"/>
-      <c r="C806" s="47"/>
+      <c r="C806" s="45"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
@@ -20695,7 +20744,7 @@
     <row r="807" spans="1:22">
       <c r="A807" s="6"/>
       <c r="B807" s="13"/>
-      <c r="C807" s="47"/>
+      <c r="C807" s="45"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
@@ -20719,7 +20768,7 @@
     <row r="808" spans="1:22">
       <c r="A808" s="6"/>
       <c r="B808" s="13"/>
-      <c r="C808" s="47"/>
+      <c r="C808" s="45"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
@@ -20743,7 +20792,7 @@
     <row r="809" spans="1:22">
       <c r="A809" s="6"/>
       <c r="B809" s="13"/>
-      <c r="C809" s="47"/>
+      <c r="C809" s="45"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
@@ -20767,7 +20816,7 @@
     <row r="810" spans="1:22">
       <c r="A810" s="6"/>
       <c r="B810" s="13"/>
-      <c r="C810" s="47"/>
+      <c r="C810" s="45"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
@@ -20791,7 +20840,7 @@
     <row r="811" spans="1:22">
       <c r="A811" s="6"/>
       <c r="B811" s="13"/>
-      <c r="C811" s="47"/>
+      <c r="C811" s="45"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
@@ -20815,7 +20864,7 @@
     <row r="812" spans="1:22">
       <c r="A812" s="6"/>
       <c r="B812" s="13"/>
-      <c r="C812" s="47"/>
+      <c r="C812" s="45"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
@@ -20839,7 +20888,7 @@
     <row r="813" spans="1:22">
       <c r="A813" s="6"/>
       <c r="B813" s="13"/>
-      <c r="C813" s="47"/>
+      <c r="C813" s="45"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
@@ -20863,7 +20912,7 @@
     <row r="814" spans="1:22">
       <c r="A814" s="6"/>
       <c r="B814" s="13"/>
-      <c r="C814" s="47"/>
+      <c r="C814" s="45"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
@@ -20887,7 +20936,7 @@
     <row r="815" spans="1:22">
       <c r="A815" s="6"/>
       <c r="B815" s="13"/>
-      <c r="C815" s="47"/>
+      <c r="C815" s="45"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
@@ -20911,7 +20960,7 @@
     <row r="816" spans="1:22">
       <c r="A816" s="6"/>
       <c r="B816" s="13"/>
-      <c r="C816" s="47"/>
+      <c r="C816" s="45"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
@@ -20935,7 +20984,7 @@
     <row r="817" spans="1:22">
       <c r="A817" s="6"/>
       <c r="B817" s="13"/>
-      <c r="C817" s="47"/>
+      <c r="C817" s="45"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
@@ -20959,7 +21008,7 @@
     <row r="818" spans="1:22">
       <c r="A818" s="6"/>
       <c r="B818" s="13"/>
-      <c r="C818" s="47"/>
+      <c r="C818" s="45"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
@@ -20983,7 +21032,7 @@
     <row r="819" spans="1:22">
       <c r="A819" s="6"/>
       <c r="B819" s="13"/>
-      <c r="C819" s="47"/>
+      <c r="C819" s="45"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
@@ -21007,7 +21056,7 @@
     <row r="820" spans="1:22">
       <c r="A820" s="6"/>
       <c r="B820" s="13"/>
-      <c r="C820" s="47"/>
+      <c r="C820" s="45"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
@@ -21031,7 +21080,7 @@
     <row r="821" spans="1:22">
       <c r="A821" s="6"/>
       <c r="B821" s="13"/>
-      <c r="C821" s="47"/>
+      <c r="C821" s="45"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
@@ -21055,7 +21104,7 @@
     <row r="822" spans="1:22">
       <c r="A822" s="6"/>
       <c r="B822" s="13"/>
-      <c r="C822" s="47"/>
+      <c r="C822" s="45"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
@@ -21079,7 +21128,7 @@
     <row r="823" spans="1:22">
       <c r="A823" s="6"/>
       <c r="B823" s="13"/>
-      <c r="C823" s="47"/>
+      <c r="C823" s="45"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
@@ -21103,7 +21152,7 @@
     <row r="824" spans="1:22">
       <c r="A824" s="6"/>
       <c r="B824" s="13"/>
-      <c r="C824" s="47"/>
+      <c r="C824" s="45"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
@@ -21127,7 +21176,7 @@
     <row r="825" spans="1:22">
       <c r="A825" s="6"/>
       <c r="B825" s="13"/>
-      <c r="C825" s="47"/>
+      <c r="C825" s="45"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
@@ -21151,7 +21200,7 @@
     <row r="826" spans="1:22">
       <c r="A826" s="6"/>
       <c r="B826" s="13"/>
-      <c r="C826" s="47"/>
+      <c r="C826" s="45"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
@@ -21175,7 +21224,7 @@
     <row r="827" spans="1:22">
       <c r="A827" s="6"/>
       <c r="B827" s="13"/>
-      <c r="C827" s="47"/>
+      <c r="C827" s="45"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
@@ -21199,7 +21248,7 @@
     <row r="828" spans="1:22">
       <c r="A828" s="6"/>
       <c r="B828" s="13"/>
-      <c r="C828" s="47"/>
+      <c r="C828" s="45"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
@@ -21223,7 +21272,7 @@
     <row r="829" spans="1:22">
       <c r="A829" s="6"/>
       <c r="B829" s="13"/>
-      <c r="C829" s="47"/>
+      <c r="C829" s="45"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
@@ -21247,7 +21296,7 @@
     <row r="830" spans="1:22">
       <c r="A830" s="6"/>
       <c r="B830" s="13"/>
-      <c r="C830" s="47"/>
+      <c r="C830" s="45"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
@@ -21271,7 +21320,7 @@
     <row r="831" spans="1:22">
       <c r="A831" s="6"/>
       <c r="B831" s="13"/>
-      <c r="C831" s="47"/>
+      <c r="C831" s="45"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
@@ -21295,7 +21344,7 @@
     <row r="832" spans="1:22">
       <c r="A832" s="6"/>
       <c r="B832" s="13"/>
-      <c r="C832" s="47"/>
+      <c r="C832" s="45"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
@@ -21319,7 +21368,7 @@
     <row r="833" spans="1:22">
       <c r="A833" s="6"/>
       <c r="B833" s="13"/>
-      <c r="C833" s="47"/>
+      <c r="C833" s="45"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
@@ -21343,7 +21392,7 @@
     <row r="834" spans="1:22">
       <c r="A834" s="6"/>
       <c r="B834" s="13"/>
-      <c r="C834" s="47"/>
+      <c r="C834" s="45"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
@@ -21367,7 +21416,7 @@
     <row r="835" spans="1:22">
       <c r="A835" s="6"/>
       <c r="B835" s="13"/>
-      <c r="C835" s="47"/>
+      <c r="C835" s="45"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
@@ -21391,7 +21440,7 @@
     <row r="836" spans="1:22">
       <c r="A836" s="6"/>
       <c r="B836" s="13"/>
-      <c r="C836" s="47"/>
+      <c r="C836" s="45"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
@@ -21415,7 +21464,7 @@
     <row r="837" spans="1:22">
       <c r="A837" s="6"/>
       <c r="B837" s="13"/>
-      <c r="C837" s="47"/>
+      <c r="C837" s="45"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
@@ -21439,7 +21488,7 @@
     <row r="838" spans="1:22">
       <c r="A838" s="6"/>
       <c r="B838" s="13"/>
-      <c r="C838" s="47"/>
+      <c r="C838" s="45"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
@@ -21463,7 +21512,7 @@
     <row r="839" spans="1:22">
       <c r="A839" s="6"/>
       <c r="B839" s="13"/>
-      <c r="C839" s="47"/>
+      <c r="C839" s="45"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
@@ -21487,7 +21536,7 @@
     <row r="840" spans="1:22">
       <c r="A840" s="6"/>
       <c r="B840" s="13"/>
-      <c r="C840" s="47"/>
+      <c r="C840" s="45"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
@@ -21511,7 +21560,7 @@
     <row r="841" spans="1:22">
       <c r="A841" s="6"/>
       <c r="B841" s="13"/>
-      <c r="C841" s="47"/>
+      <c r="C841" s="45"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
@@ -21535,7 +21584,7 @@
     <row r="842" spans="1:22">
       <c r="A842" s="6"/>
       <c r="B842" s="13"/>
-      <c r="C842" s="47"/>
+      <c r="C842" s="45"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
@@ -21559,7 +21608,7 @@
     <row r="843" spans="1:22">
       <c r="A843" s="6"/>
       <c r="B843" s="13"/>
-      <c r="C843" s="47"/>
+      <c r="C843" s="45"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
@@ -21583,7 +21632,7 @@
     <row r="844" spans="1:22">
       <c r="A844" s="6"/>
       <c r="B844" s="13"/>
-      <c r="C844" s="47"/>
+      <c r="C844" s="45"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
@@ -21607,7 +21656,7 @@
     <row r="845" spans="1:22">
       <c r="A845" s="6"/>
       <c r="B845" s="13"/>
-      <c r="C845" s="47"/>
+      <c r="C845" s="45"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
@@ -21631,7 +21680,7 @@
     <row r="846" spans="1:22">
       <c r="A846" s="6"/>
       <c r="B846" s="13"/>
-      <c r="C846" s="47"/>
+      <c r="C846" s="45"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
@@ -21655,7 +21704,7 @@
     <row r="847" spans="1:22">
       <c r="A847" s="6"/>
       <c r="B847" s="13"/>
-      <c r="C847" s="47"/>
+      <c r="C847" s="45"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
@@ -21679,7 +21728,7 @@
     <row r="848" spans="1:22">
       <c r="A848" s="6"/>
       <c r="B848" s="13"/>
-      <c r="C848" s="47"/>
+      <c r="C848" s="45"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
@@ -21703,7 +21752,7 @@
     <row r="849" spans="1:22">
       <c r="A849" s="6"/>
       <c r="B849" s="13"/>
-      <c r="C849" s="47"/>
+      <c r="C849" s="45"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
@@ -21727,7 +21776,7 @@
     <row r="850" spans="1:22">
       <c r="A850" s="6"/>
       <c r="B850" s="13"/>
-      <c r="C850" s="47"/>
+      <c r="C850" s="45"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
@@ -21751,7 +21800,7 @@
     <row r="851" spans="1:22">
       <c r="A851" s="6"/>
       <c r="B851" s="13"/>
-      <c r="C851" s="47"/>
+      <c r="C851" s="45"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
@@ -21775,7 +21824,7 @@
     <row r="852" spans="1:22">
       <c r="A852" s="6"/>
       <c r="B852" s="13"/>
-      <c r="C852" s="47"/>
+      <c r="C852" s="45"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
@@ -21799,7 +21848,7 @@
     <row r="853" spans="1:22">
       <c r="A853" s="6"/>
       <c r="B853" s="13"/>
-      <c r="C853" s="47"/>
+      <c r="C853" s="45"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
@@ -21823,7 +21872,7 @@
     <row r="854" spans="1:22">
       <c r="A854" s="6"/>
       <c r="B854" s="13"/>
-      <c r="C854" s="47"/>
+      <c r="C854" s="45"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
@@ -21847,7 +21896,7 @@
     <row r="855" spans="1:22">
       <c r="A855" s="6"/>
       <c r="B855" s="13"/>
-      <c r="C855" s="47"/>
+      <c r="C855" s="45"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
@@ -21871,7 +21920,7 @@
     <row r="856" spans="1:22">
       <c r="A856" s="6"/>
       <c r="B856" s="13"/>
-      <c r="C856" s="47"/>
+      <c r="C856" s="45"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
@@ -21895,7 +21944,7 @@
     <row r="857" spans="1:22">
       <c r="A857" s="6"/>
       <c r="B857" s="13"/>
-      <c r="C857" s="47"/>
+      <c r="C857" s="45"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
@@ -21919,7 +21968,7 @@
     <row r="858" spans="1:22">
       <c r="A858" s="6"/>
       <c r="B858" s="13"/>
-      <c r="C858" s="47"/>
+      <c r="C858" s="45"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
@@ -21943,7 +21992,7 @@
     <row r="859" spans="1:22">
       <c r="A859" s="6"/>
       <c r="B859" s="13"/>
-      <c r="C859" s="47"/>
+      <c r="C859" s="45"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
@@ -21967,7 +22016,7 @@
     <row r="860" spans="1:22">
       <c r="A860" s="6"/>
       <c r="B860" s="13"/>
-      <c r="C860" s="47"/>
+      <c r="C860" s="45"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
@@ -21991,7 +22040,7 @@
     <row r="861" spans="1:22">
       <c r="A861" s="6"/>
       <c r="B861" s="13"/>
-      <c r="C861" s="47"/>
+      <c r="C861" s="45"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
@@ -22015,7 +22064,7 @@
     <row r="862" spans="1:22">
       <c r="A862" s="6"/>
       <c r="B862" s="13"/>
-      <c r="C862" s="47"/>
+      <c r="C862" s="45"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
@@ -22039,7 +22088,7 @@
     <row r="863" spans="1:22">
       <c r="A863" s="6"/>
       <c r="B863" s="13"/>
-      <c r="C863" s="47"/>
+      <c r="C863" s="45"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
@@ -22063,7 +22112,7 @@
     <row r="864" spans="1:22">
       <c r="A864" s="6"/>
       <c r="B864" s="13"/>
-      <c r="C864" s="47"/>
+      <c r="C864" s="45"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
@@ -22087,7 +22136,7 @@
     <row r="865" spans="1:22">
       <c r="A865" s="6"/>
       <c r="B865" s="13"/>
-      <c r="C865" s="47"/>
+      <c r="C865" s="45"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
@@ -22111,7 +22160,7 @@
     <row r="866" spans="1:22">
       <c r="A866" s="6"/>
       <c r="B866" s="13"/>
-      <c r="C866" s="47"/>
+      <c r="C866" s="45"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
@@ -22135,7 +22184,7 @@
     <row r="867" spans="1:22">
       <c r="A867" s="6"/>
       <c r="B867" s="13"/>
-      <c r="C867" s="47"/>
+      <c r="C867" s="45"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
@@ -22159,7 +22208,7 @@
     <row r="868" spans="1:22">
       <c r="A868" s="6"/>
       <c r="B868" s="13"/>
-      <c r="C868" s="47"/>
+      <c r="C868" s="45"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
@@ -22183,7 +22232,7 @@
     <row r="869" spans="1:22">
       <c r="A869" s="6"/>
       <c r="B869" s="13"/>
-      <c r="C869" s="47"/>
+      <c r="C869" s="45"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
@@ -22207,7 +22256,7 @@
     <row r="870" spans="1:22">
       <c r="A870" s="6"/>
       <c r="B870" s="13"/>
-      <c r="C870" s="47"/>
+      <c r="C870" s="45"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
@@ -22231,7 +22280,7 @@
     <row r="871" spans="1:22">
       <c r="A871" s="6"/>
       <c r="B871" s="13"/>
-      <c r="C871" s="47"/>
+      <c r="C871" s="45"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
@@ -22255,7 +22304,7 @@
     <row r="872" spans="1:22">
       <c r="A872" s="6"/>
       <c r="B872" s="13"/>
-      <c r="C872" s="47"/>
+      <c r="C872" s="45"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
@@ -22279,7 +22328,7 @@
     <row r="873" spans="1:22">
       <c r="A873" s="6"/>
       <c r="B873" s="13"/>
-      <c r="C873" s="47"/>
+      <c r="C873" s="45"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
@@ -22303,7 +22352,7 @@
     <row r="874" spans="1:22">
       <c r="A874" s="6"/>
       <c r="B874" s="13"/>
-      <c r="C874" s="47"/>
+      <c r="C874" s="45"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
@@ -22327,7 +22376,7 @@
     <row r="875" spans="1:22">
       <c r="A875" s="6"/>
       <c r="B875" s="13"/>
-      <c r="C875" s="47"/>
+      <c r="C875" s="45"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
@@ -22351,7 +22400,7 @@
     <row r="876" spans="1:22">
       <c r="A876" s="6"/>
       <c r="B876" s="13"/>
-      <c r="C876" s="47"/>
+      <c r="C876" s="45"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
@@ -22375,7 +22424,7 @@
     <row r="877" spans="1:22">
       <c r="A877" s="6"/>
       <c r="B877" s="13"/>
-      <c r="C877" s="47"/>
+      <c r="C877" s="45"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
@@ -22399,7 +22448,7 @@
     <row r="878" spans="1:22">
       <c r="A878" s="6"/>
       <c r="B878" s="13"/>
-      <c r="C878" s="47"/>
+      <c r="C878" s="45"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
@@ -22423,7 +22472,7 @@
     <row r="879" spans="1:22">
       <c r="A879" s="6"/>
       <c r="B879" s="13"/>
-      <c r="C879" s="47"/>
+      <c r="C879" s="45"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
@@ -22447,7 +22496,7 @@
     <row r="880" spans="1:22">
       <c r="A880" s="6"/>
       <c r="B880" s="13"/>
-      <c r="C880" s="47"/>
+      <c r="C880" s="45"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
@@ -22471,7 +22520,7 @@
     <row r="881" spans="1:22">
       <c r="A881" s="6"/>
       <c r="B881" s="13"/>
-      <c r="C881" s="47"/>
+      <c r="C881" s="45"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
@@ -22495,7 +22544,7 @@
     <row r="882" spans="1:22">
       <c r="A882" s="6"/>
       <c r="B882" s="13"/>
-      <c r="C882" s="47"/>
+      <c r="C882" s="45"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
@@ -22519,7 +22568,7 @@
     <row r="883" spans="1:22">
       <c r="A883" s="6"/>
       <c r="B883" s="13"/>
-      <c r="C883" s="47"/>
+      <c r="C883" s="45"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
@@ -22543,7 +22592,7 @@
     <row r="884" spans="1:22">
       <c r="A884" s="6"/>
       <c r="B884" s="13"/>
-      <c r="C884" s="47"/>
+      <c r="C884" s="45"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
@@ -22567,7 +22616,7 @@
     <row r="885" spans="1:22">
       <c r="A885" s="6"/>
       <c r="B885" s="13"/>
-      <c r="C885" s="47"/>
+      <c r="C885" s="45"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
@@ -22591,7 +22640,7 @@
     <row r="886" spans="1:22">
       <c r="A886" s="6"/>
       <c r="B886" s="13"/>
-      <c r="C886" s="47"/>
+      <c r="C886" s="45"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
@@ -22615,7 +22664,7 @@
     <row r="887" spans="1:22">
       <c r="A887" s="6"/>
       <c r="B887" s="13"/>
-      <c r="C887" s="47"/>
+      <c r="C887" s="45"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
@@ -22639,7 +22688,7 @@
     <row r="888" spans="1:22">
       <c r="A888" s="6"/>
       <c r="B888" s="13"/>
-      <c r="C888" s="47"/>
+      <c r="C888" s="45"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
@@ -22663,7 +22712,7 @@
     <row r="889" spans="1:22">
       <c r="A889" s="6"/>
       <c r="B889" s="13"/>
-      <c r="C889" s="47"/>
+      <c r="C889" s="45"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
@@ -22687,7 +22736,7 @@
     <row r="890" spans="1:22">
       <c r="A890" s="6"/>
       <c r="B890" s="13"/>
-      <c r="C890" s="47"/>
+      <c r="C890" s="45"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
@@ -22711,7 +22760,7 @@
     <row r="891" spans="1:22">
       <c r="A891" s="6"/>
       <c r="B891" s="13"/>
-      <c r="C891" s="47"/>
+      <c r="C891" s="45"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
@@ -22735,7 +22784,7 @@
     <row r="892" spans="1:22">
       <c r="A892" s="6"/>
       <c r="B892" s="13"/>
-      <c r="C892" s="47"/>
+      <c r="C892" s="45"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
@@ -22759,7 +22808,7 @@
     <row r="893" spans="1:22">
       <c r="A893" s="6"/>
       <c r="B893" s="13"/>
-      <c r="C893" s="47"/>
+      <c r="C893" s="45"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
@@ -22783,7 +22832,7 @@
     <row r="894" spans="1:22">
       <c r="A894" s="6"/>
       <c r="B894" s="13"/>
-      <c r="C894" s="47"/>
+      <c r="C894" s="45"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
@@ -22807,7 +22856,7 @@
     <row r="895" spans="1:22">
       <c r="A895" s="6"/>
       <c r="B895" s="13"/>
-      <c r="C895" s="47"/>
+      <c r="C895" s="45"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
@@ -22831,7 +22880,7 @@
     <row r="896" spans="1:22">
       <c r="A896" s="6"/>
       <c r="B896" s="13"/>
-      <c r="C896" s="47"/>
+      <c r="C896" s="45"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
@@ -22855,7 +22904,7 @@
     <row r="897" spans="1:22">
       <c r="A897" s="6"/>
       <c r="B897" s="13"/>
-      <c r="C897" s="47"/>
+      <c r="C897" s="45"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
@@ -22879,7 +22928,7 @@
     <row r="898" spans="1:22">
       <c r="A898" s="6"/>
       <c r="B898" s="13"/>
-      <c r="C898" s="47"/>
+      <c r="C898" s="45"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
@@ -22903,7 +22952,7 @@
     <row r="899" spans="1:22">
       <c r="A899" s="6"/>
       <c r="B899" s="13"/>
-      <c r="C899" s="47"/>
+      <c r="C899" s="45"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
@@ -22927,7 +22976,7 @@
     <row r="900" spans="1:22">
       <c r="A900" s="6"/>
       <c r="B900" s="13"/>
-      <c r="C900" s="47"/>
+      <c r="C900" s="45"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
@@ -22951,7 +23000,7 @@
     <row r="901" spans="1:22">
       <c r="A901" s="6"/>
       <c r="B901" s="13"/>
-      <c r="C901" s="47"/>
+      <c r="C901" s="45"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
@@ -22975,7 +23024,7 @@
     <row r="902" spans="1:22">
       <c r="A902" s="6"/>
       <c r="B902" s="13"/>
-      <c r="C902" s="47"/>
+      <c r="C902" s="45"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
@@ -22999,7 +23048,7 @@
     <row r="903" spans="1:22">
       <c r="A903" s="6"/>
       <c r="B903" s="13"/>
-      <c r="C903" s="47"/>
+      <c r="C903" s="45"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
@@ -23023,7 +23072,7 @@
     <row r="904" spans="1:22">
       <c r="A904" s="6"/>
       <c r="B904" s="13"/>
-      <c r="C904" s="47"/>
+      <c r="C904" s="45"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
@@ -23047,7 +23096,7 @@
     <row r="905" spans="1:22">
       <c r="A905" s="6"/>
       <c r="B905" s="13"/>
-      <c r="C905" s="47"/>
+      <c r="C905" s="45"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
@@ -23071,7 +23120,7 @@
     <row r="906" spans="1:22">
       <c r="A906" s="6"/>
       <c r="B906" s="13"/>
-      <c r="C906" s="47"/>
+      <c r="C906" s="45"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
@@ -23095,7 +23144,7 @@
     <row r="907" spans="1:22">
       <c r="A907" s="6"/>
       <c r="B907" s="13"/>
-      <c r="C907" s="47"/>
+      <c r="C907" s="45"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
@@ -23119,7 +23168,7 @@
     <row r="908" spans="1:22">
       <c r="A908" s="6"/>
       <c r="B908" s="13"/>
-      <c r="C908" s="47"/>
+      <c r="C908" s="45"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
@@ -23143,7 +23192,7 @@
     <row r="909" spans="1:22">
       <c r="A909" s="6"/>
       <c r="B909" s="13"/>
-      <c r="C909" s="47"/>
+      <c r="C909" s="45"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
@@ -23167,7 +23216,7 @@
     <row r="910" spans="1:22">
       <c r="A910" s="6"/>
       <c r="B910" s="13"/>
-      <c r="C910" s="47"/>
+      <c r="C910" s="45"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
@@ -23191,7 +23240,7 @@
     <row r="911" spans="1:22">
       <c r="A911" s="6"/>
       <c r="B911" s="13"/>
-      <c r="C911" s="47"/>
+      <c r="C911" s="45"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
@@ -23215,7 +23264,7 @@
     <row r="912" spans="1:22">
       <c r="A912" s="6"/>
       <c r="B912" s="13"/>
-      <c r="C912" s="47"/>
+      <c r="C912" s="45"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
@@ -23239,7 +23288,7 @@
     <row r="913" spans="1:22">
       <c r="A913" s="6"/>
       <c r="B913" s="13"/>
-      <c r="C913" s="47"/>
+      <c r="C913" s="45"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
@@ -23263,7 +23312,7 @@
     <row r="914" spans="1:22">
       <c r="A914" s="6"/>
       <c r="B914" s="13"/>
-      <c r="C914" s="47"/>
+      <c r="C914" s="45"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
@@ -23287,7 +23336,7 @@
     <row r="915" spans="1:22">
       <c r="A915" s="6"/>
       <c r="B915" s="13"/>
-      <c r="C915" s="47"/>
+      <c r="C915" s="45"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
@@ -23311,7 +23360,7 @@
     <row r="916" spans="1:22">
       <c r="A916" s="6"/>
       <c r="B916" s="13"/>
-      <c r="C916" s="47"/>
+      <c r="C916" s="45"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
@@ -23335,7 +23384,7 @@
     <row r="917" spans="1:22">
       <c r="A917" s="6"/>
       <c r="B917" s="13"/>
-      <c r="C917" s="47"/>
+      <c r="C917" s="45"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
@@ -23359,7 +23408,7 @@
     <row r="918" spans="1:22">
       <c r="A918" s="6"/>
       <c r="B918" s="13"/>
-      <c r="C918" s="47"/>
+      <c r="C918" s="45"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
@@ -23383,7 +23432,7 @@
     <row r="919" spans="1:22">
       <c r="A919" s="6"/>
       <c r="B919" s="13"/>
-      <c r="C919" s="47"/>
+      <c r="C919" s="45"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
@@ -23407,7 +23456,7 @@
     <row r="920" spans="1:22">
       <c r="A920" s="6"/>
       <c r="B920" s="13"/>
-      <c r="C920" s="47"/>
+      <c r="C920" s="45"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
@@ -23431,7 +23480,7 @@
     <row r="921" spans="1:22">
       <c r="A921" s="6"/>
       <c r="B921" s="13"/>
-      <c r="C921" s="47"/>
+      <c r="C921" s="45"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
@@ -23455,7 +23504,7 @@
     <row r="922" spans="1:22">
       <c r="A922" s="6"/>
       <c r="B922" s="13"/>
-      <c r="C922" s="47"/>
+      <c r="C922" s="45"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
@@ -23479,7 +23528,7 @@
     <row r="923" spans="1:22">
       <c r="A923" s="6"/>
       <c r="B923" s="13"/>
-      <c r="C923" s="47"/>
+      <c r="C923" s="45"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
@@ -23503,7 +23552,7 @@
     <row r="924" spans="1:22">
       <c r="A924" s="6"/>
       <c r="B924" s="13"/>
-      <c r="C924" s="47"/>
+      <c r="C924" s="45"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
@@ -23527,7 +23576,7 @@
     <row r="925" spans="1:22">
       <c r="A925" s="6"/>
       <c r="B925" s="13"/>
-      <c r="C925" s="47"/>
+      <c r="C925" s="45"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
@@ -23551,7 +23600,7 @@
     <row r="926" spans="1:22">
       <c r="A926" s="6"/>
       <c r="B926" s="13"/>
-      <c r="C926" s="47"/>
+      <c r="C926" s="45"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
@@ -23575,7 +23624,7 @@
     <row r="927" spans="1:22">
       <c r="A927" s="6"/>
       <c r="B927" s="13"/>
-      <c r="C927" s="47"/>
+      <c r="C927" s="45"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
@@ -23599,7 +23648,7 @@
     <row r="928" spans="1:22">
       <c r="A928" s="6"/>
       <c r="B928" s="13"/>
-      <c r="C928" s="47"/>
+      <c r="C928" s="45"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
@@ -23623,7 +23672,7 @@
     <row r="929" spans="1:22">
       <c r="A929" s="6"/>
       <c r="B929" s="13"/>
-      <c r="C929" s="47"/>
+      <c r="C929" s="45"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
@@ -23647,7 +23696,7 @@
     <row r="930" spans="1:22">
       <c r="A930" s="6"/>
       <c r="B930" s="13"/>
-      <c r="C930" s="47"/>
+      <c r="C930" s="45"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
@@ -23671,7 +23720,7 @@
     <row r="931" spans="1:22">
       <c r="A931" s="6"/>
       <c r="B931" s="13"/>
-      <c r="C931" s="47"/>
+      <c r="C931" s="45"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
@@ -23695,7 +23744,7 @@
     <row r="932" spans="1:22">
       <c r="A932" s="6"/>
       <c r="B932" s="13"/>
-      <c r="C932" s="47"/>
+      <c r="C932" s="45"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
@@ -23719,7 +23768,7 @@
     <row r="933" spans="1:22">
       <c r="A933" s="6"/>
       <c r="B933" s="13"/>
-      <c r="C933" s="47"/>
+      <c r="C933" s="45"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
@@ -23743,7 +23792,7 @@
     <row r="934" spans="1:22">
       <c r="A934" s="6"/>
       <c r="B934" s="13"/>
-      <c r="C934" s="47"/>
+      <c r="C934" s="45"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
@@ -23767,7 +23816,7 @@
     <row r="935" spans="1:22">
       <c r="A935" s="6"/>
       <c r="B935" s="13"/>
-      <c r="C935" s="47"/>
+      <c r="C935" s="45"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
@@ -23791,7 +23840,7 @@
     <row r="936" spans="1:22">
       <c r="A936" s="6"/>
       <c r="B936" s="13"/>
-      <c r="C936" s="47"/>
+      <c r="C936" s="45"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
@@ -23815,7 +23864,7 @@
     <row r="937" spans="1:22">
       <c r="A937" s="6"/>
       <c r="B937" s="13"/>
-      <c r="C937" s="47"/>
+      <c r="C937" s="45"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
@@ -23839,7 +23888,7 @@
     <row r="938" spans="1:22">
       <c r="A938" s="6"/>
       <c r="B938" s="13"/>
-      <c r="C938" s="47"/>
+      <c r="C938" s="45"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
@@ -23863,7 +23912,7 @@
     <row r="939" spans="1:22">
       <c r="A939" s="6"/>
       <c r="B939" s="13"/>
-      <c r="C939" s="47"/>
+      <c r="C939" s="45"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
@@ -23887,7 +23936,7 @@
     <row r="940" spans="1:22">
       <c r="A940" s="6"/>
       <c r="B940" s="13"/>
-      <c r="C940" s="47"/>
+      <c r="C940" s="45"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
@@ -23911,7 +23960,7 @@
     <row r="941" spans="1:22">
       <c r="A941" s="6"/>
       <c r="B941" s="13"/>
-      <c r="C941" s="47"/>
+      <c r="C941" s="45"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
@@ -23935,7 +23984,7 @@
     <row r="942" spans="1:22">
       <c r="A942" s="6"/>
       <c r="B942" s="13"/>
-      <c r="C942" s="47"/>
+      <c r="C942" s="45"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
@@ -23959,7 +24008,7 @@
     <row r="943" spans="1:22">
       <c r="A943" s="6"/>
       <c r="B943" s="13"/>
-      <c r="C943" s="47"/>
+      <c r="C943" s="45"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
@@ -23983,7 +24032,7 @@
     <row r="944" spans="1:22">
       <c r="A944" s="6"/>
       <c r="B944" s="13"/>
-      <c r="C944" s="47"/>
+      <c r="C944" s="45"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
@@ -24007,7 +24056,7 @@
     <row r="945" spans="1:22">
       <c r="A945" s="6"/>
       <c r="B945" s="13"/>
-      <c r="C945" s="47"/>
+      <c r="C945" s="45"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
@@ -24031,7 +24080,7 @@
     <row r="946" spans="1:22">
       <c r="A946" s="6"/>
       <c r="B946" s="13"/>
-      <c r="C946" s="47"/>
+      <c r="C946" s="45"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
@@ -24055,7 +24104,7 @@
     <row r="947" spans="1:22">
       <c r="A947" s="6"/>
       <c r="B947" s="13"/>
-      <c r="C947" s="47"/>
+      <c r="C947" s="45"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
@@ -24079,7 +24128,7 @@
     <row r="948" spans="1:22">
       <c r="A948" s="6"/>
       <c r="B948" s="13"/>
-      <c r="C948" s="47"/>
+      <c r="C948" s="45"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
@@ -24103,7 +24152,7 @@
     <row r="949" spans="1:22">
       <c r="A949" s="6"/>
       <c r="B949" s="13"/>
-      <c r="C949" s="47"/>
+      <c r="C949" s="45"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
@@ -24127,7 +24176,7 @@
     <row r="950" spans="1:22">
       <c r="A950" s="6"/>
       <c r="B950" s="13"/>
-      <c r="C950" s="47"/>
+      <c r="C950" s="45"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
@@ -24151,7 +24200,7 @@
     <row r="951" spans="1:22">
       <c r="A951" s="6"/>
       <c r="B951" s="13"/>
-      <c r="C951" s="47"/>
+      <c r="C951" s="45"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
@@ -24175,7 +24224,7 @@
     <row r="952" spans="1:22">
       <c r="A952" s="6"/>
       <c r="B952" s="13"/>
-      <c r="C952" s="47"/>
+      <c r="C952" s="45"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
       <c r="F952" s="1"/>
@@ -24199,7 +24248,7 @@
     <row r="953" spans="1:22">
       <c r="A953" s="6"/>
       <c r="B953" s="13"/>
-      <c r="C953" s="47"/>
+      <c r="C953" s="45"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
@@ -24223,7 +24272,7 @@
     <row r="954" spans="1:22">
       <c r="A954" s="6"/>
       <c r="B954" s="13"/>
-      <c r="C954" s="47"/>
+      <c r="C954" s="45"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
@@ -24247,7 +24296,7 @@
     <row r="955" spans="1:22">
       <c r="A955" s="6"/>
       <c r="B955" s="13"/>
-      <c r="C955" s="47"/>
+      <c r="C955" s="45"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
       <c r="F955" s="1"/>
@@ -24271,7 +24320,7 @@
     <row r="956" spans="1:22">
       <c r="A956" s="6"/>
       <c r="B956" s="13"/>
-      <c r="C956" s="47"/>
+      <c r="C956" s="45"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
@@ -24295,7 +24344,7 @@
     <row r="957" spans="1:22">
       <c r="A957" s="6"/>
       <c r="B957" s="13"/>
-      <c r="C957" s="47"/>
+      <c r="C957" s="45"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
       <c r="F957" s="1"/>
@@ -24319,7 +24368,7 @@
     <row r="958" spans="1:22">
       <c r="A958" s="6"/>
       <c r="B958" s="13"/>
-      <c r="C958" s="47"/>
+      <c r="C958" s="45"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
@@ -24343,7 +24392,7 @@
     <row r="959" spans="1:22">
       <c r="A959" s="6"/>
       <c r="B959" s="13"/>
-      <c r="C959" s="47"/>
+      <c r="C959" s="45"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
@@ -24367,7 +24416,7 @@
     <row r="960" spans="1:22">
       <c r="A960" s="6"/>
       <c r="B960" s="13"/>
-      <c r="C960" s="47"/>
+      <c r="C960" s="45"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
       <c r="F960" s="1"/>
@@ -24391,7 +24440,7 @@
     <row r="961" spans="1:22">
       <c r="A961" s="6"/>
       <c r="B961" s="13"/>
-      <c r="C961" s="47"/>
+      <c r="C961" s="45"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
       <c r="F961" s="1"/>
@@ -24415,7 +24464,7 @@
     <row r="962" spans="1:22">
       <c r="A962" s="6"/>
       <c r="B962" s="13"/>
-      <c r="C962" s="47"/>
+      <c r="C962" s="45"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
@@ -24439,7 +24488,7 @@
     <row r="963" spans="1:22">
       <c r="A963" s="6"/>
       <c r="B963" s="13"/>
-      <c r="C963" s="47"/>
+      <c r="C963" s="45"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
       <c r="F963" s="1"/>
@@ -24463,7 +24512,7 @@
     <row r="964" spans="1:22">
       <c r="A964" s="6"/>
       <c r="B964" s="13"/>
-      <c r="C964" s="47"/>
+      <c r="C964" s="45"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
@@ -24487,7 +24536,7 @@
     <row r="965" spans="1:22">
       <c r="A965" s="6"/>
       <c r="B965" s="13"/>
-      <c r="C965" s="47"/>
+      <c r="C965" s="45"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
       <c r="F965" s="1"/>
@@ -24511,7 +24560,7 @@
     <row r="966" spans="1:22">
       <c r="A966" s="6"/>
       <c r="B966" s="13"/>
-      <c r="C966" s="47"/>
+      <c r="C966" s="45"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
       <c r="F966" s="1"/>
@@ -24535,7 +24584,7 @@
     <row r="967" spans="1:22">
       <c r="A967" s="6"/>
       <c r="B967" s="13"/>
-      <c r="C967" s="47"/>
+      <c r="C967" s="45"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
@@ -24559,7 +24608,7 @@
     <row r="968" spans="1:22">
       <c r="A968" s="6"/>
       <c r="B968" s="13"/>
-      <c r="C968" s="47"/>
+      <c r="C968" s="45"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
       <c r="F968" s="1"/>
@@ -24583,7 +24632,7 @@
     <row r="969" spans="1:22">
       <c r="A969" s="6"/>
       <c r="B969" s="13"/>
-      <c r="C969" s="47"/>
+      <c r="C969" s="45"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
@@ -24607,7 +24656,7 @@
     <row r="970" spans="1:22">
       <c r="A970" s="6"/>
       <c r="B970" s="13"/>
-      <c r="C970" s="47"/>
+      <c r="C970" s="45"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
       <c r="F970" s="1"/>
@@ -24631,7 +24680,7 @@
     <row r="971" spans="1:22">
       <c r="A971" s="6"/>
       <c r="B971" s="13"/>
-      <c r="C971" s="47"/>
+      <c r="C971" s="45"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
       <c r="F971" s="1"/>
@@ -24655,7 +24704,7 @@
     <row r="972" spans="1:22">
       <c r="A972" s="6"/>
       <c r="B972" s="13"/>
-      <c r="C972" s="47"/>
+      <c r="C972" s="45"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
       <c r="F972" s="1"/>
@@ -24679,7 +24728,7 @@
     <row r="973" spans="1:22">
       <c r="A973" s="6"/>
       <c r="B973" s="13"/>
-      <c r="C973" s="47"/>
+      <c r="C973" s="45"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
@@ -24703,7 +24752,7 @@
     <row r="974" spans="1:22">
       <c r="A974" s="6"/>
       <c r="B974" s="13"/>
-      <c r="C974" s="47"/>
+      <c r="C974" s="45"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
       <c r="F974" s="1"/>
@@ -24727,7 +24776,7 @@
     <row r="975" spans="1:22">
       <c r="A975" s="6"/>
       <c r="B975" s="13"/>
-      <c r="C975" s="47"/>
+      <c r="C975" s="45"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
       <c r="F975" s="1"/>
@@ -24751,7 +24800,7 @@
     <row r="976" spans="1:22">
       <c r="A976" s="6"/>
       <c r="B976" s="13"/>
-      <c r="C976" s="47"/>
+      <c r="C976" s="45"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
@@ -24775,7 +24824,7 @@
     <row r="977" spans="1:22">
       <c r="A977" s="6"/>
       <c r="B977" s="13"/>
-      <c r="C977" s="47"/>
+      <c r="C977" s="45"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
       <c r="F977" s="1"/>
@@ -24799,17 +24848,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{148ADD7B-74F5-4AC4-9C31-E3949471424B}"/>
-    <hyperlink ref="E15" r:id="rId2" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_barcode.html" xr:uid="{897E1B7F-B304-A446-9423-0A3BD4BE9DEF}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{09A8C396-BCAF-C849-9A44-68890896EDBE}"/>
-    <hyperlink ref="E17" r:id="rId4" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=inv@l1d!" xr:uid="{1CD616B0-2213-634B-A4DF-65B2B7F5AB4F}"/>
-    <hyperlink ref="E18" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{F0603421-B501-524E-AA04-748249442AC9}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{00D2F6FE-900E-DA45-9FC3-07F9E053EDD6}"/>
-    <hyperlink ref="E20" r:id="rId7" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{A644C3AD-F19C-CD4E-9AB7-0EAA4CE844CC}"/>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{499F8529-B694-4705-9D32-928FFE2B4775}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{148ADD7B-74F5-4AC4-9C31-E3949471424B}"/>
+    <hyperlink ref="E15" r:id="rId3" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_barcode.html" xr:uid="{897E1B7F-B304-A446-9423-0A3BD4BE9DEF}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{09A8C396-BCAF-C849-9A44-68890896EDBE}"/>
+    <hyperlink ref="E17" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=inv@l1d!" xr:uid="{1CD616B0-2213-634B-A4DF-65B2B7F5AB4F}"/>
+    <hyperlink ref="E18" r:id="rId6" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{F0603421-B501-524E-AA04-748249442AC9}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00D2F6FE-900E-DA45-9FC3-07F9E053EDD6}"/>
+    <hyperlink ref="E20" r:id="rId8" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{A644C3AD-F19C-CD4E-9AB7-0EAA4CE844CC}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24824,6 +24874,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -25006,20 +25062,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9955847E-8391-40AA-9894-0F9AB4282A14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9955847E-8391-40AA-9894-0F9AB4282A14}"/>
 </file>
--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-PROD.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B6185F65-0382-AE42-BDF2-828BC48A4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5BDA20-CEAA-45AC-941F-F036D3B5735E}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{B6185F65-0382-AE42-BDF2-828BC48A4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B14EBCCA-AC37-4152-8396-5F3D40C7D255}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1640" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,24 +53,7 @@
     <t>Build Info</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between 6 AM and 5 PM, Mon-Fri)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
-    </r>
+    <t>Time and Date Testing Was Complete (Testing can be completed any time/date):</t>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -299,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -400,11 +383,6 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -722,9 +700,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -794,20 +769,23 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,14 +1205,14 @@
   <dimension ref="A1:V977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="96.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="45" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
@@ -1242,13 +1220,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11"/>
@@ -1272,13 +1250,13 @@
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -1302,21 +1280,21 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
@@ -1340,13 +1318,13 @@
       <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="28"/>
       <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
@@ -1371,12 +1349,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="28"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1"/>
@@ -1401,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1425,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="45"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="1"/>
       <c r="E7" s="21" t="s">
         <v>17</v>
@@ -1453,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="1"/>
       <c r="E8" s="27" t="s">
         <v>19</v>
@@ -1481,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="1"/>
       <c r="E9" s="27" t="s">
         <v>21</v>
@@ -1509,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="45"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="1"/>
       <c r="E10" s="27" t="s">
         <v>23</v>
@@ -1537,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="1"/>
       <c r="E11" s="27" t="s">
         <v>25</v>
@@ -1565,7 +1543,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="45"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="1"/>
       <c r="E12" s="27"/>
       <c r="F12" s="10"/>
@@ -1587,10 +1565,10 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="28.5">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="37"/>
       <c r="D13" s="1"/>
       <c r="E13" s="21" t="s">
         <v>28</v>
@@ -1618,7 +1596,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="47"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1"/>
       <c r="E14" s="29" t="s">
         <v>30</v>
@@ -1646,9 +1624,9 @@
         <v>31</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="45"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="10"/>
@@ -1674,9 +1652,9 @@
         <v>33</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="45"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="10"/>
@@ -1702,9 +1680,9 @@
         <v>35</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="45"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="40" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="1"/>
@@ -1729,9 +1707,9 @@
         <v>37</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="47"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="1"/>
@@ -1757,9 +1735,9 @@
         <v>39</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1"/>
@@ -1785,9 +1763,9 @@
         <v>41</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1"/>
@@ -1813,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="1"/>
       <c r="E21" s="21" t="s">
         <v>44</v>
@@ -1841,12 +1819,12 @@
         <v>45</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1869,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1895,7 +1873,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1920,7 +1898,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1945,24 +1923,24 @@
         <v>50</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
@@ -1971,59 +1949,59 @@
         <v>51</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="14.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="14.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2044,11 +2022,11 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="14.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2073,7 +2051,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="45"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2099,7 +2077,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2125,7 +2103,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2151,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2177,7 +2155,7 @@
         <v>59</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="45"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2203,7 +2181,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2229,7 +2207,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="45"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2254,7 +2232,7 @@
         <v>62</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2280,7 +2258,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2306,7 +2284,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2332,7 +2310,7 @@
         <v>65</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="47"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2358,7 +2336,7 @@
         <v>66</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="45"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2384,7 +2362,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="45"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2410,7 +2388,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="47"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2436,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2462,7 +2440,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2488,7 +2466,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2514,7 +2492,7 @@
         <v>72</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="47"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2540,7 +2518,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2566,7 +2544,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2592,7 +2570,7 @@
         <v>75</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="45"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2618,7 +2596,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2644,7 +2622,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="47"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2666,11 +2644,11 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="14.25">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="45"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2692,11 +2670,11 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="28.5">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="53" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="45"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2720,7 +2698,7 @@
     <row r="56" spans="1:22" ht="18.75">
       <c r="A56" s="15"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="45"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2744,7 +2722,7 @@
     <row r="57" spans="1:22" ht="14.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="45"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2768,7 +2746,7 @@
     <row r="58" spans="1:22" ht="14.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="45"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2792,7 +2770,7 @@
     <row r="59" spans="1:22" ht="14.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="45"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2816,7 +2794,7 @@
     <row r="60" spans="1:22" ht="14.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="45"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2840,7 +2818,7 @@
     <row r="61" spans="1:22" ht="14.25">
       <c r="A61" s="6"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="45"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2864,7 +2842,7 @@
     <row r="62" spans="1:22">
       <c r="A62" s="6"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="45"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2888,7 +2866,7 @@
     <row r="63" spans="1:22">
       <c r="A63" s="6"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2912,7 +2890,7 @@
     <row r="64" spans="1:22">
       <c r="A64" s="6"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="45"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2936,7 +2914,7 @@
     <row r="65" spans="1:22">
       <c r="A65" s="6"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="45"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2960,7 +2938,7 @@
     <row r="66" spans="1:22">
       <c r="A66" s="6"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="45"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2984,7 +2962,7 @@
     <row r="67" spans="1:22">
       <c r="A67" s="6"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="45"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3008,7 +2986,7 @@
     <row r="68" spans="1:22">
       <c r="A68" s="6"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="45"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3032,7 +3010,7 @@
     <row r="69" spans="1:22">
       <c r="A69" s="6"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="45"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3056,7 +3034,7 @@
     <row r="70" spans="1:22">
       <c r="A70" s="6"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="45"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3080,7 +3058,7 @@
     <row r="71" spans="1:22">
       <c r="A71" s="6"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="45"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3104,7 +3082,7 @@
     <row r="72" spans="1:22">
       <c r="A72" s="6"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="45"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3128,7 +3106,7 @@
     <row r="73" spans="1:22">
       <c r="A73" s="6"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="45"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3152,7 +3130,7 @@
     <row r="74" spans="1:22">
       <c r="A74" s="6"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="45"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3176,7 +3154,7 @@
     <row r="75" spans="1:22">
       <c r="A75" s="6"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="45"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3200,7 +3178,7 @@
     <row r="76" spans="1:22">
       <c r="A76" s="6"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="45"/>
+      <c r="C76" s="44"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3224,7 +3202,7 @@
     <row r="77" spans="1:22">
       <c r="A77" s="6"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="45"/>
+      <c r="C77" s="44"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3248,7 +3226,7 @@
     <row r="78" spans="1:22">
       <c r="A78" s="6"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="45"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3272,7 +3250,7 @@
     <row r="79" spans="1:22">
       <c r="A79" s="6"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="45"/>
+      <c r="C79" s="44"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3296,7 +3274,7 @@
     <row r="80" spans="1:22">
       <c r="A80" s="6"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="45"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3320,7 +3298,7 @@
     <row r="81" spans="1:22">
       <c r="A81" s="6"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="45"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3344,7 +3322,7 @@
     <row r="82" spans="1:22">
       <c r="A82" s="6"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="45"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -3368,7 +3346,7 @@
     <row r="83" spans="1:22">
       <c r="A83" s="6"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="45"/>
+      <c r="C83" s="44"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -3392,7 +3370,7 @@
     <row r="84" spans="1:22">
       <c r="A84" s="6"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="45"/>
+      <c r="C84" s="44"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3416,7 +3394,7 @@
     <row r="85" spans="1:22">
       <c r="A85" s="6"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="45"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3440,7 +3418,7 @@
     <row r="86" spans="1:22">
       <c r="A86" s="6"/>
       <c r="B86" s="13"/>
-      <c r="C86" s="45"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3464,7 +3442,7 @@
     <row r="87" spans="1:22">
       <c r="A87" s="6"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="45"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3488,7 +3466,7 @@
     <row r="88" spans="1:22">
       <c r="A88" s="6"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="45"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3512,7 +3490,7 @@
     <row r="89" spans="1:22">
       <c r="A89" s="6"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="45"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3536,7 +3514,7 @@
     <row r="90" spans="1:22">
       <c r="A90" s="6"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="45"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3560,7 +3538,7 @@
     <row r="91" spans="1:22">
       <c r="A91" s="6"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="45"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -3584,7 +3562,7 @@
     <row r="92" spans="1:22">
       <c r="A92" s="6"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="45"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3608,7 +3586,7 @@
     <row r="93" spans="1:22">
       <c r="A93" s="6"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="45"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3632,7 +3610,7 @@
     <row r="94" spans="1:22">
       <c r="A94" s="6"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="45"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3656,7 +3634,7 @@
     <row r="95" spans="1:22">
       <c r="A95" s="6"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="45"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3680,7 +3658,7 @@
     <row r="96" spans="1:22">
       <c r="A96" s="6"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="45"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3704,7 +3682,7 @@
     <row r="97" spans="1:22">
       <c r="A97" s="6"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="45"/>
+      <c r="C97" s="44"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3728,7 +3706,7 @@
     <row r="98" spans="1:22">
       <c r="A98" s="6"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="45"/>
+      <c r="C98" s="44"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3752,7 +3730,7 @@
     <row r="99" spans="1:22">
       <c r="A99" s="6"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="45"/>
+      <c r="C99" s="44"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3776,7 +3754,7 @@
     <row r="100" spans="1:22">
       <c r="A100" s="6"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="45"/>
+      <c r="C100" s="44"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3800,7 +3778,7 @@
     <row r="101" spans="1:22">
       <c r="A101" s="6"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="45"/>
+      <c r="C101" s="44"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3824,7 +3802,7 @@
     <row r="102" spans="1:22">
       <c r="A102" s="6"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="45"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3848,7 +3826,7 @@
     <row r="103" spans="1:22">
       <c r="A103" s="6"/>
       <c r="B103" s="13"/>
-      <c r="C103" s="45"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3872,7 +3850,7 @@
     <row r="104" spans="1:22">
       <c r="A104" s="6"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="45"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3896,7 +3874,7 @@
     <row r="105" spans="1:22">
       <c r="A105" s="6"/>
       <c r="B105" s="13"/>
-      <c r="C105" s="45"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3920,7 +3898,7 @@
     <row r="106" spans="1:22">
       <c r="A106" s="6"/>
       <c r="B106" s="13"/>
-      <c r="C106" s="45"/>
+      <c r="C106" s="44"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3944,7 +3922,7 @@
     <row r="107" spans="1:22">
       <c r="A107" s="6"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="45"/>
+      <c r="C107" s="44"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3968,7 +3946,7 @@
     <row r="108" spans="1:22">
       <c r="A108" s="6"/>
       <c r="B108" s="13"/>
-      <c r="C108" s="45"/>
+      <c r="C108" s="44"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3992,7 +3970,7 @@
     <row r="109" spans="1:22">
       <c r="A109" s="6"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="45"/>
+      <c r="C109" s="44"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -4016,7 +3994,7 @@
     <row r="110" spans="1:22">
       <c r="A110" s="6"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="45"/>
+      <c r="C110" s="44"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4040,7 +4018,7 @@
     <row r="111" spans="1:22">
       <c r="A111" s="6"/>
       <c r="B111" s="13"/>
-      <c r="C111" s="45"/>
+      <c r="C111" s="44"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -4064,7 +4042,7 @@
     <row r="112" spans="1:22">
       <c r="A112" s="6"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="45"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -4088,7 +4066,7 @@
     <row r="113" spans="1:22">
       <c r="A113" s="6"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="45"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -4112,7 +4090,7 @@
     <row r="114" spans="1:22">
       <c r="A114" s="6"/>
       <c r="B114" s="13"/>
-      <c r="C114" s="45"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4136,7 +4114,7 @@
     <row r="115" spans="1:22">
       <c r="A115" s="6"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="45"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -4160,7 +4138,7 @@
     <row r="116" spans="1:22">
       <c r="A116" s="6"/>
       <c r="B116" s="13"/>
-      <c r="C116" s="45"/>
+      <c r="C116" s="44"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -4184,7 +4162,7 @@
     <row r="117" spans="1:22">
       <c r="A117" s="6"/>
       <c r="B117" s="13"/>
-      <c r="C117" s="45"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -4208,7 +4186,7 @@
     <row r="118" spans="1:22">
       <c r="A118" s="6"/>
       <c r="B118" s="13"/>
-      <c r="C118" s="45"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -4232,7 +4210,7 @@
     <row r="119" spans="1:22">
       <c r="A119" s="6"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="45"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -4256,7 +4234,7 @@
     <row r="120" spans="1:22">
       <c r="A120" s="6"/>
       <c r="B120" s="13"/>
-      <c r="C120" s="45"/>
+      <c r="C120" s="44"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -4280,7 +4258,7 @@
     <row r="121" spans="1:22">
       <c r="A121" s="6"/>
       <c r="B121" s="13"/>
-      <c r="C121" s="45"/>
+      <c r="C121" s="44"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -4304,7 +4282,7 @@
     <row r="122" spans="1:22">
       <c r="A122" s="6"/>
       <c r="B122" s="13"/>
-      <c r="C122" s="45"/>
+      <c r="C122" s="44"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -4328,7 +4306,7 @@
     <row r="123" spans="1:22">
       <c r="A123" s="6"/>
       <c r="B123" s="13"/>
-      <c r="C123" s="45"/>
+      <c r="C123" s="44"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -4352,7 +4330,7 @@
     <row r="124" spans="1:22">
       <c r="A124" s="6"/>
       <c r="B124" s="13"/>
-      <c r="C124" s="45"/>
+      <c r="C124" s="44"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -4376,7 +4354,7 @@
     <row r="125" spans="1:22">
       <c r="A125" s="6"/>
       <c r="B125" s="13"/>
-      <c r="C125" s="45"/>
+      <c r="C125" s="44"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -4400,7 +4378,7 @@
     <row r="126" spans="1:22">
       <c r="A126" s="6"/>
       <c r="B126" s="13"/>
-      <c r="C126" s="45"/>
+      <c r="C126" s="44"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -4424,7 +4402,7 @@
     <row r="127" spans="1:22">
       <c r="A127" s="6"/>
       <c r="B127" s="13"/>
-      <c r="C127" s="45"/>
+      <c r="C127" s="44"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -4448,7 +4426,7 @@
     <row r="128" spans="1:22">
       <c r="A128" s="6"/>
       <c r="B128" s="13"/>
-      <c r="C128" s="45"/>
+      <c r="C128" s="44"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -4472,7 +4450,7 @@
     <row r="129" spans="1:22">
       <c r="A129" s="6"/>
       <c r="B129" s="13"/>
-      <c r="C129" s="45"/>
+      <c r="C129" s="44"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -4496,7 +4474,7 @@
     <row r="130" spans="1:22">
       <c r="A130" s="6"/>
       <c r="B130" s="13"/>
-      <c r="C130" s="45"/>
+      <c r="C130" s="44"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -4520,7 +4498,7 @@
     <row r="131" spans="1:22">
       <c r="A131" s="6"/>
       <c r="B131" s="13"/>
-      <c r="C131" s="45"/>
+      <c r="C131" s="44"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -4544,7 +4522,7 @@
     <row r="132" spans="1:22">
       <c r="A132" s="6"/>
       <c r="B132" s="13"/>
-      <c r="C132" s="45"/>
+      <c r="C132" s="44"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4568,7 +4546,7 @@
     <row r="133" spans="1:22">
       <c r="A133" s="6"/>
       <c r="B133" s="13"/>
-      <c r="C133" s="45"/>
+      <c r="C133" s="44"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4592,7 +4570,7 @@
     <row r="134" spans="1:22">
       <c r="A134" s="6"/>
       <c r="B134" s="13"/>
-      <c r="C134" s="45"/>
+      <c r="C134" s="44"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -4616,7 +4594,7 @@
     <row r="135" spans="1:22">
       <c r="A135" s="6"/>
       <c r="B135" s="13"/>
-      <c r="C135" s="45"/>
+      <c r="C135" s="44"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -4640,7 +4618,7 @@
     <row r="136" spans="1:22">
       <c r="A136" s="6"/>
       <c r="B136" s="13"/>
-      <c r="C136" s="45"/>
+      <c r="C136" s="44"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -4664,7 +4642,7 @@
     <row r="137" spans="1:22">
       <c r="A137" s="6"/>
       <c r="B137" s="13"/>
-      <c r="C137" s="45"/>
+      <c r="C137" s="44"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4688,7 +4666,7 @@
     <row r="138" spans="1:22">
       <c r="A138" s="6"/>
       <c r="B138" s="13"/>
-      <c r="C138" s="45"/>
+      <c r="C138" s="44"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -4712,7 +4690,7 @@
     <row r="139" spans="1:22">
       <c r="A139" s="6"/>
       <c r="B139" s="13"/>
-      <c r="C139" s="45"/>
+      <c r="C139" s="44"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4736,7 +4714,7 @@
     <row r="140" spans="1:22">
       <c r="A140" s="6"/>
       <c r="B140" s="13"/>
-      <c r="C140" s="45"/>
+      <c r="C140" s="44"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -4760,7 +4738,7 @@
     <row r="141" spans="1:22">
       <c r="A141" s="6"/>
       <c r="B141" s="13"/>
-      <c r="C141" s="45"/>
+      <c r="C141" s="44"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -4784,7 +4762,7 @@
     <row r="142" spans="1:22">
       <c r="A142" s="6"/>
       <c r="B142" s="13"/>
-      <c r="C142" s="45"/>
+      <c r="C142" s="44"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -4808,7 +4786,7 @@
     <row r="143" spans="1:22">
       <c r="A143" s="6"/>
       <c r="B143" s="13"/>
-      <c r="C143" s="45"/>
+      <c r="C143" s="44"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -4832,7 +4810,7 @@
     <row r="144" spans="1:22">
       <c r="A144" s="6"/>
       <c r="B144" s="13"/>
-      <c r="C144" s="45"/>
+      <c r="C144" s="44"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -4856,7 +4834,7 @@
     <row r="145" spans="1:22">
       <c r="A145" s="6"/>
       <c r="B145" s="13"/>
-      <c r="C145" s="45"/>
+      <c r="C145" s="44"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -4880,7 +4858,7 @@
     <row r="146" spans="1:22">
       <c r="A146" s="6"/>
       <c r="B146" s="13"/>
-      <c r="C146" s="45"/>
+      <c r="C146" s="44"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4904,7 +4882,7 @@
     <row r="147" spans="1:22">
       <c r="A147" s="6"/>
       <c r="B147" s="13"/>
-      <c r="C147" s="45"/>
+      <c r="C147" s="44"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -4928,7 +4906,7 @@
     <row r="148" spans="1:22">
       <c r="A148" s="6"/>
       <c r="B148" s="13"/>
-      <c r="C148" s="45"/>
+      <c r="C148" s="44"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4952,7 +4930,7 @@
     <row r="149" spans="1:22">
       <c r="A149" s="6"/>
       <c r="B149" s="13"/>
-      <c r="C149" s="45"/>
+      <c r="C149" s="44"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -4976,7 +4954,7 @@
     <row r="150" spans="1:22">
       <c r="A150" s="6"/>
       <c r="B150" s="13"/>
-      <c r="C150" s="45"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -5000,7 +4978,7 @@
     <row r="151" spans="1:22">
       <c r="A151" s="6"/>
       <c r="B151" s="13"/>
-      <c r="C151" s="45"/>
+      <c r="C151" s="44"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -5024,7 +5002,7 @@
     <row r="152" spans="1:22">
       <c r="A152" s="6"/>
       <c r="B152" s="13"/>
-      <c r="C152" s="45"/>
+      <c r="C152" s="44"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -5048,7 +5026,7 @@
     <row r="153" spans="1:22">
       <c r="A153" s="6"/>
       <c r="B153" s="13"/>
-      <c r="C153" s="45"/>
+      <c r="C153" s="44"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -5072,7 +5050,7 @@
     <row r="154" spans="1:22">
       <c r="A154" s="6"/>
       <c r="B154" s="13"/>
-      <c r="C154" s="45"/>
+      <c r="C154" s="44"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -5096,7 +5074,7 @@
     <row r="155" spans="1:22">
       <c r="A155" s="6"/>
       <c r="B155" s="13"/>
-      <c r="C155" s="45"/>
+      <c r="C155" s="44"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -5120,7 +5098,7 @@
     <row r="156" spans="1:22">
       <c r="A156" s="6"/>
       <c r="B156" s="13"/>
-      <c r="C156" s="45"/>
+      <c r="C156" s="44"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -5144,7 +5122,7 @@
     <row r="157" spans="1:22">
       <c r="A157" s="6"/>
       <c r="B157" s="13"/>
-      <c r="C157" s="45"/>
+      <c r="C157" s="44"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -5168,7 +5146,7 @@
     <row r="158" spans="1:22">
       <c r="A158" s="6"/>
       <c r="B158" s="13"/>
-      <c r="C158" s="45"/>
+      <c r="C158" s="44"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -5192,7 +5170,7 @@
     <row r="159" spans="1:22">
       <c r="A159" s="6"/>
       <c r="B159" s="13"/>
-      <c r="C159" s="45"/>
+      <c r="C159" s="44"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -5216,7 +5194,7 @@
     <row r="160" spans="1:22">
       <c r="A160" s="6"/>
       <c r="B160" s="13"/>
-      <c r="C160" s="45"/>
+      <c r="C160" s="44"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -5240,7 +5218,7 @@
     <row r="161" spans="1:22">
       <c r="A161" s="6"/>
       <c r="B161" s="13"/>
-      <c r="C161" s="45"/>
+      <c r="C161" s="44"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -5264,7 +5242,7 @@
     <row r="162" spans="1:22">
       <c r="A162" s="6"/>
       <c r="B162" s="13"/>
-      <c r="C162" s="45"/>
+      <c r="C162" s="44"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -5288,7 +5266,7 @@
     <row r="163" spans="1:22">
       <c r="A163" s="6"/>
       <c r="B163" s="13"/>
-      <c r="C163" s="45"/>
+      <c r="C163" s="44"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -5312,7 +5290,7 @@
     <row r="164" spans="1:22">
       <c r="A164" s="6"/>
       <c r="B164" s="13"/>
-      <c r="C164" s="45"/>
+      <c r="C164" s="44"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -5336,7 +5314,7 @@
     <row r="165" spans="1:22">
       <c r="A165" s="6"/>
       <c r="B165" s="13"/>
-      <c r="C165" s="45"/>
+      <c r="C165" s="44"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -5360,7 +5338,7 @@
     <row r="166" spans="1:22">
       <c r="A166" s="6"/>
       <c r="B166" s="13"/>
-      <c r="C166" s="45"/>
+      <c r="C166" s="44"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -5384,7 +5362,7 @@
     <row r="167" spans="1:22">
       <c r="A167" s="6"/>
       <c r="B167" s="13"/>
-      <c r="C167" s="45"/>
+      <c r="C167" s="44"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -5408,7 +5386,7 @@
     <row r="168" spans="1:22">
       <c r="A168" s="6"/>
       <c r="B168" s="13"/>
-      <c r="C168" s="45"/>
+      <c r="C168" s="44"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -5432,7 +5410,7 @@
     <row r="169" spans="1:22">
       <c r="A169" s="6"/>
       <c r="B169" s="13"/>
-      <c r="C169" s="45"/>
+      <c r="C169" s="44"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -5456,7 +5434,7 @@
     <row r="170" spans="1:22">
       <c r="A170" s="6"/>
       <c r="B170" s="13"/>
-      <c r="C170" s="45"/>
+      <c r="C170" s="44"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -5480,7 +5458,7 @@
     <row r="171" spans="1:22">
       <c r="A171" s="6"/>
       <c r="B171" s="13"/>
-      <c r="C171" s="45"/>
+      <c r="C171" s="44"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -5504,7 +5482,7 @@
     <row r="172" spans="1:22">
       <c r="A172" s="6"/>
       <c r="B172" s="13"/>
-      <c r="C172" s="45"/>
+      <c r="C172" s="44"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -5528,7 +5506,7 @@
     <row r="173" spans="1:22">
       <c r="A173" s="6"/>
       <c r="B173" s="13"/>
-      <c r="C173" s="45"/>
+      <c r="C173" s="44"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5552,7 +5530,7 @@
     <row r="174" spans="1:22">
       <c r="A174" s="6"/>
       <c r="B174" s="13"/>
-      <c r="C174" s="45"/>
+      <c r="C174" s="44"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -5576,7 +5554,7 @@
     <row r="175" spans="1:22">
       <c r="A175" s="6"/>
       <c r="B175" s="13"/>
-      <c r="C175" s="45"/>
+      <c r="C175" s="44"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -5600,7 +5578,7 @@
     <row r="176" spans="1:22">
       <c r="A176" s="6"/>
       <c r="B176" s="13"/>
-      <c r="C176" s="45"/>
+      <c r="C176" s="44"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -5624,7 +5602,7 @@
     <row r="177" spans="1:22">
       <c r="A177" s="6"/>
       <c r="B177" s="13"/>
-      <c r="C177" s="45"/>
+      <c r="C177" s="44"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -5648,7 +5626,7 @@
     <row r="178" spans="1:22">
       <c r="A178" s="6"/>
       <c r="B178" s="13"/>
-      <c r="C178" s="45"/>
+      <c r="C178" s="44"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -5672,7 +5650,7 @@
     <row r="179" spans="1:22">
       <c r="A179" s="6"/>
       <c r="B179" s="13"/>
-      <c r="C179" s="45"/>
+      <c r="C179" s="44"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -5696,7 +5674,7 @@
     <row r="180" spans="1:22">
       <c r="A180" s="6"/>
       <c r="B180" s="13"/>
-      <c r="C180" s="45"/>
+      <c r="C180" s="44"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -5720,7 +5698,7 @@
     <row r="181" spans="1:22">
       <c r="A181" s="6"/>
       <c r="B181" s="13"/>
-      <c r="C181" s="45"/>
+      <c r="C181" s="44"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -5744,7 +5722,7 @@
     <row r="182" spans="1:22">
       <c r="A182" s="6"/>
       <c r="B182" s="13"/>
-      <c r="C182" s="45"/>
+      <c r="C182" s="44"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -5768,7 +5746,7 @@
     <row r="183" spans="1:22">
       <c r="A183" s="6"/>
       <c r="B183" s="13"/>
-      <c r="C183" s="45"/>
+      <c r="C183" s="44"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -5792,7 +5770,7 @@
     <row r="184" spans="1:22">
       <c r="A184" s="6"/>
       <c r="B184" s="13"/>
-      <c r="C184" s="45"/>
+      <c r="C184" s="44"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -5816,7 +5794,7 @@
     <row r="185" spans="1:22">
       <c r="A185" s="6"/>
       <c r="B185" s="13"/>
-      <c r="C185" s="45"/>
+      <c r="C185" s="44"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -5840,7 +5818,7 @@
     <row r="186" spans="1:22">
       <c r="A186" s="6"/>
       <c r="B186" s="13"/>
-      <c r="C186" s="45"/>
+      <c r="C186" s="44"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -5864,7 +5842,7 @@
     <row r="187" spans="1:22">
       <c r="A187" s="6"/>
       <c r="B187" s="13"/>
-      <c r="C187" s="45"/>
+      <c r="C187" s="44"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -5888,7 +5866,7 @@
     <row r="188" spans="1:22">
       <c r="A188" s="6"/>
       <c r="B188" s="13"/>
-      <c r="C188" s="45"/>
+      <c r="C188" s="44"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -5912,7 +5890,7 @@
     <row r="189" spans="1:22">
       <c r="A189" s="6"/>
       <c r="B189" s="13"/>
-      <c r="C189" s="45"/>
+      <c r="C189" s="44"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -5936,7 +5914,7 @@
     <row r="190" spans="1:22">
       <c r="A190" s="6"/>
       <c r="B190" s="13"/>
-      <c r="C190" s="45"/>
+      <c r="C190" s="44"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -5960,7 +5938,7 @@
     <row r="191" spans="1:22">
       <c r="A191" s="6"/>
       <c r="B191" s="13"/>
-      <c r="C191" s="45"/>
+      <c r="C191" s="44"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -5984,7 +5962,7 @@
     <row r="192" spans="1:22">
       <c r="A192" s="6"/>
       <c r="B192" s="13"/>
-      <c r="C192" s="45"/>
+      <c r="C192" s="44"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -6008,7 +5986,7 @@
     <row r="193" spans="1:22">
       <c r="A193" s="6"/>
       <c r="B193" s="13"/>
-      <c r="C193" s="45"/>
+      <c r="C193" s="44"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -6032,7 +6010,7 @@
     <row r="194" spans="1:22">
       <c r="A194" s="6"/>
       <c r="B194" s="13"/>
-      <c r="C194" s="45"/>
+      <c r="C194" s="44"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -6056,7 +6034,7 @@
     <row r="195" spans="1:22">
       <c r="A195" s="6"/>
       <c r="B195" s="13"/>
-      <c r="C195" s="45"/>
+      <c r="C195" s="44"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -6080,7 +6058,7 @@
     <row r="196" spans="1:22">
       <c r="A196" s="6"/>
       <c r="B196" s="13"/>
-      <c r="C196" s="45"/>
+      <c r="C196" s="44"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -6104,7 +6082,7 @@
     <row r="197" spans="1:22">
       <c r="A197" s="6"/>
       <c r="B197" s="13"/>
-      <c r="C197" s="45"/>
+      <c r="C197" s="44"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -6128,7 +6106,7 @@
     <row r="198" spans="1:22">
       <c r="A198" s="6"/>
       <c r="B198" s="13"/>
-      <c r="C198" s="45"/>
+      <c r="C198" s="44"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -6152,7 +6130,7 @@
     <row r="199" spans="1:22">
       <c r="A199" s="6"/>
       <c r="B199" s="13"/>
-      <c r="C199" s="45"/>
+      <c r="C199" s="44"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -6176,7 +6154,7 @@
     <row r="200" spans="1:22">
       <c r="A200" s="6"/>
       <c r="B200" s="13"/>
-      <c r="C200" s="45"/>
+      <c r="C200" s="44"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -6200,7 +6178,7 @@
     <row r="201" spans="1:22">
       <c r="A201" s="6"/>
       <c r="B201" s="13"/>
-      <c r="C201" s="45"/>
+      <c r="C201" s="44"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -6224,7 +6202,7 @@
     <row r="202" spans="1:22">
       <c r="A202" s="6"/>
       <c r="B202" s="13"/>
-      <c r="C202" s="45"/>
+      <c r="C202" s="44"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -6248,7 +6226,7 @@
     <row r="203" spans="1:22">
       <c r="A203" s="6"/>
       <c r="B203" s="13"/>
-      <c r="C203" s="45"/>
+      <c r="C203" s="44"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -6272,7 +6250,7 @@
     <row r="204" spans="1:22">
       <c r="A204" s="6"/>
       <c r="B204" s="13"/>
-      <c r="C204" s="45"/>
+      <c r="C204" s="44"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -6296,7 +6274,7 @@
     <row r="205" spans="1:22">
       <c r="A205" s="6"/>
       <c r="B205" s="13"/>
-      <c r="C205" s="45"/>
+      <c r="C205" s="44"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -6320,7 +6298,7 @@
     <row r="206" spans="1:22">
       <c r="A206" s="6"/>
       <c r="B206" s="13"/>
-      <c r="C206" s="45"/>
+      <c r="C206" s="44"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -6344,7 +6322,7 @@
     <row r="207" spans="1:22">
       <c r="A207" s="6"/>
       <c r="B207" s="13"/>
-      <c r="C207" s="45"/>
+      <c r="C207" s="44"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -6368,7 +6346,7 @@
     <row r="208" spans="1:22">
       <c r="A208" s="6"/>
       <c r="B208" s="13"/>
-      <c r="C208" s="45"/>
+      <c r="C208" s="44"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -6392,7 +6370,7 @@
     <row r="209" spans="1:22">
       <c r="A209" s="6"/>
       <c r="B209" s="13"/>
-      <c r="C209" s="45"/>
+      <c r="C209" s="44"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -6416,7 +6394,7 @@
     <row r="210" spans="1:22">
       <c r="A210" s="6"/>
       <c r="B210" s="13"/>
-      <c r="C210" s="45"/>
+      <c r="C210" s="44"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -6440,7 +6418,7 @@
     <row r="211" spans="1:22">
       <c r="A211" s="6"/>
       <c r="B211" s="13"/>
-      <c r="C211" s="45"/>
+      <c r="C211" s="44"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -6464,7 +6442,7 @@
     <row r="212" spans="1:22">
       <c r="A212" s="6"/>
       <c r="B212" s="13"/>
-      <c r="C212" s="45"/>
+      <c r="C212" s="44"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -6488,7 +6466,7 @@
     <row r="213" spans="1:22">
       <c r="A213" s="6"/>
       <c r="B213" s="13"/>
-      <c r="C213" s="45"/>
+      <c r="C213" s="44"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -6512,7 +6490,7 @@
     <row r="214" spans="1:22">
       <c r="A214" s="6"/>
       <c r="B214" s="13"/>
-      <c r="C214" s="45"/>
+      <c r="C214" s="44"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -6536,7 +6514,7 @@
     <row r="215" spans="1:22">
       <c r="A215" s="6"/>
       <c r="B215" s="13"/>
-      <c r="C215" s="45"/>
+      <c r="C215" s="44"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -6560,7 +6538,7 @@
     <row r="216" spans="1:22">
       <c r="A216" s="6"/>
       <c r="B216" s="13"/>
-      <c r="C216" s="45"/>
+      <c r="C216" s="44"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -6584,7 +6562,7 @@
     <row r="217" spans="1:22">
       <c r="A217" s="6"/>
       <c r="B217" s="13"/>
-      <c r="C217" s="45"/>
+      <c r="C217" s="44"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -6608,7 +6586,7 @@
     <row r="218" spans="1:22">
       <c r="A218" s="6"/>
       <c r="B218" s="13"/>
-      <c r="C218" s="45"/>
+      <c r="C218" s="44"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -6632,7 +6610,7 @@
     <row r="219" spans="1:22">
       <c r="A219" s="6"/>
       <c r="B219" s="13"/>
-      <c r="C219" s="45"/>
+      <c r="C219" s="44"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -6656,7 +6634,7 @@
     <row r="220" spans="1:22">
       <c r="A220" s="6"/>
       <c r="B220" s="13"/>
-      <c r="C220" s="45"/>
+      <c r="C220" s="44"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -6680,7 +6658,7 @@
     <row r="221" spans="1:22">
       <c r="A221" s="6"/>
       <c r="B221" s="13"/>
-      <c r="C221" s="45"/>
+      <c r="C221" s="44"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -6704,7 +6682,7 @@
     <row r="222" spans="1:22">
       <c r="A222" s="6"/>
       <c r="B222" s="13"/>
-      <c r="C222" s="45"/>
+      <c r="C222" s="44"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -6728,7 +6706,7 @@
     <row r="223" spans="1:22">
       <c r="A223" s="6"/>
       <c r="B223" s="13"/>
-      <c r="C223" s="45"/>
+      <c r="C223" s="44"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -6752,7 +6730,7 @@
     <row r="224" spans="1:22">
       <c r="A224" s="6"/>
       <c r="B224" s="13"/>
-      <c r="C224" s="45"/>
+      <c r="C224" s="44"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -6776,7 +6754,7 @@
     <row r="225" spans="1:22">
       <c r="A225" s="6"/>
       <c r="B225" s="13"/>
-      <c r="C225" s="45"/>
+      <c r="C225" s="44"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -6800,7 +6778,7 @@
     <row r="226" spans="1:22">
       <c r="A226" s="6"/>
       <c r="B226" s="13"/>
-      <c r="C226" s="45"/>
+      <c r="C226" s="44"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -6824,7 +6802,7 @@
     <row r="227" spans="1:22">
       <c r="A227" s="6"/>
       <c r="B227" s="13"/>
-      <c r="C227" s="45"/>
+      <c r="C227" s="44"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6848,7 +6826,7 @@
     <row r="228" spans="1:22">
       <c r="A228" s="6"/>
       <c r="B228" s="13"/>
-      <c r="C228" s="45"/>
+      <c r="C228" s="44"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -6872,7 +6850,7 @@
     <row r="229" spans="1:22">
       <c r="A229" s="6"/>
       <c r="B229" s="13"/>
-      <c r="C229" s="45"/>
+      <c r="C229" s="44"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -6896,7 +6874,7 @@
     <row r="230" spans="1:22">
       <c r="A230" s="6"/>
       <c r="B230" s="13"/>
-      <c r="C230" s="45"/>
+      <c r="C230" s="44"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -6920,7 +6898,7 @@
     <row r="231" spans="1:22">
       <c r="A231" s="6"/>
       <c r="B231" s="13"/>
-      <c r="C231" s="45"/>
+      <c r="C231" s="44"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -6944,7 +6922,7 @@
     <row r="232" spans="1:22">
       <c r="A232" s="6"/>
       <c r="B232" s="13"/>
-      <c r="C232" s="45"/>
+      <c r="C232" s="44"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -6968,7 +6946,7 @@
     <row r="233" spans="1:22">
       <c r="A233" s="6"/>
       <c r="B233" s="13"/>
-      <c r="C233" s="45"/>
+      <c r="C233" s="44"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -6992,7 +6970,7 @@
     <row r="234" spans="1:22">
       <c r="A234" s="6"/>
       <c r="B234" s="13"/>
-      <c r="C234" s="45"/>
+      <c r="C234" s="44"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -7016,7 +6994,7 @@
     <row r="235" spans="1:22">
       <c r="A235" s="6"/>
       <c r="B235" s="13"/>
-      <c r="C235" s="45"/>
+      <c r="C235" s="44"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -7040,7 +7018,7 @@
     <row r="236" spans="1:22">
       <c r="A236" s="6"/>
       <c r="B236" s="13"/>
-      <c r="C236" s="45"/>
+      <c r="C236" s="44"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -7064,7 +7042,7 @@
     <row r="237" spans="1:22">
       <c r="A237" s="6"/>
       <c r="B237" s="13"/>
-      <c r="C237" s="45"/>
+      <c r="C237" s="44"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -7088,7 +7066,7 @@
     <row r="238" spans="1:22">
       <c r="A238" s="6"/>
       <c r="B238" s="13"/>
-      <c r="C238" s="45"/>
+      <c r="C238" s="44"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -7112,7 +7090,7 @@
     <row r="239" spans="1:22">
       <c r="A239" s="6"/>
       <c r="B239" s="13"/>
-      <c r="C239" s="45"/>
+      <c r="C239" s="44"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -7136,7 +7114,7 @@
     <row r="240" spans="1:22">
       <c r="A240" s="6"/>
       <c r="B240" s="13"/>
-      <c r="C240" s="45"/>
+      <c r="C240" s="44"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -7160,7 +7138,7 @@
     <row r="241" spans="1:22">
       <c r="A241" s="6"/>
       <c r="B241" s="13"/>
-      <c r="C241" s="45"/>
+      <c r="C241" s="44"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -7184,7 +7162,7 @@
     <row r="242" spans="1:22">
       <c r="A242" s="6"/>
       <c r="B242" s="13"/>
-      <c r="C242" s="45"/>
+      <c r="C242" s="44"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -7208,7 +7186,7 @@
     <row r="243" spans="1:22">
       <c r="A243" s="6"/>
       <c r="B243" s="13"/>
-      <c r="C243" s="45"/>
+      <c r="C243" s="44"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -7232,7 +7210,7 @@
     <row r="244" spans="1:22">
       <c r="A244" s="6"/>
       <c r="B244" s="13"/>
-      <c r="C244" s="45"/>
+      <c r="C244" s="44"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -7256,7 +7234,7 @@
     <row r="245" spans="1:22">
       <c r="A245" s="6"/>
       <c r="B245" s="13"/>
-      <c r="C245" s="45"/>
+      <c r="C245" s="44"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -7280,7 +7258,7 @@
     <row r="246" spans="1:22">
       <c r="A246" s="6"/>
       <c r="B246" s="13"/>
-      <c r="C246" s="45"/>
+      <c r="C246" s="44"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -7304,7 +7282,7 @@
     <row r="247" spans="1:22">
       <c r="A247" s="6"/>
       <c r="B247" s="13"/>
-      <c r="C247" s="45"/>
+      <c r="C247" s="44"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -7328,7 +7306,7 @@
     <row r="248" spans="1:22">
       <c r="A248" s="6"/>
       <c r="B248" s="13"/>
-      <c r="C248" s="45"/>
+      <c r="C248" s="44"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -7352,7 +7330,7 @@
     <row r="249" spans="1:22">
       <c r="A249" s="6"/>
       <c r="B249" s="13"/>
-      <c r="C249" s="45"/>
+      <c r="C249" s="44"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -7376,7 +7354,7 @@
     <row r="250" spans="1:22">
       <c r="A250" s="6"/>
       <c r="B250" s="13"/>
-      <c r="C250" s="45"/>
+      <c r="C250" s="44"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -7400,7 +7378,7 @@
     <row r="251" spans="1:22">
       <c r="A251" s="6"/>
       <c r="B251" s="13"/>
-      <c r="C251" s="45"/>
+      <c r="C251" s="44"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -7424,7 +7402,7 @@
     <row r="252" spans="1:22">
       <c r="A252" s="6"/>
       <c r="B252" s="13"/>
-      <c r="C252" s="45"/>
+      <c r="C252" s="44"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -7448,7 +7426,7 @@
     <row r="253" spans="1:22">
       <c r="A253" s="6"/>
       <c r="B253" s="13"/>
-      <c r="C253" s="45"/>
+      <c r="C253" s="44"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -7472,7 +7450,7 @@
     <row r="254" spans="1:22">
       <c r="A254" s="6"/>
       <c r="B254" s="13"/>
-      <c r="C254" s="45"/>
+      <c r="C254" s="44"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -7496,7 +7474,7 @@
     <row r="255" spans="1:22">
       <c r="A255" s="6"/>
       <c r="B255" s="13"/>
-      <c r="C255" s="45"/>
+      <c r="C255" s="44"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -7520,7 +7498,7 @@
     <row r="256" spans="1:22">
       <c r="A256" s="6"/>
       <c r="B256" s="13"/>
-      <c r="C256" s="45"/>
+      <c r="C256" s="44"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -7544,7 +7522,7 @@
     <row r="257" spans="1:22">
       <c r="A257" s="6"/>
       <c r="B257" s="13"/>
-      <c r="C257" s="45"/>
+      <c r="C257" s="44"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -7568,7 +7546,7 @@
     <row r="258" spans="1:22">
       <c r="A258" s="6"/>
       <c r="B258" s="13"/>
-      <c r="C258" s="45"/>
+      <c r="C258" s="44"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -7592,7 +7570,7 @@
     <row r="259" spans="1:22">
       <c r="A259" s="6"/>
       <c r="B259" s="13"/>
-      <c r="C259" s="45"/>
+      <c r="C259" s="44"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -7616,7 +7594,7 @@
     <row r="260" spans="1:22">
       <c r="A260" s="6"/>
       <c r="B260" s="13"/>
-      <c r="C260" s="45"/>
+      <c r="C260" s="44"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -7640,7 +7618,7 @@
     <row r="261" spans="1:22">
       <c r="A261" s="6"/>
       <c r="B261" s="13"/>
-      <c r="C261" s="45"/>
+      <c r="C261" s="44"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -7664,7 +7642,7 @@
     <row r="262" spans="1:22">
       <c r="A262" s="6"/>
       <c r="B262" s="13"/>
-      <c r="C262" s="45"/>
+      <c r="C262" s="44"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -7688,7 +7666,7 @@
     <row r="263" spans="1:22">
       <c r="A263" s="6"/>
       <c r="B263" s="13"/>
-      <c r="C263" s="45"/>
+      <c r="C263" s="44"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -7712,7 +7690,7 @@
     <row r="264" spans="1:22">
       <c r="A264" s="6"/>
       <c r="B264" s="13"/>
-      <c r="C264" s="45"/>
+      <c r="C264" s="44"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -7736,7 +7714,7 @@
     <row r="265" spans="1:22">
       <c r="A265" s="6"/>
       <c r="B265" s="13"/>
-      <c r="C265" s="45"/>
+      <c r="C265" s="44"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -7760,7 +7738,7 @@
     <row r="266" spans="1:22">
       <c r="A266" s="6"/>
       <c r="B266" s="13"/>
-      <c r="C266" s="45"/>
+      <c r="C266" s="44"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -7784,7 +7762,7 @@
     <row r="267" spans="1:22">
       <c r="A267" s="6"/>
       <c r="B267" s="13"/>
-      <c r="C267" s="45"/>
+      <c r="C267" s="44"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -7808,7 +7786,7 @@
     <row r="268" spans="1:22">
       <c r="A268" s="6"/>
       <c r="B268" s="13"/>
-      <c r="C268" s="45"/>
+      <c r="C268" s="44"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -7832,7 +7810,7 @@
     <row r="269" spans="1:22">
       <c r="A269" s="6"/>
       <c r="B269" s="13"/>
-      <c r="C269" s="45"/>
+      <c r="C269" s="44"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -7856,7 +7834,7 @@
     <row r="270" spans="1:22">
       <c r="A270" s="6"/>
       <c r="B270" s="13"/>
-      <c r="C270" s="45"/>
+      <c r="C270" s="44"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -7880,7 +7858,7 @@
     <row r="271" spans="1:22">
       <c r="A271" s="6"/>
       <c r="B271" s="13"/>
-      <c r="C271" s="45"/>
+      <c r="C271" s="44"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -7904,7 +7882,7 @@
     <row r="272" spans="1:22">
       <c r="A272" s="6"/>
       <c r="B272" s="13"/>
-      <c r="C272" s="45"/>
+      <c r="C272" s="44"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -7928,7 +7906,7 @@
     <row r="273" spans="1:22">
       <c r="A273" s="6"/>
       <c r="B273" s="13"/>
-      <c r="C273" s="45"/>
+      <c r="C273" s="44"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -7952,7 +7930,7 @@
     <row r="274" spans="1:22">
       <c r="A274" s="6"/>
       <c r="B274" s="13"/>
-      <c r="C274" s="45"/>
+      <c r="C274" s="44"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -7976,7 +7954,7 @@
     <row r="275" spans="1:22">
       <c r="A275" s="6"/>
       <c r="B275" s="13"/>
-      <c r="C275" s="45"/>
+      <c r="C275" s="44"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -8000,7 +7978,7 @@
     <row r="276" spans="1:22">
       <c r="A276" s="6"/>
       <c r="B276" s="13"/>
-      <c r="C276" s="45"/>
+      <c r="C276" s="44"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -8024,7 +8002,7 @@
     <row r="277" spans="1:22">
       <c r="A277" s="6"/>
       <c r="B277" s="13"/>
-      <c r="C277" s="45"/>
+      <c r="C277" s="44"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -8048,7 +8026,7 @@
     <row r="278" spans="1:22">
       <c r="A278" s="6"/>
       <c r="B278" s="13"/>
-      <c r="C278" s="45"/>
+      <c r="C278" s="44"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -8072,7 +8050,7 @@
     <row r="279" spans="1:22">
       <c r="A279" s="6"/>
       <c r="B279" s="13"/>
-      <c r="C279" s="45"/>
+      <c r="C279" s="44"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -8096,7 +8074,7 @@
     <row r="280" spans="1:22">
       <c r="A280" s="6"/>
       <c r="B280" s="13"/>
-      <c r="C280" s="45"/>
+      <c r="C280" s="44"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -8120,7 +8098,7 @@
     <row r="281" spans="1:22">
       <c r="A281" s="6"/>
       <c r="B281" s="13"/>
-      <c r="C281" s="45"/>
+      <c r="C281" s="44"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -8144,7 +8122,7 @@
     <row r="282" spans="1:22">
       <c r="A282" s="6"/>
       <c r="B282" s="13"/>
-      <c r="C282" s="45"/>
+      <c r="C282" s="44"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -8168,7 +8146,7 @@
     <row r="283" spans="1:22">
       <c r="A283" s="6"/>
       <c r="B283" s="13"/>
-      <c r="C283" s="45"/>
+      <c r="C283" s="44"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -8192,7 +8170,7 @@
     <row r="284" spans="1:22">
       <c r="A284" s="6"/>
       <c r="B284" s="13"/>
-      <c r="C284" s="45"/>
+      <c r="C284" s="44"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -8216,7 +8194,7 @@
     <row r="285" spans="1:22">
       <c r="A285" s="6"/>
       <c r="B285" s="13"/>
-      <c r="C285" s="45"/>
+      <c r="C285" s="44"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -8240,7 +8218,7 @@
     <row r="286" spans="1:22">
       <c r="A286" s="6"/>
       <c r="B286" s="13"/>
-      <c r="C286" s="45"/>
+      <c r="C286" s="44"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -8264,7 +8242,7 @@
     <row r="287" spans="1:22">
       <c r="A287" s="6"/>
       <c r="B287" s="13"/>
-      <c r="C287" s="45"/>
+      <c r="C287" s="44"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -8288,7 +8266,7 @@
     <row r="288" spans="1:22">
       <c r="A288" s="6"/>
       <c r="B288" s="13"/>
-      <c r="C288" s="45"/>
+      <c r="C288" s="44"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -8312,7 +8290,7 @@
     <row r="289" spans="1:22">
       <c r="A289" s="6"/>
       <c r="B289" s="13"/>
-      <c r="C289" s="45"/>
+      <c r="C289" s="44"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -8336,7 +8314,7 @@
     <row r="290" spans="1:22">
       <c r="A290" s="6"/>
       <c r="B290" s="13"/>
-      <c r="C290" s="45"/>
+      <c r="C290" s="44"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -8360,7 +8338,7 @@
     <row r="291" spans="1:22">
       <c r="A291" s="6"/>
       <c r="B291" s="13"/>
-      <c r="C291" s="45"/>
+      <c r="C291" s="44"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -8384,7 +8362,7 @@
     <row r="292" spans="1:22">
       <c r="A292" s="6"/>
       <c r="B292" s="13"/>
-      <c r="C292" s="45"/>
+      <c r="C292" s="44"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -8408,7 +8386,7 @@
     <row r="293" spans="1:22">
       <c r="A293" s="6"/>
       <c r="B293" s="13"/>
-      <c r="C293" s="45"/>
+      <c r="C293" s="44"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -8432,7 +8410,7 @@
     <row r="294" spans="1:22">
       <c r="A294" s="6"/>
       <c r="B294" s="13"/>
-      <c r="C294" s="45"/>
+      <c r="C294" s="44"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -8456,7 +8434,7 @@
     <row r="295" spans="1:22">
       <c r="A295" s="6"/>
       <c r="B295" s="13"/>
-      <c r="C295" s="45"/>
+      <c r="C295" s="44"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -8480,7 +8458,7 @@
     <row r="296" spans="1:22">
       <c r="A296" s="6"/>
       <c r="B296" s="13"/>
-      <c r="C296" s="45"/>
+      <c r="C296" s="44"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -8504,7 +8482,7 @@
     <row r="297" spans="1:22">
       <c r="A297" s="6"/>
       <c r="B297" s="13"/>
-      <c r="C297" s="45"/>
+      <c r="C297" s="44"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -8528,7 +8506,7 @@
     <row r="298" spans="1:22">
       <c r="A298" s="6"/>
       <c r="B298" s="13"/>
-      <c r="C298" s="45"/>
+      <c r="C298" s="44"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -8552,7 +8530,7 @@
     <row r="299" spans="1:22">
       <c r="A299" s="6"/>
       <c r="B299" s="13"/>
-      <c r="C299" s="45"/>
+      <c r="C299" s="44"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -8576,7 +8554,7 @@
     <row r="300" spans="1:22">
       <c r="A300" s="6"/>
       <c r="B300" s="13"/>
-      <c r="C300" s="45"/>
+      <c r="C300" s="44"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -8600,7 +8578,7 @@
     <row r="301" spans="1:22">
       <c r="A301" s="6"/>
       <c r="B301" s="13"/>
-      <c r="C301" s="45"/>
+      <c r="C301" s="44"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -8624,7 +8602,7 @@
     <row r="302" spans="1:22">
       <c r="A302" s="6"/>
       <c r="B302" s="13"/>
-      <c r="C302" s="45"/>
+      <c r="C302" s="44"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -8648,7 +8626,7 @@
     <row r="303" spans="1:22">
       <c r="A303" s="6"/>
       <c r="B303" s="13"/>
-      <c r="C303" s="45"/>
+      <c r="C303" s="44"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -8672,7 +8650,7 @@
     <row r="304" spans="1:22">
       <c r="A304" s="6"/>
       <c r="B304" s="13"/>
-      <c r="C304" s="45"/>
+      <c r="C304" s="44"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -8696,7 +8674,7 @@
     <row r="305" spans="1:22">
       <c r="A305" s="6"/>
       <c r="B305" s="13"/>
-      <c r="C305" s="45"/>
+      <c r="C305" s="44"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -8720,7 +8698,7 @@
     <row r="306" spans="1:22">
       <c r="A306" s="6"/>
       <c r="B306" s="13"/>
-      <c r="C306" s="45"/>
+      <c r="C306" s="44"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -8744,7 +8722,7 @@
     <row r="307" spans="1:22">
       <c r="A307" s="6"/>
       <c r="B307" s="13"/>
-      <c r="C307" s="45"/>
+      <c r="C307" s="44"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -8768,7 +8746,7 @@
     <row r="308" spans="1:22">
       <c r="A308" s="6"/>
       <c r="B308" s="13"/>
-      <c r="C308" s="45"/>
+      <c r="C308" s="44"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -8792,7 +8770,7 @@
     <row r="309" spans="1:22">
       <c r="A309" s="6"/>
       <c r="B309" s="13"/>
-      <c r="C309" s="45"/>
+      <c r="C309" s="44"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -8816,7 +8794,7 @@
     <row r="310" spans="1:22">
       <c r="A310" s="6"/>
       <c r="B310" s="13"/>
-      <c r="C310" s="45"/>
+      <c r="C310" s="44"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -8840,7 +8818,7 @@
     <row r="311" spans="1:22">
       <c r="A311" s="6"/>
       <c r="B311" s="13"/>
-      <c r="C311" s="45"/>
+      <c r="C311" s="44"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -8864,7 +8842,7 @@
     <row r="312" spans="1:22">
       <c r="A312" s="6"/>
       <c r="B312" s="13"/>
-      <c r="C312" s="45"/>
+      <c r="C312" s="44"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -8888,7 +8866,7 @@
     <row r="313" spans="1:22">
       <c r="A313" s="6"/>
       <c r="B313" s="13"/>
-      <c r="C313" s="45"/>
+      <c r="C313" s="44"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -8912,7 +8890,7 @@
     <row r="314" spans="1:22">
       <c r="A314" s="6"/>
       <c r="B314" s="13"/>
-      <c r="C314" s="45"/>
+      <c r="C314" s="44"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -8936,7 +8914,7 @@
     <row r="315" spans="1:22">
       <c r="A315" s="6"/>
       <c r="B315" s="13"/>
-      <c r="C315" s="45"/>
+      <c r="C315" s="44"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -8960,7 +8938,7 @@
     <row r="316" spans="1:22">
       <c r="A316" s="6"/>
       <c r="B316" s="13"/>
-      <c r="C316" s="45"/>
+      <c r="C316" s="44"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -8984,7 +8962,7 @@
     <row r="317" spans="1:22">
       <c r="A317" s="6"/>
       <c r="B317" s="13"/>
-      <c r="C317" s="45"/>
+      <c r="C317" s="44"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -9008,7 +8986,7 @@
     <row r="318" spans="1:22">
       <c r="A318" s="6"/>
       <c r="B318" s="13"/>
-      <c r="C318" s="45"/>
+      <c r="C318" s="44"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -9032,7 +9010,7 @@
     <row r="319" spans="1:22">
       <c r="A319" s="6"/>
       <c r="B319" s="13"/>
-      <c r="C319" s="45"/>
+      <c r="C319" s="44"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -9056,7 +9034,7 @@
     <row r="320" spans="1:22">
       <c r="A320" s="6"/>
       <c r="B320" s="13"/>
-      <c r="C320" s="45"/>
+      <c r="C320" s="44"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -9080,7 +9058,7 @@
     <row r="321" spans="1:22">
       <c r="A321" s="6"/>
       <c r="B321" s="13"/>
-      <c r="C321" s="45"/>
+      <c r="C321" s="44"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -9104,7 +9082,7 @@
     <row r="322" spans="1:22">
       <c r="A322" s="6"/>
       <c r="B322" s="13"/>
-      <c r="C322" s="45"/>
+      <c r="C322" s="44"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -9128,7 +9106,7 @@
     <row r="323" spans="1:22">
       <c r="A323" s="6"/>
       <c r="B323" s="13"/>
-      <c r="C323" s="45"/>
+      <c r="C323" s="44"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -9152,7 +9130,7 @@
     <row r="324" spans="1:22">
       <c r="A324" s="6"/>
       <c r="B324" s="13"/>
-      <c r="C324" s="45"/>
+      <c r="C324" s="44"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -9176,7 +9154,7 @@
     <row r="325" spans="1:22">
       <c r="A325" s="6"/>
       <c r="B325" s="13"/>
-      <c r="C325" s="45"/>
+      <c r="C325" s="44"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -9200,7 +9178,7 @@
     <row r="326" spans="1:22">
       <c r="A326" s="6"/>
       <c r="B326" s="13"/>
-      <c r="C326" s="45"/>
+      <c r="C326" s="44"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -9224,7 +9202,7 @@
     <row r="327" spans="1:22">
       <c r="A327" s="6"/>
       <c r="B327" s="13"/>
-      <c r="C327" s="45"/>
+      <c r="C327" s="44"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -9248,7 +9226,7 @@
     <row r="328" spans="1:22">
       <c r="A328" s="6"/>
       <c r="B328" s="13"/>
-      <c r="C328" s="45"/>
+      <c r="C328" s="44"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -9272,7 +9250,7 @@
     <row r="329" spans="1:22">
       <c r="A329" s="6"/>
       <c r="B329" s="13"/>
-      <c r="C329" s="45"/>
+      <c r="C329" s="44"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -9296,7 +9274,7 @@
     <row r="330" spans="1:22">
       <c r="A330" s="6"/>
       <c r="B330" s="13"/>
-      <c r="C330" s="45"/>
+      <c r="C330" s="44"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -9320,7 +9298,7 @@
     <row r="331" spans="1:22">
       <c r="A331" s="6"/>
       <c r="B331" s="13"/>
-      <c r="C331" s="45"/>
+      <c r="C331" s="44"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -9344,7 +9322,7 @@
     <row r="332" spans="1:22">
       <c r="A332" s="6"/>
       <c r="B332" s="13"/>
-      <c r="C332" s="45"/>
+      <c r="C332" s="44"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -9368,7 +9346,7 @@
     <row r="333" spans="1:22">
       <c r="A333" s="6"/>
       <c r="B333" s="13"/>
-      <c r="C333" s="45"/>
+      <c r="C333" s="44"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -9392,7 +9370,7 @@
     <row r="334" spans="1:22">
       <c r="A334" s="6"/>
       <c r="B334" s="13"/>
-      <c r="C334" s="45"/>
+      <c r="C334" s="44"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -9416,7 +9394,7 @@
     <row r="335" spans="1:22">
       <c r="A335" s="6"/>
       <c r="B335" s="13"/>
-      <c r="C335" s="45"/>
+      <c r="C335" s="44"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -9440,7 +9418,7 @@
     <row r="336" spans="1:22">
       <c r="A336" s="6"/>
       <c r="B336" s="13"/>
-      <c r="C336" s="45"/>
+      <c r="C336" s="44"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -9464,7 +9442,7 @@
     <row r="337" spans="1:22">
       <c r="A337" s="6"/>
       <c r="B337" s="13"/>
-      <c r="C337" s="45"/>
+      <c r="C337" s="44"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -9488,7 +9466,7 @@
     <row r="338" spans="1:22">
       <c r="A338" s="6"/>
       <c r="B338" s="13"/>
-      <c r="C338" s="45"/>
+      <c r="C338" s="44"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -9512,7 +9490,7 @@
     <row r="339" spans="1:22">
       <c r="A339" s="6"/>
       <c r="B339" s="13"/>
-      <c r="C339" s="45"/>
+      <c r="C339" s="44"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -9536,7 +9514,7 @@
     <row r="340" spans="1:22">
       <c r="A340" s="6"/>
       <c r="B340" s="13"/>
-      <c r="C340" s="45"/>
+      <c r="C340" s="44"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -9560,7 +9538,7 @@
     <row r="341" spans="1:22">
       <c r="A341" s="6"/>
       <c r="B341" s="13"/>
-      <c r="C341" s="45"/>
+      <c r="C341" s="44"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -9584,7 +9562,7 @@
     <row r="342" spans="1:22">
       <c r="A342" s="6"/>
       <c r="B342" s="13"/>
-      <c r="C342" s="45"/>
+      <c r="C342" s="44"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -9608,7 +9586,7 @@
     <row r="343" spans="1:22">
       <c r="A343" s="6"/>
       <c r="B343" s="13"/>
-      <c r="C343" s="45"/>
+      <c r="C343" s="44"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -9632,7 +9610,7 @@
     <row r="344" spans="1:22">
       <c r="A344" s="6"/>
       <c r="B344" s="13"/>
-      <c r="C344" s="45"/>
+      <c r="C344" s="44"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -9656,7 +9634,7 @@
     <row r="345" spans="1:22">
       <c r="A345" s="6"/>
       <c r="B345" s="13"/>
-      <c r="C345" s="45"/>
+      <c r="C345" s="44"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -9680,7 +9658,7 @@
     <row r="346" spans="1:22">
       <c r="A346" s="6"/>
       <c r="B346" s="13"/>
-      <c r="C346" s="45"/>
+      <c r="C346" s="44"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -9704,7 +9682,7 @@
     <row r="347" spans="1:22">
       <c r="A347" s="6"/>
       <c r="B347" s="13"/>
-      <c r="C347" s="45"/>
+      <c r="C347" s="44"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -9728,7 +9706,7 @@
     <row r="348" spans="1:22">
       <c r="A348" s="6"/>
       <c r="B348" s="13"/>
-      <c r="C348" s="45"/>
+      <c r="C348" s="44"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -9752,7 +9730,7 @@
     <row r="349" spans="1:22">
       <c r="A349" s="6"/>
       <c r="B349" s="13"/>
-      <c r="C349" s="45"/>
+      <c r="C349" s="44"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -9776,7 +9754,7 @@
     <row r="350" spans="1:22">
       <c r="A350" s="6"/>
       <c r="B350" s="13"/>
-      <c r="C350" s="45"/>
+      <c r="C350" s="44"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
@@ -9800,7 +9778,7 @@
     <row r="351" spans="1:22">
       <c r="A351" s="6"/>
       <c r="B351" s="13"/>
-      <c r="C351" s="45"/>
+      <c r="C351" s="44"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
@@ -9824,7 +9802,7 @@
     <row r="352" spans="1:22">
       <c r="A352" s="6"/>
       <c r="B352" s="13"/>
-      <c r="C352" s="45"/>
+      <c r="C352" s="44"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
@@ -9848,7 +9826,7 @@
     <row r="353" spans="1:22">
       <c r="A353" s="6"/>
       <c r="B353" s="13"/>
-      <c r="C353" s="45"/>
+      <c r="C353" s="44"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
@@ -9872,7 +9850,7 @@
     <row r="354" spans="1:22">
       <c r="A354" s="6"/>
       <c r="B354" s="13"/>
-      <c r="C354" s="45"/>
+      <c r="C354" s="44"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -9896,7 +9874,7 @@
     <row r="355" spans="1:22">
       <c r="A355" s="6"/>
       <c r="B355" s="13"/>
-      <c r="C355" s="45"/>
+      <c r="C355" s="44"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
@@ -9920,7 +9898,7 @@
     <row r="356" spans="1:22">
       <c r="A356" s="6"/>
       <c r="B356" s="13"/>
-      <c r="C356" s="45"/>
+      <c r="C356" s="44"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
@@ -9944,7 +9922,7 @@
     <row r="357" spans="1:22">
       <c r="A357" s="6"/>
       <c r="B357" s="13"/>
-      <c r="C357" s="45"/>
+      <c r="C357" s="44"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
@@ -9968,7 +9946,7 @@
     <row r="358" spans="1:22">
       <c r="A358" s="6"/>
       <c r="B358" s="13"/>
-      <c r="C358" s="45"/>
+      <c r="C358" s="44"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -9992,7 +9970,7 @@
     <row r="359" spans="1:22">
       <c r="A359" s="6"/>
       <c r="B359" s="13"/>
-      <c r="C359" s="45"/>
+      <c r="C359" s="44"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -10016,7 +9994,7 @@
     <row r="360" spans="1:22">
       <c r="A360" s="6"/>
       <c r="B360" s="13"/>
-      <c r="C360" s="45"/>
+      <c r="C360" s="44"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -10040,7 +10018,7 @@
     <row r="361" spans="1:22">
       <c r="A361" s="6"/>
       <c r="B361" s="13"/>
-      <c r="C361" s="45"/>
+      <c r="C361" s="44"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -10064,7 +10042,7 @@
     <row r="362" spans="1:22">
       <c r="A362" s="6"/>
       <c r="B362" s="13"/>
-      <c r="C362" s="45"/>
+      <c r="C362" s="44"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -10088,7 +10066,7 @@
     <row r="363" spans="1:22">
       <c r="A363" s="6"/>
       <c r="B363" s="13"/>
-      <c r="C363" s="45"/>
+      <c r="C363" s="44"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -10112,7 +10090,7 @@
     <row r="364" spans="1:22">
       <c r="A364" s="6"/>
       <c r="B364" s="13"/>
-      <c r="C364" s="45"/>
+      <c r="C364" s="44"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -10136,7 +10114,7 @@
     <row r="365" spans="1:22">
       <c r="A365" s="6"/>
       <c r="B365" s="13"/>
-      <c r="C365" s="45"/>
+      <c r="C365" s="44"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -10160,7 +10138,7 @@
     <row r="366" spans="1:22">
       <c r="A366" s="6"/>
       <c r="B366" s="13"/>
-      <c r="C366" s="45"/>
+      <c r="C366" s="44"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -10184,7 +10162,7 @@
     <row r="367" spans="1:22">
       <c r="A367" s="6"/>
       <c r="B367" s="13"/>
-      <c r="C367" s="45"/>
+      <c r="C367" s="44"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -10208,7 +10186,7 @@
     <row r="368" spans="1:22">
       <c r="A368" s="6"/>
       <c r="B368" s="13"/>
-      <c r="C368" s="45"/>
+      <c r="C368" s="44"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -10232,7 +10210,7 @@
     <row r="369" spans="1:22">
       <c r="A369" s="6"/>
       <c r="B369" s="13"/>
-      <c r="C369" s="45"/>
+      <c r="C369" s="44"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -10256,7 +10234,7 @@
     <row r="370" spans="1:22">
       <c r="A370" s="6"/>
       <c r="B370" s="13"/>
-      <c r="C370" s="45"/>
+      <c r="C370" s="44"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -10280,7 +10258,7 @@
     <row r="371" spans="1:22">
       <c r="A371" s="6"/>
       <c r="B371" s="13"/>
-      <c r="C371" s="45"/>
+      <c r="C371" s="44"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -10304,7 +10282,7 @@
     <row r="372" spans="1:22">
       <c r="A372" s="6"/>
       <c r="B372" s="13"/>
-      <c r="C372" s="45"/>
+      <c r="C372" s="44"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -10328,7 +10306,7 @@
     <row r="373" spans="1:22">
       <c r="A373" s="6"/>
       <c r="B373" s="13"/>
-      <c r="C373" s="45"/>
+      <c r="C373" s="44"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -10352,7 +10330,7 @@
     <row r="374" spans="1:22">
       <c r="A374" s="6"/>
       <c r="B374" s="13"/>
-      <c r="C374" s="45"/>
+      <c r="C374" s="44"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -10376,7 +10354,7 @@
     <row r="375" spans="1:22">
       <c r="A375" s="6"/>
       <c r="B375" s="13"/>
-      <c r="C375" s="45"/>
+      <c r="C375" s="44"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -10400,7 +10378,7 @@
     <row r="376" spans="1:22">
       <c r="A376" s="6"/>
       <c r="B376" s="13"/>
-      <c r="C376" s="45"/>
+      <c r="C376" s="44"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -10424,7 +10402,7 @@
     <row r="377" spans="1:22">
       <c r="A377" s="6"/>
       <c r="B377" s="13"/>
-      <c r="C377" s="45"/>
+      <c r="C377" s="44"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -10448,7 +10426,7 @@
     <row r="378" spans="1:22">
       <c r="A378" s="6"/>
       <c r="B378" s="13"/>
-      <c r="C378" s="45"/>
+      <c r="C378" s="44"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -10472,7 +10450,7 @@
     <row r="379" spans="1:22">
       <c r="A379" s="6"/>
       <c r="B379" s="13"/>
-      <c r="C379" s="45"/>
+      <c r="C379" s="44"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -10496,7 +10474,7 @@
     <row r="380" spans="1:22">
       <c r="A380" s="6"/>
       <c r="B380" s="13"/>
-      <c r="C380" s="45"/>
+      <c r="C380" s="44"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -10520,7 +10498,7 @@
     <row r="381" spans="1:22">
       <c r="A381" s="6"/>
       <c r="B381" s="13"/>
-      <c r="C381" s="45"/>
+      <c r="C381" s="44"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -10544,7 +10522,7 @@
     <row r="382" spans="1:22">
       <c r="A382" s="6"/>
       <c r="B382" s="13"/>
-      <c r="C382" s="45"/>
+      <c r="C382" s="44"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -10568,7 +10546,7 @@
     <row r="383" spans="1:22">
       <c r="A383" s="6"/>
       <c r="B383" s="13"/>
-      <c r="C383" s="45"/>
+      <c r="C383" s="44"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -10592,7 +10570,7 @@
     <row r="384" spans="1:22">
       <c r="A384" s="6"/>
       <c r="B384" s="13"/>
-      <c r="C384" s="45"/>
+      <c r="C384" s="44"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -10616,7 +10594,7 @@
     <row r="385" spans="1:22">
       <c r="A385" s="6"/>
       <c r="B385" s="13"/>
-      <c r="C385" s="45"/>
+      <c r="C385" s="44"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -10640,7 +10618,7 @@
     <row r="386" spans="1:22">
       <c r="A386" s="6"/>
       <c r="B386" s="13"/>
-      <c r="C386" s="45"/>
+      <c r="C386" s="44"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -10664,7 +10642,7 @@
     <row r="387" spans="1:22">
       <c r="A387" s="6"/>
       <c r="B387" s="13"/>
-      <c r="C387" s="45"/>
+      <c r="C387" s="44"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -10688,7 +10666,7 @@
     <row r="388" spans="1:22">
       <c r="A388" s="6"/>
       <c r="B388" s="13"/>
-      <c r="C388" s="45"/>
+      <c r="C388" s="44"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -10712,7 +10690,7 @@
     <row r="389" spans="1:22">
       <c r="A389" s="6"/>
       <c r="B389" s="13"/>
-      <c r="C389" s="45"/>
+      <c r="C389" s="44"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -10736,7 +10714,7 @@
     <row r="390" spans="1:22">
       <c r="A390" s="6"/>
       <c r="B390" s="13"/>
-      <c r="C390" s="45"/>
+      <c r="C390" s="44"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -10760,7 +10738,7 @@
     <row r="391" spans="1:22">
       <c r="A391" s="6"/>
       <c r="B391" s="13"/>
-      <c r="C391" s="45"/>
+      <c r="C391" s="44"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -10784,7 +10762,7 @@
     <row r="392" spans="1:22">
       <c r="A392" s="6"/>
       <c r="B392" s="13"/>
-      <c r="C392" s="45"/>
+      <c r="C392" s="44"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -10808,7 +10786,7 @@
     <row r="393" spans="1:22">
       <c r="A393" s="6"/>
       <c r="B393" s="13"/>
-      <c r="C393" s="45"/>
+      <c r="C393" s="44"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -10832,7 +10810,7 @@
     <row r="394" spans="1:22">
       <c r="A394" s="6"/>
       <c r="B394" s="13"/>
-      <c r="C394" s="45"/>
+      <c r="C394" s="44"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -10856,7 +10834,7 @@
     <row r="395" spans="1:22">
       <c r="A395" s="6"/>
       <c r="B395" s="13"/>
-      <c r="C395" s="45"/>
+      <c r="C395" s="44"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -10880,7 +10858,7 @@
     <row r="396" spans="1:22">
       <c r="A396" s="6"/>
       <c r="B396" s="13"/>
-      <c r="C396" s="45"/>
+      <c r="C396" s="44"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -10904,7 +10882,7 @@
     <row r="397" spans="1:22">
       <c r="A397" s="6"/>
       <c r="B397" s="13"/>
-      <c r="C397" s="45"/>
+      <c r="C397" s="44"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -10928,7 +10906,7 @@
     <row r="398" spans="1:22">
       <c r="A398" s="6"/>
       <c r="B398" s="13"/>
-      <c r="C398" s="45"/>
+      <c r="C398" s="44"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -10952,7 +10930,7 @@
     <row r="399" spans="1:22">
       <c r="A399" s="6"/>
       <c r="B399" s="13"/>
-      <c r="C399" s="45"/>
+      <c r="C399" s="44"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -10976,7 +10954,7 @@
     <row r="400" spans="1:22">
       <c r="A400" s="6"/>
       <c r="B400" s="13"/>
-      <c r="C400" s="45"/>
+      <c r="C400" s="44"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -11000,7 +10978,7 @@
     <row r="401" spans="1:22">
       <c r="A401" s="6"/>
       <c r="B401" s="13"/>
-      <c r="C401" s="45"/>
+      <c r="C401" s="44"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -11024,7 +11002,7 @@
     <row r="402" spans="1:22">
       <c r="A402" s="6"/>
       <c r="B402" s="13"/>
-      <c r="C402" s="45"/>
+      <c r="C402" s="44"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -11048,7 +11026,7 @@
     <row r="403" spans="1:22">
       <c r="A403" s="6"/>
       <c r="B403" s="13"/>
-      <c r="C403" s="45"/>
+      <c r="C403" s="44"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -11072,7 +11050,7 @@
     <row r="404" spans="1:22">
       <c r="A404" s="6"/>
       <c r="B404" s="13"/>
-      <c r="C404" s="45"/>
+      <c r="C404" s="44"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -11096,7 +11074,7 @@
     <row r="405" spans="1:22">
       <c r="A405" s="6"/>
       <c r="B405" s="13"/>
-      <c r="C405" s="45"/>
+      <c r="C405" s="44"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -11120,7 +11098,7 @@
     <row r="406" spans="1:22">
       <c r="A406" s="6"/>
       <c r="B406" s="13"/>
-      <c r="C406" s="45"/>
+      <c r="C406" s="44"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -11144,7 +11122,7 @@
     <row r="407" spans="1:22">
       <c r="A407" s="6"/>
       <c r="B407" s="13"/>
-      <c r="C407" s="45"/>
+      <c r="C407" s="44"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -11168,7 +11146,7 @@
     <row r="408" spans="1:22">
       <c r="A408" s="6"/>
       <c r="B408" s="13"/>
-      <c r="C408" s="45"/>
+      <c r="C408" s="44"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -11192,7 +11170,7 @@
     <row r="409" spans="1:22">
       <c r="A409" s="6"/>
       <c r="B409" s="13"/>
-      <c r="C409" s="45"/>
+      <c r="C409" s="44"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -11216,7 +11194,7 @@
     <row r="410" spans="1:22">
       <c r="A410" s="6"/>
       <c r="B410" s="13"/>
-      <c r="C410" s="45"/>
+      <c r="C410" s="44"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
@@ -11240,7 +11218,7 @@
     <row r="411" spans="1:22">
       <c r="A411" s="6"/>
       <c r="B411" s="13"/>
-      <c r="C411" s="45"/>
+      <c r="C411" s="44"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -11264,7 +11242,7 @@
     <row r="412" spans="1:22">
       <c r="A412" s="6"/>
       <c r="B412" s="13"/>
-      <c r="C412" s="45"/>
+      <c r="C412" s="44"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -11288,7 +11266,7 @@
     <row r="413" spans="1:22">
       <c r="A413" s="6"/>
       <c r="B413" s="13"/>
-      <c r="C413" s="45"/>
+      <c r="C413" s="44"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -11312,7 +11290,7 @@
     <row r="414" spans="1:22">
       <c r="A414" s="6"/>
       <c r="B414" s="13"/>
-      <c r="C414" s="45"/>
+      <c r="C414" s="44"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -11336,7 +11314,7 @@
     <row r="415" spans="1:22">
       <c r="A415" s="6"/>
       <c r="B415" s="13"/>
-      <c r="C415" s="45"/>
+      <c r="C415" s="44"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -11360,7 +11338,7 @@
     <row r="416" spans="1:22">
       <c r="A416" s="6"/>
       <c r="B416" s="13"/>
-      <c r="C416" s="45"/>
+      <c r="C416" s="44"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
@@ -11384,7 +11362,7 @@
     <row r="417" spans="1:22">
       <c r="A417" s="6"/>
       <c r="B417" s="13"/>
-      <c r="C417" s="45"/>
+      <c r="C417" s="44"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -11408,7 +11386,7 @@
     <row r="418" spans="1:22">
       <c r="A418" s="6"/>
       <c r="B418" s="13"/>
-      <c r="C418" s="45"/>
+      <c r="C418" s="44"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
@@ -11432,7 +11410,7 @@
     <row r="419" spans="1:22">
       <c r="A419" s="6"/>
       <c r="B419" s="13"/>
-      <c r="C419" s="45"/>
+      <c r="C419" s="44"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -11456,7 +11434,7 @@
     <row r="420" spans="1:22">
       <c r="A420" s="6"/>
       <c r="B420" s="13"/>
-      <c r="C420" s="45"/>
+      <c r="C420" s="44"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
@@ -11480,7 +11458,7 @@
     <row r="421" spans="1:22">
       <c r="A421" s="6"/>
       <c r="B421" s="13"/>
-      <c r="C421" s="45"/>
+      <c r="C421" s="44"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -11504,7 +11482,7 @@
     <row r="422" spans="1:22">
       <c r="A422" s="6"/>
       <c r="B422" s="13"/>
-      <c r="C422" s="45"/>
+      <c r="C422" s="44"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
@@ -11528,7 +11506,7 @@
     <row r="423" spans="1:22">
       <c r="A423" s="6"/>
       <c r="B423" s="13"/>
-      <c r="C423" s="45"/>
+      <c r="C423" s="44"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -11552,7 +11530,7 @@
     <row r="424" spans="1:22">
       <c r="A424" s="6"/>
       <c r="B424" s="13"/>
-      <c r="C424" s="45"/>
+      <c r="C424" s="44"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -11576,7 +11554,7 @@
     <row r="425" spans="1:22">
       <c r="A425" s="6"/>
       <c r="B425" s="13"/>
-      <c r="C425" s="45"/>
+      <c r="C425" s="44"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -11600,7 +11578,7 @@
     <row r="426" spans="1:22">
       <c r="A426" s="6"/>
       <c r="B426" s="13"/>
-      <c r="C426" s="45"/>
+      <c r="C426" s="44"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -11624,7 +11602,7 @@
     <row r="427" spans="1:22">
       <c r="A427" s="6"/>
       <c r="B427" s="13"/>
-      <c r="C427" s="45"/>
+      <c r="C427" s="44"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -11648,7 +11626,7 @@
     <row r="428" spans="1:22">
       <c r="A428" s="6"/>
       <c r="B428" s="13"/>
-      <c r="C428" s="45"/>
+      <c r="C428" s="44"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -11672,7 +11650,7 @@
     <row r="429" spans="1:22">
       <c r="A429" s="6"/>
       <c r="B429" s="13"/>
-      <c r="C429" s="45"/>
+      <c r="C429" s="44"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -11696,7 +11674,7 @@
     <row r="430" spans="1:22">
       <c r="A430" s="6"/>
       <c r="B430" s="13"/>
-      <c r="C430" s="45"/>
+      <c r="C430" s="44"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -11720,7 +11698,7 @@
     <row r="431" spans="1:22">
       <c r="A431" s="6"/>
       <c r="B431" s="13"/>
-      <c r="C431" s="45"/>
+      <c r="C431" s="44"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -11744,7 +11722,7 @@
     <row r="432" spans="1:22">
       <c r="A432" s="6"/>
       <c r="B432" s="13"/>
-      <c r="C432" s="45"/>
+      <c r="C432" s="44"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
@@ -11768,7 +11746,7 @@
     <row r="433" spans="1:22">
       <c r="A433" s="6"/>
       <c r="B433" s="13"/>
-      <c r="C433" s="45"/>
+      <c r="C433" s="44"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -11792,7 +11770,7 @@
     <row r="434" spans="1:22">
       <c r="A434" s="6"/>
       <c r="B434" s="13"/>
-      <c r="C434" s="45"/>
+      <c r="C434" s="44"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
@@ -11816,7 +11794,7 @@
     <row r="435" spans="1:22">
       <c r="A435" s="6"/>
       <c r="B435" s="13"/>
-      <c r="C435" s="45"/>
+      <c r="C435" s="44"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
@@ -11840,7 +11818,7 @@
     <row r="436" spans="1:22">
       <c r="A436" s="6"/>
       <c r="B436" s="13"/>
-      <c r="C436" s="45"/>
+      <c r="C436" s="44"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
@@ -11864,7 +11842,7 @@
     <row r="437" spans="1:22">
       <c r="A437" s="6"/>
       <c r="B437" s="13"/>
-      <c r="C437" s="45"/>
+      <c r="C437" s="44"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
@@ -11888,7 +11866,7 @@
     <row r="438" spans="1:22">
       <c r="A438" s="6"/>
       <c r="B438" s="13"/>
-      <c r="C438" s="45"/>
+      <c r="C438" s="44"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -11912,7 +11890,7 @@
     <row r="439" spans="1:22">
       <c r="A439" s="6"/>
       <c r="B439" s="13"/>
-      <c r="C439" s="45"/>
+      <c r="C439" s="44"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -11936,7 +11914,7 @@
     <row r="440" spans="1:22">
       <c r="A440" s="6"/>
       <c r="B440" s="13"/>
-      <c r="C440" s="45"/>
+      <c r="C440" s="44"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
@@ -11960,7 +11938,7 @@
     <row r="441" spans="1:22">
       <c r="A441" s="6"/>
       <c r="B441" s="13"/>
-      <c r="C441" s="45"/>
+      <c r="C441" s="44"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -11984,7 +11962,7 @@
     <row r="442" spans="1:22">
       <c r="A442" s="6"/>
       <c r="B442" s="13"/>
-      <c r="C442" s="45"/>
+      <c r="C442" s="44"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
@@ -12008,7 +11986,7 @@
     <row r="443" spans="1:22">
       <c r="A443" s="6"/>
       <c r="B443" s="13"/>
-      <c r="C443" s="45"/>
+      <c r="C443" s="44"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
@@ -12032,7 +12010,7 @@
     <row r="444" spans="1:22">
       <c r="A444" s="6"/>
       <c r="B444" s="13"/>
-      <c r="C444" s="45"/>
+      <c r="C444" s="44"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
@@ -12056,7 +12034,7 @@
     <row r="445" spans="1:22">
       <c r="A445" s="6"/>
       <c r="B445" s="13"/>
-      <c r="C445" s="45"/>
+      <c r="C445" s="44"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
@@ -12080,7 +12058,7 @@
     <row r="446" spans="1:22">
       <c r="A446" s="6"/>
       <c r="B446" s="13"/>
-      <c r="C446" s="45"/>
+      <c r="C446" s="44"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
@@ -12104,7 +12082,7 @@
     <row r="447" spans="1:22">
       <c r="A447" s="6"/>
       <c r="B447" s="13"/>
-      <c r="C447" s="45"/>
+      <c r="C447" s="44"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
@@ -12128,7 +12106,7 @@
     <row r="448" spans="1:22">
       <c r="A448" s="6"/>
       <c r="B448" s="13"/>
-      <c r="C448" s="45"/>
+      <c r="C448" s="44"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
@@ -12152,7 +12130,7 @@
     <row r="449" spans="1:22">
       <c r="A449" s="6"/>
       <c r="B449" s="13"/>
-      <c r="C449" s="45"/>
+      <c r="C449" s="44"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
@@ -12176,7 +12154,7 @@
     <row r="450" spans="1:22">
       <c r="A450" s="6"/>
       <c r="B450" s="13"/>
-      <c r="C450" s="45"/>
+      <c r="C450" s="44"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
@@ -12200,7 +12178,7 @@
     <row r="451" spans="1:22">
       <c r="A451" s="6"/>
       <c r="B451" s="13"/>
-      <c r="C451" s="45"/>
+      <c r="C451" s="44"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
@@ -12224,7 +12202,7 @@
     <row r="452" spans="1:22">
       <c r="A452" s="6"/>
       <c r="B452" s="13"/>
-      <c r="C452" s="45"/>
+      <c r="C452" s="44"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
@@ -12248,7 +12226,7 @@
     <row r="453" spans="1:22">
       <c r="A453" s="6"/>
       <c r="B453" s="13"/>
-      <c r="C453" s="45"/>
+      <c r="C453" s="44"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
@@ -12272,7 +12250,7 @@
     <row r="454" spans="1:22">
       <c r="A454" s="6"/>
       <c r="B454" s="13"/>
-      <c r="C454" s="45"/>
+      <c r="C454" s="44"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
@@ -12296,7 +12274,7 @@
     <row r="455" spans="1:22">
       <c r="A455" s="6"/>
       <c r="B455" s="13"/>
-      <c r="C455" s="45"/>
+      <c r="C455" s="44"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
@@ -12320,7 +12298,7 @@
     <row r="456" spans="1:22">
       <c r="A456" s="6"/>
       <c r="B456" s="13"/>
-      <c r="C456" s="45"/>
+      <c r="C456" s="44"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
@@ -12344,7 +12322,7 @@
     <row r="457" spans="1:22">
       <c r="A457" s="6"/>
       <c r="B457" s="13"/>
-      <c r="C457" s="45"/>
+      <c r="C457" s="44"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
@@ -12368,7 +12346,7 @@
     <row r="458" spans="1:22">
       <c r="A458" s="6"/>
       <c r="B458" s="13"/>
-      <c r="C458" s="45"/>
+      <c r="C458" s="44"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
@@ -12392,7 +12370,7 @@
     <row r="459" spans="1:22">
       <c r="A459" s="6"/>
       <c r="B459" s="13"/>
-      <c r="C459" s="45"/>
+      <c r="C459" s="44"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
@@ -12416,7 +12394,7 @@
     <row r="460" spans="1:22">
       <c r="A460" s="6"/>
       <c r="B460" s="13"/>
-      <c r="C460" s="45"/>
+      <c r="C460" s="44"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
@@ -12440,7 +12418,7 @@
     <row r="461" spans="1:22">
       <c r="A461" s="6"/>
       <c r="B461" s="13"/>
-      <c r="C461" s="45"/>
+      <c r="C461" s="44"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
@@ -12464,7 +12442,7 @@
     <row r="462" spans="1:22">
       <c r="A462" s="6"/>
       <c r="B462" s="13"/>
-      <c r="C462" s="45"/>
+      <c r="C462" s="44"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
@@ -12488,7 +12466,7 @@
     <row r="463" spans="1:22">
       <c r="A463" s="6"/>
       <c r="B463" s="13"/>
-      <c r="C463" s="45"/>
+      <c r="C463" s="44"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
@@ -12512,7 +12490,7 @@
     <row r="464" spans="1:22">
       <c r="A464" s="6"/>
       <c r="B464" s="13"/>
-      <c r="C464" s="45"/>
+      <c r="C464" s="44"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
@@ -12536,7 +12514,7 @@
     <row r="465" spans="1:22">
       <c r="A465" s="6"/>
       <c r="B465" s="13"/>
-      <c r="C465" s="45"/>
+      <c r="C465" s="44"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
@@ -12560,7 +12538,7 @@
     <row r="466" spans="1:22">
       <c r="A466" s="6"/>
       <c r="B466" s="13"/>
-      <c r="C466" s="45"/>
+      <c r="C466" s="44"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
@@ -12584,7 +12562,7 @@
     <row r="467" spans="1:22">
       <c r="A467" s="6"/>
       <c r="B467" s="13"/>
-      <c r="C467" s="45"/>
+      <c r="C467" s="44"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
@@ -12608,7 +12586,7 @@
     <row r="468" spans="1:22">
       <c r="A468" s="6"/>
       <c r="B468" s="13"/>
-      <c r="C468" s="45"/>
+      <c r="C468" s="44"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
@@ -12632,7 +12610,7 @@
     <row r="469" spans="1:22">
       <c r="A469" s="6"/>
       <c r="B469" s="13"/>
-      <c r="C469" s="45"/>
+      <c r="C469" s="44"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
@@ -12656,7 +12634,7 @@
     <row r="470" spans="1:22">
       <c r="A470" s="6"/>
       <c r="B470" s="13"/>
-      <c r="C470" s="45"/>
+      <c r="C470" s="44"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
@@ -12680,7 +12658,7 @@
     <row r="471" spans="1:22">
       <c r="A471" s="6"/>
       <c r="B471" s="13"/>
-      <c r="C471" s="45"/>
+      <c r="C471" s="44"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
@@ -12704,7 +12682,7 @@
     <row r="472" spans="1:22">
       <c r="A472" s="6"/>
       <c r="B472" s="13"/>
-      <c r="C472" s="45"/>
+      <c r="C472" s="44"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
@@ -12728,7 +12706,7 @@
     <row r="473" spans="1:22">
       <c r="A473" s="6"/>
       <c r="B473" s="13"/>
-      <c r="C473" s="45"/>
+      <c r="C473" s="44"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
@@ -12752,7 +12730,7 @@
     <row r="474" spans="1:22">
       <c r="A474" s="6"/>
       <c r="B474" s="13"/>
-      <c r="C474" s="45"/>
+      <c r="C474" s="44"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
@@ -12776,7 +12754,7 @@
     <row r="475" spans="1:22">
       <c r="A475" s="6"/>
       <c r="B475" s="13"/>
-      <c r="C475" s="45"/>
+      <c r="C475" s="44"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
@@ -12800,7 +12778,7 @@
     <row r="476" spans="1:22">
       <c r="A476" s="6"/>
       <c r="B476" s="13"/>
-      <c r="C476" s="45"/>
+      <c r="C476" s="44"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
@@ -12824,7 +12802,7 @@
     <row r="477" spans="1:22">
       <c r="A477" s="6"/>
       <c r="B477" s="13"/>
-      <c r="C477" s="45"/>
+      <c r="C477" s="44"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
@@ -12848,7 +12826,7 @@
     <row r="478" spans="1:22">
       <c r="A478" s="6"/>
       <c r="B478" s="13"/>
-      <c r="C478" s="45"/>
+      <c r="C478" s="44"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
@@ -12872,7 +12850,7 @@
     <row r="479" spans="1:22">
       <c r="A479" s="6"/>
       <c r="B479" s="13"/>
-      <c r="C479" s="45"/>
+      <c r="C479" s="44"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
@@ -12896,7 +12874,7 @@
     <row r="480" spans="1:22">
       <c r="A480" s="6"/>
       <c r="B480" s="13"/>
-      <c r="C480" s="45"/>
+      <c r="C480" s="44"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
@@ -12920,7 +12898,7 @@
     <row r="481" spans="1:22">
       <c r="A481" s="6"/>
       <c r="B481" s="13"/>
-      <c r="C481" s="45"/>
+      <c r="C481" s="44"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
@@ -12944,7 +12922,7 @@
     <row r="482" spans="1:22">
       <c r="A482" s="6"/>
       <c r="B482" s="13"/>
-      <c r="C482" s="45"/>
+      <c r="C482" s="44"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
@@ -12968,7 +12946,7 @@
     <row r="483" spans="1:22">
       <c r="A483" s="6"/>
       <c r="B483" s="13"/>
-      <c r="C483" s="45"/>
+      <c r="C483" s="44"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
@@ -12992,7 +12970,7 @@
     <row r="484" spans="1:22">
       <c r="A484" s="6"/>
       <c r="B484" s="13"/>
-      <c r="C484" s="45"/>
+      <c r="C484" s="44"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
@@ -13016,7 +12994,7 @@
     <row r="485" spans="1:22">
       <c r="A485" s="6"/>
       <c r="B485" s="13"/>
-      <c r="C485" s="45"/>
+      <c r="C485" s="44"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
@@ -13040,7 +13018,7 @@
     <row r="486" spans="1:22">
       <c r="A486" s="6"/>
       <c r="B486" s="13"/>
-      <c r="C486" s="45"/>
+      <c r="C486" s="44"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
@@ -13064,7 +13042,7 @@
     <row r="487" spans="1:22">
       <c r="A487" s="6"/>
       <c r="B487" s="13"/>
-      <c r="C487" s="45"/>
+      <c r="C487" s="44"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
@@ -13088,7 +13066,7 @@
     <row r="488" spans="1:22">
       <c r="A488" s="6"/>
       <c r="B488" s="13"/>
-      <c r="C488" s="45"/>
+      <c r="C488" s="44"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
@@ -13112,7 +13090,7 @@
     <row r="489" spans="1:22">
       <c r="A489" s="6"/>
       <c r="B489" s="13"/>
-      <c r="C489" s="45"/>
+      <c r="C489" s="44"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
@@ -13136,7 +13114,7 @@
     <row r="490" spans="1:22">
       <c r="A490" s="6"/>
       <c r="B490" s="13"/>
-      <c r="C490" s="45"/>
+      <c r="C490" s="44"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
@@ -13160,7 +13138,7 @@
     <row r="491" spans="1:22">
       <c r="A491" s="6"/>
       <c r="B491" s="13"/>
-      <c r="C491" s="45"/>
+      <c r="C491" s="44"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
@@ -13184,7 +13162,7 @@
     <row r="492" spans="1:22">
       <c r="A492" s="6"/>
       <c r="B492" s="13"/>
-      <c r="C492" s="45"/>
+      <c r="C492" s="44"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
@@ -13208,7 +13186,7 @@
     <row r="493" spans="1:22">
       <c r="A493" s="6"/>
       <c r="B493" s="13"/>
-      <c r="C493" s="45"/>
+      <c r="C493" s="44"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
@@ -13232,7 +13210,7 @@
     <row r="494" spans="1:22">
       <c r="A494" s="6"/>
       <c r="B494" s="13"/>
-      <c r="C494" s="45"/>
+      <c r="C494" s="44"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
@@ -13256,7 +13234,7 @@
     <row r="495" spans="1:22">
       <c r="A495" s="6"/>
       <c r="B495" s="13"/>
-      <c r="C495" s="45"/>
+      <c r="C495" s="44"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
@@ -13280,7 +13258,7 @@
     <row r="496" spans="1:22">
       <c r="A496" s="6"/>
       <c r="B496" s="13"/>
-      <c r="C496" s="45"/>
+      <c r="C496" s="44"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
@@ -13304,7 +13282,7 @@
     <row r="497" spans="1:22">
       <c r="A497" s="6"/>
       <c r="B497" s="13"/>
-      <c r="C497" s="45"/>
+      <c r="C497" s="44"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
@@ -13328,7 +13306,7 @@
     <row r="498" spans="1:22">
       <c r="A498" s="6"/>
       <c r="B498" s="13"/>
-      <c r="C498" s="45"/>
+      <c r="C498" s="44"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
@@ -13352,7 +13330,7 @@
     <row r="499" spans="1:22">
       <c r="A499" s="6"/>
       <c r="B499" s="13"/>
-      <c r="C499" s="45"/>
+      <c r="C499" s="44"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
@@ -13376,7 +13354,7 @@
     <row r="500" spans="1:22">
       <c r="A500" s="6"/>
       <c r="B500" s="13"/>
-      <c r="C500" s="45"/>
+      <c r="C500" s="44"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
@@ -13400,7 +13378,7 @@
     <row r="501" spans="1:22">
       <c r="A501" s="6"/>
       <c r="B501" s="13"/>
-      <c r="C501" s="45"/>
+      <c r="C501" s="44"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
@@ -13424,7 +13402,7 @@
     <row r="502" spans="1:22">
       <c r="A502" s="6"/>
       <c r="B502" s="13"/>
-      <c r="C502" s="45"/>
+      <c r="C502" s="44"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
@@ -13448,7 +13426,7 @@
     <row r="503" spans="1:22">
       <c r="A503" s="6"/>
       <c r="B503" s="13"/>
-      <c r="C503" s="45"/>
+      <c r="C503" s="44"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
@@ -13472,7 +13450,7 @@
     <row r="504" spans="1:22">
       <c r="A504" s="6"/>
       <c r="B504" s="13"/>
-      <c r="C504" s="45"/>
+      <c r="C504" s="44"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
@@ -13496,7 +13474,7 @@
     <row r="505" spans="1:22">
       <c r="A505" s="6"/>
       <c r="B505" s="13"/>
-      <c r="C505" s="45"/>
+      <c r="C505" s="44"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
@@ -13520,7 +13498,7 @@
     <row r="506" spans="1:22">
       <c r="A506" s="6"/>
       <c r="B506" s="13"/>
-      <c r="C506" s="45"/>
+      <c r="C506" s="44"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
@@ -13544,7 +13522,7 @@
     <row r="507" spans="1:22">
       <c r="A507" s="6"/>
       <c r="B507" s="13"/>
-      <c r="C507" s="45"/>
+      <c r="C507" s="44"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
@@ -13568,7 +13546,7 @@
     <row r="508" spans="1:22">
       <c r="A508" s="6"/>
       <c r="B508" s="13"/>
-      <c r="C508" s="45"/>
+      <c r="C508" s="44"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
@@ -13592,7 +13570,7 @@
     <row r="509" spans="1:22">
       <c r="A509" s="6"/>
       <c r="B509" s="13"/>
-      <c r="C509" s="45"/>
+      <c r="C509" s="44"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
@@ -13616,7 +13594,7 @@
     <row r="510" spans="1:22">
       <c r="A510" s="6"/>
       <c r="B510" s="13"/>
-      <c r="C510" s="45"/>
+      <c r="C510" s="44"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
@@ -13640,7 +13618,7 @@
     <row r="511" spans="1:22">
       <c r="A511" s="6"/>
       <c r="B511" s="13"/>
-      <c r="C511" s="45"/>
+      <c r="C511" s="44"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
@@ -13664,7 +13642,7 @@
     <row r="512" spans="1:22">
       <c r="A512" s="6"/>
       <c r="B512" s="13"/>
-      <c r="C512" s="45"/>
+      <c r="C512" s="44"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
@@ -13688,7 +13666,7 @@
     <row r="513" spans="1:22">
       <c r="A513" s="6"/>
       <c r="B513" s="13"/>
-      <c r="C513" s="45"/>
+      <c r="C513" s="44"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
@@ -13712,7 +13690,7 @@
     <row r="514" spans="1:22">
       <c r="A514" s="6"/>
       <c r="B514" s="13"/>
-      <c r="C514" s="45"/>
+      <c r="C514" s="44"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
@@ -13736,7 +13714,7 @@
     <row r="515" spans="1:22">
       <c r="A515" s="6"/>
       <c r="B515" s="13"/>
-      <c r="C515" s="45"/>
+      <c r="C515" s="44"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
@@ -13760,7 +13738,7 @@
     <row r="516" spans="1:22">
       <c r="A516" s="6"/>
       <c r="B516" s="13"/>
-      <c r="C516" s="45"/>
+      <c r="C516" s="44"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
@@ -13784,7 +13762,7 @@
     <row r="517" spans="1:22">
       <c r="A517" s="6"/>
       <c r="B517" s="13"/>
-      <c r="C517" s="45"/>
+      <c r="C517" s="44"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
@@ -13808,7 +13786,7 @@
     <row r="518" spans="1:22">
       <c r="A518" s="6"/>
       <c r="B518" s="13"/>
-      <c r="C518" s="45"/>
+      <c r="C518" s="44"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
@@ -13832,7 +13810,7 @@
     <row r="519" spans="1:22">
       <c r="A519" s="6"/>
       <c r="B519" s="13"/>
-      <c r="C519" s="45"/>
+      <c r="C519" s="44"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
@@ -13856,7 +13834,7 @@
     <row r="520" spans="1:22">
       <c r="A520" s="6"/>
       <c r="B520" s="13"/>
-      <c r="C520" s="45"/>
+      <c r="C520" s="44"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
@@ -13880,7 +13858,7 @@
     <row r="521" spans="1:22">
       <c r="A521" s="6"/>
       <c r="B521" s="13"/>
-      <c r="C521" s="45"/>
+      <c r="C521" s="44"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
@@ -13904,7 +13882,7 @@
     <row r="522" spans="1:22">
       <c r="A522" s="6"/>
       <c r="B522" s="13"/>
-      <c r="C522" s="45"/>
+      <c r="C522" s="44"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
@@ -13928,7 +13906,7 @@
     <row r="523" spans="1:22">
       <c r="A523" s="6"/>
       <c r="B523" s="13"/>
-      <c r="C523" s="45"/>
+      <c r="C523" s="44"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
@@ -13952,7 +13930,7 @@
     <row r="524" spans="1:22">
       <c r="A524" s="6"/>
       <c r="B524" s="13"/>
-      <c r="C524" s="45"/>
+      <c r="C524" s="44"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
@@ -13976,7 +13954,7 @@
     <row r="525" spans="1:22">
       <c r="A525" s="6"/>
       <c r="B525" s="13"/>
-      <c r="C525" s="45"/>
+      <c r="C525" s="44"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
@@ -14000,7 +13978,7 @@
     <row r="526" spans="1:22">
       <c r="A526" s="6"/>
       <c r="B526" s="13"/>
-      <c r="C526" s="45"/>
+      <c r="C526" s="44"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
@@ -14024,7 +14002,7 @@
     <row r="527" spans="1:22">
       <c r="A527" s="6"/>
       <c r="B527" s="13"/>
-      <c r="C527" s="45"/>
+      <c r="C527" s="44"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
@@ -14048,7 +14026,7 @@
     <row r="528" spans="1:22">
       <c r="A528" s="6"/>
       <c r="B528" s="13"/>
-      <c r="C528" s="45"/>
+      <c r="C528" s="44"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
@@ -14072,7 +14050,7 @@
     <row r="529" spans="1:22">
       <c r="A529" s="6"/>
       <c r="B529" s="13"/>
-      <c r="C529" s="45"/>
+      <c r="C529" s="44"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
@@ -14096,7 +14074,7 @@
     <row r="530" spans="1:22">
       <c r="A530" s="6"/>
       <c r="B530" s="13"/>
-      <c r="C530" s="45"/>
+      <c r="C530" s="44"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
@@ -14120,7 +14098,7 @@
     <row r="531" spans="1:22">
       <c r="A531" s="6"/>
       <c r="B531" s="13"/>
-      <c r="C531" s="45"/>
+      <c r="C531" s="44"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
@@ -14144,7 +14122,7 @@
     <row r="532" spans="1:22">
       <c r="A532" s="6"/>
       <c r="B532" s="13"/>
-      <c r="C532" s="45"/>
+      <c r="C532" s="44"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
@@ -14168,7 +14146,7 @@
     <row r="533" spans="1:22">
       <c r="A533" s="6"/>
       <c r="B533" s="13"/>
-      <c r="C533" s="45"/>
+      <c r="C533" s="44"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
@@ -14192,7 +14170,7 @@
     <row r="534" spans="1:22">
       <c r="A534" s="6"/>
       <c r="B534" s="13"/>
-      <c r="C534" s="45"/>
+      <c r="C534" s="44"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
@@ -14216,7 +14194,7 @@
     <row r="535" spans="1:22">
       <c r="A535" s="6"/>
       <c r="B535" s="13"/>
-      <c r="C535" s="45"/>
+      <c r="C535" s="44"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
@@ -14240,7 +14218,7 @@
     <row r="536" spans="1:22">
       <c r="A536" s="6"/>
       <c r="B536" s="13"/>
-      <c r="C536" s="45"/>
+      <c r="C536" s="44"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
@@ -14264,7 +14242,7 @@
     <row r="537" spans="1:22">
       <c r="A537" s="6"/>
       <c r="B537" s="13"/>
-      <c r="C537" s="45"/>
+      <c r="C537" s="44"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
@@ -14288,7 +14266,7 @@
     <row r="538" spans="1:22">
       <c r="A538" s="6"/>
       <c r="B538" s="13"/>
-      <c r="C538" s="45"/>
+      <c r="C538" s="44"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
@@ -14312,7 +14290,7 @@
     <row r="539" spans="1:22">
       <c r="A539" s="6"/>
       <c r="B539" s="13"/>
-      <c r="C539" s="45"/>
+      <c r="C539" s="44"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
@@ -14336,7 +14314,7 @@
     <row r="540" spans="1:22">
       <c r="A540" s="6"/>
       <c r="B540" s="13"/>
-      <c r="C540" s="45"/>
+      <c r="C540" s="44"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
@@ -14360,7 +14338,7 @@
     <row r="541" spans="1:22">
       <c r="A541" s="6"/>
       <c r="B541" s="13"/>
-      <c r="C541" s="45"/>
+      <c r="C541" s="44"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
@@ -14384,7 +14362,7 @@
     <row r="542" spans="1:22">
       <c r="A542" s="6"/>
       <c r="B542" s="13"/>
-      <c r="C542" s="45"/>
+      <c r="C542" s="44"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
@@ -14408,7 +14386,7 @@
     <row r="543" spans="1:22">
       <c r="A543" s="6"/>
       <c r="B543" s="13"/>
-      <c r="C543" s="45"/>
+      <c r="C543" s="44"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
@@ -14432,7 +14410,7 @@
     <row r="544" spans="1:22">
       <c r="A544" s="6"/>
       <c r="B544" s="13"/>
-      <c r="C544" s="45"/>
+      <c r="C544" s="44"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
@@ -14456,7 +14434,7 @@
     <row r="545" spans="1:22">
       <c r="A545" s="6"/>
       <c r="B545" s="13"/>
-      <c r="C545" s="45"/>
+      <c r="C545" s="44"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
@@ -14480,7 +14458,7 @@
     <row r="546" spans="1:22">
       <c r="A546" s="6"/>
       <c r="B546" s="13"/>
-      <c r="C546" s="45"/>
+      <c r="C546" s="44"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
@@ -14504,7 +14482,7 @@
     <row r="547" spans="1:22">
       <c r="A547" s="6"/>
       <c r="B547" s="13"/>
-      <c r="C547" s="45"/>
+      <c r="C547" s="44"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
@@ -14528,7 +14506,7 @@
     <row r="548" spans="1:22">
       <c r="A548" s="6"/>
       <c r="B548" s="13"/>
-      <c r="C548" s="45"/>
+      <c r="C548" s="44"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
@@ -14552,7 +14530,7 @@
     <row r="549" spans="1:22">
       <c r="A549" s="6"/>
       <c r="B549" s="13"/>
-      <c r="C549" s="45"/>
+      <c r="C549" s="44"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
@@ -14576,7 +14554,7 @@
     <row r="550" spans="1:22">
       <c r="A550" s="6"/>
       <c r="B550" s="13"/>
-      <c r="C550" s="45"/>
+      <c r="C550" s="44"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
@@ -14600,7 +14578,7 @@
     <row r="551" spans="1:22">
       <c r="A551" s="6"/>
       <c r="B551" s="13"/>
-      <c r="C551" s="45"/>
+      <c r="C551" s="44"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
@@ -14624,7 +14602,7 @@
     <row r="552" spans="1:22">
       <c r="A552" s="6"/>
       <c r="B552" s="13"/>
-      <c r="C552" s="45"/>
+      <c r="C552" s="44"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
@@ -14648,7 +14626,7 @@
     <row r="553" spans="1:22">
       <c r="A553" s="6"/>
       <c r="B553" s="13"/>
-      <c r="C553" s="45"/>
+      <c r="C553" s="44"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
@@ -14672,7 +14650,7 @@
     <row r="554" spans="1:22">
       <c r="A554" s="6"/>
       <c r="B554" s="13"/>
-      <c r="C554" s="45"/>
+      <c r="C554" s="44"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
@@ -14696,7 +14674,7 @@
     <row r="555" spans="1:22">
       <c r="A555" s="6"/>
       <c r="B555" s="13"/>
-      <c r="C555" s="45"/>
+      <c r="C555" s="44"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
@@ -14720,7 +14698,7 @@
     <row r="556" spans="1:22">
       <c r="A556" s="6"/>
       <c r="B556" s="13"/>
-      <c r="C556" s="45"/>
+      <c r="C556" s="44"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
@@ -14744,7 +14722,7 @@
     <row r="557" spans="1:22">
       <c r="A557" s="6"/>
       <c r="B557" s="13"/>
-      <c r="C557" s="45"/>
+      <c r="C557" s="44"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
@@ -14768,7 +14746,7 @@
     <row r="558" spans="1:22">
       <c r="A558" s="6"/>
       <c r="B558" s="13"/>
-      <c r="C558" s="45"/>
+      <c r="C558" s="44"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
@@ -14792,7 +14770,7 @@
     <row r="559" spans="1:22">
       <c r="A559" s="6"/>
       <c r="B559" s="13"/>
-      <c r="C559" s="45"/>
+      <c r="C559" s="44"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
@@ -14816,7 +14794,7 @@
     <row r="560" spans="1:22">
       <c r="A560" s="6"/>
       <c r="B560" s="13"/>
-      <c r="C560" s="45"/>
+      <c r="C560" s="44"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
@@ -14840,7 +14818,7 @@
     <row r="561" spans="1:22">
       <c r="A561" s="6"/>
       <c r="B561" s="13"/>
-      <c r="C561" s="45"/>
+      <c r="C561" s="44"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
@@ -14864,7 +14842,7 @@
     <row r="562" spans="1:22">
       <c r="A562" s="6"/>
       <c r="B562" s="13"/>
-      <c r="C562" s="45"/>
+      <c r="C562" s="44"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
@@ -14888,7 +14866,7 @@
     <row r="563" spans="1:22">
       <c r="A563" s="6"/>
       <c r="B563" s="13"/>
-      <c r="C563" s="45"/>
+      <c r="C563" s="44"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
@@ -14912,7 +14890,7 @@
     <row r="564" spans="1:22">
       <c r="A564" s="6"/>
       <c r="B564" s="13"/>
-      <c r="C564" s="45"/>
+      <c r="C564" s="44"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
@@ -14936,7 +14914,7 @@
     <row r="565" spans="1:22">
       <c r="A565" s="6"/>
       <c r="B565" s="13"/>
-      <c r="C565" s="45"/>
+      <c r="C565" s="44"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
@@ -14960,7 +14938,7 @@
     <row r="566" spans="1:22">
       <c r="A566" s="6"/>
       <c r="B566" s="13"/>
-      <c r="C566" s="45"/>
+      <c r="C566" s="44"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
@@ -14984,7 +14962,7 @@
     <row r="567" spans="1:22">
       <c r="A567" s="6"/>
       <c r="B567" s="13"/>
-      <c r="C567" s="45"/>
+      <c r="C567" s="44"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
@@ -15008,7 +14986,7 @@
     <row r="568" spans="1:22">
       <c r="A568" s="6"/>
       <c r="B568" s="13"/>
-      <c r="C568" s="45"/>
+      <c r="C568" s="44"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
@@ -15032,7 +15010,7 @@
     <row r="569" spans="1:22">
       <c r="A569" s="6"/>
       <c r="B569" s="13"/>
-      <c r="C569" s="45"/>
+      <c r="C569" s="44"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
@@ -15056,7 +15034,7 @@
     <row r="570" spans="1:22">
       <c r="A570" s="6"/>
       <c r="B570" s="13"/>
-      <c r="C570" s="45"/>
+      <c r="C570" s="44"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
@@ -15080,7 +15058,7 @@
     <row r="571" spans="1:22">
       <c r="A571" s="6"/>
       <c r="B571" s="13"/>
-      <c r="C571" s="45"/>
+      <c r="C571" s="44"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
@@ -15104,7 +15082,7 @@
     <row r="572" spans="1:22">
       <c r="A572" s="6"/>
       <c r="B572" s="13"/>
-      <c r="C572" s="45"/>
+      <c r="C572" s="44"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
@@ -15128,7 +15106,7 @@
     <row r="573" spans="1:22">
       <c r="A573" s="6"/>
       <c r="B573" s="13"/>
-      <c r="C573" s="45"/>
+      <c r="C573" s="44"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
@@ -15152,7 +15130,7 @@
     <row r="574" spans="1:22">
       <c r="A574" s="6"/>
       <c r="B574" s="13"/>
-      <c r="C574" s="45"/>
+      <c r="C574" s="44"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
@@ -15176,7 +15154,7 @@
     <row r="575" spans="1:22">
       <c r="A575" s="6"/>
       <c r="B575" s="13"/>
-      <c r="C575" s="45"/>
+      <c r="C575" s="44"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
@@ -15200,7 +15178,7 @@
     <row r="576" spans="1:22">
       <c r="A576" s="6"/>
       <c r="B576" s="13"/>
-      <c r="C576" s="45"/>
+      <c r="C576" s="44"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
@@ -15224,7 +15202,7 @@
     <row r="577" spans="1:22">
       <c r="A577" s="6"/>
       <c r="B577" s="13"/>
-      <c r="C577" s="45"/>
+      <c r="C577" s="44"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
@@ -15248,7 +15226,7 @@
     <row r="578" spans="1:22">
       <c r="A578" s="6"/>
       <c r="B578" s="13"/>
-      <c r="C578" s="45"/>
+      <c r="C578" s="44"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
@@ -15272,7 +15250,7 @@
     <row r="579" spans="1:22">
       <c r="A579" s="6"/>
       <c r="B579" s="13"/>
-      <c r="C579" s="45"/>
+      <c r="C579" s="44"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
@@ -15296,7 +15274,7 @@
     <row r="580" spans="1:22">
       <c r="A580" s="6"/>
       <c r="B580" s="13"/>
-      <c r="C580" s="45"/>
+      <c r="C580" s="44"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
@@ -15320,7 +15298,7 @@
     <row r="581" spans="1:22">
       <c r="A581" s="6"/>
       <c r="B581" s="13"/>
-      <c r="C581" s="45"/>
+      <c r="C581" s="44"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
@@ -15344,7 +15322,7 @@
     <row r="582" spans="1:22">
       <c r="A582" s="6"/>
       <c r="B582" s="13"/>
-      <c r="C582" s="45"/>
+      <c r="C582" s="44"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
@@ -15368,7 +15346,7 @@
     <row r="583" spans="1:22">
       <c r="A583" s="6"/>
       <c r="B583" s="13"/>
-      <c r="C583" s="45"/>
+      <c r="C583" s="44"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
@@ -15392,7 +15370,7 @@
     <row r="584" spans="1:22">
       <c r="A584" s="6"/>
       <c r="B584" s="13"/>
-      <c r="C584" s="45"/>
+      <c r="C584" s="44"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
@@ -15416,7 +15394,7 @@
     <row r="585" spans="1:22">
       <c r="A585" s="6"/>
       <c r="B585" s="13"/>
-      <c r="C585" s="45"/>
+      <c r="C585" s="44"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
@@ -15440,7 +15418,7 @@
     <row r="586" spans="1:22">
       <c r="A586" s="6"/>
       <c r="B586" s="13"/>
-      <c r="C586" s="45"/>
+      <c r="C586" s="44"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
@@ -15464,7 +15442,7 @@
     <row r="587" spans="1:22">
       <c r="A587" s="6"/>
       <c r="B587" s="13"/>
-      <c r="C587" s="45"/>
+      <c r="C587" s="44"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
@@ -15488,7 +15466,7 @@
     <row r="588" spans="1:22">
       <c r="A588" s="6"/>
       <c r="B588" s="13"/>
-      <c r="C588" s="45"/>
+      <c r="C588" s="44"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
@@ -15512,7 +15490,7 @@
     <row r="589" spans="1:22">
       <c r="A589" s="6"/>
       <c r="B589" s="13"/>
-      <c r="C589" s="45"/>
+      <c r="C589" s="44"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
@@ -15536,7 +15514,7 @@
     <row r="590" spans="1:22">
       <c r="A590" s="6"/>
       <c r="B590" s="13"/>
-      <c r="C590" s="45"/>
+      <c r="C590" s="44"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
@@ -15560,7 +15538,7 @@
     <row r="591" spans="1:22">
       <c r="A591" s="6"/>
       <c r="B591" s="13"/>
-      <c r="C591" s="45"/>
+      <c r="C591" s="44"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
@@ -15584,7 +15562,7 @@
     <row r="592" spans="1:22">
       <c r="A592" s="6"/>
       <c r="B592" s="13"/>
-      <c r="C592" s="45"/>
+      <c r="C592" s="44"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
@@ -15608,7 +15586,7 @@
     <row r="593" spans="1:22">
       <c r="A593" s="6"/>
       <c r="B593" s="13"/>
-      <c r="C593" s="45"/>
+      <c r="C593" s="44"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
@@ -15632,7 +15610,7 @@
     <row r="594" spans="1:22">
       <c r="A594" s="6"/>
       <c r="B594" s="13"/>
-      <c r="C594" s="45"/>
+      <c r="C594" s="44"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
@@ -15656,7 +15634,7 @@
     <row r="595" spans="1:22">
       <c r="A595" s="6"/>
       <c r="B595" s="13"/>
-      <c r="C595" s="45"/>
+      <c r="C595" s="44"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
@@ -15680,7 +15658,7 @@
     <row r="596" spans="1:22">
       <c r="A596" s="6"/>
       <c r="B596" s="13"/>
-      <c r="C596" s="45"/>
+      <c r="C596" s="44"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
@@ -15704,7 +15682,7 @@
     <row r="597" spans="1:22">
       <c r="A597" s="6"/>
       <c r="B597" s="13"/>
-      <c r="C597" s="45"/>
+      <c r="C597" s="44"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
@@ -15728,7 +15706,7 @@
     <row r="598" spans="1:22">
       <c r="A598" s="6"/>
       <c r="B598" s="13"/>
-      <c r="C598" s="45"/>
+      <c r="C598" s="44"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
@@ -15752,7 +15730,7 @@
     <row r="599" spans="1:22">
       <c r="A599" s="6"/>
       <c r="B599" s="13"/>
-      <c r="C599" s="45"/>
+      <c r="C599" s="44"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
@@ -15776,7 +15754,7 @@
     <row r="600" spans="1:22">
       <c r="A600" s="6"/>
       <c r="B600" s="13"/>
-      <c r="C600" s="45"/>
+      <c r="C600" s="44"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
@@ -15800,7 +15778,7 @@
     <row r="601" spans="1:22">
       <c r="A601" s="6"/>
       <c r="B601" s="13"/>
-      <c r="C601" s="45"/>
+      <c r="C601" s="44"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
@@ -15824,7 +15802,7 @@
     <row r="602" spans="1:22">
       <c r="A602" s="6"/>
       <c r="B602" s="13"/>
-      <c r="C602" s="45"/>
+      <c r="C602" s="44"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
@@ -15848,7 +15826,7 @@
     <row r="603" spans="1:22">
       <c r="A603" s="6"/>
       <c r="B603" s="13"/>
-      <c r="C603" s="45"/>
+      <c r="C603" s="44"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
@@ -15872,7 +15850,7 @@
     <row r="604" spans="1:22">
       <c r="A604" s="6"/>
       <c r="B604" s="13"/>
-      <c r="C604" s="45"/>
+      <c r="C604" s="44"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
@@ -15896,7 +15874,7 @@
     <row r="605" spans="1:22">
       <c r="A605" s="6"/>
       <c r="B605" s="13"/>
-      <c r="C605" s="45"/>
+      <c r="C605" s="44"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
@@ -15920,7 +15898,7 @@
     <row r="606" spans="1:22">
       <c r="A606" s="6"/>
       <c r="B606" s="13"/>
-      <c r="C606" s="45"/>
+      <c r="C606" s="44"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
@@ -15944,7 +15922,7 @@
     <row r="607" spans="1:22">
       <c r="A607" s="6"/>
       <c r="B607" s="13"/>
-      <c r="C607" s="45"/>
+      <c r="C607" s="44"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
@@ -15968,7 +15946,7 @@
     <row r="608" spans="1:22">
       <c r="A608" s="6"/>
       <c r="B608" s="13"/>
-      <c r="C608" s="45"/>
+      <c r="C608" s="44"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
@@ -15992,7 +15970,7 @@
     <row r="609" spans="1:22">
       <c r="A609" s="6"/>
       <c r="B609" s="13"/>
-      <c r="C609" s="45"/>
+      <c r="C609" s="44"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
@@ -16016,7 +15994,7 @@
     <row r="610" spans="1:22">
       <c r="A610" s="6"/>
       <c r="B610" s="13"/>
-      <c r="C610" s="45"/>
+      <c r="C610" s="44"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
@@ -16040,7 +16018,7 @@
     <row r="611" spans="1:22">
       <c r="A611" s="6"/>
       <c r="B611" s="13"/>
-      <c r="C611" s="45"/>
+      <c r="C611" s="44"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
@@ -16064,7 +16042,7 @@
     <row r="612" spans="1:22">
       <c r="A612" s="6"/>
       <c r="B612" s="13"/>
-      <c r="C612" s="45"/>
+      <c r="C612" s="44"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
@@ -16088,7 +16066,7 @@
     <row r="613" spans="1:22">
       <c r="A613" s="6"/>
       <c r="B613" s="13"/>
-      <c r="C613" s="45"/>
+      <c r="C613" s="44"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
@@ -16112,7 +16090,7 @@
     <row r="614" spans="1:22">
       <c r="A614" s="6"/>
       <c r="B614" s="13"/>
-      <c r="C614" s="45"/>
+      <c r="C614" s="44"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
@@ -16136,7 +16114,7 @@
     <row r="615" spans="1:22">
       <c r="A615" s="6"/>
       <c r="B615" s="13"/>
-      <c r="C615" s="45"/>
+      <c r="C615" s="44"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
@@ -16160,7 +16138,7 @@
     <row r="616" spans="1:22">
       <c r="A616" s="6"/>
       <c r="B616" s="13"/>
-      <c r="C616" s="45"/>
+      <c r="C616" s="44"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
@@ -16184,7 +16162,7 @@
     <row r="617" spans="1:22">
       <c r="A617" s="6"/>
       <c r="B617" s="13"/>
-      <c r="C617" s="45"/>
+      <c r="C617" s="44"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
@@ -16208,7 +16186,7 @@
     <row r="618" spans="1:22">
       <c r="A618" s="6"/>
       <c r="B618" s="13"/>
-      <c r="C618" s="45"/>
+      <c r="C618" s="44"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
@@ -16232,7 +16210,7 @@
     <row r="619" spans="1:22">
       <c r="A619" s="6"/>
       <c r="B619" s="13"/>
-      <c r="C619" s="45"/>
+      <c r="C619" s="44"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
@@ -16256,7 +16234,7 @@
     <row r="620" spans="1:22">
       <c r="A620" s="6"/>
       <c r="B620" s="13"/>
-      <c r="C620" s="45"/>
+      <c r="C620" s="44"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
@@ -16280,7 +16258,7 @@
     <row r="621" spans="1:22">
       <c r="A621" s="6"/>
       <c r="B621" s="13"/>
-      <c r="C621" s="45"/>
+      <c r="C621" s="44"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
@@ -16304,7 +16282,7 @@
     <row r="622" spans="1:22">
       <c r="A622" s="6"/>
       <c r="B622" s="13"/>
-      <c r="C622" s="45"/>
+      <c r="C622" s="44"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
@@ -16328,7 +16306,7 @@
     <row r="623" spans="1:22">
       <c r="A623" s="6"/>
       <c r="B623" s="13"/>
-      <c r="C623" s="45"/>
+      <c r="C623" s="44"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
@@ -16352,7 +16330,7 @@
     <row r="624" spans="1:22">
       <c r="A624" s="6"/>
       <c r="B624" s="13"/>
-      <c r="C624" s="45"/>
+      <c r="C624" s="44"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
@@ -16376,7 +16354,7 @@
     <row r="625" spans="1:22">
       <c r="A625" s="6"/>
       <c r="B625" s="13"/>
-      <c r="C625" s="45"/>
+      <c r="C625" s="44"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
@@ -16400,7 +16378,7 @@
     <row r="626" spans="1:22">
       <c r="A626" s="6"/>
       <c r="B626" s="13"/>
-      <c r="C626" s="45"/>
+      <c r="C626" s="44"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
@@ -16424,7 +16402,7 @@
     <row r="627" spans="1:22">
       <c r="A627" s="6"/>
       <c r="B627" s="13"/>
-      <c r="C627" s="45"/>
+      <c r="C627" s="44"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
@@ -16448,7 +16426,7 @@
     <row r="628" spans="1:22">
       <c r="A628" s="6"/>
       <c r="B628" s="13"/>
-      <c r="C628" s="45"/>
+      <c r="C628" s="44"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
@@ -16472,7 +16450,7 @@
     <row r="629" spans="1:22">
       <c r="A629" s="6"/>
       <c r="B629" s="13"/>
-      <c r="C629" s="45"/>
+      <c r="C629" s="44"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
@@ -16496,7 +16474,7 @@
     <row r="630" spans="1:22">
       <c r="A630" s="6"/>
       <c r="B630" s="13"/>
-      <c r="C630" s="45"/>
+      <c r="C630" s="44"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
@@ -16520,7 +16498,7 @@
     <row r="631" spans="1:22">
       <c r="A631" s="6"/>
       <c r="B631" s="13"/>
-      <c r="C631" s="45"/>
+      <c r="C631" s="44"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
@@ -16544,7 +16522,7 @@
     <row r="632" spans="1:22">
       <c r="A632" s="6"/>
       <c r="B632" s="13"/>
-      <c r="C632" s="45"/>
+      <c r="C632" s="44"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
@@ -16568,7 +16546,7 @@
     <row r="633" spans="1:22">
       <c r="A633" s="6"/>
       <c r="B633" s="13"/>
-      <c r="C633" s="45"/>
+      <c r="C633" s="44"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
@@ -16592,7 +16570,7 @@
     <row r="634" spans="1:22">
       <c r="A634" s="6"/>
       <c r="B634" s="13"/>
-      <c r="C634" s="45"/>
+      <c r="C634" s="44"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
@@ -16616,7 +16594,7 @@
     <row r="635" spans="1:22">
       <c r="A635" s="6"/>
       <c r="B635" s="13"/>
-      <c r="C635" s="45"/>
+      <c r="C635" s="44"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
@@ -16640,7 +16618,7 @@
     <row r="636" spans="1:22">
       <c r="A636" s="6"/>
       <c r="B636" s="13"/>
-      <c r="C636" s="45"/>
+      <c r="C636" s="44"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
@@ -16664,7 +16642,7 @@
     <row r="637" spans="1:22">
       <c r="A637" s="6"/>
       <c r="B637" s="13"/>
-      <c r="C637" s="45"/>
+      <c r="C637" s="44"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
@@ -16688,7 +16666,7 @@
     <row r="638" spans="1:22">
       <c r="A638" s="6"/>
       <c r="B638" s="13"/>
-      <c r="C638" s="45"/>
+      <c r="C638" s="44"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
@@ -16712,7 +16690,7 @@
     <row r="639" spans="1:22">
       <c r="A639" s="6"/>
       <c r="B639" s="13"/>
-      <c r="C639" s="45"/>
+      <c r="C639" s="44"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
@@ -16736,7 +16714,7 @@
     <row r="640" spans="1:22">
       <c r="A640" s="6"/>
       <c r="B640" s="13"/>
-      <c r="C640" s="45"/>
+      <c r="C640" s="44"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
@@ -16760,7 +16738,7 @@
     <row r="641" spans="1:22">
       <c r="A641" s="6"/>
       <c r="B641" s="13"/>
-      <c r="C641" s="45"/>
+      <c r="C641" s="44"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
@@ -16784,7 +16762,7 @@
     <row r="642" spans="1:22">
       <c r="A642" s="6"/>
       <c r="B642" s="13"/>
-      <c r="C642" s="45"/>
+      <c r="C642" s="44"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
@@ -16808,7 +16786,7 @@
     <row r="643" spans="1:22">
       <c r="A643" s="6"/>
       <c r="B643" s="13"/>
-      <c r="C643" s="45"/>
+      <c r="C643" s="44"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
@@ -16832,7 +16810,7 @@
     <row r="644" spans="1:22">
       <c r="A644" s="6"/>
       <c r="B644" s="13"/>
-      <c r="C644" s="45"/>
+      <c r="C644" s="44"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
@@ -16856,7 +16834,7 @@
     <row r="645" spans="1:22">
       <c r="A645" s="6"/>
       <c r="B645" s="13"/>
-      <c r="C645" s="45"/>
+      <c r="C645" s="44"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
@@ -16880,7 +16858,7 @@
     <row r="646" spans="1:22">
       <c r="A646" s="6"/>
       <c r="B646" s="13"/>
-      <c r="C646" s="45"/>
+      <c r="C646" s="44"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
@@ -16904,7 +16882,7 @@
     <row r="647" spans="1:22">
       <c r="A647" s="6"/>
       <c r="B647" s="13"/>
-      <c r="C647" s="45"/>
+      <c r="C647" s="44"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
@@ -16928,7 +16906,7 @@
     <row r="648" spans="1:22">
       <c r="A648" s="6"/>
       <c r="B648" s="13"/>
-      <c r="C648" s="45"/>
+      <c r="C648" s="44"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
@@ -16952,7 +16930,7 @@
     <row r="649" spans="1:22">
       <c r="A649" s="6"/>
       <c r="B649" s="13"/>
-      <c r="C649" s="45"/>
+      <c r="C649" s="44"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
@@ -16976,7 +16954,7 @@
     <row r="650" spans="1:22">
       <c r="A650" s="6"/>
       <c r="B650" s="13"/>
-      <c r="C650" s="45"/>
+      <c r="C650" s="44"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
@@ -17000,7 +16978,7 @@
     <row r="651" spans="1:22">
       <c r="A651" s="6"/>
       <c r="B651" s="13"/>
-      <c r="C651" s="45"/>
+      <c r="C651" s="44"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
@@ -17024,7 +17002,7 @@
     <row r="652" spans="1:22">
       <c r="A652" s="6"/>
       <c r="B652" s="13"/>
-      <c r="C652" s="45"/>
+      <c r="C652" s="44"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
@@ -17048,7 +17026,7 @@
     <row r="653" spans="1:22">
       <c r="A653" s="6"/>
       <c r="B653" s="13"/>
-      <c r="C653" s="45"/>
+      <c r="C653" s="44"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
@@ -17072,7 +17050,7 @@
     <row r="654" spans="1:22">
       <c r="A654" s="6"/>
       <c r="B654" s="13"/>
-      <c r="C654" s="45"/>
+      <c r="C654" s="44"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
@@ -17096,7 +17074,7 @@
     <row r="655" spans="1:22">
       <c r="A655" s="6"/>
       <c r="B655" s="13"/>
-      <c r="C655" s="45"/>
+      <c r="C655" s="44"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
@@ -17120,7 +17098,7 @@
     <row r="656" spans="1:22">
       <c r="A656" s="6"/>
       <c r="B656" s="13"/>
-      <c r="C656" s="45"/>
+      <c r="C656" s="44"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
@@ -17144,7 +17122,7 @@
     <row r="657" spans="1:22">
       <c r="A657" s="6"/>
       <c r="B657" s="13"/>
-      <c r="C657" s="45"/>
+      <c r="C657" s="44"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
@@ -17168,7 +17146,7 @@
     <row r="658" spans="1:22">
       <c r="A658" s="6"/>
       <c r="B658" s="13"/>
-      <c r="C658" s="45"/>
+      <c r="C658" s="44"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
@@ -17192,7 +17170,7 @@
     <row r="659" spans="1:22">
       <c r="A659" s="6"/>
       <c r="B659" s="13"/>
-      <c r="C659" s="45"/>
+      <c r="C659" s="44"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
@@ -17216,7 +17194,7 @@
     <row r="660" spans="1:22">
       <c r="A660" s="6"/>
       <c r="B660" s="13"/>
-      <c r="C660" s="45"/>
+      <c r="C660" s="44"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
@@ -17240,7 +17218,7 @@
     <row r="661" spans="1:22">
       <c r="A661" s="6"/>
       <c r="B661" s="13"/>
-      <c r="C661" s="45"/>
+      <c r="C661" s="44"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
@@ -17264,7 +17242,7 @@
     <row r="662" spans="1:22">
       <c r="A662" s="6"/>
       <c r="B662" s="13"/>
-      <c r="C662" s="45"/>
+      <c r="C662" s="44"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
@@ -17288,7 +17266,7 @@
     <row r="663" spans="1:22">
       <c r="A663" s="6"/>
       <c r="B663" s="13"/>
-      <c r="C663" s="45"/>
+      <c r="C663" s="44"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
@@ -17312,7 +17290,7 @@
     <row r="664" spans="1:22">
       <c r="A664" s="6"/>
       <c r="B664" s="13"/>
-      <c r="C664" s="45"/>
+      <c r="C664" s="44"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
@@ -17336,7 +17314,7 @@
     <row r="665" spans="1:22">
       <c r="A665" s="6"/>
       <c r="B665" s="13"/>
-      <c r="C665" s="45"/>
+      <c r="C665" s="44"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
@@ -17360,7 +17338,7 @@
     <row r="666" spans="1:22">
       <c r="A666" s="6"/>
       <c r="B666" s="13"/>
-      <c r="C666" s="45"/>
+      <c r="C666" s="44"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
@@ -17384,7 +17362,7 @@
     <row r="667" spans="1:22">
       <c r="A667" s="6"/>
       <c r="B667" s="13"/>
-      <c r="C667" s="45"/>
+      <c r="C667" s="44"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
@@ -17408,7 +17386,7 @@
     <row r="668" spans="1:22">
       <c r="A668" s="6"/>
       <c r="B668" s="13"/>
-      <c r="C668" s="45"/>
+      <c r="C668" s="44"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
@@ -17432,7 +17410,7 @@
     <row r="669" spans="1:22">
       <c r="A669" s="6"/>
       <c r="B669" s="13"/>
-      <c r="C669" s="45"/>
+      <c r="C669" s="44"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
@@ -17456,7 +17434,7 @@
     <row r="670" spans="1:22">
       <c r="A670" s="6"/>
       <c r="B670" s="13"/>
-      <c r="C670" s="45"/>
+      <c r="C670" s="44"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
@@ -17480,7 +17458,7 @@
     <row r="671" spans="1:22">
       <c r="A671" s="6"/>
       <c r="B671" s="13"/>
-      <c r="C671" s="45"/>
+      <c r="C671" s="44"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
@@ -17504,7 +17482,7 @@
     <row r="672" spans="1:22">
       <c r="A672" s="6"/>
       <c r="B672" s="13"/>
-      <c r="C672" s="45"/>
+      <c r="C672" s="44"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
@@ -17528,7 +17506,7 @@
     <row r="673" spans="1:22">
       <c r="A673" s="6"/>
       <c r="B673" s="13"/>
-      <c r="C673" s="45"/>
+      <c r="C673" s="44"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
@@ -17552,7 +17530,7 @@
     <row r="674" spans="1:22">
       <c r="A674" s="6"/>
       <c r="B674" s="13"/>
-      <c r="C674" s="45"/>
+      <c r="C674" s="44"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
@@ -17576,7 +17554,7 @@
     <row r="675" spans="1:22">
       <c r="A675" s="6"/>
       <c r="B675" s="13"/>
-      <c r="C675" s="45"/>
+      <c r="C675" s="44"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
@@ -17600,7 +17578,7 @@
     <row r="676" spans="1:22">
       <c r="A676" s="6"/>
       <c r="B676" s="13"/>
-      <c r="C676" s="45"/>
+      <c r="C676" s="44"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
@@ -17624,7 +17602,7 @@
     <row r="677" spans="1:22">
       <c r="A677" s="6"/>
       <c r="B677" s="13"/>
-      <c r="C677" s="45"/>
+      <c r="C677" s="44"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
@@ -17648,7 +17626,7 @@
     <row r="678" spans="1:22">
       <c r="A678" s="6"/>
       <c r="B678" s="13"/>
-      <c r="C678" s="45"/>
+      <c r="C678" s="44"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
@@ -17672,7 +17650,7 @@
     <row r="679" spans="1:22">
       <c r="A679" s="6"/>
       <c r="B679" s="13"/>
-      <c r="C679" s="45"/>
+      <c r="C679" s="44"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
@@ -17696,7 +17674,7 @@
     <row r="680" spans="1:22">
       <c r="A680" s="6"/>
       <c r="B680" s="13"/>
-      <c r="C680" s="45"/>
+      <c r="C680" s="44"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
@@ -17720,7 +17698,7 @@
     <row r="681" spans="1:22">
       <c r="A681" s="6"/>
       <c r="B681" s="13"/>
-      <c r="C681" s="45"/>
+      <c r="C681" s="44"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
@@ -17744,7 +17722,7 @@
     <row r="682" spans="1:22">
       <c r="A682" s="6"/>
       <c r="B682" s="13"/>
-      <c r="C682" s="45"/>
+      <c r="C682" s="44"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
@@ -17768,7 +17746,7 @@
     <row r="683" spans="1:22">
       <c r="A683" s="6"/>
       <c r="B683" s="13"/>
-      <c r="C683" s="45"/>
+      <c r="C683" s="44"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
@@ -17792,7 +17770,7 @@
     <row r="684" spans="1:22">
       <c r="A684" s="6"/>
       <c r="B684" s="13"/>
-      <c r="C684" s="45"/>
+      <c r="C684" s="44"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
@@ -17816,7 +17794,7 @@
     <row r="685" spans="1:22">
       <c r="A685" s="6"/>
       <c r="B685" s="13"/>
-      <c r="C685" s="45"/>
+      <c r="C685" s="44"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
@@ -17840,7 +17818,7 @@
     <row r="686" spans="1:22">
       <c r="A686" s="6"/>
       <c r="B686" s="13"/>
-      <c r="C686" s="45"/>
+      <c r="C686" s="44"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
@@ -17864,7 +17842,7 @@
     <row r="687" spans="1:22">
       <c r="A687" s="6"/>
       <c r="B687" s="13"/>
-      <c r="C687" s="45"/>
+      <c r="C687" s="44"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
@@ -17888,7 +17866,7 @@
     <row r="688" spans="1:22">
       <c r="A688" s="6"/>
       <c r="B688" s="13"/>
-      <c r="C688" s="45"/>
+      <c r="C688" s="44"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
@@ -17912,7 +17890,7 @@
     <row r="689" spans="1:22">
       <c r="A689" s="6"/>
       <c r="B689" s="13"/>
-      <c r="C689" s="45"/>
+      <c r="C689" s="44"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
@@ -17936,7 +17914,7 @@
     <row r="690" spans="1:22">
       <c r="A690" s="6"/>
       <c r="B690" s="13"/>
-      <c r="C690" s="45"/>
+      <c r="C690" s="44"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
@@ -17960,7 +17938,7 @@
     <row r="691" spans="1:22">
       <c r="A691" s="6"/>
       <c r="B691" s="13"/>
-      <c r="C691" s="45"/>
+      <c r="C691" s="44"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
@@ -17984,7 +17962,7 @@
     <row r="692" spans="1:22">
       <c r="A692" s="6"/>
       <c r="B692" s="13"/>
-      <c r="C692" s="45"/>
+      <c r="C692" s="44"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
@@ -18008,7 +17986,7 @@
     <row r="693" spans="1:22">
       <c r="A693" s="6"/>
       <c r="B693" s="13"/>
-      <c r="C693" s="45"/>
+      <c r="C693" s="44"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
@@ -18032,7 +18010,7 @@
     <row r="694" spans="1:22">
       <c r="A694" s="6"/>
       <c r="B694" s="13"/>
-      <c r="C694" s="45"/>
+      <c r="C694" s="44"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
@@ -18056,7 +18034,7 @@
     <row r="695" spans="1:22">
       <c r="A695" s="6"/>
       <c r="B695" s="13"/>
-      <c r="C695" s="45"/>
+      <c r="C695" s="44"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
@@ -18080,7 +18058,7 @@
     <row r="696" spans="1:22">
       <c r="A696" s="6"/>
       <c r="B696" s="13"/>
-      <c r="C696" s="45"/>
+      <c r="C696" s="44"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
@@ -18104,7 +18082,7 @@
     <row r="697" spans="1:22">
       <c r="A697" s="6"/>
       <c r="B697" s="13"/>
-      <c r="C697" s="45"/>
+      <c r="C697" s="44"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
@@ -18128,7 +18106,7 @@
     <row r="698" spans="1:22">
       <c r="A698" s="6"/>
       <c r="B698" s="13"/>
-      <c r="C698" s="45"/>
+      <c r="C698" s="44"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
@@ -18152,7 +18130,7 @@
     <row r="699" spans="1:22">
       <c r="A699" s="6"/>
       <c r="B699" s="13"/>
-      <c r="C699" s="45"/>
+      <c r="C699" s="44"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
@@ -18176,7 +18154,7 @@
     <row r="700" spans="1:22">
       <c r="A700" s="6"/>
       <c r="B700" s="13"/>
-      <c r="C700" s="45"/>
+      <c r="C700" s="44"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
@@ -18200,7 +18178,7 @@
     <row r="701" spans="1:22">
       <c r="A701" s="6"/>
       <c r="B701" s="13"/>
-      <c r="C701" s="45"/>
+      <c r="C701" s="44"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
@@ -18224,7 +18202,7 @@
     <row r="702" spans="1:22">
       <c r="A702" s="6"/>
       <c r="B702" s="13"/>
-      <c r="C702" s="45"/>
+      <c r="C702" s="44"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
@@ -18248,7 +18226,7 @@
     <row r="703" spans="1:22">
       <c r="A703" s="6"/>
       <c r="B703" s="13"/>
-      <c r="C703" s="45"/>
+      <c r="C703" s="44"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
@@ -18272,7 +18250,7 @@
     <row r="704" spans="1:22">
       <c r="A704" s="6"/>
       <c r="B704" s="13"/>
-      <c r="C704" s="45"/>
+      <c r="C704" s="44"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
@@ -18296,7 +18274,7 @@
     <row r="705" spans="1:22">
       <c r="A705" s="6"/>
       <c r="B705" s="13"/>
-      <c r="C705" s="45"/>
+      <c r="C705" s="44"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
@@ -18320,7 +18298,7 @@
     <row r="706" spans="1:22">
       <c r="A706" s="6"/>
       <c r="B706" s="13"/>
-      <c r="C706" s="45"/>
+      <c r="C706" s="44"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
@@ -18344,7 +18322,7 @@
     <row r="707" spans="1:22">
       <c r="A707" s="6"/>
       <c r="B707" s="13"/>
-      <c r="C707" s="45"/>
+      <c r="C707" s="44"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
@@ -18368,7 +18346,7 @@
     <row r="708" spans="1:22">
       <c r="A708" s="6"/>
       <c r="B708" s="13"/>
-      <c r="C708" s="45"/>
+      <c r="C708" s="44"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
@@ -18392,7 +18370,7 @@
     <row r="709" spans="1:22">
       <c r="A709" s="6"/>
       <c r="B709" s="13"/>
-      <c r="C709" s="45"/>
+      <c r="C709" s="44"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
@@ -18416,7 +18394,7 @@
     <row r="710" spans="1:22">
       <c r="A710" s="6"/>
       <c r="B710" s="13"/>
-      <c r="C710" s="45"/>
+      <c r="C710" s="44"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
@@ -18440,7 +18418,7 @@
     <row r="711" spans="1:22">
       <c r="A711" s="6"/>
       <c r="B711" s="13"/>
-      <c r="C711" s="45"/>
+      <c r="C711" s="44"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
@@ -18464,7 +18442,7 @@
     <row r="712" spans="1:22">
       <c r="A712" s="6"/>
       <c r="B712" s="13"/>
-      <c r="C712" s="45"/>
+      <c r="C712" s="44"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
@@ -18488,7 +18466,7 @@
     <row r="713" spans="1:22">
       <c r="A713" s="6"/>
       <c r="B713" s="13"/>
-      <c r="C713" s="45"/>
+      <c r="C713" s="44"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
@@ -18512,7 +18490,7 @@
     <row r="714" spans="1:22">
       <c r="A714" s="6"/>
       <c r="B714" s="13"/>
-      <c r="C714" s="45"/>
+      <c r="C714" s="44"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
@@ -18536,7 +18514,7 @@
     <row r="715" spans="1:22">
       <c r="A715" s="6"/>
       <c r="B715" s="13"/>
-      <c r="C715" s="45"/>
+      <c r="C715" s="44"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
@@ -18560,7 +18538,7 @@
     <row r="716" spans="1:22">
       <c r="A716" s="6"/>
       <c r="B716" s="13"/>
-      <c r="C716" s="45"/>
+      <c r="C716" s="44"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
@@ -18584,7 +18562,7 @@
     <row r="717" spans="1:22">
       <c r="A717" s="6"/>
       <c r="B717" s="13"/>
-      <c r="C717" s="45"/>
+      <c r="C717" s="44"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
@@ -18608,7 +18586,7 @@
     <row r="718" spans="1:22">
       <c r="A718" s="6"/>
       <c r="B718" s="13"/>
-      <c r="C718" s="45"/>
+      <c r="C718" s="44"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
@@ -18632,7 +18610,7 @@
     <row r="719" spans="1:22">
       <c r="A719" s="6"/>
       <c r="B719" s="13"/>
-      <c r="C719" s="45"/>
+      <c r="C719" s="44"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
@@ -18656,7 +18634,7 @@
     <row r="720" spans="1:22">
       <c r="A720" s="6"/>
       <c r="B720" s="13"/>
-      <c r="C720" s="45"/>
+      <c r="C720" s="44"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
@@ -18680,7 +18658,7 @@
     <row r="721" spans="1:22">
       <c r="A721" s="6"/>
       <c r="B721" s="13"/>
-      <c r="C721" s="45"/>
+      <c r="C721" s="44"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
@@ -18704,7 +18682,7 @@
     <row r="722" spans="1:22">
       <c r="A722" s="6"/>
       <c r="B722" s="13"/>
-      <c r="C722" s="45"/>
+      <c r="C722" s="44"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
@@ -18728,7 +18706,7 @@
     <row r="723" spans="1:22">
       <c r="A723" s="6"/>
       <c r="B723" s="13"/>
-      <c r="C723" s="45"/>
+      <c r="C723" s="44"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
@@ -18752,7 +18730,7 @@
     <row r="724" spans="1:22">
       <c r="A724" s="6"/>
       <c r="B724" s="13"/>
-      <c r="C724" s="45"/>
+      <c r="C724" s="44"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
@@ -18776,7 +18754,7 @@
     <row r="725" spans="1:22">
       <c r="A725" s="6"/>
       <c r="B725" s="13"/>
-      <c r="C725" s="45"/>
+      <c r="C725" s="44"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
@@ -18800,7 +18778,7 @@
     <row r="726" spans="1:22">
       <c r="A726" s="6"/>
       <c r="B726" s="13"/>
-      <c r="C726" s="45"/>
+      <c r="C726" s="44"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
@@ -18824,7 +18802,7 @@
     <row r="727" spans="1:22">
       <c r="A727" s="6"/>
       <c r="B727" s="13"/>
-      <c r="C727" s="45"/>
+      <c r="C727" s="44"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
@@ -18848,7 +18826,7 @@
     <row r="728" spans="1:22">
       <c r="A728" s="6"/>
       <c r="B728" s="13"/>
-      <c r="C728" s="45"/>
+      <c r="C728" s="44"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
@@ -18872,7 +18850,7 @@
     <row r="729" spans="1:22">
       <c r="A729" s="6"/>
       <c r="B729" s="13"/>
-      <c r="C729" s="45"/>
+      <c r="C729" s="44"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
@@ -18896,7 +18874,7 @@
     <row r="730" spans="1:22">
       <c r="A730" s="6"/>
       <c r="B730" s="13"/>
-      <c r="C730" s="45"/>
+      <c r="C730" s="44"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
@@ -18920,7 +18898,7 @@
     <row r="731" spans="1:22">
       <c r="A731" s="6"/>
       <c r="B731" s="13"/>
-      <c r="C731" s="45"/>
+      <c r="C731" s="44"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
@@ -18944,7 +18922,7 @@
     <row r="732" spans="1:22">
       <c r="A732" s="6"/>
       <c r="B732" s="13"/>
-      <c r="C732" s="45"/>
+      <c r="C732" s="44"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
@@ -18968,7 +18946,7 @@
     <row r="733" spans="1:22">
       <c r="A733" s="6"/>
       <c r="B733" s="13"/>
-      <c r="C733" s="45"/>
+      <c r="C733" s="44"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
@@ -18992,7 +18970,7 @@
     <row r="734" spans="1:22">
       <c r="A734" s="6"/>
       <c r="B734" s="13"/>
-      <c r="C734" s="45"/>
+      <c r="C734" s="44"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
@@ -19016,7 +18994,7 @@
     <row r="735" spans="1:22">
       <c r="A735" s="6"/>
       <c r="B735" s="13"/>
-      <c r="C735" s="45"/>
+      <c r="C735" s="44"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
@@ -19040,7 +19018,7 @@
     <row r="736" spans="1:22">
       <c r="A736" s="6"/>
       <c r="B736" s="13"/>
-      <c r="C736" s="45"/>
+      <c r="C736" s="44"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
@@ -19064,7 +19042,7 @@
     <row r="737" spans="1:22">
       <c r="A737" s="6"/>
       <c r="B737" s="13"/>
-      <c r="C737" s="45"/>
+      <c r="C737" s="44"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
@@ -19088,7 +19066,7 @@
     <row r="738" spans="1:22">
       <c r="A738" s="6"/>
       <c r="B738" s="13"/>
-      <c r="C738" s="45"/>
+      <c r="C738" s="44"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
@@ -19112,7 +19090,7 @@
     <row r="739" spans="1:22">
       <c r="A739" s="6"/>
       <c r="B739" s="13"/>
-      <c r="C739" s="45"/>
+      <c r="C739" s="44"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
@@ -19136,7 +19114,7 @@
     <row r="740" spans="1:22">
       <c r="A740" s="6"/>
       <c r="B740" s="13"/>
-      <c r="C740" s="45"/>
+      <c r="C740" s="44"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
@@ -19160,7 +19138,7 @@
     <row r="741" spans="1:22">
       <c r="A741" s="6"/>
       <c r="B741" s="13"/>
-      <c r="C741" s="45"/>
+      <c r="C741" s="44"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
@@ -19184,7 +19162,7 @@
     <row r="742" spans="1:22">
       <c r="A742" s="6"/>
       <c r="B742" s="13"/>
-      <c r="C742" s="45"/>
+      <c r="C742" s="44"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
@@ -19208,7 +19186,7 @@
     <row r="743" spans="1:22">
       <c r="A743" s="6"/>
       <c r="B743" s="13"/>
-      <c r="C743" s="45"/>
+      <c r="C743" s="44"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
@@ -19232,7 +19210,7 @@
     <row r="744" spans="1:22">
       <c r="A744" s="6"/>
       <c r="B744" s="13"/>
-      <c r="C744" s="45"/>
+      <c r="C744" s="44"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
@@ -19256,7 +19234,7 @@
     <row r="745" spans="1:22">
       <c r="A745" s="6"/>
       <c r="B745" s="13"/>
-      <c r="C745" s="45"/>
+      <c r="C745" s="44"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
@@ -19280,7 +19258,7 @@
     <row r="746" spans="1:22">
       <c r="A746" s="6"/>
       <c r="B746" s="13"/>
-      <c r="C746" s="45"/>
+      <c r="C746" s="44"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
@@ -19304,7 +19282,7 @@
     <row r="747" spans="1:22">
       <c r="A747" s="6"/>
       <c r="B747" s="13"/>
-      <c r="C747" s="45"/>
+      <c r="C747" s="44"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
@@ -19328,7 +19306,7 @@
     <row r="748" spans="1:22">
       <c r="A748" s="6"/>
       <c r="B748" s="13"/>
-      <c r="C748" s="45"/>
+      <c r="C748" s="44"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
@@ -19352,7 +19330,7 @@
     <row r="749" spans="1:22">
       <c r="A749" s="6"/>
       <c r="B749" s="13"/>
-      <c r="C749" s="45"/>
+      <c r="C749" s="44"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
@@ -19376,7 +19354,7 @@
     <row r="750" spans="1:22">
       <c r="A750" s="6"/>
       <c r="B750" s="13"/>
-      <c r="C750" s="45"/>
+      <c r="C750" s="44"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
@@ -19400,7 +19378,7 @@
     <row r="751" spans="1:22">
       <c r="A751" s="6"/>
       <c r="B751" s="13"/>
-      <c r="C751" s="45"/>
+      <c r="C751" s="44"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
@@ -19424,7 +19402,7 @@
     <row r="752" spans="1:22">
       <c r="A752" s="6"/>
       <c r="B752" s="13"/>
-      <c r="C752" s="45"/>
+      <c r="C752" s="44"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
@@ -19448,7 +19426,7 @@
     <row r="753" spans="1:22">
       <c r="A753" s="6"/>
       <c r="B753" s="13"/>
-      <c r="C753" s="45"/>
+      <c r="C753" s="44"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
@@ -19472,7 +19450,7 @@
     <row r="754" spans="1:22">
       <c r="A754" s="6"/>
       <c r="B754" s="13"/>
-      <c r="C754" s="45"/>
+      <c r="C754" s="44"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
@@ -19496,7 +19474,7 @@
     <row r="755" spans="1:22">
       <c r="A755" s="6"/>
       <c r="B755" s="13"/>
-      <c r="C755" s="45"/>
+      <c r="C755" s="44"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
@@ -19520,7 +19498,7 @@
     <row r="756" spans="1:22">
       <c r="A756" s="6"/>
       <c r="B756" s="13"/>
-      <c r="C756" s="45"/>
+      <c r="C756" s="44"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
@@ -19544,7 +19522,7 @@
     <row r="757" spans="1:22">
       <c r="A757" s="6"/>
       <c r="B757" s="13"/>
-      <c r="C757" s="45"/>
+      <c r="C757" s="44"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
@@ -19568,7 +19546,7 @@
     <row r="758" spans="1:22">
       <c r="A758" s="6"/>
       <c r="B758" s="13"/>
-      <c r="C758" s="45"/>
+      <c r="C758" s="44"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
@@ -19592,7 +19570,7 @@
     <row r="759" spans="1:22">
       <c r="A759" s="6"/>
       <c r="B759" s="13"/>
-      <c r="C759" s="45"/>
+      <c r="C759" s="44"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
@@ -19616,7 +19594,7 @@
     <row r="760" spans="1:22">
       <c r="A760" s="6"/>
       <c r="B760" s="13"/>
-      <c r="C760" s="45"/>
+      <c r="C760" s="44"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
@@ -19640,7 +19618,7 @@
     <row r="761" spans="1:22">
       <c r="A761" s="6"/>
       <c r="B761" s="13"/>
-      <c r="C761" s="45"/>
+      <c r="C761" s="44"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
@@ -19664,7 +19642,7 @@
     <row r="762" spans="1:22">
       <c r="A762" s="6"/>
       <c r="B762" s="13"/>
-      <c r="C762" s="45"/>
+      <c r="C762" s="44"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
@@ -19688,7 +19666,7 @@
     <row r="763" spans="1:22">
       <c r="A763" s="6"/>
       <c r="B763" s="13"/>
-      <c r="C763" s="45"/>
+      <c r="C763" s="44"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
@@ -19712,7 +19690,7 @@
     <row r="764" spans="1:22">
       <c r="A764" s="6"/>
       <c r="B764" s="13"/>
-      <c r="C764" s="45"/>
+      <c r="C764" s="44"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
@@ -19736,7 +19714,7 @@
     <row r="765" spans="1:22">
       <c r="A765" s="6"/>
       <c r="B765" s="13"/>
-      <c r="C765" s="45"/>
+      <c r="C765" s="44"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
@@ -19760,7 +19738,7 @@
     <row r="766" spans="1:22">
       <c r="A766" s="6"/>
       <c r="B766" s="13"/>
-      <c r="C766" s="45"/>
+      <c r="C766" s="44"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
@@ -19784,7 +19762,7 @@
     <row r="767" spans="1:22">
       <c r="A767" s="6"/>
       <c r="B767" s="13"/>
-      <c r="C767" s="45"/>
+      <c r="C767" s="44"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
@@ -19808,7 +19786,7 @@
     <row r="768" spans="1:22">
       <c r="A768" s="6"/>
       <c r="B768" s="13"/>
-      <c r="C768" s="45"/>
+      <c r="C768" s="44"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
@@ -19832,7 +19810,7 @@
     <row r="769" spans="1:22">
       <c r="A769" s="6"/>
       <c r="B769" s="13"/>
-      <c r="C769" s="45"/>
+      <c r="C769" s="44"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
@@ -19856,7 +19834,7 @@
     <row r="770" spans="1:22">
       <c r="A770" s="6"/>
       <c r="B770" s="13"/>
-      <c r="C770" s="45"/>
+      <c r="C770" s="44"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
@@ -19880,7 +19858,7 @@
     <row r="771" spans="1:22">
       <c r="A771" s="6"/>
       <c r="B771" s="13"/>
-      <c r="C771" s="45"/>
+      <c r="C771" s="44"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
@@ -19904,7 +19882,7 @@
     <row r="772" spans="1:22">
       <c r="A772" s="6"/>
       <c r="B772" s="13"/>
-      <c r="C772" s="45"/>
+      <c r="C772" s="44"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
@@ -19928,7 +19906,7 @@
     <row r="773" spans="1:22">
       <c r="A773" s="6"/>
       <c r="B773" s="13"/>
-      <c r="C773" s="45"/>
+      <c r="C773" s="44"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
@@ -19952,7 +19930,7 @@
     <row r="774" spans="1:22">
       <c r="A774" s="6"/>
       <c r="B774" s="13"/>
-      <c r="C774" s="45"/>
+      <c r="C774" s="44"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
@@ -19976,7 +19954,7 @@
     <row r="775" spans="1:22">
       <c r="A775" s="6"/>
       <c r="B775" s="13"/>
-      <c r="C775" s="45"/>
+      <c r="C775" s="44"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
@@ -20000,7 +19978,7 @@
     <row r="776" spans="1:22">
       <c r="A776" s="6"/>
       <c r="B776" s="13"/>
-      <c r="C776" s="45"/>
+      <c r="C776" s="44"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
@@ -20024,7 +20002,7 @@
     <row r="777" spans="1:22">
       <c r="A777" s="6"/>
       <c r="B777" s="13"/>
-      <c r="C777" s="45"/>
+      <c r="C777" s="44"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
@@ -20048,7 +20026,7 @@
     <row r="778" spans="1:22">
       <c r="A778" s="6"/>
       <c r="B778" s="13"/>
-      <c r="C778" s="45"/>
+      <c r="C778" s="44"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
@@ -20072,7 +20050,7 @@
     <row r="779" spans="1:22">
       <c r="A779" s="6"/>
       <c r="B779" s="13"/>
-      <c r="C779" s="45"/>
+      <c r="C779" s="44"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
@@ -20096,7 +20074,7 @@
     <row r="780" spans="1:22">
       <c r="A780" s="6"/>
       <c r="B780" s="13"/>
-      <c r="C780" s="45"/>
+      <c r="C780" s="44"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
@@ -20120,7 +20098,7 @@
     <row r="781" spans="1:22">
       <c r="A781" s="6"/>
       <c r="B781" s="13"/>
-      <c r="C781" s="45"/>
+      <c r="C781" s="44"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
@@ -20144,7 +20122,7 @@
     <row r="782" spans="1:22">
       <c r="A782" s="6"/>
       <c r="B782" s="13"/>
-      <c r="C782" s="45"/>
+      <c r="C782" s="44"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
@@ -20168,7 +20146,7 @@
     <row r="783" spans="1:22">
       <c r="A783" s="6"/>
       <c r="B783" s="13"/>
-      <c r="C783" s="45"/>
+      <c r="C783" s="44"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
@@ -20192,7 +20170,7 @@
     <row r="784" spans="1:22">
       <c r="A784" s="6"/>
       <c r="B784" s="13"/>
-      <c r="C784" s="45"/>
+      <c r="C784" s="44"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
@@ -20216,7 +20194,7 @@
     <row r="785" spans="1:22">
       <c r="A785" s="6"/>
       <c r="B785" s="13"/>
-      <c r="C785" s="45"/>
+      <c r="C785" s="44"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
@@ -20240,7 +20218,7 @@
     <row r="786" spans="1:22">
       <c r="A786" s="6"/>
       <c r="B786" s="13"/>
-      <c r="C786" s="45"/>
+      <c r="C786" s="44"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
@@ -20264,7 +20242,7 @@
     <row r="787" spans="1:22">
       <c r="A787" s="6"/>
       <c r="B787" s="13"/>
-      <c r="C787" s="45"/>
+      <c r="C787" s="44"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
@@ -20288,7 +20266,7 @@
     <row r="788" spans="1:22">
       <c r="A788" s="6"/>
       <c r="B788" s="13"/>
-      <c r="C788" s="45"/>
+      <c r="C788" s="44"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
@@ -20312,7 +20290,7 @@
     <row r="789" spans="1:22">
       <c r="A789" s="6"/>
       <c r="B789" s="13"/>
-      <c r="C789" s="45"/>
+      <c r="C789" s="44"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
@@ -20336,7 +20314,7 @@
     <row r="790" spans="1:22">
       <c r="A790" s="6"/>
       <c r="B790" s="13"/>
-      <c r="C790" s="45"/>
+      <c r="C790" s="44"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
@@ -20360,7 +20338,7 @@
     <row r="791" spans="1:22">
       <c r="A791" s="6"/>
       <c r="B791" s="13"/>
-      <c r="C791" s="45"/>
+      <c r="C791" s="44"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
@@ -20384,7 +20362,7 @@
     <row r="792" spans="1:22">
       <c r="A792" s="6"/>
       <c r="B792" s="13"/>
-      <c r="C792" s="45"/>
+      <c r="C792" s="44"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
@@ -20408,7 +20386,7 @@
     <row r="793" spans="1:22">
       <c r="A793" s="6"/>
       <c r="B793" s="13"/>
-      <c r="C793" s="45"/>
+      <c r="C793" s="44"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
@@ -20432,7 +20410,7 @@
     <row r="794" spans="1:22">
       <c r="A794" s="6"/>
       <c r="B794" s="13"/>
-      <c r="C794" s="45"/>
+      <c r="C794" s="44"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
@@ -20456,7 +20434,7 @@
     <row r="795" spans="1:22">
       <c r="A795" s="6"/>
       <c r="B795" s="13"/>
-      <c r="C795" s="45"/>
+      <c r="C795" s="44"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
@@ -20480,7 +20458,7 @@
     <row r="796" spans="1:22">
       <c r="A796" s="6"/>
       <c r="B796" s="13"/>
-      <c r="C796" s="45"/>
+      <c r="C796" s="44"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
@@ -20504,7 +20482,7 @@
     <row r="797" spans="1:22">
       <c r="A797" s="6"/>
       <c r="B797" s="13"/>
-      <c r="C797" s="45"/>
+      <c r="C797" s="44"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
@@ -20528,7 +20506,7 @@
     <row r="798" spans="1:22">
       <c r="A798" s="6"/>
       <c r="B798" s="13"/>
-      <c r="C798" s="45"/>
+      <c r="C798" s="44"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
@@ -20552,7 +20530,7 @@
     <row r="799" spans="1:22">
       <c r="A799" s="6"/>
       <c r="B799" s="13"/>
-      <c r="C799" s="45"/>
+      <c r="C799" s="44"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
@@ -20576,7 +20554,7 @@
     <row r="800" spans="1:22">
       <c r="A800" s="6"/>
       <c r="B800" s="13"/>
-      <c r="C800" s="45"/>
+      <c r="C800" s="44"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
@@ -20600,7 +20578,7 @@
     <row r="801" spans="1:22">
       <c r="A801" s="6"/>
       <c r="B801" s="13"/>
-      <c r="C801" s="45"/>
+      <c r="C801" s="44"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
@@ -20624,7 +20602,7 @@
     <row r="802" spans="1:22">
       <c r="A802" s="6"/>
       <c r="B802" s="13"/>
-      <c r="C802" s="45"/>
+      <c r="C802" s="44"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
@@ -20648,7 +20626,7 @@
     <row r="803" spans="1:22">
       <c r="A803" s="6"/>
       <c r="B803" s="13"/>
-      <c r="C803" s="45"/>
+      <c r="C803" s="44"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
@@ -20672,7 +20650,7 @@
     <row r="804" spans="1:22">
       <c r="A804" s="6"/>
       <c r="B804" s="13"/>
-      <c r="C804" s="45"/>
+      <c r="C804" s="44"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
@@ -20696,7 +20674,7 @@
     <row r="805" spans="1:22">
       <c r="A805" s="6"/>
       <c r="B805" s="13"/>
-      <c r="C805" s="45"/>
+      <c r="C805" s="44"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
@@ -20720,7 +20698,7 @@
     <row r="806" spans="1:22">
       <c r="A806" s="6"/>
       <c r="B806" s="13"/>
-      <c r="C806" s="45"/>
+      <c r="C806" s="44"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
@@ -20744,7 +20722,7 @@
     <row r="807" spans="1:22">
       <c r="A807" s="6"/>
       <c r="B807" s="13"/>
-      <c r="C807" s="45"/>
+      <c r="C807" s="44"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
@@ -20768,7 +20746,7 @@
     <row r="808" spans="1:22">
       <c r="A808" s="6"/>
       <c r="B808" s="13"/>
-      <c r="C808" s="45"/>
+      <c r="C808" s="44"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
@@ -20792,7 +20770,7 @@
     <row r="809" spans="1:22">
       <c r="A809" s="6"/>
       <c r="B809" s="13"/>
-      <c r="C809" s="45"/>
+      <c r="C809" s="44"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
@@ -20816,7 +20794,7 @@
     <row r="810" spans="1:22">
       <c r="A810" s="6"/>
       <c r="B810" s="13"/>
-      <c r="C810" s="45"/>
+      <c r="C810" s="44"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
@@ -20840,7 +20818,7 @@
     <row r="811" spans="1:22">
       <c r="A811" s="6"/>
       <c r="B811" s="13"/>
-      <c r="C811" s="45"/>
+      <c r="C811" s="44"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
@@ -20864,7 +20842,7 @@
     <row r="812" spans="1:22">
       <c r="A812" s="6"/>
       <c r="B812" s="13"/>
-      <c r="C812" s="45"/>
+      <c r="C812" s="44"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
@@ -20888,7 +20866,7 @@
     <row r="813" spans="1:22">
       <c r="A813" s="6"/>
       <c r="B813" s="13"/>
-      <c r="C813" s="45"/>
+      <c r="C813" s="44"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
@@ -20912,7 +20890,7 @@
     <row r="814" spans="1:22">
       <c r="A814" s="6"/>
       <c r="B814" s="13"/>
-      <c r="C814" s="45"/>
+      <c r="C814" s="44"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
@@ -20936,7 +20914,7 @@
     <row r="815" spans="1:22">
       <c r="A815" s="6"/>
       <c r="B815" s="13"/>
-      <c r="C815" s="45"/>
+      <c r="C815" s="44"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
@@ -20960,7 +20938,7 @@
     <row r="816" spans="1:22">
       <c r="A816" s="6"/>
       <c r="B816" s="13"/>
-      <c r="C816" s="45"/>
+      <c r="C816" s="44"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
@@ -20984,7 +20962,7 @@
     <row r="817" spans="1:22">
       <c r="A817" s="6"/>
       <c r="B817" s="13"/>
-      <c r="C817" s="45"/>
+      <c r="C817" s="44"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
@@ -21008,7 +20986,7 @@
     <row r="818" spans="1:22">
       <c r="A818" s="6"/>
       <c r="B818" s="13"/>
-      <c r="C818" s="45"/>
+      <c r="C818" s="44"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
@@ -21032,7 +21010,7 @@
     <row r="819" spans="1:22">
       <c r="A819" s="6"/>
       <c r="B819" s="13"/>
-      <c r="C819" s="45"/>
+      <c r="C819" s="44"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
@@ -21056,7 +21034,7 @@
     <row r="820" spans="1:22">
       <c r="A820" s="6"/>
       <c r="B820" s="13"/>
-      <c r="C820" s="45"/>
+      <c r="C820" s="44"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
@@ -21080,7 +21058,7 @@
     <row r="821" spans="1:22">
       <c r="A821" s="6"/>
       <c r="B821" s="13"/>
-      <c r="C821" s="45"/>
+      <c r="C821" s="44"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
@@ -21104,7 +21082,7 @@
     <row r="822" spans="1:22">
       <c r="A822" s="6"/>
       <c r="B822" s="13"/>
-      <c r="C822" s="45"/>
+      <c r="C822" s="44"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
@@ -21128,7 +21106,7 @@
     <row r="823" spans="1:22">
       <c r="A823" s="6"/>
       <c r="B823" s="13"/>
-      <c r="C823" s="45"/>
+      <c r="C823" s="44"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
@@ -21152,7 +21130,7 @@
     <row r="824" spans="1:22">
       <c r="A824" s="6"/>
       <c r="B824" s="13"/>
-      <c r="C824" s="45"/>
+      <c r="C824" s="44"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
@@ -21176,7 +21154,7 @@
     <row r="825" spans="1:22">
       <c r="A825" s="6"/>
       <c r="B825" s="13"/>
-      <c r="C825" s="45"/>
+      <c r="C825" s="44"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
@@ -21200,7 +21178,7 @@
     <row r="826" spans="1:22">
       <c r="A826" s="6"/>
       <c r="B826" s="13"/>
-      <c r="C826" s="45"/>
+      <c r="C826" s="44"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
@@ -21224,7 +21202,7 @@
     <row r="827" spans="1:22">
       <c r="A827" s="6"/>
       <c r="B827" s="13"/>
-      <c r="C827" s="45"/>
+      <c r="C827" s="44"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
@@ -21248,7 +21226,7 @@
     <row r="828" spans="1:22">
       <c r="A828" s="6"/>
       <c r="B828" s="13"/>
-      <c r="C828" s="45"/>
+      <c r="C828" s="44"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
@@ -21272,7 +21250,7 @@
     <row r="829" spans="1:22">
       <c r="A829" s="6"/>
       <c r="B829" s="13"/>
-      <c r="C829" s="45"/>
+      <c r="C829" s="44"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
@@ -21296,7 +21274,7 @@
     <row r="830" spans="1:22">
       <c r="A830" s="6"/>
       <c r="B830" s="13"/>
-      <c r="C830" s="45"/>
+      <c r="C830" s="44"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
@@ -21320,7 +21298,7 @@
     <row r="831" spans="1:22">
       <c r="A831" s="6"/>
       <c r="B831" s="13"/>
-      <c r="C831" s="45"/>
+      <c r="C831" s="44"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
@@ -21344,7 +21322,7 @@
     <row r="832" spans="1:22">
       <c r="A832" s="6"/>
       <c r="B832" s="13"/>
-      <c r="C832" s="45"/>
+      <c r="C832" s="44"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
@@ -21368,7 +21346,7 @@
     <row r="833" spans="1:22">
       <c r="A833" s="6"/>
       <c r="B833" s="13"/>
-      <c r="C833" s="45"/>
+      <c r="C833" s="44"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
@@ -21392,7 +21370,7 @@
     <row r="834" spans="1:22">
       <c r="A834" s="6"/>
       <c r="B834" s="13"/>
-      <c r="C834" s="45"/>
+      <c r="C834" s="44"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
@@ -21416,7 +21394,7 @@
     <row r="835" spans="1:22">
       <c r="A835" s="6"/>
       <c r="B835" s="13"/>
-      <c r="C835" s="45"/>
+      <c r="C835" s="44"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
@@ -21440,7 +21418,7 @@
     <row r="836" spans="1:22">
       <c r="A836" s="6"/>
       <c r="B836" s="13"/>
-      <c r="C836" s="45"/>
+      <c r="C836" s="44"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
@@ -21464,7 +21442,7 @@
     <row r="837" spans="1:22">
       <c r="A837" s="6"/>
       <c r="B837" s="13"/>
-      <c r="C837" s="45"/>
+      <c r="C837" s="44"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
@@ -21488,7 +21466,7 @@
     <row r="838" spans="1:22">
       <c r="A838" s="6"/>
       <c r="B838" s="13"/>
-      <c r="C838" s="45"/>
+      <c r="C838" s="44"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
@@ -21512,7 +21490,7 @@
     <row r="839" spans="1:22">
       <c r="A839" s="6"/>
       <c r="B839" s="13"/>
-      <c r="C839" s="45"/>
+      <c r="C839" s="44"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
@@ -21536,7 +21514,7 @@
     <row r="840" spans="1:22">
       <c r="A840" s="6"/>
       <c r="B840" s="13"/>
-      <c r="C840" s="45"/>
+      <c r="C840" s="44"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
@@ -21560,7 +21538,7 @@
     <row r="841" spans="1:22">
       <c r="A841" s="6"/>
       <c r="B841" s="13"/>
-      <c r="C841" s="45"/>
+      <c r="C841" s="44"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
@@ -21584,7 +21562,7 @@
     <row r="842" spans="1:22">
       <c r="A842" s="6"/>
       <c r="B842" s="13"/>
-      <c r="C842" s="45"/>
+      <c r="C842" s="44"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
@@ -21608,7 +21586,7 @@
     <row r="843" spans="1:22">
       <c r="A843" s="6"/>
       <c r="B843" s="13"/>
-      <c r="C843" s="45"/>
+      <c r="C843" s="44"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
@@ -21632,7 +21610,7 @@
     <row r="844" spans="1:22">
       <c r="A844" s="6"/>
       <c r="B844" s="13"/>
-      <c r="C844" s="45"/>
+      <c r="C844" s="44"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
@@ -21656,7 +21634,7 @@
     <row r="845" spans="1:22">
       <c r="A845" s="6"/>
       <c r="B845" s="13"/>
-      <c r="C845" s="45"/>
+      <c r="C845" s="44"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
@@ -21680,7 +21658,7 @@
     <row r="846" spans="1:22">
       <c r="A846" s="6"/>
       <c r="B846" s="13"/>
-      <c r="C846" s="45"/>
+      <c r="C846" s="44"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
@@ -21704,7 +21682,7 @@
     <row r="847" spans="1:22">
       <c r="A847" s="6"/>
       <c r="B847" s="13"/>
-      <c r="C847" s="45"/>
+      <c r="C847" s="44"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
@@ -21728,7 +21706,7 @@
     <row r="848" spans="1:22">
       <c r="A848" s="6"/>
       <c r="B848" s="13"/>
-      <c r="C848" s="45"/>
+      <c r="C848" s="44"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
@@ -21752,7 +21730,7 @@
     <row r="849" spans="1:22">
       <c r="A849" s="6"/>
       <c r="B849" s="13"/>
-      <c r="C849" s="45"/>
+      <c r="C849" s="44"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
@@ -21776,7 +21754,7 @@
     <row r="850" spans="1:22">
       <c r="A850" s="6"/>
       <c r="B850" s="13"/>
-      <c r="C850" s="45"/>
+      <c r="C850" s="44"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
@@ -21800,7 +21778,7 @@
     <row r="851" spans="1:22">
       <c r="A851" s="6"/>
       <c r="B851" s="13"/>
-      <c r="C851" s="45"/>
+      <c r="C851" s="44"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
@@ -21824,7 +21802,7 @@
     <row r="852" spans="1:22">
       <c r="A852" s="6"/>
       <c r="B852" s="13"/>
-      <c r="C852" s="45"/>
+      <c r="C852" s="44"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
@@ -21848,7 +21826,7 @@
     <row r="853" spans="1:22">
       <c r="A853" s="6"/>
       <c r="B853" s="13"/>
-      <c r="C853" s="45"/>
+      <c r="C853" s="44"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
@@ -21872,7 +21850,7 @@
     <row r="854" spans="1:22">
       <c r="A854" s="6"/>
       <c r="B854" s="13"/>
-      <c r="C854" s="45"/>
+      <c r="C854" s="44"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
@@ -21896,7 +21874,7 @@
     <row r="855" spans="1:22">
       <c r="A855" s="6"/>
       <c r="B855" s="13"/>
-      <c r="C855" s="45"/>
+      <c r="C855" s="44"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
@@ -21920,7 +21898,7 @@
     <row r="856" spans="1:22">
       <c r="A856" s="6"/>
       <c r="B856" s="13"/>
-      <c r="C856" s="45"/>
+      <c r="C856" s="44"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
@@ -21944,7 +21922,7 @@
     <row r="857" spans="1:22">
       <c r="A857" s="6"/>
       <c r="B857" s="13"/>
-      <c r="C857" s="45"/>
+      <c r="C857" s="44"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
@@ -21968,7 +21946,7 @@
     <row r="858" spans="1:22">
       <c r="A858" s="6"/>
       <c r="B858" s="13"/>
-      <c r="C858" s="45"/>
+      <c r="C858" s="44"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
@@ -21992,7 +21970,7 @@
     <row r="859" spans="1:22">
       <c r="A859" s="6"/>
       <c r="B859" s="13"/>
-      <c r="C859" s="45"/>
+      <c r="C859" s="44"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
@@ -22016,7 +21994,7 @@
     <row r="860" spans="1:22">
       <c r="A860" s="6"/>
       <c r="B860" s="13"/>
-      <c r="C860" s="45"/>
+      <c r="C860" s="44"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
@@ -22040,7 +22018,7 @@
     <row r="861" spans="1:22">
       <c r="A861" s="6"/>
       <c r="B861" s="13"/>
-      <c r="C861" s="45"/>
+      <c r="C861" s="44"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
@@ -22064,7 +22042,7 @@
     <row r="862" spans="1:22">
       <c r="A862" s="6"/>
       <c r="B862" s="13"/>
-      <c r="C862" s="45"/>
+      <c r="C862" s="44"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
@@ -22088,7 +22066,7 @@
     <row r="863" spans="1:22">
       <c r="A863" s="6"/>
       <c r="B863" s="13"/>
-      <c r="C863" s="45"/>
+      <c r="C863" s="44"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
@@ -22112,7 +22090,7 @@
     <row r="864" spans="1:22">
       <c r="A864" s="6"/>
       <c r="B864" s="13"/>
-      <c r="C864" s="45"/>
+      <c r="C864" s="44"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
@@ -22136,7 +22114,7 @@
     <row r="865" spans="1:22">
       <c r="A865" s="6"/>
       <c r="B865" s="13"/>
-      <c r="C865" s="45"/>
+      <c r="C865" s="44"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
@@ -22160,7 +22138,7 @@
     <row r="866" spans="1:22">
       <c r="A866" s="6"/>
       <c r="B866" s="13"/>
-      <c r="C866" s="45"/>
+      <c r="C866" s="44"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
@@ -22184,7 +22162,7 @@
     <row r="867" spans="1:22">
       <c r="A867" s="6"/>
       <c r="B867" s="13"/>
-      <c r="C867" s="45"/>
+      <c r="C867" s="44"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
@@ -22208,7 +22186,7 @@
     <row r="868" spans="1:22">
       <c r="A868" s="6"/>
       <c r="B868" s="13"/>
-      <c r="C868" s="45"/>
+      <c r="C868" s="44"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
@@ -22232,7 +22210,7 @@
     <row r="869" spans="1:22">
       <c r="A869" s="6"/>
       <c r="B869" s="13"/>
-      <c r="C869" s="45"/>
+      <c r="C869" s="44"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
@@ -22256,7 +22234,7 @@
     <row r="870" spans="1:22">
       <c r="A870" s="6"/>
       <c r="B870" s="13"/>
-      <c r="C870" s="45"/>
+      <c r="C870" s="44"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
@@ -22280,7 +22258,7 @@
     <row r="871" spans="1:22">
       <c r="A871" s="6"/>
       <c r="B871" s="13"/>
-      <c r="C871" s="45"/>
+      <c r="C871" s="44"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
@@ -22304,7 +22282,7 @@
     <row r="872" spans="1:22">
       <c r="A872" s="6"/>
       <c r="B872" s="13"/>
-      <c r="C872" s="45"/>
+      <c r="C872" s="44"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
@@ -22328,7 +22306,7 @@
     <row r="873" spans="1:22">
       <c r="A873" s="6"/>
       <c r="B873" s="13"/>
-      <c r="C873" s="45"/>
+      <c r="C873" s="44"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
@@ -22352,7 +22330,7 @@
     <row r="874" spans="1:22">
       <c r="A874" s="6"/>
       <c r="B874" s="13"/>
-      <c r="C874" s="45"/>
+      <c r="C874" s="44"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
@@ -22376,7 +22354,7 @@
     <row r="875" spans="1:22">
       <c r="A875" s="6"/>
       <c r="B875" s="13"/>
-      <c r="C875" s="45"/>
+      <c r="C875" s="44"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
@@ -22400,7 +22378,7 @@
     <row r="876" spans="1:22">
       <c r="A876" s="6"/>
       <c r="B876" s="13"/>
-      <c r="C876" s="45"/>
+      <c r="C876" s="44"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
@@ -22424,7 +22402,7 @@
     <row r="877" spans="1:22">
       <c r="A877" s="6"/>
       <c r="B877" s="13"/>
-      <c r="C877" s="45"/>
+      <c r="C877" s="44"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
@@ -22448,7 +22426,7 @@
     <row r="878" spans="1:22">
       <c r="A878" s="6"/>
       <c r="B878" s="13"/>
-      <c r="C878" s="45"/>
+      <c r="C878" s="44"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
@@ -22472,7 +22450,7 @@
     <row r="879" spans="1:22">
       <c r="A879" s="6"/>
       <c r="B879" s="13"/>
-      <c r="C879" s="45"/>
+      <c r="C879" s="44"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
@@ -22496,7 +22474,7 @@
     <row r="880" spans="1:22">
       <c r="A880" s="6"/>
       <c r="B880" s="13"/>
-      <c r="C880" s="45"/>
+      <c r="C880" s="44"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
@@ -22520,7 +22498,7 @@
     <row r="881" spans="1:22">
       <c r="A881" s="6"/>
       <c r="B881" s="13"/>
-      <c r="C881" s="45"/>
+      <c r="C881" s="44"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
@@ -22544,7 +22522,7 @@
     <row r="882" spans="1:22">
       <c r="A882" s="6"/>
       <c r="B882" s="13"/>
-      <c r="C882" s="45"/>
+      <c r="C882" s="44"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
@@ -22568,7 +22546,7 @@
     <row r="883" spans="1:22">
       <c r="A883" s="6"/>
       <c r="B883" s="13"/>
-      <c r="C883" s="45"/>
+      <c r="C883" s="44"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
@@ -22592,7 +22570,7 @@
     <row r="884" spans="1:22">
       <c r="A884" s="6"/>
       <c r="B884" s="13"/>
-      <c r="C884" s="45"/>
+      <c r="C884" s="44"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
@@ -22616,7 +22594,7 @@
     <row r="885" spans="1:22">
       <c r="A885" s="6"/>
       <c r="B885" s="13"/>
-      <c r="C885" s="45"/>
+      <c r="C885" s="44"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
@@ -22640,7 +22618,7 @@
     <row r="886" spans="1:22">
       <c r="A886" s="6"/>
       <c r="B886" s="13"/>
-      <c r="C886" s="45"/>
+      <c r="C886" s="44"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
@@ -22664,7 +22642,7 @@
     <row r="887" spans="1:22">
       <c r="A887" s="6"/>
       <c r="B887" s="13"/>
-      <c r="C887" s="45"/>
+      <c r="C887" s="44"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
@@ -22688,7 +22666,7 @@
     <row r="888" spans="1:22">
       <c r="A888" s="6"/>
       <c r="B888" s="13"/>
-      <c r="C888" s="45"/>
+      <c r="C888" s="44"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
@@ -22712,7 +22690,7 @@
     <row r="889" spans="1:22">
       <c r="A889" s="6"/>
       <c r="B889" s="13"/>
-      <c r="C889" s="45"/>
+      <c r="C889" s="44"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
@@ -22736,7 +22714,7 @@
     <row r="890" spans="1:22">
       <c r="A890" s="6"/>
       <c r="B890" s="13"/>
-      <c r="C890" s="45"/>
+      <c r="C890" s="44"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
@@ -22760,7 +22738,7 @@
     <row r="891" spans="1:22">
       <c r="A891" s="6"/>
       <c r="B891" s="13"/>
-      <c r="C891" s="45"/>
+      <c r="C891" s="44"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
@@ -22784,7 +22762,7 @@
     <row r="892" spans="1:22">
       <c r="A892" s="6"/>
       <c r="B892" s="13"/>
-      <c r="C892" s="45"/>
+      <c r="C892" s="44"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
@@ -22808,7 +22786,7 @@
     <row r="893" spans="1:22">
       <c r="A893" s="6"/>
       <c r="B893" s="13"/>
-      <c r="C893" s="45"/>
+      <c r="C893" s="44"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
@@ -22832,7 +22810,7 @@
     <row r="894" spans="1:22">
       <c r="A894" s="6"/>
       <c r="B894" s="13"/>
-      <c r="C894" s="45"/>
+      <c r="C894" s="44"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
@@ -22856,7 +22834,7 @@
     <row r="895" spans="1:22">
       <c r="A895" s="6"/>
       <c r="B895" s="13"/>
-      <c r="C895" s="45"/>
+      <c r="C895" s="44"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
@@ -22880,7 +22858,7 @@
     <row r="896" spans="1:22">
       <c r="A896" s="6"/>
       <c r="B896" s="13"/>
-      <c r="C896" s="45"/>
+      <c r="C896" s="44"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
@@ -22904,7 +22882,7 @@
     <row r="897" spans="1:22">
       <c r="A897" s="6"/>
       <c r="B897" s="13"/>
-      <c r="C897" s="45"/>
+      <c r="C897" s="44"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
@@ -22928,7 +22906,7 @@
     <row r="898" spans="1:22">
       <c r="A898" s="6"/>
       <c r="B898" s="13"/>
-      <c r="C898" s="45"/>
+      <c r="C898" s="44"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
@@ -22952,7 +22930,7 @@
     <row r="899" spans="1:22">
       <c r="A899" s="6"/>
       <c r="B899" s="13"/>
-      <c r="C899" s="45"/>
+      <c r="C899" s="44"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
@@ -22976,7 +22954,7 @@
     <row r="900" spans="1:22">
       <c r="A900" s="6"/>
       <c r="B900" s="13"/>
-      <c r="C900" s="45"/>
+      <c r="C900" s="44"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
@@ -23000,7 +22978,7 @@
     <row r="901" spans="1:22">
       <c r="A901" s="6"/>
       <c r="B901" s="13"/>
-      <c r="C901" s="45"/>
+      <c r="C901" s="44"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
@@ -23024,7 +23002,7 @@
     <row r="902" spans="1:22">
       <c r="A902" s="6"/>
       <c r="B902" s="13"/>
-      <c r="C902" s="45"/>
+      <c r="C902" s="44"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
@@ -23048,7 +23026,7 @@
     <row r="903" spans="1:22">
       <c r="A903" s="6"/>
       <c r="B903" s="13"/>
-      <c r="C903" s="45"/>
+      <c r="C903" s="44"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
@@ -23072,7 +23050,7 @@
     <row r="904" spans="1:22">
       <c r="A904" s="6"/>
       <c r="B904" s="13"/>
-      <c r="C904" s="45"/>
+      <c r="C904" s="44"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
@@ -23096,7 +23074,7 @@
     <row r="905" spans="1:22">
       <c r="A905" s="6"/>
       <c r="B905" s="13"/>
-      <c r="C905" s="45"/>
+      <c r="C905" s="44"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
@@ -23120,7 +23098,7 @@
     <row r="906" spans="1:22">
       <c r="A906" s="6"/>
       <c r="B906" s="13"/>
-      <c r="C906" s="45"/>
+      <c r="C906" s="44"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
@@ -23144,7 +23122,7 @@
     <row r="907" spans="1:22">
       <c r="A907" s="6"/>
       <c r="B907" s="13"/>
-      <c r="C907" s="45"/>
+      <c r="C907" s="44"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
@@ -23168,7 +23146,7 @@
     <row r="908" spans="1:22">
       <c r="A908" s="6"/>
       <c r="B908" s="13"/>
-      <c r="C908" s="45"/>
+      <c r="C908" s="44"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
@@ -23192,7 +23170,7 @@
     <row r="909" spans="1:22">
       <c r="A909" s="6"/>
       <c r="B909" s="13"/>
-      <c r="C909" s="45"/>
+      <c r="C909" s="44"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
@@ -23216,7 +23194,7 @@
     <row r="910" spans="1:22">
       <c r="A910" s="6"/>
       <c r="B910" s="13"/>
-      <c r="C910" s="45"/>
+      <c r="C910" s="44"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
@@ -23240,7 +23218,7 @@
     <row r="911" spans="1:22">
       <c r="A911" s="6"/>
       <c r="B911" s="13"/>
-      <c r="C911" s="45"/>
+      <c r="C911" s="44"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
@@ -23264,7 +23242,7 @@
     <row r="912" spans="1:22">
       <c r="A912" s="6"/>
       <c r="B912" s="13"/>
-      <c r="C912" s="45"/>
+      <c r="C912" s="44"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
@@ -23288,7 +23266,7 @@
     <row r="913" spans="1:22">
       <c r="A913" s="6"/>
       <c r="B913" s="13"/>
-      <c r="C913" s="45"/>
+      <c r="C913" s="44"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
@@ -23312,7 +23290,7 @@
     <row r="914" spans="1:22">
       <c r="A914" s="6"/>
       <c r="B914" s="13"/>
-      <c r="C914" s="45"/>
+      <c r="C914" s="44"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
@@ -23336,7 +23314,7 @@
     <row r="915" spans="1:22">
       <c r="A915" s="6"/>
       <c r="B915" s="13"/>
-      <c r="C915" s="45"/>
+      <c r="C915" s="44"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
@@ -23360,7 +23338,7 @@
     <row r="916" spans="1:22">
       <c r="A916" s="6"/>
       <c r="B916" s="13"/>
-      <c r="C916" s="45"/>
+      <c r="C916" s="44"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
@@ -23384,7 +23362,7 @@
     <row r="917" spans="1:22">
       <c r="A917" s="6"/>
       <c r="B917" s="13"/>
-      <c r="C917" s="45"/>
+      <c r="C917" s="44"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
@@ -23408,7 +23386,7 @@
     <row r="918" spans="1:22">
       <c r="A918" s="6"/>
       <c r="B918" s="13"/>
-      <c r="C918" s="45"/>
+      <c r="C918" s="44"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
@@ -23432,7 +23410,7 @@
     <row r="919" spans="1:22">
       <c r="A919" s="6"/>
       <c r="B919" s="13"/>
-      <c r="C919" s="45"/>
+      <c r="C919" s="44"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
@@ -23456,7 +23434,7 @@
     <row r="920" spans="1:22">
       <c r="A920" s="6"/>
       <c r="B920" s="13"/>
-      <c r="C920" s="45"/>
+      <c r="C920" s="44"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
@@ -23480,7 +23458,7 @@
     <row r="921" spans="1:22">
       <c r="A921" s="6"/>
       <c r="B921" s="13"/>
-      <c r="C921" s="45"/>
+      <c r="C921" s="44"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
@@ -23504,7 +23482,7 @@
     <row r="922" spans="1:22">
       <c r="A922" s="6"/>
       <c r="B922" s="13"/>
-      <c r="C922" s="45"/>
+      <c r="C922" s="44"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
@@ -23528,7 +23506,7 @@
     <row r="923" spans="1:22">
       <c r="A923" s="6"/>
       <c r="B923" s="13"/>
-      <c r="C923" s="45"/>
+      <c r="C923" s="44"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
@@ -23552,7 +23530,7 @@
     <row r="924" spans="1:22">
       <c r="A924" s="6"/>
       <c r="B924" s="13"/>
-      <c r="C924" s="45"/>
+      <c r="C924" s="44"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
@@ -23576,7 +23554,7 @@
     <row r="925" spans="1:22">
       <c r="A925" s="6"/>
       <c r="B925" s="13"/>
-      <c r="C925" s="45"/>
+      <c r="C925" s="44"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
@@ -23600,7 +23578,7 @@
     <row r="926" spans="1:22">
       <c r="A926" s="6"/>
       <c r="B926" s="13"/>
-      <c r="C926" s="45"/>
+      <c r="C926" s="44"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
@@ -23624,7 +23602,7 @@
     <row r="927" spans="1:22">
       <c r="A927" s="6"/>
       <c r="B927" s="13"/>
-      <c r="C927" s="45"/>
+      <c r="C927" s="44"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
@@ -23648,7 +23626,7 @@
     <row r="928" spans="1:22">
       <c r="A928" s="6"/>
       <c r="B928" s="13"/>
-      <c r="C928" s="45"/>
+      <c r="C928" s="44"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
@@ -23672,7 +23650,7 @@
     <row r="929" spans="1:22">
       <c r="A929" s="6"/>
       <c r="B929" s="13"/>
-      <c r="C929" s="45"/>
+      <c r="C929" s="44"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
@@ -23696,7 +23674,7 @@
     <row r="930" spans="1:22">
       <c r="A930" s="6"/>
       <c r="B930" s="13"/>
-      <c r="C930" s="45"/>
+      <c r="C930" s="44"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
@@ -23720,7 +23698,7 @@
     <row r="931" spans="1:22">
       <c r="A931" s="6"/>
       <c r="B931" s="13"/>
-      <c r="C931" s="45"/>
+      <c r="C931" s="44"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
@@ -23744,7 +23722,7 @@
     <row r="932" spans="1:22">
       <c r="A932" s="6"/>
       <c r="B932" s="13"/>
-      <c r="C932" s="45"/>
+      <c r="C932" s="44"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
@@ -23768,7 +23746,7 @@
     <row r="933" spans="1:22">
       <c r="A933" s="6"/>
       <c r="B933" s="13"/>
-      <c r="C933" s="45"/>
+      <c r="C933" s="44"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
@@ -23792,7 +23770,7 @@
     <row r="934" spans="1:22">
       <c r="A934" s="6"/>
       <c r="B934" s="13"/>
-      <c r="C934" s="45"/>
+      <c r="C934" s="44"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
@@ -23816,7 +23794,7 @@
     <row r="935" spans="1:22">
       <c r="A935" s="6"/>
       <c r="B935" s="13"/>
-      <c r="C935" s="45"/>
+      <c r="C935" s="44"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
@@ -23840,7 +23818,7 @@
     <row r="936" spans="1:22">
       <c r="A936" s="6"/>
       <c r="B936" s="13"/>
-      <c r="C936" s="45"/>
+      <c r="C936" s="44"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
@@ -23864,7 +23842,7 @@
     <row r="937" spans="1:22">
       <c r="A937" s="6"/>
       <c r="B937" s="13"/>
-      <c r="C937" s="45"/>
+      <c r="C937" s="44"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
@@ -23888,7 +23866,7 @@
     <row r="938" spans="1:22">
       <c r="A938" s="6"/>
       <c r="B938" s="13"/>
-      <c r="C938" s="45"/>
+      <c r="C938" s="44"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
@@ -23912,7 +23890,7 @@
     <row r="939" spans="1:22">
       <c r="A939" s="6"/>
       <c r="B939" s="13"/>
-      <c r="C939" s="45"/>
+      <c r="C939" s="44"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
@@ -23936,7 +23914,7 @@
     <row r="940" spans="1:22">
       <c r="A940" s="6"/>
       <c r="B940" s="13"/>
-      <c r="C940" s="45"/>
+      <c r="C940" s="44"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
@@ -23960,7 +23938,7 @@
     <row r="941" spans="1:22">
       <c r="A941" s="6"/>
       <c r="B941" s="13"/>
-      <c r="C941" s="45"/>
+      <c r="C941" s="44"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
@@ -23984,7 +23962,7 @@
     <row r="942" spans="1:22">
       <c r="A942" s="6"/>
       <c r="B942" s="13"/>
-      <c r="C942" s="45"/>
+      <c r="C942" s="44"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
@@ -24008,7 +23986,7 @@
     <row r="943" spans="1:22">
       <c r="A943" s="6"/>
       <c r="B943" s="13"/>
-      <c r="C943" s="45"/>
+      <c r="C943" s="44"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
@@ -24032,7 +24010,7 @@
     <row r="944" spans="1:22">
       <c r="A944" s="6"/>
       <c r="B944" s="13"/>
-      <c r="C944" s="45"/>
+      <c r="C944" s="44"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
@@ -24056,7 +24034,7 @@
     <row r="945" spans="1:22">
       <c r="A945" s="6"/>
       <c r="B945" s="13"/>
-      <c r="C945" s="45"/>
+      <c r="C945" s="44"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
@@ -24080,7 +24058,7 @@
     <row r="946" spans="1:22">
       <c r="A946" s="6"/>
       <c r="B946" s="13"/>
-      <c r="C946" s="45"/>
+      <c r="C946" s="44"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
@@ -24104,7 +24082,7 @@
     <row r="947" spans="1:22">
       <c r="A947" s="6"/>
       <c r="B947" s="13"/>
-      <c r="C947" s="45"/>
+      <c r="C947" s="44"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
@@ -24128,7 +24106,7 @@
     <row r="948" spans="1:22">
       <c r="A948" s="6"/>
       <c r="B948" s="13"/>
-      <c r="C948" s="45"/>
+      <c r="C948" s="44"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
@@ -24152,7 +24130,7 @@
     <row r="949" spans="1:22">
       <c r="A949" s="6"/>
       <c r="B949" s="13"/>
-      <c r="C949" s="45"/>
+      <c r="C949" s="44"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
@@ -24176,7 +24154,7 @@
     <row r="950" spans="1:22">
       <c r="A950" s="6"/>
       <c r="B950" s="13"/>
-      <c r="C950" s="45"/>
+      <c r="C950" s="44"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
@@ -24200,7 +24178,7 @@
     <row r="951" spans="1:22">
       <c r="A951" s="6"/>
       <c r="B951" s="13"/>
-      <c r="C951" s="45"/>
+      <c r="C951" s="44"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
@@ -24224,7 +24202,7 @@
     <row r="952" spans="1:22">
       <c r="A952" s="6"/>
       <c r="B952" s="13"/>
-      <c r="C952" s="45"/>
+      <c r="C952" s="44"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
       <c r="F952" s="1"/>
@@ -24248,7 +24226,7 @@
     <row r="953" spans="1:22">
       <c r="A953" s="6"/>
       <c r="B953" s="13"/>
-      <c r="C953" s="45"/>
+      <c r="C953" s="44"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
@@ -24272,7 +24250,7 @@
     <row r="954" spans="1:22">
       <c r="A954" s="6"/>
       <c r="B954" s="13"/>
-      <c r="C954" s="45"/>
+      <c r="C954" s="44"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
@@ -24296,7 +24274,7 @@
     <row r="955" spans="1:22">
       <c r="A955" s="6"/>
       <c r="B955" s="13"/>
-      <c r="C955" s="45"/>
+      <c r="C955" s="44"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
       <c r="F955" s="1"/>
@@ -24320,7 +24298,7 @@
     <row r="956" spans="1:22">
       <c r="A956" s="6"/>
       <c r="B956" s="13"/>
-      <c r="C956" s="45"/>
+      <c r="C956" s="44"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
@@ -24344,7 +24322,7 @@
     <row r="957" spans="1:22">
       <c r="A957" s="6"/>
       <c r="B957" s="13"/>
-      <c r="C957" s="45"/>
+      <c r="C957" s="44"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
       <c r="F957" s="1"/>
@@ -24368,7 +24346,7 @@
     <row r="958" spans="1:22">
       <c r="A958" s="6"/>
       <c r="B958" s="13"/>
-      <c r="C958" s="45"/>
+      <c r="C958" s="44"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
@@ -24392,7 +24370,7 @@
     <row r="959" spans="1:22">
       <c r="A959" s="6"/>
       <c r="B959" s="13"/>
-      <c r="C959" s="45"/>
+      <c r="C959" s="44"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
@@ -24416,7 +24394,7 @@
     <row r="960" spans="1:22">
       <c r="A960" s="6"/>
       <c r="B960" s="13"/>
-      <c r="C960" s="45"/>
+      <c r="C960" s="44"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
       <c r="F960" s="1"/>
@@ -24440,7 +24418,7 @@
     <row r="961" spans="1:22">
       <c r="A961" s="6"/>
       <c r="B961" s="13"/>
-      <c r="C961" s="45"/>
+      <c r="C961" s="44"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
       <c r="F961" s="1"/>
@@ -24464,7 +24442,7 @@
     <row r="962" spans="1:22">
       <c r="A962" s="6"/>
       <c r="B962" s="13"/>
-      <c r="C962" s="45"/>
+      <c r="C962" s="44"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
@@ -24488,7 +24466,7 @@
     <row r="963" spans="1:22">
       <c r="A963" s="6"/>
       <c r="B963" s="13"/>
-      <c r="C963" s="45"/>
+      <c r="C963" s="44"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
       <c r="F963" s="1"/>
@@ -24512,7 +24490,7 @@
     <row r="964" spans="1:22">
       <c r="A964" s="6"/>
       <c r="B964" s="13"/>
-      <c r="C964" s="45"/>
+      <c r="C964" s="44"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
@@ -24536,7 +24514,7 @@
     <row r="965" spans="1:22">
       <c r="A965" s="6"/>
       <c r="B965" s="13"/>
-      <c r="C965" s="45"/>
+      <c r="C965" s="44"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
       <c r="F965" s="1"/>
@@ -24560,7 +24538,7 @@
     <row r="966" spans="1:22">
       <c r="A966" s="6"/>
       <c r="B966" s="13"/>
-      <c r="C966" s="45"/>
+      <c r="C966" s="44"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
       <c r="F966" s="1"/>
@@ -24584,7 +24562,7 @@
     <row r="967" spans="1:22">
       <c r="A967" s="6"/>
       <c r="B967" s="13"/>
-      <c r="C967" s="45"/>
+      <c r="C967" s="44"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
@@ -24608,7 +24586,7 @@
     <row r="968" spans="1:22">
       <c r="A968" s="6"/>
       <c r="B968" s="13"/>
-      <c r="C968" s="45"/>
+      <c r="C968" s="44"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
       <c r="F968" s="1"/>
@@ -24632,7 +24610,7 @@
     <row r="969" spans="1:22">
       <c r="A969" s="6"/>
       <c r="B969" s="13"/>
-      <c r="C969" s="45"/>
+      <c r="C969" s="44"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
@@ -24656,7 +24634,7 @@
     <row r="970" spans="1:22">
       <c r="A970" s="6"/>
       <c r="B970" s="13"/>
-      <c r="C970" s="45"/>
+      <c r="C970" s="44"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
       <c r="F970" s="1"/>
@@ -24680,7 +24658,7 @@
     <row r="971" spans="1:22">
       <c r="A971" s="6"/>
       <c r="B971" s="13"/>
-      <c r="C971" s="45"/>
+      <c r="C971" s="44"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
       <c r="F971" s="1"/>
@@ -24704,7 +24682,7 @@
     <row r="972" spans="1:22">
       <c r="A972" s="6"/>
       <c r="B972" s="13"/>
-      <c r="C972" s="45"/>
+      <c r="C972" s="44"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
       <c r="F972" s="1"/>
@@ -24728,7 +24706,7 @@
     <row r="973" spans="1:22">
       <c r="A973" s="6"/>
       <c r="B973" s="13"/>
-      <c r="C973" s="45"/>
+      <c r="C973" s="44"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
@@ -24752,7 +24730,7 @@
     <row r="974" spans="1:22">
       <c r="A974" s="6"/>
       <c r="B974" s="13"/>
-      <c r="C974" s="45"/>
+      <c r="C974" s="44"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
       <c r="F974" s="1"/>
@@ -24776,7 +24754,7 @@
     <row r="975" spans="1:22">
       <c r="A975" s="6"/>
       <c r="B975" s="13"/>
-      <c r="C975" s="45"/>
+      <c r="C975" s="44"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
       <c r="F975" s="1"/>
@@ -24800,7 +24778,7 @@
     <row r="976" spans="1:22">
       <c r="A976" s="6"/>
       <c r="B976" s="13"/>
-      <c r="C976" s="45"/>
+      <c r="C976" s="44"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
@@ -24824,7 +24802,7 @@
     <row r="977" spans="1:22">
       <c r="A977" s="6"/>
       <c r="B977" s="13"/>
-      <c r="C977" s="45"/>
+      <c r="C977" s="44"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
       <c r="F977" s="1"/>
@@ -24865,18 +24843,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25063,11 +25041,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
